--- a/data/Course_output_data.xlsx
+++ b/data/Course_output_data.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OVGU\DE\4th_sem\Software_Project_AI_Lab\AI_Thematic_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A2DD0-24C3-43AB-8659-D79183A4880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF707D-7249-4303-B229-6E0C9A4DB1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$33</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1074">
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>Course name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
   <si>
     <t>1.1 Domain</t>
   </si>
@@ -58,6 +70,12 @@
     <t>3.3 Learning Activities</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Radiology  </t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Radiology  *   Definition: Radiology is a medical specialty that uses imaging technologies to diagnose and treat diseases. It involves the interpretation of images, such as X-rays, CT scans, MRIs, and ultrasounds, to identify abnormalities and guide medical interventions. The application of AI in radiology aims to enhance diagnostic accuracy, improve workflow efficiency, and personalize patient care. *   Relevance: AI is rapidly transforming radiology by automating image analysis, improving diagnostic precision, and enabling faster and more efficient workflows. This leads to better patient outcomes, reduced healthcare costs, and improved accessibility to specialized diagnostic services. </t>
   </si>
   <si>
@@ -91,9 +109,18 @@
     <t>*   Problem-Centered: *   Case studies on real-world applications of AI in radiology (e.g., AI-based tumor detection systems, AI in ALS diagnosis). *   Discussions on the challenges and opportunities of implementing AI in clinical practice. *   Activation: *   Reflecting on personal experiences with medical imaging and exploring areas where AI could improve the process. *   Brainstorming sessions to identify potential AI applications in radiology. *   Demonstration: *   Live demonstrations of AI tools for image analysis and interpretation. *   Guest lectures from experts in AI and radiology. *   Showcasing examples of AI algorithms performing radiological tasks. *   Application: *   Hands-on labs using cloud-based AI platforms to perform basic image analysis tasks. *   Group exercises to develop simple AI models for specific radiological applications. *   Simulation of real-world scenarios using case studies. *   Integration: *   Discussions on how AI can complement the work of radiologists and improve patient care. *   Encouraging students to propose innovative solutions using AI in their future medical practice. *   Encouraging the students to integrate new skills into their understanding of medicine.  This course outline is designed to be comprehensive, covering the essential aspects of AI in radiology while considering the specific background and needs of the target learners. It balances theoretical knowledge with practical application to equip students with the necessary skills to interact effectively with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Aerospace Engineering </t>
+  </si>
+  <si>
     <t xml:space="preserve">Aerospace Engineering *   Definition: Aerospace Engineering encompasses the design, development, testing, and production of aircraft, spacecraft, and related systems. It involves a broad range of disciplines, including aerodynamics, propulsion, structural analysis, and control systems. The application of AI in this domain aims to improve efficiency, safety, and performance across various aspects of aerospace operations. *   Relevance:  AI is increasingly vital in aerospace due to the complexity of modern systems, the vast amounts of data generated, and the need for autonomous and intelligent operations. AI can optimize designs, improve flight control, enhance data analysis, and enable more efficient space exploration. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Predictive Maintenance: *   Use AI to analyze sensor data from aircraft and spacecraft to predict component failures and schedule maintenance proactively, reducing downtime and costs. 2.  Autonomous Navigation and Control: *   Develop AI algorithms for autonomous flight control, spacecraft maneuvering, and drone operations, enabling increased autonomy and reduced reliance on human intervention. 3.  Fault Detection and Diagnosis: *   Implement AI-based systems to detect anomalies and diagnose faults in real-time using sensor data, improving safety and system reliability. 4.  Satellite Data Analysis: *   Employ AI techniques to analyze large volumes of satellite imagery and telemetry data for Earth observation, weather forecasting, and scientific research. 5.  Aerodynamic Design Optimization: *   Use AI to optimize aircraft and spacecraft designs for improved performance, fuel efficiency, and reduced drag. 6.  Robotics and Automation in Manufacturing: *   Apply AI to automate manufacturing processes, improving efficiency and precision in the production of aerospace components. 7.  Mission Planning and Resource Optimization: *   Utilize AI to plan complex missions, optimize resource allocation, and manage operations efficiently.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Types of Data: *   Sensor Data: Real-time data from various sensors monitoring engine performance, structural integrity, environmental conditions, and flight parameters (e.g., pressure, temperature, vibration, acceleration). *   Image Data: Satellite imagery, aerial photographs, and images from onboard cameras used for Earth observation, inspection, and navigation. *   Telemetry Data: Data transmitted from spacecraft or aircraft, including status reports, sensor readings, and command confirmations. *   Simulation Data: Data generated from computational fluid dynamics (CFD) and finite element analysis (FEA) simulations, crucial for design and optimization processes. *   Historical Flight Data: Records of past flights, including flight paths, performance metrics, and maintenance logs. *   Text Data: Technical documents, maintenance reports, and scientific papers.  *   Significance for AI Applications: *   Sensor data is crucial for real-time monitoring, anomaly detection, and predictive maintenance. *   Image data enables AI algorithms to perform visual analysis for earth observation, mapping, and object detection. *   Telemetry data provides critical information for assessing system status and performance. *   Simulation data allows for the development and testing of AI models in a controlled environment. *   Historical flight data supports machine learning models for performance prediction, fault diagnosis, and flight planning. *   Text data can be used for natural language processing to extract relevant information from technical reports and documents. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Autonomous systems raise concerns about accountability and decision-making in critical situations. *   Data privacy and security become crucial with the collection and analysis of sensitive aerospace data. *   Bias in AI algorithms could lead to unfair or inaccurate predictions. *   Legal Implications: *   Liability issues in case of accidents involving autonomous aircraft or spacecraft. *   Compliance with international regulations and standards for AI-based systems. *   Data ownership and usage rights. *   Social Implications: *   Potential job displacement due to automation in manufacturing and flight operations. *   Increased efficiency and reduced costs can benefit the industry and society but may require workforce transitions. *   Enhanced safety and reliability in aerospace systems can lead to societal benefits. *   Examples: *   Positive: AI-driven predictive maintenance reduces aircraft downtime and enhances passenger safety. AI-based autonomous navigation increases efficiency in space exploration missions. *   Negative: AI malfunctions during critical flight phases can lead to accidents. Job losses due to automation may affect the workforce. </t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t>*   Problem-Centered: *   Case studies of real-world AI applications in aerospace, such as the use of AI in the Mars rovers, predictive maintenance programs, etc. *   Hands-on projects involving real aerospace datasets and scenarios. *   Activation: *   Discussions to elicit learners' prior knowledge about AI and its applications. *   Brainstorming sessions to identify potential AI solutions for aerospace challenges. *   Demonstration: *   Live demonstrations of AI tools and techniques, including data pre-processing, model training, and performance evaluation. *   Guest lectures from industry experts to showcase practical applications of AI in aerospace. *   Application: *   Hands-on labs where learners can implement AI algorithms using Python and relevant libraries. *   Group projects that allow learners to apply their knowledge to solve complex aerospace problems. *   Integration: *   Discussions on how AI can complement traditional aerospace engineering practices. *   Encouragement for learners to integrate AI skills into their future research and professional work. *   Teaching Methods: *   Lectures to deliver foundational knowledge and theoretical concepts. *   Lab sessions for hands-on experience with AI tools and data analysis. *   Group discussions to promote active learning and critical thinking. *   Project-based learning to encourage practical application of AI knowledge. *   Guest lectures from industry experts to provide real-world perspectives.  This detailed course outline should provide a solid foundation for a comprehensive university-level course on the application of Artificial Intelligence in Aerospace Engineering.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Agriculture </t>
+  </si>
+  <si>
     <t xml:space="preserve">Agriculture *   Definition: Agriculture encompasses the cultivation of plants and rearing of animals for food, fiber, and other products. It involves various stages such as planting, growing, harvesting, and processing. The integration of AI aims to enhance productivity, sustainability, and efficiency across these stages. *   Relevance: AI is revolutionizing agriculture by enabling data-driven decision-making, optimizing resource use, and addressing challenges like climate change, pest infestations, and labor shortages. It is shifting traditional practices towards precision and sustainable farming. </t>
   </si>
   <si>
@@ -151,6 +181,9 @@
     <t>*   Problem-Centered: *   Case studies of real-world agricultural challenges, focusing on how AI can offer solutions. *   Hands-on projects where learners tackle agricultural problems using AI tools. *   Guest lectures from industry experts and practitioners. *   Activation: *   Discussions on learners' prior experiences with agriculture and technology. *   Brainstorming sessions on the potential of AI in addressing agricultural problems. *   Pre-class readings and quizzes to activate prior knowledge. *   Demonstration: *   Live demonstrations of AI tools and techniques using real agricultural data. *   Examples of successful AI applications in agriculture through videos, presentations, and case studies. *   Walk-throughs of coding examples for machine learning tasks. *   Application: *   Hands-on labs for data analysis, visualization, and model building using Python and relevant libraries. *   Group activities where learners apply AI techniques to address specific agricultural problems. *   Simulation exercises for analyzing the impact of AI-driven decisions on agricultural systems. *   Integration: *   Discussions on how AI can complement traditional agricultural practices. *   Encouraging learners to develop proposals for applying AI in their own work or research. *   Reflection activities to integrate new skills into their thinking and practice. *   Teaching Methods: *   Lectures: To provide a theoretical foundation and introduce key concepts. *   Labs: To provide hands-on experience with AI tools and techniques. *   Discussions: To facilitate active learning and knowledge sharing. *   Group Work: To encourage collaboration and application of knowledge. *   Presentations: To improve communication skills and showcase learners' work.  This detailed course outline should provide a comprehensive framework for teaching AI in the context of sustainable agriculture, equipping learners with the knowledge and skills necessary to effectively interact with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Art and Design </t>
+  </si>
+  <si>
     <t xml:space="preserve">Art and Design *   Definition: Art and Design encompass a broad range of creative disciplines including visual arts, graphic design, product design, fashion design, and architecture. It involves the creation of aesthetic, functional, and communicative outputs through various mediums and techniques. The integration of AI in art and design explores new forms of creative expression, enhances design processes, and challenges traditional artistic boundaries. *   Relevance: AI is rapidly transforming creative industries by providing tools for generative art, automating design tasks, and enabling new forms of interactive and personalized art experiences. AI offers opportunities for artists and designers to explore innovative techniques, augment human creativity, and reach new audiences. </t>
   </si>
   <si>
@@ -184,6 +217,9 @@
     <t>*   Problem-Centered: *   Case studies of real-world AI art projects and installations. *   Creative challenges that require learners to apply AI to solve design problems. *   Activation: *   Discussions on learners' personal experiences with art and technology. *   Brainstorming sessions to explore AI's potential in creative fields. *   Demonstration: *   Live demonstrations of AI tools and software. *   Guest lectures by artists and designers who use AI in their work. *   Application: *   Hands-on workshops to experiment with AI-powered creative tools. *   Group projects to collaborate on AI-driven design challenges. *   Integration: *   Discussions on the role of AI in the future of art and design. *   Encouraging learners to integrate AI into their personal artistic practice. *   Teaching Methods: *   Lectures: Provide theoretical background and introduce key concepts. *   Labs/Workshops: Provide hands-on experience with AI tools and techniques. *   Discussions: Encourage critical thinking and peer interaction. *   Group work: Foster collaboration and teamwork skills. *   Guest lectures: Expose learners to real-world examples and diverse perspectives.  This comprehensive course outline should provide a solid foundation for a university-level course on AI in Art and Design. It includes a clear structure, learning objectives, assessment strategies, and engaging activities designed to equip learners with the necessary knowledge and skills to effectively interact with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Astronomy </t>
+  </si>
+  <si>
     <t xml:space="preserve">Astronomy *   Definition: Astronomy is the scientific study of celestial objects (such as stars, planets, galaxies, and nebulae), space, and the physical universe as a whole. This includes observation, data collection, analysis, and theoretical modeling of these phenomena. The integration of AI enhances data analysis, automates complex processes, and facilitates new discoveries. *   Relevance: AI is becoming crucial in astronomy due to the massive amounts of data generated by telescopes and simulations. AI techniques enable astronomers to identify patterns, classify objects, and make predictions that would be impossible through manual analysis. </t>
   </si>
   <si>
@@ -217,6 +253,9 @@
     <t>*   Problem-Centered: *   Real-world case studies on the application of AI in astronomical research. *   Projects centered around solving specific astronomical problems with AI. *   Activation: *   Discussions on prior experiences with astronomical data and research. *   Brainstorming on potential applications of AI to address known challenges. *   Demonstration: *   Live coding demonstrations of AI techniques using Python and relevant libraries. *   Examples of how AI has been used in recent astronomical discoveries. *   Application: *   Hands-on labs for applying AI algorithms to astronomical datasets. *   Group exercises for designing and implementing AI-based solutions. *   Integration: *   Discussions on how AI can complement traditional astronomical research methods. *   Encouragement to consider AI applications in their future research. *   Mix of Teaching Methods: *   Lectures to introduce theoretical concepts and frameworks. *   Hands-on labs to provide practical experience with AI tools. *   Discussions to promote critical thinking and problem-solving. *   Group work to encourage collaboration and peer learning. *   Project-based learning to provide opportunities for applying knowledge and skills.  This outline provides a comprehensive framework for a course on AI in Astronomy. It is designed to be flexible and adaptable to the specific needs and interests of the learners and the available resources.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Biotechnology </t>
+  </si>
+  <si>
     <t xml:space="preserve">Biotechnology *   Definition: Biotechnology involves the use of biological systems, living organisms, or their derivatives to create or modify products or processes for specific use. It encompasses areas like genetic engineering, drug development, diagnostics, and biofuels. The integration of AI aims to enhance research, development, and production efficiency by automating analysis, predicting outcomes, and optimizing processes. *   Relevance: AI is revolutionizing biotechnology by accelerating discovery, reducing costs, and improving the precision of biological research. It allows for analysis of large datasets, prediction of molecular interactions, and optimization of biological processes in ways previously unachievable. </t>
   </si>
   <si>
@@ -250,6 +289,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in biotechnology, such as AlphaFold for protein structure prediction, and AI-driven drug discovery platforms. *   Projects focused on solving authentic problems in biotechnology. *   Activation: *   Discussions to connect learners' existing understanding of biology with the possibilities of AI. *   Reviewing and discussing current AI-related biotechnology research. *   Demonstration: *   Live coding demonstrations of AI algorithms applied to biological datasets using Python and relevant libraries. *   Examples of AI tools used in drug discovery and genomics analysis. *   Application: *   Hands-on lab sessions where students apply AI techniques to analyze and interpret biological datasets. *   Group exercises to simulate research scenarios where AI is used to solve problems. *   Integration: *   Discussions on how AI can enhance traditional biotechnology approaches. *   Encouraging learners to incorporate AI approaches into their own research or work. *   Discussions of the long-term impacts of AI on the biotech industry and society.  This detailed course outline should provide a solid foundation for teaching the application of AI in Biotechnology. It covers all the required components and provides a clear structure for implementation.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Electrical Engineering - Predictive Maintenance of Electrical Motors  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Electrical Engineering - Predictive Maintenance of Electrical Motors  *   Definition: This domain focuses on the application of AI to predict potential failures and optimize maintenance schedules of electrical motors. It involves using sensor data and AI algorithms to identify anomalies, estimate remaining useful life (RUL), and enhance the reliability and performance of electrical motor systems. *   Relevance: Electrical motors are critical components in numerous industrial applications. AI-driven predictive maintenance reduces downtime, lowers maintenance costs, increases operational efficiency, and contributes to overall system reliability. </t>
   </si>
   <si>
@@ -283,6 +325,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world motor failures and how AI could have prevented them. *   Assignments requiring students to solve specific maintenance problems using AI techniques. *   Activation: *   Discussions on prior knowledge of electrical motor operation and maintenance. *   Brainstorming sessions on how AI can be integrated into existing maintenance practices. *   Demonstration: *   Lectures with real-world examples and case studies. *   Live demonstrations of AI tools and algorithms using simulated sensor data. *   Lab sessions showing practical uses of AI with physical electrical motor and sensor setup. *   Application: *   Hands-on lab exercises using Python to analyze motor data. *   Group projects that require students to develop and test AI models. *   Simulations of motor operation and maintenance scenarios. *   Integration: *   Discussions on how AI can be integrated into existing maintenance workflows. *   Guest lectures by industry professionals who use AI in their work. *   Encouragement for students to propose AI solutions for their future work or research.  This course outline is designed to provide a comprehensive overview of AI applications in the predictive maintenance of electrical motors, balancing theoretical knowledge with practical application. It aims to equip master's students with the skills to understand, evaluate, and propose AI-driven solutions in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Mechanical Engineering Design </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mechanical Engineering Design *   Definition: Mechanical engineering design involves the process of creating and improving mechanical systems, devices, and products by applying principles of physics, materials science, and engineering. It encompasses conceptualization, analysis, simulation, prototyping, and optimization of mechanical components and systems. The integration of AI is aimed at streamlining these processes, enhancing design efficiency, and enabling innovative solutions. *   Relevance: AI is transforming mechanical engineering design by automating repetitive tasks, optimizing complex designs, predicting system performance, and enabling the exploration of a wider range of design alternatives in a shorter timeframe. This leads to faster product development cycles, improved product quality, and greater innovation. </t>
   </si>
   <si>
@@ -316,6 +361,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world examples of AI in mechanical engineering design. *   Hands-on design projects that challenge students to apply AI to solve practical problems. *   Activation: *   Discussions about the students' prior experiences with AI and technology. *   Relating AI concepts to familiar mechanical engineering problems. *   Demonstration: *   Live demonstrations of AI tools and techniques for mechanical engineering applications. *   Guest lectures from industry experts on real-world AI implementations. *   Application: *   Hands-on labs where students implement and train machine learning models. *   Group exercises to simulate design scenarios with AI-driven solutions. *   Integration: *   Discussions about how AI can complement traditional mechanical engineering practices. *   Encouraging students to think about how they can apply AI in their future careers. *   Teaching Methods: *   Lectures to introduce key concepts, provide context, and demonstrate applications. *   Lab sessions for hands-on implementation and experimentation. *   Group discussions and brainstorming sessions to foster active learning. *   Project-based learning with real-world applications.  This detailed course outline should provide a solid foundation for teaching the application of AI in mechanical engineering, meeting the learning objectives, and preparing students for the future of the field.</t>
   </si>
   <si>
+    <t>AI in Cybersecur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cybersecurity Definition: Cybersecurity is the practice of protecting computer systems and networks from theft, damage, or unauthorized access. It encompasses technologies, processes, and practices designed to safeguard digital assets and information. AI in cybersecurity involves leveraging machine learning and other AI techniques to enhance threat detection, response, and prevention. Relevance: The increasing sophistication and volume of cyber threats necessitate advanced security measures. AI offers the potential to automate threat detection, analyze vast amounts of security data, and respond more effectively and efficiently than traditional methods. </t>
   </si>
   <si>
@@ -349,9 +397,18 @@
     <t>Problem-Centered: Case studies on real-world cyberattacks and how AI could have been used to prevent or mitigate the damage. Practical challenges, such as identifying malware or detecting network intrusions using AI techniques. Activation: Discussions about learners' prior experiences with cybersecurity and their expectations about AI. Brainstorming sessions to identify potential applications of AI in cybersecurity. Demonstration: Live demonstrations of AI tools and techniques using cybersecurity datasets. Guest lectures from industry experts to showcase real-world applications of AI in cybersecurity. Presentation of the current state of the art on AI in Cybersecurity research. Application: Hands-on labs to implement AI models and apply them to various cybersecurity problems. Group exercises to collaboratively solve cybersecurity challenges using AI. Simulations of attack scenarios where AI-driven security tools are utilized. Integration: Discussions on how AI can complement traditional security practices. Exploration of the future of AI in cybersecurity and its potential impact on the industry. Encourage learners to propose innovative solutions to real-world problems by integrating AI into their work. Mix of Teaching Methods: Lectures: Present core concepts, theories, and techniques. Labs: Provide hands-on experience in using AI tools and techniques. Discussions: Facilitate critical thinking and exploration of different perspectives. Group Work: Encourage collaboration and teamwork. Guest Speakers: Provide industry insights and real-world perspectives.  This course outline is designed to provide a comprehensive and practical learning experience for students interested in applying AI in cybersecurity. It covers both theoretical foundations and practical applications, while also addressing the ethical, legal, and social implications of using AI in this critical domain.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Energy </t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy *   Definition: The energy domain encompasses the production, transmission, distribution, and consumption of energy. It includes traditional fossil fuels, renewable energy sources (solar, wind, hydro, geothermal), and energy storage solutions. It also involves related infrastructure, such as power grids and smart energy management systems. *   Relevance: The energy domain is crucial for modern society. AI can optimize energy systems for efficiency, sustainability, and reliability, addressing critical challenges like climate change and energy security. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Energy Consumption Prediction: *   Use AI models (e.g., time-series forecasting with Recurrent Neural Networks, ARIMA) to predict energy demand at various scales (residential, industrial, regional, etc.). *   Benefits: Optimize energy production, reduce waste, and improve grid stability. 2.  Renewable Energy Optimization: *   Employ AI algorithms to maximize the efficiency of renewable energy systems (e.g., solar panel orientation, wind turbine blade adjustment) based on real-time weather data and other factors. *   Benefits: Increase energy output, reduce costs, and enhance the integration of renewables into the grid. 3.  Grid Management: *   Use AI to monitor and control the power grid, detect and predict faults, and optimize energy distribution. *   Benefits: Improve grid reliability, reduce downtime, enhance grid resilience, and enable better management of distributed energy resources (DERs). 4.  Predictive Maintenance: *   Apply machine learning to predict equipment failures in energy infrastructure (power plants, substations, renewable energy systems). *   Benefits: Reduce maintenance costs, minimize downtime, and extend equipment lifespan. 5.  Smart Buildings and Energy Efficiency: *   Use AI to automate building energy management systems (HVAC, lighting, etc.), optimizing for comfort and energy use. *   Benefits: Reduce energy consumption, lower costs, and improve building performance. 6.  Energy Storage Optimization: *   Utilize AI to control and optimize the charging and discharging of energy storage devices (batteries, pumped hydro) based on grid demand and renewable energy availability. *   Benefits: Improve grid stability, reduce reliance on fossil fuels, and enhance the integration of intermittent renewable energy.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of Data: *   Time-Series Data: Energy consumption patterns, weather data (temperature, solar radiation, wind speed), power generation outputs, grid frequency, and voltage. *   Geospatial Data: Location of power plants, substations, transmission lines, renewable energy resources, and consumer locations. *   Sensor Data: Data from smart meters, SCADA systems, IoT devices monitoring equipment conditions, and environmental sensors. *   Equipment Data: Operational parameters of power plants, renewable energy systems, and grid infrastructure. *   Market Data: Energy prices, demand forecasts, and trading information. *   Significance for AI Applications: *   Time-series data is crucial for forecasting energy demand and optimizing grid operations. *   Geospatial data is essential for planning renewable energy projects and grid infrastructure. *   Sensor data enables real-time monitoring and predictive maintenance. *   Understanding data types allows for targeted AI techniques such as time-series analysis, regression, classification, and reinforcement learning. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: Potential for bias in algorithms, data privacy concerns related to smart meters, and the impact of AI-driven automation on employment in the energy sector. *   Legal Implications: Compliance with data privacy regulations, liability issues related to AI-driven decisions, and ensuring transparency in AI algorithms. *   Social Implications: Potential for job displacement due to automation, changes in energy access and affordability, and the need for public education about AI in energy. *   Examples: *   Positive: Increased efficiency, reduced carbon emissions, improved grid reliability, and lower energy costs. *   Negative: Job displacement in traditional energy sectors, potential for biased algorithms to impact access to energy, and security risks from AI-controlled energy infrastructure. *   Domain-Specific Concerns: The need for robust cybersecurity measures for AI-controlled energy systems, ensuring that AI is used to promote equitable access to energy, and the importance of public trust in AI-driven energy solutions. </t>
   </si>
   <si>
@@ -376,6 +433,9 @@
     <t>*   Problem-Centered: *   Engage learners with real-world energy challenges, such as optimizing renewable energy integration or predicting energy demand during peak hours. *   Case studies focusing on AI applications in the energy domain, such as Google's DeepMind AI for data center cooling, or smart grid management systems. *   Activation: *   Begin each topic with a brief recap of relevant prior knowledge, such as basic energy concepts and data handling principles. *   Encourage learners to reflect on their personal experiences with energy consumption and identify areas where AI could make an impact. *   Demonstration: *   Show practical examples of AI models applied to energy datasets using programming tools and libraries like Python, TensorFlow, and scikit-learn. *   Present visualizations of data and AI model results to help learners understand the concepts. *   Live demonstrations of AI tools for energy optimization and grid management. *   Application: *   Provide hands-on lab sessions where learners can apply AI techniques to solve energy-related problems using real-world data. *   Group projects to encourage collaboration and problem-solving in teams. *   Simulations to test AI models under different scenarios. *   Integration: *   Encourage learners to think critically about how AI can complement traditional energy management practices. *   Discussions on the ethical, social, and environmental implications of using AI in the energy domain. *   Invite guest speakers from the industry to share their experiences and insights on the use of AI in energy. *   Encourage learners to develop their proposals for applying AI in their future work settings.  This course outline provides a comprehensive structure for teaching AI in the energy domain. It incorporates key aspects such as domain understanding, potential use cases, data considerations, ethical implications, and effective learning activities. The assessment methods are designed to ensure that learners achieve the defined learning outcomes, and the learning activities promote engagement, critical thinking, and practical skill development.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Environmental Science </t>
+  </si>
+  <si>
     <t xml:space="preserve">Environmental Science *   Definition: Environmental Science is an interdisciplinary field that integrates physical, biological, and information sciences to study the environment and solve environmental problems. The application of AI enhances data analysis, predictive modeling, and automated monitoring, leading to more effective conservation and sustainability strategies. *   Relevance: AI offers powerful tools to address complex environmental challenges, such as climate change, biodiversity loss, and pollution, by leveraging large datasets, advanced algorithms, and real-time analysis capabilities. </t>
   </si>
   <si>
@@ -409,9 +469,18 @@
     <t>*   Problem-Centered: *   Case studies on real-world environmental problems and how AI can help solve them. *   Group projects focused on addressing specific environmental challenges using AI. *   Activation: *   Discussions on students' prior knowledge and experiences with environmental issues. *   Reflecting on personal experiences to identify potential applications of AI. *   Demonstration: *   Live demonstrations of AI tools and techniques using environmental datasets. *   Guest lectures by AI and environmental science experts. *   Application: *   Hands-on lab sessions for students to apply AI techniques to real-world environmental data. *   Group exercises focused on building and evaluating AI models. *   Integration: *   Discussions on how AI can complement existing environmental monitoring and management practices. *   Encouragement for students to develop proposals for applying AI in their future research or work. *   Teaching Methods: *   Lectures: To provide theoretical background and introduce core concepts. *   Labs: Hands-on coding and data analysis sessions using Python and relevant libraries. *   Discussions: To promote critical thinking and engagement with complex topics. *   Group Work: To facilitate collaboration and teamwork skills. *   Presentations: To enhance communication skills and knowledge sharing. *   Guest Lectures: To expose learners to diverse perspectives.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Fashion </t>
+  </si>
+  <si>
     <t xml:space="preserve">Fashion *   Definition: The fashion domain encompasses the art, industry, and business of creating, designing, manufacturing, marketing, and selling clothing and accessories. It includes diverse areas like apparel design, textiles, retail, and trend forecasting. AI applications in fashion aim to optimize processes, personalize customer experiences, and enhance creative outputs. *   Relevance: AI is rapidly transforming the fashion industry by automating tasks, providing data-driven insights, improving design processes, and personalizing shopping experiences. It addresses challenges such as predicting trends, reducing waste, and enhancing customer engagement. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Trend Forecasting: *   Using AI algorithms to analyze social media trends, runway shows, historical sales data, and consumer behavior to predict upcoming fashion trends. *   Identifying emerging styles, colors, patterns, and materials that are likely to gain popularity. 2.  Design Generation: *   Employing generative AI models to create novel designs based on specified parameters, such as style, color, and material. *   Assisting designers in generating variations of existing designs and exploring new aesthetic possibilities. 3.  Virtual Try-Ons: *   Developing AI-powered virtual try-on applications that allow customers to see how clothing would look on them without physically trying it on. *   Utilizing augmented reality (AR) and 3D modeling to provide realistic and personalized virtual try-on experiences. 4.  Personalized Recommendations: *   Using AI to analyze customer preferences, purchase history, and browsing behavior to provide tailored product recommendations. *   Enhancing the shopping experience by suggesting items that align with individual tastes and needs. 5.  Supply Chain Optimization: *   Implementing AI to optimize logistics, inventory management, and production processes to reduce waste and improve efficiency. *   Predicting demand fluctuations to avoid overstocking or shortages. 6.  Quality Control: *   Using computer vision and AI to automate quality checks in manufacturing to detect defects and ensure consistent product quality. 7.  Automated Customer Service: *   Deploying AI-powered chatbots to handle customer inquiries, provide support, and resolve issues efficiently. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *   Types of Data: *   Images: High-resolution product images, runway photos, social media posts, and user-generated content. *   Customer Behavior Data: Purchase history, browsing patterns, social media interactions, reviews, and feedback. *   Text Data: Product descriptions, style guides, fashion articles, social media captions, and customer reviews. *   Sales Data: Transaction records, pricing information, inventory data, and sales trends. *   3D Model Data: Digital representations of clothing and accessories. *   Material Data: Information on the properties and characteristics of different fabrics and materials. *   Sensor Data: Data from wearable sensors and smart textiles. *   Significance for AI Applications: *   Image data is crucial for training models for design generation, virtual try-ons, and quality control. *   Customer behavior data enables personalized recommendations and targeted marketing. *   Text data is used for sentiment analysis, trend prediction, and product description generation. *   Sales data is vital for demand forecasting, supply chain optimization, and inventory management. *   3D Model data is used for virtual try-on and design visualization. *   Material data can help with sustainability and design innovation. *   Understanding the Data: Emphasize how a deep understanding of these data types enables targeted AI techniques, such as computer vision for image analysis, natural language processing (NLP) for text analysis, and machine learning for predictive modeling. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Potential bias in AI algorithms leading to discriminatory practices in design or marketing. *   Data privacy concerns related to the collection and use of customer data. *   Transparency issues in AI-driven decision-making processes. *   Legal Implications: *   Compliance with data protection regulations like GDPR and CCPA. *   Intellectual property rights related to AI-generated designs. *   Liability issues for errors in AI-driven recommendations or automated processes. *   Social Implications: *   Changes in employment dynamics within the fashion industry due to automation. *   Potential displacement of human designers and artisans. *   Impact on cultural diversity and inclusivity in fashion. *   Concerns about promoting unrealistic beauty standards through AI-powered virtual try-ons. *   Examples: *   Positive: Reduced waste through optimized production and personalized recommendations, improved customer satisfaction with virtual try-ons, and enhanced creativity through AI-assisted design. *   Negative: Job displacement, bias in AI models that perpetuate stereotypes, and increased data privacy risks. *   Domain-Specific Concerns: *   The rapid pace of changing trends and the need for adaptable AI solutions. *   The emotional and creative aspects of fashion design that are difficult for AI to replicate. *   The importance of sustainability and ethical sourcing of materials in AI-driven fashion practices. </t>
   </si>
   <si>
@@ -436,6 +505,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in the fashion industry, such as Stitch Fix's personalized styling, or ASOS's virtual try-on features. *   Hands-on projects involving the creation of AI-driven fashion solutions, such as a trend forecasting tool or a virtual try-on application. *   Activation: *   Discussions about learners' personal experiences with technology in the fashion industry, and identification of opportunities for AI applications. *   Brainstorming sessions to explore creative AI-driven solutions to fashion challenges. *   Demonstration: *   Live demonstrations of AI tools and platforms used in the fashion industry. *   Guest lectures from industry experts who are using AI in their work. *   Showcasing examples of successful AI applications in fashion design, retail, and marketing. *   Application: *   Hands-on labs for building and testing basic AI models for fashion-related tasks. *   Group exercises simulating real-world fashion scenarios where learners must apply AI concepts to solve specific challenges. *   Individual projects where learners can explore their own ideas and interests related to AI in fashion. *   Integration: *   Discussions on how AI can complement traditional fashion practices. *   Encouraging learners to integrate new AI skills into their current or future work. *   Mentorship programs with industry professionals who can provide guidance and support. *   Teaching Methods: *   A mix of lectures, lab sessions, group discussions, presentations, and guest lectures. *   Use of multimedia resources, such as videos, animations, and interactive simulations. *   Active learning strategies that encourage learners to engage with the material and with each other. *   Flexible teaching methods to accommodate learners with different learning styles.  This comprehensive course outline aims to provide a strong foundation in the application of AI in the fashion domain. It is designed to be both informative and practical, equipping learners with the knowledge and skills necessary to thrive in this rapidly evolving field.</t>
   </si>
   <si>
+    <t>AI in Fina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finance Definition: Finance encompasses the management of money, investments, and other assets. It involves activities such as banking, investing, lending, and risk management. AI in finance aims to automate, optimize, and enhance financial processes and decision-making. Relevance: AI is rapidly transforming the finance sector by improving efficiency, accuracy, and speed in various operations, from trading to risk assessment and customer service. It also enables novel financial products and services. </t>
   </si>
   <si>
@@ -469,6 +541,9 @@
     <t>Problem-Centered: Case studies on real-world applications of AI in finance, such as fraud detection at banks and algorithmic trading in hedge funds. Analysis of ethical dilemmas and legal challenges related to the use of AI in finance. Activation: Start each module with a discussion of prior knowledge and experiences related to the topic. Use real-world examples and scenarios to illustrate the relevance of the material. Demonstration: Live coding sessions to demonstrate how to implement AI models using Python and relevant libraries. Presentations by industry experts on practical applications of AI in finance. Application: Hands-on labs where students apply AI techniques to financial datasets. Group projects where students develop and implement their own AI solutions. Integration: Discussions on the impact of AI on the future of the financial industry. Encourage students to think critically about how AI can be used to improve financial processes and outcomes. Encourage students to think about how AI can complement traditional financial analysis and decision-making. Teaching Methods: Lectures: To introduce key concepts and theories. Labs: To provide hands-on experience with AI tools and techniques. Discussions: To encourage critical thinking and knowledge sharing. Group Work: To foster collaboration and teamwork. Guest Lectures: From industry professionals to provide real-world insights.  This detailed course outline should provide a robust foundation for teaching AI in Finance at the university level. It incorporates all the required elements and is designed to be both comprehensive and engaging for learners.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Food Science </t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Science *   Definition: Food Science is the study of the physical, biological, and chemical makeup of food; the causes of food deterioration; and the principles underlying food processing. The application of AI in food science involves leveraging computational techniques to analyze data, automate processes, and improve various aspects of food production, safety, and nutrition. *   Relevance: AI is revolutionizing traditional food science practices by enhancing efficiency, ensuring quality control, optimizing resource use, and supporting innovation in food product development. </t>
   </si>
   <si>
@@ -502,6 +577,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in food science, such as AI-driven food quality control in manufacturing plants and personalized nutrition recommendations. *   Group projects focused on solving specific challenges in food production, safety, and nutrition. *   Activation: *   Discussions about learners' prior experiences with AI and technology in the food industry. *   Brainstorming sessions to identify potential applications of AI in their areas of interest. *   Demonstration: *   Live demonstrations of AI tools and techniques using relevant datasets (e.g., image recognition for defect detection, machine learning for recipe optimization). *   Guest lectures from industry experts and researchers working in AI and food science. *   Application: *   Hands-on labs for creating basic machine learning models using food science data. *   Group exercises to simulate real-world scenarios and challenges in food production and safety. *   Opportunities for students to apply AI skills to solve domain-specific problems. *   Integration: *   Discussions on how AI can complement traditional food science practices and expertise. *   Encouragement for students to integrate AI solutions into their research or professional work. *   Emphasis on the importance of ethical considerations and responsible use of AI in food science. *   Teaching Methods: *   Lectures to provide foundational knowledge and theoretical frameworks. *   Lab sessions to gain practical experience with AI tools and techniques. *   Discussions to facilitate critical thinking and problem-solving. *   Group work to encourage collaboration and peer learning. *   Guest lectures from industry experts.  This detailed course outline should provide a comprehensive framework for teaching the application of AI in food science. It's designed to be both informative and engaging, equipping learners with the necessary knowledge and skills to effectively interact with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Hospitality </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospitality *   Definition: The hospitality domain encompasses a broad range of services related to lodging, food and beverage, travel, and entertainment. It focuses on providing excellent customer experiences and ensuring guest satisfaction. The integration of AI aims to personalize services, optimize operations, and enhance overall efficiency. *   Relevance: AI is rapidly transforming the hospitality industry by enabling automation, providing data-driven insights, enhancing personalized services, and optimizing resource management, leading to improved customer satisfaction and operational efficiency. </t>
   </si>
   <si>
@@ -535,6 +613,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in hospitality (e.g., Marriott’s use of AI-powered chatbots, Hilton’s use of predictive analytics for pricing). *   Guest speaker sessions with industry professionals who have experience with AI adoption. *   Activation: *   Brainstorming sessions on how AI can address common challenges in hospitality. *   Reflective writing assignments on personal experiences with AI-powered services. *   Demonstration: *   Hands-on demonstrations of AI tools and platforms using real-world hospitality data. *   Interactive workshops on data analysis, machine learning, and natural language processing. *   Application: *   Lab sessions where students apply AI techniques to solve specific hospitality problems. *   Group projects where students design and implement AI-based solutions using publicly available data. *   Role-playing exercises where students simulate real-world scenarios involving AI-powered services. *   Integration: *   Discussions on the future of AI in hospitality and the impact on the workforce. *   Guest speaker sessions with entrepreneurs who are developing new AI-based solutions for the industry. *   Encouraging students to integrate AI concepts into their future careers in the hospitality sector. *   Teaching Methods: *   Mix of lectures, interactive discussions, case studies, guest lectures, lab sessions, and group work. *   Use of multimedia resources, such as videos, podcasts, and online articles to enhance learning. *   Incorporation of active learning strategies to promote student engagement and critical thinking. *   Utilize online platforms for course content delivery, collaboration, and communication.  This outline provides a comprehensive framework for the course, addressing all aspects of AI in the hospitality domain and ensuring students are well-prepared to engage with this transformative technology.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Journalism </t>
+  </si>
+  <si>
     <t xml:space="preserve">Journalism *   Definition: Journalism encompasses the practice of gathering, creating, and distributing news and information to the public. It plays a crucial role in informing citizens, holding power accountable, and fostering public discourse. The integration of AI aims to enhance journalistic practices, improve efficiency, and tackle challenges like misinformation. *   Relevance: AI is rapidly transforming the media landscape, impacting how news is created, distributed, and consumed. This course aims to equip journalists with the knowledge and skills to leverage AI responsibly and effectively. </t>
   </si>
   <si>
@@ -568,6 +649,9 @@
     <t>*   Problem-Centered: *   Case studies of real-world AI projects in journalism (e.g., Reuters’ Lynx Insight, Associated Press’s AI-generated content). *   Analyzing the challenges and successes of AI adoption in various news organizations. *   Activation: *   Brainstorming sessions on how AI can address specific problems in journalism. *   Discussions on learners’ personal experiences with AI and its impact on news consumption. *   Demonstration: *   Live demonstrations of AI tools for automated writing, fact-checking, and content recommendation. *   Guest lectures by journalists and AI experts working in the media industry. *   Hands-on tutorials for using AI platforms and libraries. *   Application: *   Lab sessions for working with text data and developing basic NLP models. *   Group exercises for applying AI tools to real-world journalistic tasks. *   Simulations of newsroom scenarios where AI is used to enhance efficiency. *   Integration: *   Discussions on how AI can complement traditional journalistic practices. *   Encouraging learners to develop proposals for integrating AI in their own work settings. *   Reflection exercises on the future of journalism in the age of AI. *   Teaching Methods: *   Lectures: Providing an overview of AI concepts and their application in journalism. *   Labs: Hands-on practice with AI tools and data. *   Discussions: Critical analysis of the ethical and social implications of AI. *   Group Work: Collaborative projects on AI-driven journalistic initiatives. *   Guest lectures: Insights from industry professionals.  This detailed course outline provides a comprehensive roadmap for teaching AI in the context of journalism. It covers the essential aspects of the domain, the learning environment, and the implementation of the course, ensuring that learners are well-equipped to navigate the evolving landscape of AI in the media industry.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Law </t>
+  </si>
+  <si>
     <t xml:space="preserve">Law *   Definition: The legal domain encompasses the system of rules that a particular country or community recognizes as regulating the actions of its members and may enforce by the imposition of penalties. It includes areas such as contract law, criminal law, intellectual property, and more. AI applications in this domain aim to enhance legal practice, research, and access to justice. *   Relevance: AI is becoming increasingly relevant in law due to the large volume of legal documents, the complexity of legal reasoning, and the need for efficient access to legal information. AI tools can automate repetitive tasks, provide insights from large datasets, and assist in decision-making. </t>
   </si>
   <si>
@@ -601,6 +685,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in legal practice. *   Discussions on the challenges and opportunities of using AI in specific legal areas (e.g., criminal justice, intellectual property). *   Activation: *   Brainstorming sessions on existing legal challenges and how AI might help. *   Reflection on personal experiences with technology in the legal field. *   Demonstration: *   Live demonstrations of legal AI tools and technologies. *   Guest lectures by experts in LegalTech and AI. *   Walkthroughs of AI models and data analysis using legal data. *   Application: *   Hands-on labs using AI platforms to perform legal document analysis and information retrieval. *   Exercises in data analysis and interpretation using legal datasets. *   Group work on developing AI-based solutions to legal problems. *   Integration: *   Discussions on how AI can integrate with traditional legal practices. *   Development of plans for adopting AI in legal organizations. *   Encouraging students to consider how AI can influence their future legal careers. *   Teaching Methods: *   Lectures: Presenting core concepts and providing context. *   Labs: Hands-on practical exercises with AI tools and platforms. *   Discussions: Facilitating critical thinking and active engagement. *   Group work: Promoting collaboration and problem-solving skills. *   Guest speakers: Providing real-world insights from industry experts.  This detailed course outline should provide a solid foundation for a university-level course on AI in the legal domain. It is designed to be both informative and engaging, equipping learners with the knowledge and skills necessary to effectively navigate the evolving landscape of AI in law.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Linguistics </t>
+  </si>
+  <si>
     <t xml:space="preserve">Linguistics *   Definition: Linguistics is the scientific study of language, encompassing its structure, history, and social context. This course focuses on the application of AI to analyze, understand, and generate human language, enhancing linguistic research and applications. *   Relevance: AI is revolutionizing linguistic research by enabling large-scale data analysis, automating complex tasks, and providing new tools for language understanding and generation. </t>
   </si>
   <si>
@@ -634,9 +721,18 @@
     <t>*   Problem-Centered: *   Case studies on real-world applications of AI in linguistics, such as the use of machine translation for cross-cultural communication or the application of speech recognition in language documentation. *   Analyzing linguistic data from different domains, such as social media, historical texts, and spoken language corpora. *   Activation: *   Discussions on learners’ prior knowledge of linguistics and their experiences with technology. *   Brainstorming sessions on how AI can address specific linguistic research questions. *   Demonstration: *   Live demonstrations of AI tools and techniques for NLP, speech processing, and machine learning. *   Examples of how AI models are developed, trained, and evaluated. *   Application: *   Hands-on lab sessions on using NLP libraries and tools (e.g., NLTK, spaCy, Transformers). *   Individual and group exercises on applying AI techniques to analyze linguistic data. *   Developing and testing basic AI models for language processing tasks. *   Integration: *   Discussions on how AI can be integrated into traditional linguistic research methodologies. *   Encouraging learners to think critically about the potential impact of AI on the field of linguistics. *   Students will be asked to apply their new learning to their own research. *   Teaching Methods: *   Lectures to introduce theoretical concepts. *   Hands-on lab sessions for practical application. *   Group discussions and brainstorming sessions. *   Project-based learning to enhance problem-solving skills. *   Guest lectures from experts in AI and linguistics.  This detailed course outline aims to provide a comprehensive guide for a university-level course on the application of AI in Linguistics. It covers all the necessary components to ensure that learners gain both theoretical knowledge and practical skills in this rapidly evolving field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Logistics and Supply Chain Management  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Logistics and Supply Chain Management  *   Definition: Logistics and Supply Chain Management encompasses the planning, implementation, and control of the flow and storage of goods, services, and related information from the point of origin to the point of consumption. This involves activities like transportation, warehousing, inventory management, and order fulfillment. *   Relevance: AI is revolutionizing logistics by optimizing complex processes, enhancing decision-making, and improving efficiency. It addresses challenges such as demand variability, route planning, and resource allocation, leading to cost savings and enhanced customer satisfaction. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Route Optimization: *   Using AI algorithms to determine the most efficient delivery routes, considering factors like distance, traffic, weather, and delivery time windows. *   Dynamic route adjustments based on real-time conditions. 2.  Demand Forecasting: *   Employing machine learning models to predict future demand based on historical data, seasonal trends, market conditions, and external factors. *   Improving inventory planning and reducing stockouts or excess inventory. 3.  Warehouse Automation: *   Implementing AI-powered robots and automated guided vehicles (AGVs) for tasks such as picking, packing, and sorting. *   Optimizing warehouse layout and storage strategies using AI-driven analytics. 4.  Predictive Maintenance: *   Using AI to analyze sensor data from vehicles and equipment to predict potential maintenance needs, reducing downtime and repair costs. 5.  Real-time Tracking and Visibility: *   Leveraging AI to analyze real-time location data and provide end-to-end visibility of shipments. *   Improving customer communication and enabling proactive issue resolution. 6.  Freight Rate Optimization: *   Using AI to analyze market data, historical rates, and carrier performance to negotiate the best freight rates. 7. Risk Management: * Using AI to identify and assess supply chain risks, such as disruptions, delays, and geopolitical instability.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *   Types of Data: *   Geospatial Data: GPS coordinates, map data, road networks, location of warehouses, and customer addresses. *   Time-Series Logistics Data: Order history, shipment times, delivery times, inventory levels, and transportation schedules. *   Sensor Data: Temperature, humidity, and vibration data from vehicles and storage facilities. *   Transactional Data: Purchase orders, invoices, and customer information. *   Weather Data: Historic and real-time weather conditions. *   Traffic Data: Real-time traffic patterns and historical traffic data. *   Carrier Performance Data: Delivery times, on-time rates, and damages. *   Significance for AI Applications: *   Geospatial data is crucial for route optimization and real-time tracking. *   Time-series data enables demand forecasting and inventory management. *   Sensor data is vital for predictive maintenance and quality control. *   Transactional data informs pricing strategies and customer behavior analysis. *   Understanding this data allows for targeted AI techniques such as: *   Supervised learning: For demand forecasting and predictive maintenance. *   Reinforcement learning: For route optimization and dynamic resource allocation. *   Clustering: For customer segmentation and warehouse layout optimization. *  Time series forecasting: For demand prediction and inventory control. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Potential bias in algorithms leading to unfair treatment of certain regions or carriers. *   Data privacy concerns regarding the collection and use of customer data and location information. *   Transparency issues related to how AI algorithms make decisions. *   Legal Implications: *   Compliance with data protection regulations like GDPR and CCPA. *   Liability issues in case of accidents involving autonomous vehicles or robots. *   Contractual agreements and intellectual property considerations related to AI tools and software. *   Social Implications: *   Potential job displacement due to automation of manual tasks. *   Need for workforce retraining and upskilling to adapt to AI-driven roles. *   Improved efficiency and sustainability of logistics operations. *   Potential to improve access to goods and services in remote areas. *   Examples: *   Positive: Optimized routes reducing fuel consumption and emissions. *   Negative: Algorithmic bias leading to longer delivery times in certain communities. *   Domain-Specific Concerns: Ensuring cybersecurity in logistics systems, managing the integration of legacy systems with AI tools, and addressing the complexities of global supply chains. </t>
   </si>
   <si>
@@ -661,6 +757,9 @@
     <t>*   Problem-Centered: *   Case studies of real-world AI implementations in companies like Amazon, DHL, and FedEx. *   Simulation exercises to model and optimize logistics processes. *   Guest lectures from industry professionals who have implemented AI solutions. *   Activation: *   Discussion boards to share experiences and perspectives on logistics challenges. *   Brainstorming sessions to identify opportunities for AI applications. *   Reflective journals to track learning and identify challenges. *   Demonstration: *   Live demonstrations of AI tools and platforms. *   Hands-on lab sessions using real or simulated datasets. *   Walkthroughs of AI algorithms and model implementation. *   Application: *   Group exercises to apply AI techniques to specific logistics problems. *   Hands-on labs using software tools and datasets. *   Project work to develop and implement AI solutions. *   Integration: *   Discussions on the challenges of integrating AI into existing logistics systems. *   Debates on the ethical and social implications of AI adoption. *   Presentations on proposals for implementing AI solutions.  This course outline provides a comprehensive overview of the course, ensuring that learners gain a solid understanding of AI applications in logistics and supply chain management. The framework is designed to be both informative and engaging, equipping learners with the necessary skills and knowledge to navigate the evolving landscape of AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Manufacturing  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Manufacturing  *   Definition: Manufacturing encompasses the processes involved in transforming raw materials into finished goods using machinery, labor, and industrial processes. AI in manufacturing focuses on leveraging data and algorithms to optimize these processes, improve product quality, and enhance operational efficiency. *   Relevance: AI is revolutionizing manufacturing by enabling predictive maintenance, enhancing quality control, optimizing production workflows, and facilitating the transition towards smart factories. This integration increases productivity, reduces costs, and improves overall competitiveness. </t>
   </si>
   <si>
@@ -694,6 +793,9 @@
     <t>*   Problem-Centered: *   Case studies based on real-world manufacturing challenges. *   Hands-on projects focused on solving specific industry problems. *   Guest lectures by industry experts sharing real-world applications of AI in manufacturing. *   Activation: *   Discussions on prior knowledge of manufacturing processes and existing automation technologies. *   Brainstorming sessions on potential AI applications in familiar manufacturing scenarios. *   Demonstration: *   Live demonstrations of AI tools and algorithms using manufacturing datasets. *   Interactive simulations of AI applications in manufacturing. *   Showcasing successful case studies of AI implementation in manufacturing. *   Application: *   Hands-on labs for data preprocessing and feature engineering. *   Guided tutorials for implementing machine learning algorithms. *   Group exercises for model evaluation and performance tuning. *   Development of simple AI models for predictive maintenance and quality control. *   Integration: *   Discussions on how AI can complement traditional manufacturing practices. *   Encouraging students to apply AI concepts in their work or future projects. *   Analysis of the overall impact of AI on the manufacturing industry and the future of work. *   Debates on the ethical and societal impacts of AI in manufacturing, including job displacement and data privacy.  This detailed course outline should provide a comprehensive framework for teaching AI in manufacturing, equipping learners with the knowledge and skills needed to effectively interact with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Oceanography  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Oceanography  *   Definition: Oceanography is the scientific study of the oceans, encompassing their physical, chemical, biological, and geological aspects. It involves understanding ocean processes, marine ecosystems, and human impacts on marine environments. The integration of AI offers advanced tools for data analysis, modeling, and prediction in this complex domain. *   Relevance:  AI is becoming increasingly crucial for addressing challenges in oceanography, such as climate change impacts, marine biodiversity loss, pollution monitoring, and sustainable resource management. AI’s ability to process large datasets and identify patterns enhances our understanding of the oceans. </t>
   </si>
   <si>
@@ -727,6 +829,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in oceanography (e.g., AI-driven marine species identification, pollution tracking). *   Hands-on projects based on real-world data from NOAA, NASA, and other oceanographic data providers. *   Activation: *   Discussions on learners' prior experiences with oceanographic research and how AI can enhance it. *   Reflections on the challenges and opportunities of using AI in oceanography. *   Demonstration: *   Live demonstrations of AI tools and techniques using oceanographic data. *   Guest lectures by researchers and practitioners working at the intersection of AI and oceanography. *   Application: *   Hands-on lab sessions where learners will apply AI techniques to oceanographic data. *   Group exercises to simulate real-world oceanographic research scenarios. *   Integration: *   Discussions on how AI can be integrated into existing oceanographic workflows. *   Encouragement for learners to develop research proposals that incorporate AI into their own research projects. *   Teaching Methods: *   Lectures: Provide theoretical background and conceptual frameworks. *   Labs: Hands-on sessions for applying AI techniques using real-world datasets. *   Discussions: Facilitate critical thinking, knowledge sharing, and problem-solving. *   Group Work: Encourage collaboration and team-based learning.  This detailed course outline should provide a comprehensive framework for teaching the application of AI in Oceanography. It includes all the necessary components, addresses the specific needs of the domain, and employs effective teaching methods to engage learners.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Oncology </t>
+  </si>
+  <si>
     <t xml:space="preserve">Oncology *   Definition: Oncology is the branch of medicine that deals with the prevention, diagnosis, and treatment of cancer. It encompasses various sub-specialties, including medical oncology, surgical oncology, and radiation oncology. AI applications in oncology aim to enhance the efficiency and accuracy of these processes. *   Relevance: AI is revolutionizing oncology by providing tools for earlier and more accurate cancer detection, personalized treatment planning, and improved patient outcomes. The vast amounts of data generated in oncology are ideal for AI-driven analysis and insights. </t>
   </si>
   <si>
@@ -760,6 +865,9 @@
     <t>*   Problem-Centered: *   Case studies based on real-world oncology challenges and how AI can address them. *   Hands-on problem-solving activities using real or simulated patient data. *   Activation: *   Discussions on current challenges in oncology and how AI could potentially provide solutions. *   Reflecting on prior knowledge and experiences related to cancer treatment and research. *   Demonstration: *   Live demonstrations of AI tools and techniques for cancer diagnosis and treatment. *   Examples of how AI is being used in different areas of oncology research. *   Application: *   Hands-on labs where students use AI tools to analyze cancer data and solve problems. *   Group exercises to simulate collaborative work on AI-related projects. *   Integration: *   Discussions on how AI can integrate with traditional clinical practice and research. *   Encouraging students to think about the future of AI in oncology and how it can improve patient outcomes. *   Teaching Methods: *   Lectures to introduce core concepts and theories. *   Lab sessions for hands-on experience with AI tools and techniques. *   Discussion sessions to foster critical thinking and collaboration. *   Group work to simulate real-world collaborative projects. *   Guest lectures from experts in the field of AI and oncology.  This detailed course outline should provide a solid foundation for a university-level course on the application of AI in Oncology, equipping learners with the necessary knowledge and skills to effectively interact with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Pharmacology  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pharmacology  *   Definition: Pharmacology is the branch of biology concerned with the study of drug action, including their mechanisms, effects, and uses. It encompasses understanding how drugs interact with biological systems, encompassing drug discovery, development, and therapeutic applications. *   Relevance: AI is revolutionizing pharmacology by accelerating drug discovery, improving drug efficacy prediction, personalizing medicine, and optimizing clinical trial design. This is leading to more efficient and effective healthcare solutions. </t>
   </si>
   <si>
@@ -793,6 +901,9 @@
     <t>*   Problem-Centered: *   Case studies focusing on real-world drug discovery challenges and how AI is applied to address them. *   Hands-on projects that involve real-world drug datasets and problems. *   Activation: *   Discussions to connect AI concepts with existing knowledge in pharmacology. *   Pre-class assignments to review fundamental pharmacology concepts. *   Demonstration: *   Live demonstrations of AI tools and techniques for drug discovery and analysis. *   Interactive sessions demonstrating how to use relevant software and libraries. *   Application: *   Hands-on labs to train basic machine learning models using pharmacological data. *   Group exercises to apply AI techniques to solve practical problems. *   Integration: *   Discussions on how AI can complement traditional pharmacological research methods. *   Encouragement to integrate AI tools into students’ research projects and future work. *   Teaching Methods: *   Lectures: Introducing key concepts, theories, and applications. *   Labs: Hands-on practice with AI tools, coding, and data analysis. *   Discussions: In-depth exploration of AI applications and their implications. *   Group Work: Collaborative projects to apply new knowledge and skills. *   Guest Lectures: Insights from industry experts and researchers in the field.  This detailed course outline should provide a comprehensive framework for teaching AI in Pharmacology, ensuring that learners gain the necessary knowledge and skills to effectively engage with AI in this domain.</t>
   </si>
   <si>
+    <t>AI in Psychol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychology Definition: Psychology is the scientific study of the mind and behavior. It encompasses various subfields, including clinical psychology, cognitive psychology, developmental psychology, and social psychology. AI applications in psychology aim to enhance understanding, diagnosis, and treatment of mental and behavioral processes. Relevance: AI is increasingly relevant in psychology due to its potential to analyze complex datasets, personalize interventions, automate routine tasks, and provide insights that may not be readily apparent through traditional methods. This includes areas such as mental health diagnostics, emotion detection, and therapy delivery. </t>
   </si>
   <si>
@@ -826,6 +937,9 @@
     <t>Problem-Centered: Case studies of real-world AI applications in psychology, such as AI-powered diagnostic tools or therapy chatbots. Discussions of current challenges in mental health and how AI can help address them. Guest lectures from experts in the field of AI and psychology. Activation: Brainstorming sessions on potential applications of AI in psychology. Discussions of the learners' own experiences with technology in mental health and how AI might enhance those experiences. Reflection activities on the ethical implications of AI in psychology. Demonstration: Live demonstrations of AI tools and techniques used in psychology research and practice. Walkthroughs of AI algorithms and how they work. Examples of AI-powered diagnostic tools and therapy interventions. Application: Hands-on labs where learners use AI software to analyze psychological data. Group projects where learners design and implement their own AI applications. Simulations of real-world scenarios where AI tools can be applied. Integration: Discussions of how AI can complement traditional psychological practices. Reflections on how AI insights can be integrated into professional practice and research. Development of action plans for incorporating AI into future work or research projects. Teaching Methods: Lectures: Providing foundational knowledge on AI concepts and psychological theories. Labs: Providing hands-on experience with AI tools and techniques. Discussions: Encouraging critical thinking and debate on ethical and social implications. Group Work: Facilitating collaboration and teamwork on AI projects. Presentations: Providing opportunities for learners to present their work and receive feedback. Guest Speakers: Providing real-world perspectives on the application of AI in psychology. Online Resources: Access to course materials, videos, and discussion forums online.  This detailed course outline provides a comprehensive framework for teaching AI in the context of psychology, ensuring that learners gain the knowledge and skills necessary to interact effectively with AI in their field.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Public Health  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Public Health  *   Definition: Public health is the science and art of preventing disease, prolonging life, and promoting health through organized efforts of society. It focuses on population health rather than individual health, emphasizing disease surveillance, prevention programs, health policy, and health education. *   Relevance: AI is increasingly relevant to public health because of its ability to analyze large datasets, identify patterns, predict trends, and optimize interventions, leading to more efficient and effective public health strategies and improved population health outcomes. </t>
   </si>
   <si>
@@ -892,9 +1006,18 @@
     <t>*   Problem-Centered: *   Case studies on real-world applications of AI in radiology (e.g., diagnosis of lung nodules, detection of breast cancer, and dose optimization). *   Discussions on the current challenges and limitations of AI in clinical practice. *   Activation: *   Brainstorming sessions to identify potential AI solutions for specific radiological problems. *   Reflecting on personal experiences with radiology and considering how AI could have improved the process. *   Demonstration: *   Interactive sessions with AI-based medical image analysis tools. *   Live demonstrations of AI algorithms applied to medical images. *   Guest lectures by AI experts and radiologists using AI in their practice. *   Application: *   Hands-on labs using public datasets and AI software tools to perform basic image analysis tasks. *   Group activities to design and implement AI-based solutions for simulated clinical scenarios. *   Integration: *   Discussions on how AI can complement the work of radiologists and improve patient care. *   Encouraging students to think critically about the future of radiology in the age of AI. *   Debates on the ethical and social implications of AI in healthcare. *   Teaching Methods: *   Lectures: Provide theoretical background and conceptual knowledge. *   Labs: Hands-on sessions with AI software and medical image datasets. *   Discussions: Interactive sessions to engage students and encourage critical thinking. *   Group work: Collaborative projects to apply knowledge to real-world problems. *   Case studies: Analyze real-world scenarios of AI applications in radiology. *   Guest lectures: Invite AI and radiology experts to share their insights and experiences.  This detailed course outline should provide a solid foundation for a university-level course on AI in Radiology, tailored to the specific needs and background of the learners.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Real Estate  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Real Estate  *   Definition: The real estate domain encompasses the buying, selling, renting, managing, and development of land and properties, including residential, commercial, and industrial spaces. It involves various stakeholders, including agents, brokers, investors, developers, and consumers. *   Relevance: AI is revolutionizing real estate by automating processes, improving data analysis, and enhancing decision-making for stakeholders. This includes more accurate property valuations, better market trend predictions, and personalized recommendations for buyers and sellers. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Automated Property Valuation: *   Using machine learning models to analyze historical sales data, property features, and market trends to provide accurate and instant property valuations. *   Replacing traditional appraisal methods with AI-driven tools for faster and more objective results. 2.  Market Trend Prediction: *   Employing time series analysis and predictive algorithms to forecast future housing prices, rental rates, and market demand. *   Helping investors and developers make informed decisions based on data-driven predictions. 3.  Personalized Property Recommendations: *   Developing AI-powered recommendation systems that match buyers with properties that align with their preferences, budget, and lifestyle. *   Improving the user experience on real estate platforms by providing customized search results and property suggestions. 4.  Virtual Property Tours and Staging: *   Using AI to create virtual tours of properties, allowing potential buyers to explore homes remotely. *   Implementing AI-driven virtual staging tools to showcase properties in their best light, enhancing their appeal. 5.  AI-Powered Chatbots and Customer Service: *   Deploying chatbots on real estate websites and apps to answer frequently asked questions and provide immediate assistance to potential clients. *   Improving customer engagement and satisfaction by providing 24/7 support. 6.  Fraud Detection and Risk Assessment: *   Utilizing AI algorithms to detect fraudulent activities in real estate transactions, such as falsified documents or suspicious financial activities. *   Assessing risk in real estate investments by analyzing various factors like location, market conditions, and property history. 7.  Smart Property Management: *    Implementing AI-powered systems for automated maintenance scheduling, energy management, and tenant communication. *    Enhancing operational efficiency and reducing costs in property management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *   Types of Data: *   Structured Data: *   Property characteristics (square footage, number of bedrooms/bathrooms, year built, lot size). *   Sales data (prices, transaction dates, location). *   Demographic data (population density, income levels, education). *   Economic indicators (interest rates, employment rates). *   Unstructured Data: *   Property images (interior, exterior, surrounding areas). *   Property descriptions and text data from listings. *   Geospatial data (maps, satellite imagery). *   Social media data (sentiment analysis of real estate trends). *   Legal and compliance documents. *   Significance for AI Applications: *   Structured data provides the foundation for training machine learning models for property valuation and market analysis. *   Unstructured data is essential for AI applications such as computer vision (image analysis) and natural language processing (text understanding). *   Combining structured and unstructured data enables more comprehensive and accurate insights for AI applications. *  Understanding the nuances of each data type enables targeted AI techniques like regression for pricing, computer vision for image processing, and NLP for text analysis. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Potential for bias in AI algorithms leading to discriminatory practices in property valuation and lending. *   Concerns about data privacy and security when handling sensitive personal and financial information. *   Transparency issues related to how AI models make decisions, making it difficult for stakeholders to understand the reasoning behind valuations and recommendations. *   Legal Implications: *   Compliance with data protection regulations (e.g., GDPR, CCPA). *   Ensuring fair housing practices and avoiding algorithmic discrimination. *   Clarifying legal responsibilities for errors made by AI systems in real estate transactions. *   Social Implications: *   Potential displacement of real estate agents and appraisers due to automation. *   Changes in consumer behavior and expectations in the real estate market. *   Improving accessibility to real estate markets through personalized recommendations and virtual tours. *   Examples: *   Positive: Faster, more accurate property valuations; personalized property recommendations; reduced transaction times; enhanced accessibility to real estate. *   Negative: Potential for algorithmic bias; job displacement; data security breaches; over-reliance on AI tools. *   Domain-Specific Concerns: *   The need for explainable AI (XAI) to ensure that AI models' decisions are transparent and understandable. *   The importance of maintaining human oversight in critical decision-making processes. *   The role of AI in promoting equitable access to housing opportunities. </t>
   </si>
   <si>
@@ -919,9 +1042,18 @@
     <t>*   Problem-Centered: *   Real-world case studies of AI applications in real estate (e.g., Zillow's Zestimate, Redfin's AI features, virtual property tours). *   Analysis of real estate data to solve practical problems (e.g., predicting property prices, identifying investment opportunities). *   Activation: *   Discussions on learners' prior experiences with real estate and technology. *   Brainstorming sessions on potential AI applications in real estate. *   Demonstration: *   Live demonstrations of AI tools and software used in real estate (e.g., Python libraries for data analysis, AI-powered valuation tools). *   Guest lectures from industry experts using AI in real estate. *   Application: *   Hands-on labs where learners apply AI techniques to real estate datasets. *   Group exercises to simulate real estate decision-making with AI insights. *   Project-based learning to develop and implement their own AI solutions. *   Integration: *   Discussions on how AI can complement traditional real estate practices. *   Encouragement for learners to propose AI solutions for their own work settings. *   Mix of Teaching Methods: *   Lectures on key concepts and theories of AI and real estate. *   Hands-on labs to provide practical experience with AI tools. *   Discussions to foster critical thinking and collaborative learning. *   Group work to encourage teamwork and peer learning. *   Guest speakers from industry. *   Project-based work to apply the knowledge and skills.  This comprehensive course outline should provide a solid foundation for teaching AI applications in the real estate domain.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Retail </t>
+  </si>
+  <si>
     <t xml:space="preserve">Retail *   Definition: The retail domain encompasses the sale of goods and services to consumers through various channels, including physical stores and e-commerce platforms. It involves a complex interplay of inventory management, customer interaction, marketing, and sales strategies. *   Relevance: AI is rapidly transforming the retail industry by offering solutions for personalized customer experiences, optimized operations, and data-driven decision-making, enabling retailers to adapt to evolving consumer demands and competitive pressures. </t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Customer Behavior Prediction: *   Use AI algorithms to analyze historical purchase data, browsing patterns, and demographic information to predict future customer behavior, including purchase likelihood and preferences. *   Enable proactive customer engagement and personalized marketing campaigns. 2.  Inventory Management: *   Employ AI-powered forecasting to optimize stock levels, predict demand fluctuations, and minimize waste due to overstocking or stockouts. *   Improve supply chain efficiency by predicting potential disruptions and optimizing logistics. 3.  Recommendation Systems: *   Develop AI-driven recommendation engines that personalize product suggestions for customers based on past purchases, browsing history, and preferences. *   Enhance cross-selling and upselling opportunities, leading to increased sales and customer satisfaction. 4. Personalized Marketing: * Use AI to segment customers into micro-segments with specific attributes and preferences. * Deliver targeted marketing messages and offers to each segment, enhancing campaign effectiveness. 5. Chatbots and Customer Service: * Deploy AI-powered chatbots to provide 24/7 customer support, answer queries, and resolve issues quickly. * Enhance customer satisfaction and reduce the workload of customer service staff. 6.  Fraud Detection: *   Utilize AI to detect fraudulent transactions and activities, enhancing security and protecting both the retailer and the customer. *   Analyze transaction patterns and identify anomalies that may indicate fraudulent behavior. 7.  Visual Search: *   Implement AI-based visual search tools that enable customers to find products by uploading images, improving product discoverability and enhancing the user experience. *   Enable customers to search for items based on what they see in the real world. 8.  Dynamic Pricing: * Employ AI algorithms to adjust prices dynamically based on factors such as demand, competition, and inventory levels. * Optimize revenue and maximize profitability.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *   Types of Data: *   Structured Data: Transaction history (purchase data, product details, timestamps, customer IDs), customer demographics, inventory levels, sales data, product ratings, and website browsing history. *   Unstructured Data: Customer reviews, social media posts, product descriptions, customer service logs, images of products, and text from chatbots. *   Semi-structured Data: Data generated from online shopping carts and marketing campaigns. *   Significance for AI Applications: *   Structured data enables predictive modeling for sales forecasting, inventory optimization, and customer segmentation. *   Unstructured data allows for sentiment analysis of customer reviews, identification of trends from social media, and enhancement of product descriptions. *   The combination of structured and unstructured data provides a holistic view of customer behavior and preferences, enabling more accurate and targeted AI applications. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Potential for bias in AI algorithms leading to discriminatory practices (e.g., targeted marketing based on sensitive attributes). *   Privacy concerns associated with collecting and using large amounts of customer data, particularly if not anonymized. *   Transparency concerns about how AI algorithms make decisions, which can impact trust. *   Legal Implications: *   Compliance with data protection regulations (e.g., GDPR, CCPA) regarding the collection, storage, and use of customer data. *   Ensuring fair and non-discriminatory use of AI algorithms, avoiding practices that could lead to legal issues. *   Social Implications: *   Potential displacement of jobs in customer service and operations due to automation. *   Changes in shopping habits and consumer behavior due to personalized experiences and AI-driven recommendations. *   Increased accessibility to shopping for customers with disabilities through AI-powered tools. *   Examples: *   Positive: Enhanced customer experiences through personalization, efficient inventory management leading to reduced costs, and improved security through fraud detection. *   Negative: Potential job losses, privacy violations due to data misuse, and manipulation of consumer behavior through biased AI recommendations. *   Domain-Specific Concerns: *   The need for robust data security measures to protect customer data from breaches. *   Ensuring that AI implementations are aligned with brand values and do not compromise customer trust. *   The importance of managing the transition to AI and supporting employees through reskilling and upskilling initiatives. </t>
   </si>
   <si>
@@ -946,6 +1078,9 @@
     <t>*   Problem-Centered: *   Real-world case studies from major retailers (e.g., Amazon's recommendation system, Walmart's inventory management). *   Engage students with retail challenges and encourage them to propose AI-driven solutions. *   Activation: *   Discussions about students' personal experiences with retail and e-commerce. *   Brainstorming sessions to identify opportunities for AI in the retail sector. *   Reflective exercises on the impact of AI on their shopping habits. *   Demonstration: *   Live coding demos of basic AI algorithms for retail applications (e.g., sales forecasting, customer segmentation). *   Walkthroughs of AI tools and platforms used in the retail industry. *   Guest lectures from AI and retail industry experts. *   Application: *   Hands-on labs for building simple AI models using Python. *   Group projects where students apply AI techniques to solve real-world retail problems. *   Simulations of retail environments where students make decisions based on AI-driven insights. *   Integration: *   Discussions about the ethical and social implications of AI in retail. *   Exploration of how AI can complement existing retail practices and strategies. *   Encouraging students to integrate AI knowledge into their future work and careers. *   Mix of Teaching Methods: *   Lectures to introduce foundational concepts and theoretical frameworks. *   Labs for hands-on coding and practical exercises. *   Discussions and debates to encourage critical thinking and engagement. *   Group work to promote collaboration and teamwork skills. *   Case studies to illustrate real-world applications of AI in retail.  This detailed course outline should provide a solid foundation for a university-level course on AI in Retail. It is designed to equip learners with both theoretical knowledge and practical skills, preparing them to effectively engage with AI in the retail domain.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Robotics  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Robotics  *   Definition: Robotics is the field of engineering focused on the design, construction, operation, and application of robots. It combines aspects of mechanical engineering, electrical engineering, computer science, and increasingly, artificial intelligence to create intelligent machines capable of performing various tasks, ranging from industrial automation to complex exploration. *   Relevance:  AI is rapidly transforming robotics by enabling robots to perceive their environment, make intelligent decisions, learn from experience, and adapt to new situations. This is pushing the boundaries of what robots can achieve, making them more versatile and autonomous. </t>
   </si>
   <si>
@@ -979,6 +1114,9 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in robotics, such as autonomous vehicles, industrial robots, and medical robots. *   Real-world robotic challenges that require the application of AI solutions. *   Activation: *   Discussions on prior experiences with robotics and AI. *   Brainstorming sessions to identify potential applications of AI in robotics. *   Demonstration: *   Live demonstrations of AI algorithms in action using robot simulators and physical robots. *   Presentations by experts in the field of AI and robotics. *   Application: *   Hands-on lab sessions where students implement AI algorithms for various robotic tasks. *   Group projects where students design and build their own AI-powered robotic systems. *   Integration: *   Discussions on how AI can be integrated into traditional robotics workflows. *   Encouragement for students to think about the future of robotics and the role of AI. *   Teaching Methods: *   Lectures: To convey theoretical concepts and practical information. *   Labs: To provide hands-on experience with AI algorithms and robotic systems. *   Discussions: To encourage critical thinking and collaboration. *   Group Work: To promote teamwork and the application of learned concepts. *   Project-based learning: To allow students to apply their knowledge to real-world problems.  This course outline provides a comprehensive framework for teaching AI in robotics, incorporating theoretical knowledge, practical skills, and ethical considerations. It is designed to equip learners with the necessary skills to become effective users and developers of AI-powered robotic systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Sports </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sports *   Definition: Sports encompasses a wide range of competitive physical activities, involving athletes, teams, and various stakeholders. AI in sports aims to enhance performance, optimize strategies, improve fan engagement, and manage sports-related data more effectively. The domain is characterized by large datasets, complex interactions, and a constant pursuit of improvement. *   Relevance: AI is becoming increasingly vital in sports, providing data-driven insights that go beyond traditional methods. It is transforming how athletes train, how teams strategize, and how fans engage with the sport. The potential for AI to personalize and optimize the sporting experience is immense. </t>
   </si>
   <si>
@@ -1012,9 +1150,18 @@
     <t>*   Problem-Centered: *   Case studies on real-world AI applications in sports, such as player tracking in soccer, injury prediction in basketball, and fan engagement in e-sports. *   Hands-on exercises using real sports datasets to solve specific problems. *   Activation: *   Discussions on learners' prior experiences with sports and technology. *   Brainstorming sessions to identify potential AI use cases in their respective fields. *   Demonstration: *   Live demonstrations of AI tools and techniques using sports data. *   Guest lectures from professionals in the sports industry who are actively using AI. *   Visualization of data analysis results using interactive dashboards. *   Application: *   Hands-on labs for building basic machine learning models using sports data. *   Group projects to apply AI techniques to solve sports-related problems. *   Simulations of sports scenarios to test and validate AI-driven strategies. *   Integration: *   Discussions on the ethical, legal, and social implications of using AI in sports. *   Encouragement for learners to propose solutions that integrate AI with existing practices in sports. *   Facilitated discussions on how AI will change the sports industry in the future. *  Teaching Methods: *  Lectures: Explaining core AI concepts and their applications in sports. *  Labs: Hands-on sessions for data analysis and model building. *  Discussions: Interactive sessions to explore ethical issues and real-world cases. *  Group Work: Collaborative projects to foster teamwork and problem-solving skills. *  Guest Lectures: Industry experts sharing insights and real-world experience.  This comprehensive course outline is designed to provide learners with the necessary knowledge and skills to effectively interact with AI in the sports domain, promoting innovation and ethical practices.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Transportation  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Transportation  *   Definition: The transportation domain encompasses the movement of people and goods from one location to another. This includes various modes such as road, rail, air, and water, along with associated infrastructure and logistics. AI integration aims to enhance efficiency, safety, sustainability, and accessibility within these systems. *   Relevance: AI is revolutionizing transportation through automation, optimization, and data-driven insights, addressing challenges like traffic congestion, accidents, and environmental impact. This transformation is critical for the development of smart cities and sustainable mobility solutions. </t>
   </si>
   <si>
+    <t xml:space="preserve">*   Autonomous Vehicles (AVs): *   AI algorithms for perception (object detection, lane keeping), decision-making (path planning, navigation), and control (steering, braking). *   Impact: Reduced accidents, improved traffic flow, increased accessibility for disabled individuals, and potential for new business models (e.g., robo-taxis). *   Traffic Flow Optimization: *   AI-powered traffic management systems that dynamically adjust signal timings based on real-time traffic patterns using machine learning and predictive analytics. *   Impact: Reduced congestion, shorter travel times, and improved fuel efficiency. *   Predictive Maintenance: *   AI algorithms to analyze sensor data from vehicles and infrastructure to predict potential maintenance needs (e.g., component failure, road damage). *   Impact: Reduced downtime, lower maintenance costs, and increased safety. *   Logistics and Supply Chain Optimization: *   AI for route planning, fleet management, and warehouse operations to enhance efficiency and reduce costs in the transportation of goods. *   Impact: Faster delivery times, reduced fuel consumption, and improved inventory management. *   Personalized Transportation Services: *   AI-powered ride-sharing, dynamic pricing, and personalized recommendations for public transportation based on individual preferences and needs. *   Impact: Improved convenience, increased ridership, and tailored mobility solutions. *   Safety and Security: *   AI-based systems for monitoring driver behavior, detecting anomalies, and enhancing security in public transport systems. *   Impact: Reduced accidents, prevention of crime, and enhanced passenger safety.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *   Types of Data: *   Sensor Data: LiDAR, radar, cameras (from vehicles and infrastructure), and GPS data. *   Time-Series Data: Traffic flow, speed, volume, and incident data collected over time. *   Geospatial Data: Maps, road networks, points of interest, and geographic coordinates. *   Vehicle Data: Speed, location, fuel consumption, and maintenance records. *   Public Transit Data: Schedules, routes, passenger counts, and ridership patterns. *   Weather Data: Temperature, precipitation, visibility, and wind speed. *   Accident Data: Location, time, severity, and contributing factors. *   Significance for AI Applications: *   Sensor data is crucial for real-time perception and decision-making in autonomous vehicles and traffic management systems. *   Time-series data allows for predictive modeling of traffic patterns and maintenance needs. *   Geospatial data enables route planning, navigation, and location-based services. *   Data understanding allows for applying specific AI techniques such as deep learning for image processing, time-series forecasting for traffic prediction, and reinforcement learning for autonomous driving. </t>
+  </si>
+  <si>
     <t xml:space="preserve">*   Ethical Implications: *   Algorithmic bias in autonomous vehicle decision-making (e.g., trolley problem). *   Data privacy concerns related to the collection and use of personal transportation data. *   Job displacement of professional drivers due to automation. *   Legal Implications: *   Liability issues in accidents involving autonomous vehicles. *   Regulatory frameworks for the testing and deployment of AI-powered transportation systems. *   Compliance with data privacy laws and regulations. *   Social Implications: *   Accessibility and affordability of AI-driven transportation for various segments of the population. *   Impact of autonomous vehicles on urban planning and infrastructure development. *   Public acceptance and trust in AI-powered transportation systems. *   Examples: *   Positive: Reduced traffic fatalities, improved fuel efficiency, and enhanced mobility for the elderly and disabled. *   Negative: Algorithmic bias leading to inequitable outcomes, job losses for drivers, and potential security vulnerabilities. *   Domain-Specific Concerns: *   Safety certification and validation of AI systems in safety-critical applications. *   Ensuring robustness and reliability of AI algorithms under diverse and unexpected conditions. </t>
   </si>
   <si>
@@ -1039,6 +1186,9 @@
     <t>*   Problem-Centered: *   Analyze real-world case studies of AI in transportation (e.g., Waymo's autonomous driving technology, traffic management systems in smart cities). *   Engage in discussions on current challenges and opportunities for AI in transportation. *   Activation: *   Start with a discussion of personal experiences with transportation and AI. *   Relate new AI concepts to existing knowledge of engineering and urban planning. *   Demonstration: *   Live demonstrations of AI tools and techniques (e.g., image recognition, traffic simulation, predictive modeling). *   Guest lectures from industry experts working on AI in transportation. *   Application: *   Hands-on labs using AI platforms and simulation software. *   Group exercises to apply AI techniques to specific transportation problems. *   Project-based learning to develop innovative AI solutions. *   Integration: *   Discussions on the broader impact of AI on transportation systems and society. *   Encourage students to think critically about the role of AI in shaping the future of mobility. *   Encourage integration of new knowledge and skills into their future work or research. *   Mix of Teaching Methods: *   Lectures to introduce core concepts and theoretical frameworks. *   Interactive discussions and Q&amp;A sessions to enhance understanding. *   Hands-on lab sessions to apply knowledge and develop practical skills. *   Group work to foster collaboration and problem-solving. *   Project-based learning to provide real-world experiences.  This comprehensive course outline should effectively equip learners with the necessary knowledge and skills to engage with AI in the transportation domain.</t>
   </si>
   <si>
+    <t xml:space="preserve">AI in Urban Planning  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Urban Planning  *   Definition: Urban planning is a technical and political process concerned with the use of land and the design of the urban environment, including air, water, and the infrastructure passing into and out of urban areas, such as transportation, communications, and distribution networks. It aims to create sustainable, livable, and efficient cities by analyzing current conditions and anticipating future needs. AI can augment traditional planning methods by providing advanced analytics, predictions, and optimization strategies. *   Relevance: Urban planning is increasingly complex due to rapid urbanization, climate change, and resource constraints. AI offers tools to manage this complexity, optimize resource allocation, and improve urban services, thereby creating more sustainable and resilient cities. </t>
   </si>
   <si>
@@ -1072,56 +1222,2033 @@
     <t>*   Problem-Centered: *   Case studies of real-world urban planning challenges and how AI can solve them. *   Project-based learning focused on solving a specific urban planning problem using AI. *   Activation: *   Discussions on learners' prior experiences with urban planning and technology. *   Brainstorming sessions to identify urban planning problems that can be addressed with AI. *   Demonstration: *   Live demonstrations of AI tools and techniques using relevant data. *   Guest lectures by urban planning professionals and AI experts. *   Application: *   Hands-on labs for using AI tools to analyze urban data and build basic AI models. *   Group exercises to simulate real-world urban planning scenarios and apply AI-driven solutions. *   Integration: *   Discussions on how AI can integrate with traditional urban planning methods and practices. *   Encouraging learners to explore the potential of AI in their future careers. *   Teaching Methods: *   Lectures: to introduce key concepts and theories. *   Labs: to provide hands-on experience with AI tools and techniques. *   Discussions: to encourage critical thinking and peer learning. *   Group work: to promote collaboration and problem-solving skills. *   Guest lectures: to provide real-world perspectives on AI in urban planning.  This detailed course outline is designed to provide a robust and engaging learning experience for students interested in applying AI to urban planning. It considers the diverse backgrounds of students, the complexities of the domain, and the rapid advancements in AI technology.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Predictive Maintenance: *   Use AI to analyze sensor data from aircraft and spacecraft to predict component failures and schedule maintenance proactively, reducing downtime and costs. 2.  Autonomous Navigation and Control: *   Develop AI algorithms for autonomous flight control, spacecraft maneuvering, and drone operations, enabling increased autonomy and reduced reliance on human intervention. 3.  Fault Detection and Diagnosis: *   Implement AI-based systems to detect anomalies and diagnose faults in real-time using sensor data, improving safety and system reliability. 4.  Satellite Data Analysis: *   Employ AI techniques to analyze large volumes of satellite imagery and telemetry data for Earth observation, weather forecasting, and scientific research. 5.  Aerodynamic Design Optimization: *   Use AI to optimize aircraft and spacecraft designs for improved performance, fuel efficiency, and reduced drag. 6.  Robotics and Automation in Manufacturing: *   Apply AI to automate manufacturing processes, improving efficiency and precision in the production of aerospace components. 7.  Mission Planning and Resource Optimization: *   Utilize AI to plan complex missions, optimize resource allocation, and manage operations efficiently.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Types of Data: *   Sensor Data: Real-time data from various sensors monitoring engine performance, structural integrity, environmental conditions, and flight parameters (e.g., pressure, temperature, vibration, acceleration). *   Image Data: Satellite imagery, aerial photographs, and images from onboard cameras used for Earth observation, inspection, and navigation. *   Telemetry Data: Data transmitted from spacecraft or aircraft, including status reports, sensor readings, and command confirmations. *   Simulation Data: Data generated from computational fluid dynamics (CFD) and finite element analysis (FEA) simulations, crucial for design and optimization processes. *   Historical Flight Data: Records of past flights, including flight paths, performance metrics, and maintenance logs. *   Text Data: Technical documents, maintenance reports, and scientific papers.  *   Significance for AI Applications: *   Sensor data is crucial for real-time monitoring, anomaly detection, and predictive maintenance. *   Image data enables AI algorithms to perform visual analysis for earth observation, mapping, and object detection. *   Telemetry data provides critical information for assessing system status and performance. *   Simulation data allows for the development and testing of AI models in a controlled environment. *   Historical flight data supports machine learning models for performance prediction, fault diagnosis, and flight planning. *   Text data can be used for natural language processing to extract relevant information from technical reports and documents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Energy Consumption Prediction: *   Use AI models (e.g., time-series forecasting with Recurrent Neural Networks, ARIMA) to predict energy demand at various scales (residential, industrial, regional, etc.). *   Benefits: Optimize energy production, reduce waste, and improve grid stability. 2.  Renewable Energy Optimization: *   Employ AI algorithms to maximize the efficiency of renewable energy systems (e.g., solar panel orientation, wind turbine blade adjustment) based on real-time weather data and other factors. *   Benefits: Increase energy output, reduce costs, and enhance the integration of renewables into the grid. 3.  Grid Management: *   Use AI to monitor and control the power grid, detect and predict faults, and optimize energy distribution. *   Benefits: Improve grid reliability, reduce downtime, enhance grid resilience, and enable better management of distributed energy resources (DERs). 4.  Predictive Maintenance: *   Apply machine learning to predict equipment failures in energy infrastructure (power plants, substations, renewable energy systems). *   Benefits: Reduce maintenance costs, minimize downtime, and extend equipment lifespan. 5.  Smart Buildings and Energy Efficiency: *   Use AI to automate building energy management systems (HVAC, lighting, etc.), optimizing for comfort and energy use. *   Benefits: Reduce energy consumption, lower costs, and improve building performance. 6.  Energy Storage Optimization: *   Utilize AI to control and optimize the charging and discharging of energy storage devices (batteries, pumped hydro) based on grid demand and renewable energy availability. *   Benefits: Improve grid stability, reduce reliance on fossil fuels, and enhance the integration of intermittent renewable energy.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types of Data: *   Time-Series Data: Energy consumption patterns, weather data (temperature, solar radiation, wind speed), power generation outputs, grid frequency, and voltage. *   Geospatial Data: Location of power plants, substations, transmission lines, renewable energy resources, and consumer locations. *   Sensor Data: Data from smart meters, SCADA systems, IoT devices monitoring equipment conditions, and environmental sensors. *   Equipment Data: Operational parameters of power plants, renewable energy systems, and grid infrastructure. *   Market Data: Energy prices, demand forecasts, and trading information. *   Significance for AI Applications: *   Time-series data is crucial for forecasting energy demand and optimizing grid operations. *   Geospatial data is essential for planning renewable energy projects and grid infrastructure. *   Sensor data enables real-time monitoring and predictive maintenance. *   Understanding data types allows for targeted AI techniques such as time-series analysis, regression, classification, and reinforcement learning. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Trend Forecasting: *   Using AI algorithms to analyze social media trends, runway shows, historical sales data, and consumer behavior to predict upcoming fashion trends. *   Identifying emerging styles, colors, patterns, and materials that are likely to gain popularity. 2.  Design Generation: *   Employing generative AI models to create novel designs based on specified parameters, such as style, color, and material. *   Assisting designers in generating variations of existing designs and exploring new aesthetic possibilities. 3.  Virtual Try-Ons: *   Developing AI-powered virtual try-on applications that allow customers to see how clothing would look on them without physically trying it on. *   Utilizing augmented reality (AR) and 3D modeling to provide realistic and personalized virtual try-on experiences. 4.  Personalized Recommendations: *   Using AI to analyze customer preferences, purchase history, and browsing behavior to provide tailored product recommendations. *   Enhancing the shopping experience by suggesting items that align with individual tastes and needs. 5.  Supply Chain Optimization: *   Implementing AI to optimize logistics, inventory management, and production processes to reduce waste and improve efficiency. *   Predicting demand fluctuations to avoid overstocking or shortages. 6.  Quality Control: *   Using computer vision and AI to automate quality checks in manufacturing to detect defects and ensure consistent product quality. 7.  Automated Customer Service: *   Deploying AI-powered chatbots to handle customer inquiries, provide support, and resolve issues efficiently. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *   Types of Data: *   Images: High-resolution product images, runway photos, social media posts, and user-generated content. *   Customer Behavior Data: Purchase history, browsing patterns, social media interactions, reviews, and feedback. *   Text Data: Product descriptions, style guides, fashion articles, social media captions, and customer reviews. *   Sales Data: Transaction records, pricing information, inventory data, and sales trends. *   3D Model Data: Digital representations of clothing and accessories. *   Material Data: Information on the properties and characteristics of different fabrics and materials. *   Sensor Data: Data from wearable sensors and smart textiles. *   Significance for AI Applications: *   Image data is crucial for training models for design generation, virtual try-ons, and quality control. *   Customer behavior data enables personalized recommendations and targeted marketing. *   Text data is used for sentiment analysis, trend prediction, and product description generation. *   Sales data is vital for demand forecasting, supply chain optimization, and inventory management. *   3D Model data is used for virtual try-on and design visualization. *   Material data can help with sustainability and design innovation. *   Understanding the Data: Emphasize how a deep understanding of these data types enables targeted AI techniques, such as computer vision for image analysis, natural language processing (NLP) for text analysis, and machine learning for predictive modeling. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Route Optimization: *   Using AI algorithms to determine the most efficient delivery routes, considering factors like distance, traffic, weather, and delivery time windows. *   Dynamic route adjustments based on real-time conditions. 2.  Demand Forecasting: *   Employing machine learning models to predict future demand based on historical data, seasonal trends, market conditions, and external factors. *   Improving inventory planning and reducing stockouts or excess inventory. 3.  Warehouse Automation: *   Implementing AI-powered robots and automated guided vehicles (AGVs) for tasks such as picking, packing, and sorting. *   Optimizing warehouse layout and storage strategies using AI-driven analytics. 4.  Predictive Maintenance: *   Using AI to analyze sensor data from vehicles and equipment to predict potential maintenance needs, reducing downtime and repair costs. 5.  Real-time Tracking and Visibility: *   Leveraging AI to analyze real-time location data and provide end-to-end visibility of shipments. *   Improving customer communication and enabling proactive issue resolution. 6.  Freight Rate Optimization: *   Using AI to analyze market data, historical rates, and carrier performance to negotiate the best freight rates. 7. Risk Management: * Using AI to identify and assess supply chain risks, such as disruptions, delays, and geopolitical instability.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *   Types of Data: *   Geospatial Data: GPS coordinates, map data, road networks, location of warehouses, and customer addresses. *   Time-Series Logistics Data: Order history, shipment times, delivery times, inventory levels, and transportation schedules. *   Sensor Data: Temperature, humidity, and vibration data from vehicles and storage facilities. *   Transactional Data: Purchase orders, invoices, and customer information. *   Weather Data: Historic and real-time weather conditions. *   Traffic Data: Real-time traffic patterns and historical traffic data. *   Carrier Performance Data: Delivery times, on-time rates, and damages. *   Significance for AI Applications: *   Geospatial data is crucial for route optimization and real-time tracking. *   Time-series data enables demand forecasting and inventory management. *   Sensor data is vital for predictive maintenance and quality control. *   Transactional data informs pricing strategies and customer behavior analysis. *   Understanding this data allows for targeted AI techniques such as: *   Supervised learning: For demand forecasting and predictive maintenance. *   Reinforcement learning: For route optimization and dynamic resource allocation. *   Clustering: For customer segmentation and warehouse layout optimization. *  Time series forecasting: For demand prediction and inventory control. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Automated Property Valuation: *   Using machine learning models to analyze historical sales data, property features, and market trends to provide accurate and instant property valuations. *   Replacing traditional appraisal methods with AI-driven tools for faster and more objective results. 2.  Market Trend Prediction: *   Employing time series analysis and predictive algorithms to forecast future housing prices, rental rates, and market demand. *   Helping investors and developers make informed decisions based on data-driven predictions. 3.  Personalized Property Recommendations: *   Developing AI-powered recommendation systems that match buyers with properties that align with their preferences, budget, and lifestyle. *   Improving the user experience on real estate platforms by providing customized search results and property suggestions. 4.  Virtual Property Tours and Staging: *   Using AI to create virtual tours of properties, allowing potential buyers to explore homes remotely. *   Implementing AI-driven virtual staging tools to showcase properties in their best light, enhancing their appeal. 5.  AI-Powered Chatbots and Customer Service: *   Deploying chatbots on real estate websites and apps to answer frequently asked questions and provide immediate assistance to potential clients. *   Improving customer engagement and satisfaction by providing 24/7 support. 6.  Fraud Detection and Risk Assessment: *   Utilizing AI algorithms to detect fraudulent activities in real estate transactions, such as falsified documents or suspicious financial activities. *   Assessing risk in real estate investments by analyzing various factors like location, market conditions, and property history. 7.  Smart Property Management: *    Implementing AI-powered systems for automated maintenance scheduling, energy management, and tenant communication. *    Enhancing operational efficiency and reducing costs in property management. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *   Types of Data: *   Structured Data: *   Property characteristics (square footage, number of bedrooms/bathrooms, year built, lot size). *   Sales data (prices, transaction dates, location). *   Demographic data (population density, income levels, education). *   Economic indicators (interest rates, employment rates). *   Unstructured Data: *   Property images (interior, exterior, surrounding areas). *   Property descriptions and text data from listings. *   Geospatial data (maps, satellite imagery). *   Social media data (sentiment analysis of real estate trends). *   Legal and compliance documents. *   Significance for AI Applications: *   Structured data provides the foundation for training machine learning models for property valuation and market analysis. *   Unstructured data is essential for AI applications such as computer vision (image analysis) and natural language processing (text understanding). *   Combining structured and unstructured data enables more comprehensive and accurate insights for AI applications. *  Understanding the nuances of each data type enables targeted AI techniques like regression for pricing, computer vision for image processing, and NLP for text analysis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Customer Behavior Prediction: *   Use AI algorithms to analyze historical purchase data, browsing patterns, and demographic information to predict future customer behavior, including purchase likelihood and preferences. *   Enable proactive customer engagement and personalized marketing campaigns. 2.  Inventory Management: *   Employ AI-powered forecasting to optimize stock levels, predict demand fluctuations, and minimize waste due to overstocking or stockouts. *   Improve supply chain efficiency by predicting potential disruptions and optimizing logistics. 3.  Recommendation Systems: *   Develop AI-driven recommendation engines that personalize product suggestions for customers based on past purchases, browsing history, and preferences. *   Enhance cross-selling and upselling opportunities, leading to increased sales and customer satisfaction. 4. Personalized Marketing: * Use AI to segment customers into micro-segments with specific attributes and preferences. * Deliver targeted marketing messages and offers to each segment, enhancing campaign effectiveness. 5. Chatbots and Customer Service: * Deploy AI-powered chatbots to provide 24/7 customer support, answer queries, and resolve issues quickly. * Enhance customer satisfaction and reduce the workload of customer service staff. 6.  Fraud Detection: *   Utilize AI to detect fraudulent transactions and activities, enhancing security and protecting both the retailer and the customer. *   Analyze transaction patterns and identify anomalies that may indicate fraudulent behavior. 7.  Visual Search: *   Implement AI-based visual search tools that enable customers to find products by uploading images, improving product discoverability and enhancing the user experience. *   Enable customers to search for items based on what they see in the real world. 8.  Dynamic Pricing: * Employ AI algorithms to adjust prices dynamically based on factors such as demand, competition, and inventory levels. * Optimize revenue and maximize profitability.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *   Types of Data: *   Structured Data: Transaction history (purchase data, product details, timestamps, customer IDs), customer demographics, inventory levels, sales data, product ratings, and website browsing history. *   Unstructured Data: Customer reviews, social media posts, product descriptions, customer service logs, images of products, and text from chatbots. *   Semi-structured Data: Data generated from online shopping carts and marketing campaigns. *   Significance for AI Applications: *   Structured data enables predictive modeling for sales forecasting, inventory optimization, and customer segmentation. *   Unstructured data allows for sentiment analysis of customer reviews, identification of trends from social media, and enhancement of product descriptions. *   The combination of structured and unstructured data provides a holistic view of customer behavior and preferences, enabling more accurate and targeted AI applications. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*   Autonomous Vehicles (AVs): *   AI algorithms for perception (object detection, lane keeping), decision-making (path planning, navigation), and control (steering, braking). *   Impact: Reduced accidents, improved traffic flow, increased accessibility for disabled individuals, and potential for new business models (e.g., robo-taxis). *   Traffic Flow Optimization: *   AI-powered traffic management systems that dynamically adjust signal timings based on real-time traffic patterns using machine learning and predictive analytics. *   Impact: Reduced congestion, shorter travel times, and improved fuel efficiency. *   Predictive Maintenance: *   AI algorithms to analyze sensor data from vehicles and infrastructure to predict potential maintenance needs (e.g., component failure, road damage). *   Impact: Reduced downtime, lower maintenance costs, and increased safety. *   Logistics and Supply Chain Optimization: *   AI for route planning, fleet management, and warehouse operations to enhance efficiency and reduce costs in the transportation of goods. *   Impact: Faster delivery times, reduced fuel consumption, and improved inventory management. *   Personalized Transportation Services: *   AI-powered ride-sharing, dynamic pricing, and personalized recommendations for public transportation based on individual preferences and needs. *   Impact: Improved convenience, increased ridership, and tailored mobility solutions. *   Safety and Security: *   AI-based systems for monitoring driver behavior, detecting anomalies, and enhancing security in public transport systems. *   Impact: Reduced accidents, prevention of crime, and enhanced passenger safety.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *   Types of Data: *   Sensor Data: LiDAR, radar, cameras (from vehicles and infrastructure), and GPS data. *   Time-Series Data: Traffic flow, speed, volume, and incident data collected over time. *   Geospatial Data: Maps, road networks, points of interest, and geographic coordinates. *   Vehicle Data: Speed, location, fuel consumption, and maintenance records. *   Public Transit Data: Schedules, routes, passenger counts, and ridership patterns. *   Weather Data: Temperature, precipitation, visibility, and wind speed. *   Accident Data: Location, time, severity, and contributing factors. *   Significance for AI Applications: *   Sensor data is crucial for real-time perception and decision-making in autonomous vehicles and traffic management systems. *   Time-series data allows for predictive modeling of traffic patterns and maintenance needs. *   Geospatial data enables route planning, navigation, and location-based services. *   Data understanding allows for applying specific AI techniques such as deep learning for image processing, time-series forecasting for traffic prediction, and reinforcement learning for autonomous driving. </t>
-  </si>
-  <si>
-    <t>Serial number</t>
+    <t>AI in Advanced_Semiconductor_Nanotechnologies.txt</t>
+  </si>
+  <si>
+    <t>28-02-2025</t>
+  </si>
+  <si>
+    <t>Advanced Semiconductor Nanotechnologies *   Definition: Focuses on the design, fabrication, and characterization of semiconductor materials and devices at the nanoscale. AI integration aims to enhance process control, material discovery, and device performance. *   Relevance: AI is critical for addressing the increasing complexity of nanoscale fabrication and the massive datasets generated during semiconductor research and manufacturing.</t>
+  </si>
+  <si>
+    <t>1.  Defect Detection: *   Using computer vision and machine learning to automatically identify defects in semiconductor wafers and devices from microscopy images. 2.  Predictive Maintenance: *   Employing AI to analyze sensor data from manufacturing equipment to predict failures and optimize maintenance schedules. 3.  Material Discovery: *   Applying machine learning algorithms to predict the properties of new materials and accelerate the discovery of novel semiconductors. 4.  Process Optimization: *   Utilizing AI to optimize fabrication process parameters (e.g., temperature, pressure, deposition rates) to improve device yield and performance. 5.  Device Modeling and Simulation: *   Creating AI-driven models to simulate device behavior and predict performance under various operating conditions.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Sensor Data: Real-time measurements from manufacturing equipment (e.g., temperature, pressure, flow rates). *   Microscopy Images: SEM, TEM, and AFM images of semiconductor materials and devices. *   Fabrication Process Parameters: Detailed records of process conditions during manufacturing. *   Production Logs: Records of production runs, including yield, throughput, and equipment status. *   Material Characterization Data: Data from techniques like XRD, XPS, and Raman spectroscopy. *   Significance for AI Applications: *   Sensor data enables predictive maintenance and process optimization. *   Microscopy images are crucial for defect detection and material characterization. *   Fabrication process parameters are vital for process optimization and yield improvement. *   Understanding this data facilitates the application of targeted AI techniques like deep learning for image analysis and time-series analysis for predictive maintenance.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring fairness and avoiding bias in AI models used for decision-making, especially in process control and material selection. *   Legal Implications: Protecting intellectual property related to AI-designed materials and processes, and complying with data privacy regulations. *   Social Implications: Potential impact on the workforce due to automation of certain tasks, requiring retraining and upskilling of employees. *   Examples: *   Positive: Enhanced efficiency and reduced waste in semiconductor manufacturing, leading to lower costs and improved sustainability. *   Negative: Over-reliance on AI models without proper validation, leading to errors in process control or material selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Research Papers: IEEE Xplore, ScienceDirect, and arXiv for publications on AI in nanotechnology and semiconductor manufacturing. *   Semiconductor Manufacturing Reports: Reports from organizations like SEMI and Gartner on industry trends and technological advancements. *   Online Courses: Coursera, edX, and Udacity offer courses on AI for materials science and semiconductor technology. *   Industry Whitepapers: Whitepapers from companies like Applied Materials, ASML, and Lam Research on AI solutions for semiconductor manufacturing.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>*   Learners: *   Graduate students in semiconductor physics and nanotechnology. *   Some exposure to AI and machine learning tools, but varying levels of expertise. *   Expected Role After Completion: *   Apply AI techniques to optimize semiconductor processes, discover new materials, and enhance device performance. *   Effectively collaborate with AI tools and experts to solve complex problems in semiconductor research and manufacturing.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor specializing in semiconductor nanotechnologies and AI-driven material discovery. *   PhD in Nanotechnology and a Master s degree in Computer Science with a focus on AI. *   7 years of experience in academia and industry. *   Skills: *   Expertise in semiconductor physics, materials science, and nanotechnology. *   Strong knowledge of AI and machine learning algorithms. *   Ability to bridge the gap between theoretical concepts and practical applications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Course duration: One semester (15 weeks). *   Access to software tools such as Python, TensorFlow, PyTorch, and relevant simulation software (e.g., COMSOL). *   Availability of domain-specific datasets (e.g., from internal research projects, public databases). *   High-performance computing resources for training AI models. *   Institutional support for interdisciplinary teaching and collaboration. *   Constraints: *   Limited budget for specialized software licenses. *   Potential challenges in accessing proprietary data from industry partners.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>By the end of the course, students will be able to: 1.  Understand the fundamental principles of AI and machine learning. 2.  Identify and evaluate potential AI applications in semiconductor research and manufacturing. 3.  Apply AI techniques to solve specific problems in the domain, such as defect detection, process optimization, and material discovery. 4.  Interpret and analyze data generated from semiconductor processes and experiments using AI tools. 5.  Critically assess the ethical, legal, and social implications of using AI in semiconductor nanotechnologies.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Implement AI algorithms for defect detection using microscopy images. *   Develop predictive models for equipment maintenance based on sensor data. 2.  Group Project: *   Design and implement an AI-driven solution for a real-world problem in semiconductor manufacturing (e.g., optimizing a specific fabrication process). 3.  Midterm Exam: *   Assess understanding of fundamental AI concepts and their application in semiconductor nanotechnologies. 4.  Final Presentation: *   Present the results of the group project and discuss the implications of the AI-driven solution. 5.  Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in semiconductor manufacturing, such as defect detection in Intel s fabrication plants or material discovery at Samsung s research labs. *   Activation: *   Brainstorming sessions to identify potential AI applications in specific areas of semiconductor research and manufacturing. *   Discussions on the challenges and opportunities of using AI in the domain. *   Demonstration: *   Live demonstrations of AI tools and techniques for image analysis, data mining, and predictive modeling. *   Guest lectures from industry experts on AI applications in semiconductor manufacturing. *   Application: *   Hands-on labs for implementing AI algorithms using Python and relevant libraries (e.g., TensorFlow, PyTorch). *   Group exercises to simulate the application of AI in real-world scenarios. *   Integration: *   Discussions on how AI can complement traditional methods in semiconductor research and manufacturing. *   Encouraging students to explore potential career paths in AI-driven semiconductor technology.</t>
+  </si>
+  <si>
+    <t>AI in Biomechanical_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Biomechanical Engineering *   Definition: Biomechanical Engineering applies mechanical principles to biological systems, focusing on the mechanics of human movement, injury mechanisms, and the design of assistive devices. AI integration enhances analysis, prediction, and optimization in these areas. *   Relevance: AI is revolutionizing biomechanics by enabling more accurate and efficient motion analysis, personalized prosthetics design, and advanced injury prediction models, improving rehabilitation outcomes and athletic performance.</t>
+  </si>
+  <si>
+    <t>*   Human Motion Analysis: Use AI to analyze gait patterns, detect abnormalities, and optimize movement efficiency. *   Prosthetics Optimization: Develop AI-driven algorithms to personalize and optimize prosthetic device design and control. *   Injury Prediction: Employ machine learning models to predict injury risk based on biomechanical data and individual characteristics. *   AI-Powered Rehabilitation Technology: Create intelligent rehabilitation systems that adapt to patient progress and provide personalized therapy. *   Sports Performance Enhancement: Utilize AI to analyze athletic movements, optimize training regimens, and reduce the risk of sports-related injuries. *   Ergonomics and Workplace Safety: Apply AI to assess workplace ergonomics, identify potential hazards, and design safer work environments.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Gait Analysis Data: Kinematic and kinetic data collected during walking or running. *   Biomechanical Sensor Readings: Data from force plates, accelerometers, and electromyography (EMG) sensors. *   Medical Imaging Data: MRI, CT scans, and X-rays used to visualize musculoskeletal structures. *   Motion Capture Data: 3D movement data captured using optical or inertial motion capture systems. *   Wearable Sensor Outputs: Data from wearable devices like smartwatches and activity trackers. *   Significance for AI Applications: *   Gait analysis data allows for automated diagnosis and treatment of gait disorders. *   Biomechanical sensor readings enable real-time feedback and control of assistive devices. *   Medical imaging data facilitates the development of personalized musculoskeletal models. *   Motion capture data provides detailed insights into human movement patterns for sports performance analysis. *   Wearable sensor outputs enable continuous monitoring of physical activity and rehabilitation progress. *   Data understanding enables targeted AI techniques like time-series analysis for motion patterns and image recognition for medical diagnostics.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring data privacy, avoiding algorithmic bias, and maintaining transparency in AI-driven decisions. *   Legal Implications: Compliance with regulations related to medical device design, data protection, and patient consent. *   Social Implications: Impact on healthcare accessibility, potential job displacement in manual therapy, and the need for AI literacy among healthcare professionals. *   Examples: *   Positive: Enhanced rehabilitation outcomes through personalized therapy and assistive devices. *   Negative: Algorithmic bias leading to unfair or inaccurate diagnoses and treatment recommendations.</t>
+  </si>
+  <si>
+    <t>*   Scientific Journals: *   Journal of Biomechanics *   Journal of Neuroengineering and Rehabilitation *   IEEE Transactions on Biomedical Engineering *   Medical Device Design Manuals: *   FDA guidelines for medical device design and regulation *   ISO standards for prosthetics and orthotics *   AI-Driven Sports Science Research: *   Research articles on AI applications in sports performance analysis and injury prevention *   Websites and blogs dedicated to sports analytics and biomechanics ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students specializing in human motion and rehabilitation technology. *   Some prior knowledge of AI applications in healthcare. *   Expected Role After Completion: *   Use AI for biomechanical simulations and assistive technology improvements. *   Foster innovation in rehabilitation engineering and sports science.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Biomechanics with a background in AI applications in human movement analysis. *   8 years of experience in teaching and research. *   Skills: *   Expertise in biomechanics, AI, and data analysis. *   Ability to integrate theoretical concepts with practical applications. *   Experience in interdisciplinary teaching and student mentorship.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12 14 weeks). *   Access to biomechanics lab with motion capture systems, force plates, and EMG equipment. *   Availability of AI software tools like MATLAB, Python, and TensorFlow. *   Institutional support for interdisciplinary collaboration and research. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>By the end of the course, students will be able to: 1.  Apply AI techniques to analyze human motion data and identify biomechanical abnormalities. 2.  Design and optimize prosthetic devices using AI-driven algorithms. 3.  Develop predictive models for injury risk based on biomechanical and clinical data. 4.  Create AI-powered rehabilitation systems that adapt to patient progress. 5.  Evaluate the ethical, legal, and social implications of using AI in biomechanical engineering.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Analyze gait data using machine learning algorithms. *   Design a personalized prosthetic socket using CAD software and AI optimization techniques. 2.  Group Project: *   Develop an AI-powered rehabilitation system for stroke patients. *   Create a predictive model for ACL injury risk in athletes. 3.  Quizzes: *   Weekly quizzes on key AI concepts and biomechanical principles. 4.  Final Presentation: *   Present the group project and discuss the results, limitations, and future directions. 5.  Class Participation: *   Active engagement in discussions, case studies, and lab activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in biomechanics, such as AI-driven prosthetics, injury prediction in sports, and personalized rehabilitation. *   Activation: *   Discuss prior knowledge of biomechanics and AI and identify potential applications in human movement analysis and assistive technology. *   Demonstration: *   Live demonstrations of AI software tools for motion analysis, prosthetic design, and injury prediction. *   Guest lectures from experts in AI and biomechanics. *   Application: *   Hands-on labs for analyzing gait data, designing prosthetic components, and developing predictive models. *   Group exercises to simulate real-world biomechanical engineering challenges. *   Integration: *   Discuss how AI can complement traditional biomechanical analysis methods. *   Encourage students to develop proposals for applying AI in their research projects and future careers.</t>
+  </si>
+  <si>
+    <t>AI in Biomedical_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering *   Definition: Biomedical Engineering applies engineering principles and design concepts to medicine and biology for healthcare purposes. The integration of AI enhances diagnostics, treatment, and research through data analysis and automation. *   Relevance: AI is transforming biomedical engineering by improving the accuracy of medical diagnoses, personalizing treatment plans, and accelerating drug discovery and development.</t>
+  </si>
+  <si>
+    <t>1.  AI-driven Diagnostics: *   Use AI algorithms to analyze patient data for early and accurate disease detection. 2.  Medical Image Analysis: *   Apply deep learning techniques to interpret medical images (e.g., X-rays, MRIs) for detecting anomalies. 3.  Robotic Surgery: *   Employ AI-enhanced robots to assist surgeons with precision and minimally invasive procedures. 4.  Personalized Medicine: *   Use AI to analyze genetic and clinical data to tailor treatments to individual patients. 5.  Drug Discovery: *   Apply AI to identify potential drug candidates and predict their effectiveness. 6.  Prosthetics and Orthotics: *   Develop AI-controlled prosthetics that adapt to the user's movements and provide natural-like functionality.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Patient Records: Electronic health records (EHRs) containing patient history, diagnoses, and treatments. *   Medical Imaging Datasets: Collections of medical images (e.g., MRI, CT scans) with annotations for training AI models. *   Clinical Trial Data: Information from clinical trials, including patient demographics, treatment outcomes, and adverse events. *   Genomic Data: DNA sequences and genetic information used for personalized medicine. *   Sensor Data: Data from wearable devices and medical sensors monitoring patient health. *   Significance for AI Applications: *   Patient records enable AI to predict disease progression and treatment outcomes. *   Medical imaging datasets allow AI to detect subtle anomalies and improve diagnostic accuracy. *   Clinical trial data helps AI identify effective treatments and optimize clinical trial designs. *   Genomic data allows for personalized medicine approaches tailored to individual genetic profiles. *   Sensor data enables continuous monitoring and early detection of health issues.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Data privacy concerns, algorithmic bias in diagnostics, and the potential for over-reliance on AI. *   Legal Implications: Compliance with regulations such as HIPAA, GDPR, and FDA guidelines for AI-based medical devices. *   Social Implications: Changes in the role of healthcare professionals, accessibility of AI-driven healthcare, and patient trust in AI systems. *   Examples: *   Positive: Improved diagnostic accuracy and faster treatment decisions. *   Negative: Potential for misdiagnosis due to biased algorithms or data errors.</t>
+  </si>
+  <si>
+    <t>*   AI in Medical Diagnostics Research: Publications in journals like "IEEE Transactions on Biomedical Engineering" and "Journal of Medical Imaging." *   Deep Learning Applications in Healthcare: Online courses on platforms like Coursera and Udacity. *   Books: "Artificial Intelligence in Healthcare" by Kai Zheng and "Deep Learning for Medical Image Analysis" by Stephanie L. Pullins. *   Open Educational Resources (OER): MIT OpenCourseWare and Stanford Engineering courses on AI. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students with a focus on biomedical applications. *   Varying levels of AI knowledge, with some familiarity with programming and mathematics. *   Expected Role After Completion: *   Design and develop AI-driven solutions for medical diagnostics, treatment, and research. *   Collaborate with healthcare professionals to implement AI technologies. *   Evaluate the performance and safety of AI-based medical devices.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of biomedical engineering with expertise in AI-driven healthcare solutions. *   Strong background in machine learning, medical imaging, and signal processing. *   Skills: *   Ability to explain complex AI concepts in the context of biomedical engineering. *   Experience in developing and deploying AI solutions for healthcare applications. *   Familiarity with ethical and regulatory considerations for AI in medicine.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as Python, TensorFlow, and medical image analysis software (e.g., ITK, 3D Slicer). *   Availability of medical imaging datasets and patient records for AI model training. *   High-performance computing resources for running AI algorithms. *   Institutional support for interdisciplinary collaboration with medical schools and hospitals. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental principles of AI and machine learning. 2.  Identify and evaluate AI applications in biomedical engineering. 3.  Apply AI algorithms to analyze medical images and patient data. 4.  Design and implement AI-driven diagnostic and treatment solutions. 5.  Assess the ethical and regulatory implications of AI in healthcare.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Implement AI algorithms for medical image segmentation and classification. *   Analyze patient data to predict disease risk and treatment outcomes. 2.  Group Project: *   Develop an AI-driven diagnostic tool or treatment planning system. *   Evaluate the performance and usability of the AI solution. 3.  Quizzes: *   Assess understanding of AI concepts and applications in biomedical engineering. 4.  Final Presentation: *   Present the design, implementation, and evaluation of the group project. 5.  Class Participation: *   Engage in discussions and contribute to problem-solving activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications, such as AI-driven cancer detection and personalized treatment planning. *   Activation: *   Review basic concepts of machine learning and medical imaging. *   Discuss the challenges and opportunities of AI in healthcare. *   Demonstration: *   Live demonstrations of AI tools for medical image analysis and patient data analysis. *   Guest lectures from AI experts in the biomedical engineering field. *   Application: *   Hands-on labs for implementing AI algorithms using Python and TensorFlow. *   Group exercises to design and evaluate AI-driven diagnostic and treatment solutions. *   Integration: *   Discuss the integration of AI into existing clinical workflows. *   Explore the ethical and regulatory considerations of AI in healthcare.</t>
+  </si>
+  <si>
+    <t>AI in Biosystems_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biosystems Engineering *   Definition: Biosystems Engineering integrates engineering principles with biological systems to design and develop sustainable solutions for agriculture, food, and the environment. AI enhances this field by enabling data-driven decision-making, automation, and optimization of complex biological processes. *   Relevance: AI is transforming biosystems engineering by improving efficiency, sustainability, and productivity in agricultural practices and environmental management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Crop Monitoring:  *   Use AI to analyze satellite imagery and sensor data to monitor crop health, detect diseases, and optimize irrigation. 2.  Precision Agriculture:  *   Employ AI algorithms to optimize planting, fertilizing, and harvesting processes, reducing waste and increasing yields. 3.  Biological System Modeling:  *   Develop AI models to simulate and predict the behavior of biological systems, aiding in the design of efficient and sustainable agricultural practices. 4.  Automated Irrigation Systems:  *   Implement AI-based systems that adjust irrigation based on real-time weather data, soil moisture levels, and plant water requirements. 5.  Livestock Monitoring:  *   Utilize AI to monitor livestock health and behavior, optimizing feeding and reducing disease spread. 6.  Weed and Pest Management:  *   Apply AI-powered image recognition to identify and target weeds and pests, reducing the need for broad-spectrum pesticides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Satellite Imagery: High-resolution images of agricultural fields for crop health assessment. *   Sensor Data from Agricultural Systems: Data from soil moisture sensors, weather stations, and plant growth monitors. *   Climate Reports: Historical and real-time climate data for predicting and managing environmental impacts. *   Yield Data: Information on crop yields, harvest times, and resource usage. *   Livestock Data: Data related to animal health, behavior, and productivity. *   Significance for AI Applications: *   Satellite imagery enables large-scale crop monitoring and early detection of stress factors. *   Sensor data allows for real-time optimization of agricultural practices. *   Climate reports aid in predicting and mitigating the effects of climate change on agriculture. *   Data understanding enables targeted AI techniques such as: *   Supervised learning for predicting crop yields. *   Unsupervised learning for identifying patterns in biological systems. *   Reinforcement learning for optimizing resource allocation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Data privacy concerns, potential bias in AI algorithms, and the impact on agricultural jobs. *   Legal Implications: Compliance with data protection regulations and ensuring responsible use of AI in agriculture. *   Social Implications: Changes in farming practices, potential for increased food security, and the need for retraining agricultural workers. *   Examples: *   Positive: Increased efficiency and sustainability in agricultural practices. *   Negative: Over-reliance on technology and potential job displacement in rural communities. </t>
+  </si>
+  <si>
+    <t>*   AI in Agriculture Research Papers: *   IEEE Xplore: Research articles on AI applications in agriculture. *   ScienceDirect: Publications on biosystems engineering and AI. *   Online Courses: *   Coursera: "AI for Agriculture" by the University of Pennsylvania. *   edX: "Sustainable Agriculture" by Wageningen University. *   Books: *   "Precision Agriculture: Technology and Management Practices" by David Mulla. *   "Artificial Intelligence in Agriculture" by P. Kalpana Devi. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Students in biosystems and agricultural engineering programs. *   Varying levels of AI knowledge, with some familiarity with basic programming concepts. *   Expected Role After Completion: *   Apply AI techniques to develop sustainable agricultural practices and optimize biological systems. *   Contribute to research and development in AI-driven biosystems engineering solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of biosystems engineering with expertise in AI-driven sustainability solutions. *   Strong background in agricultural practices, data analysis, and machine learning. *   Skills: *   Ability to bridge the gap between engineering principles and AI technologies. *   Experience in interdisciplinary teaching and mentoring students in research projects. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as Python, TensorFlow, and agricultural simulation software. *   Availability of domain-specific datasets, including satellite imagery and sensor data. *   Institutional support for interdisciplinary collaborations and access to high-performance computing resources. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to:  1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in biosystems engineering. 3.  Analyze and interpret data from agricultural systems using AI techniques. 4.  Develop AI models for crop monitoring, precision agriculture, and biological system optimization. 5.  Assess the ethical, legal, and social implications of using AI in agriculture. 6.  Design sustainable agricultural practices using AI-driven solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments:  *   Case studies on AI applications in agriculture. *   Data analysis and model development using Python and TensorFlow. 2.  Group Project:  *   Design and implement an AI-driven solution for a specific agricultural problem. *   Develop a comprehensive report and presentation on the project. 3.  Quizzes:  *   Regular quizzes on key concepts and applications. 4.  Final Exam:  *   Comprehensive exam covering all course topics. 5.  Class Participation:  *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in agriculture, such as crop disease detection and precision irrigation. *   Activation: *   Discussion on current challenges in agriculture and how AI can address them. *   Demonstration: *   Live demonstrations of AI tools and techniques for data analysis and model development. *   Application: *   Hands-on labs for building AI models for crop monitoring and yield prediction. *   Group exercises to simulate decision-making in agricultural settings using AI insights. *   Integration: *   Discussion on how AI can complement traditional agricultural practices and promote sustainability. *   Encourage students to propose AI-driven solutions for their own research projects or agricultural operations.</t>
+  </si>
+  <si>
+    <t>AI in Business_Economics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Economics *   Definition: Business Economics applies economic theory and quantitative methods to analyze business enterprises and the factors contributing to the diversity of organizational structures and the relationships of firms with labour, capital and product markets. AI enhances business economic analysis, forecasting, and decision-making processes. *   Relevance: AI is transforming traditional business economic practices by improving predictive accuracy, automating data analysis, and providing real-time insights for strategic decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Market Prediction: *   Utilize AI models to forecast market trends, consumer behavior, and demand fluctuations. 2.  Automated Financial Analysis: *   Employ AI to analyze financial statements, identify key performance indicators (KPIs), and assess investment opportunities. 3.  Customer Segmentation: *   Use AI algorithms to segment customers based on demographics, behavior, and preferences for targeted marketing strategies. 4.  AI-Driven Economic Modeling: *   Develop and simulate economic models using AI to understand complex market dynamics and policy impacts. 5.  Risk Management: *   Apply AI to identify and mitigate financial and economic risks. 6.  Supply Chain Optimization: *   Utilize AI to optimize supply chain operations, predict disruptions, and improve efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Market Trends: Historical market data, sales figures, and competitor analysis. *   Financial Reports: Balance sheets, income statements, and cash flow statements. *   Consumer Behavior Data: Purchase history, demographics, and online activity. *   Real-Time Stock Data: Stock prices, trading volumes, and market capitalization. *   Economic Indicators: GDP, inflation rates, unemployment rates, and interest rates. *   Significance for AI Applications: *   Market trends data enables accurate demand forecasting and market analysis. *   Financial reports provide insights into company performance and investment opportunities. *   Consumer behavior data facilitates personalized marketing and customer segmentation. *   Real-time stock data allows for algorithmic trading and portfolio optimization. *   Understanding the data types enables targeted AI techniques such as time series analysis for forecasting, regression for economic modeling, and clustering for customer segmentation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in algorithms, data privacy concerns, and transparency issues in AI-driven decisions. *   Legal Implications: Compliance with data protection regulations, liability for AI errors, and intellectual property rights. *   Social Implications: Job displacement due to automation, increased inequality, and the need for workforce retraining. *   Examples: *   Positive: Improved accuracy in economic forecasting, enhanced efficiency in financial analysis. *   Negative: Algorithmic bias leading to unfair lending practices, job losses due to automation. *   Domain-Specific Concerns: Ensuring fairness and transparency in AI models used for economic policy decisions, addressing the potential for market manipulation through AI-driven trading. </t>
+  </si>
+  <si>
+    <t>*   Business Case Studies: *   Harvard Business School Cases on AI in Finance and Economics. *   Ivey Business School Cases on AI-driven Business Models. *   Economic Forecasting Models: *   Resources from the National Bureau of Economic Research (NBER). *   Publications from the International Monetary Fund (IMF). *   AI-Powered Finance Tools: *   Tutorials and documentation for tools like Python with libraries such as TensorFlow, PyTorch, and Scikit-learn. *   Platforms like Bloomberg Terminal and Refinitiv Eikon for real-time financial data and analytics. *   Online Courses: *   Coursera: "AI in Finance" by Columbia University. *   edX: "Machine Learning for Business" by MIT. *   Udemy: "Artificial Intelligence for Business Economics" by various instructors. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Bachelor and Masters students in business and economics. *   Familiar with statistical and data analysis methods. *   Some exposure to programming languages like Python or R is beneficial but not required. *   Expected Role After Completion: *   Apply AI techniques to solve business economic problems. *   Evaluate and interpret AI-driven insights for decision-making. *   Communicate AI concepts to stakeholders. *   Develop and implement AI strategies in their professional roles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   PhD in Economics with a specialization in AI-driven decision-making. *   10 years of experience in business analytics. *   Strong background in econometrics, statistical modeling, and machine learning. *   Skills: *   Expertise in AI algorithms and techniques. *   Proficiency in programming languages such as Python and R. *   Ability to bridge the gap between economic theory and AI applications. *   Experience in teaching quantitative methods and business analytics. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget: Adequate funding for software licenses, cloud computing resources, and guest speakers. *   Personnel: Teaching assistants with expertise in data analysis and programming. *   Course Duration: One semester (15 weeks). *   Availability of Domain-Specific Data: Access to financial databases, economic datasets, and market research reports. *   Access to Software and Hardware: Cloud computing platforms, statistical software (e.g., Stata, EViews), and AI tools (e.g., TensorFlow, PyTorch). *   Institutional Support: Collaboration with the business and economics departments, support from the IT department, and access to interdisciplinary teaching resources. *   Constraints: Limited access to proprietary datasets, potential challenges in integrating different software tools, and the need for continuous updates to the course content due to the rapid evolution of AI technologies. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in business economics. 3.  Apply AI techniques to analyze economic data and forecast market trends. 4.  Interpret and communicate AI-driven insights to stakeholders. 5.  Assess the ethical, legal, and social implications of using AI in business economics. 6.  Develop and implement AI strategies for business decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Problem sets on applying AI techniques to economic data. *   Case studies on AI applications in business economics. 2.  Group Project: *   Develop an AI-driven solution to a real-world business economic problem. *   Present the project findings to the class. 3.  Quizzes: *   Regular quizzes on key concepts and techniques. 4.  Midterm Exam: *   Comprehensive exam covering the first half of the course. 5.  Final Exam: *   Comprehensive exam covering the entire course. 6.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in business economics, such as algorithmic trading, fraud detection, and economic forecasting. *   Activation: *   Discussions on current economic issues and how AI can be used to address them. *   Brainstorming sessions on potential AI applications in business economics. *   Demonstration: *   Live demonstrations of AI tools and techniques using real-world data. *   Guest lectures from industry experts on AI applications in business economics. *   Application: *   Hands-on labs on applying AI techniques to economic data using Python and R. *   Group projects on developing AI-driven solutions to business economic problems. *   Integration: *   Discussions on the ethical, legal, and social implications of using AI in business economics. *   Presentations on the potential impact of AI on the future of work in business and economics. *   Mix of Teaching Methods: *   Lectures: Provide theoretical background and conceptual understanding. *   Labs: Hands-on experience with AI tools and techniques. *   Discussions: Critical analysis of AI applications and their implications. *   Group Work: Collaborative problem-solving and project development.</t>
+  </si>
+  <si>
+    <t>AI in Business_Informatics.txt</t>
+  </si>
+  <si>
+    <t>Business Informatics *   Definition: Business Informatics applies IT to business processes, focusing on data management, system integration, and process optimization. AI enhances these areas by providing intelligent automation, predictive analytics, and improved decision support. *   Relevance: AI is revolutionizing how businesses manage data, streamline operations, and make strategic decisions, making it essential for modern business informatics.</t>
+  </si>
+  <si>
+    <t>*   Business Process Automation: Automate routine tasks and workflows using robotic process automation (RPA) and AI-driven systems. *   AI-Driven Decision Support Systems: Develop systems that analyze data to provide insights and recommendations for strategic decision-making. *   Enterprise AI Integration: Integrate AI solutions into existing enterprise systems (e.g., ERP, CRM) to enhance functionality and efficiency. *   Chatbot Development: Create AI-powered chatbots for customer service, internal support, and information retrieval. *   Predictive Maintenance: Use AI to predict equipment failures and optimize maintenance schedules in manufacturing or logistics. *   Supply Chain Optimization: Apply AI to manage and optimize supply chain processes, reducing costs and improving efficiency.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Enterprise Data: Data from various business functions, including finance, HR, and operations. *   Customer Relationship Management (CRM) Datasets: Customer data, sales records, and marketing campaign data. *   Sales Forecasts: Historical sales data and market trends. *   Employee Performance Metrics: Data related to employee productivity, performance reviews, and training records. *   Log Data: System and application logs for monitoring and troubleshooting. *   Significance for AI Applications: *   Enterprise data enables comprehensive AI solutions for business-wide optimization. *   CRM datasets facilitate personalized customer experiences and targeted marketing strategies. *   Sales forecasts support predictive analytics for better resource allocation. *   Employee performance metrics aid in HR analytics and workforce management. *   Data understanding enables targeted AI techniques like machine learning for predictions and NLP for communication insights.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Algorithmic bias, data privacy concerns, and transparency issues in decision-making. *   Legal Implications: Compliance with data protection laws (e.g., GDPR), intellectual property rights, and liability for AI-driven errors. *   Social Implications: Job displacement due to automation, the need for workforce retraining, and the impact on human interaction. *   Examples: *   Positive: Improved efficiency, better decision-making, and enhanced customer experiences. *   Negative: Potential job losses, biased algorithms leading to unfair outcomes, and privacy violations.</t>
+  </si>
+  <si>
+    <t>*   Books: *   "AI in Business Intelligence" by Mike Barlow. *   "Applied AI: A Handbook For Business Leaders" by Marianna Ganapini. *   Case Studies: *   Harvard Business Review case studies on AI adoption in enterprises. *   McKinsey reports on AI's impact on business. *   Online Courses: *   Coursera: "AI for Business" Specialization. *   Udacity: "AI Product Manager" Nanodegree. *   edX: "Artificial Intelligence" courses.  Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Informatics students specializing in business applications of AI. *   Familiar with database systems, data analysis tools, and basic programming concepts. *   Some basic understanding of business processes and workflows. *   Expected Role After Completion: *   Develop AI solutions for business automation and decision-making. *   Integrate AI technologies into existing enterprise systems. *   Lead AI initiatives within corporate environments.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Business IT. *   9 years of experience in AI-driven enterprise solutions. *   Master s in Business Analytics. *   Skills: *   Proficiency in AI technologies (e.g., machine learning, NLP). *   Expertise in enterprise systems and business processes. *   Strong analytical and problem-solving skills. *   Effective communication and teaching abilities.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: 16 weeks (one semester). *   Access to AI software platforms (e.g., TensorFlow, Python libraries). *   Availability of enterprise datasets for practical exercises. *   Computing resources (e.g., cloud-based AI platforms). *   Constraints: *   Budget limitations for software licenses and cloud services. *   Availability of real-world enterprise data. *   Time constraints for covering all AI topics in depth.  Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and its applications in business informatics. 2.  Identify and evaluate AI use cases for business process automation and decision support. 3.  Develop AI solutions for specific business problems using appropriate tools and techniques. 4.  Integrate AI technologies into existing enterprise systems. 5.  Analyze the ethical, legal, and social implications of AI in business. 6.  Communicate AI solutions effectively to both technical and non-technical stakeholders.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Case study analysis of AI applications in business. *   Development of AI models for predictive analytics. *   Group Project: *   Design and implementation of an AI-driven business solution. *   Presentation of the project to the class. *   Quizzes: *   Regular quizzes to assess understanding of key concepts. *   Exams: *   Midterm and final exams to evaluate comprehensive knowledge. *   Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Real-world case studies on AI in business, such as fraud detection, customer churn prediction, and supply chain optimization. *   Activation: *   Discussions on students' prior experiences with AI in business contexts. *   Brainstorming sessions to identify potential AI applications in different industries. *   Demonstration: *   Live demonstrations of AI tools and techniques (e.g., machine learning algorithms, chatbot development platforms). *   Guest lectures from industry experts on AI applications in business. *   Application: *   Hands-on labs for developing AI models and integrating them into enterprise systems. *   Group projects to design and implement AI-driven business solutions. *   Integration: *   Discussions on the role of AI in transforming business processes and decision-making. *   Guest lectures from industry experts on AI adoption strategies. *   Encourage students to propose AI solutions for their workplace.</t>
+  </si>
+  <si>
+    <t>AI in Business_Management.txt</t>
+  </si>
+  <si>
+    <t>Business Management *   Definition: Business Management involves overseeing and coordinating business operations to achieve organizational objectives. AI enhances this by providing tools for predictive analytics, automation, and data-driven decision-making. *   Relevance: AI transforms traditional business management by improving efficiency, providing real-time insights, and enabling smarter decisions in areas such as strategic planning, operations, and customer relations.</t>
+  </si>
+  <si>
+    <t>1.  AI-Driven Decision-Making: *   Utilize AI algorithms to analyze complex datasets and provide actionable insights for strategic decisions. 2.  Customer Behavior Analysis: *   Apply machine learning to understand customer preferences, predict future behavior, and personalize marketing efforts. 3.  Automated Financial Reporting: *   Implement AI to streamline financial reporting processes, improve accuracy, and reduce manual effort. 4.  Supply Chain Optimization: *   Use AI to predict demand, manage inventory, and optimize logistics for efficient supply chain operations. 5.  Human Resources Management: *   Apply AI in recruitment, employee training, and performance evaluation to enhance HR processes. 6.  Market Trend Analysis: *   Leverage AI to identify emerging market trends and opportunities, enabling proactive business strategies.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Market Analysis Reports: Data on market size, trends, and competitive landscape. *   Customer Feedback Data: Surveys, reviews, and social media data reflecting customer opinions and preferences. *   Business Intelligence Metrics: Key performance indicators (KPIs), sales data, and operational metrics. *   Financial Data: Balance sheets, income statements, and cash flow statements. *   Significance for AI Applications: *   Market analysis reports provide the basis for predictive modeling and strategic planning. *   Customer feedback data enables personalized marketing and improved customer service through sentiment analysis. *   Business intelligence metrics allow for performance monitoring and operational optimization. *   Financial data supports fraud detection, risk management, and investment decisions. *   Understanding this data enables targeted AI techniques such as supervised learning for predictions, NLP for sentiment analysis, and clustering for customer segmentation.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential for bias in algorithms, data privacy concerns, and transparency issues. *   Legal Implications: Compliance with data protection laws, regulations related to AI use, and liability for AI-driven errors. *   Social Implications: Impact on workforce dynamics, job displacement, and the need for reskilling and upskilling. *   Examples: *   Positive: Enhanced decision-making through data-driven insights, increased efficiency, and improved customer experiences. *   Negative: Potential for job losses due to automation, algorithmic bias leading to unfair outcomes, and privacy breaches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Business Strategy Textbooks: *   "Competing in the Age of AI" by Marco Iansiti and Karim R. Lakhani. *   "AI for Business: A Manager s Guide to Understanding and Implementing Artificial Intelligence" by Nicolaus Henke, Jacques Bughin, and Michael Chui. *   Case Studies on AI in Corporate Decision-Making: *   Harvard Business Review: Articles and case studies on AI applications in business. *   MIT Sloan Management Review: Research and insights on AI strategy and implementation. *   Online Courses: *   Coursera: "AI for Business" by various universities and organizations. *   Udacity: "AI Product Manager Nanodegree."  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>*   Learners: *   Business administration students with an interest in AI applications. *   Varying levels of prior AI knowledge, ranging from novice to intermediate. *   Basic understanding of business principles and data analysis. *   Expected Role After Completion: *   Apply AI tools and techniques to improve business efficiency. *   Participate in strategic planning and decision-making processes using AI insights. *   Manage and oversee AI projects within their organizations.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of business management with expertise in AI-driven analytics. *   Advanced degree in business administration or a related field. *   Experience in teaching and research related to AI applications in business. *   Skills: *   Proficiency in AI tools and techniques, such as machine learning, data mining, and natural language processing. *   Strong understanding of business principles and practices. *   Excellent communication and teaching skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget for software, hardware, and data resources. *   Access to business-related datasets and analytical tools. *   Support for interdisciplinary teaching and collaboration with AI experts. *   Constraints: *   Limited access to specialized AI software or hardware. *   Time constraints due to course duration and student workload. *   Potential lack of domain-specific data for certain AI applications.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its applications in business management. 2.  Identify and evaluate AI use cases in various business functions. 3.  Apply AI techniques to analyze business data and generate actionable insights. 4.  Develop AI-driven strategies for improving business efficiency and decision-making. 5.  Assess the ethical, legal, and social implications of AI in business.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Case studies on AI applications in business. *   Data analysis projects using AI tools. 2.  Group Project: *   Develop an AI-driven business strategy for a specific organization. *   Present the project to the class, demonstrating the potential impact of AI. 3.  Quizzes: *   Assess understanding of key AI concepts and techniques. 4.  Final Exam: *   Comprehensive evaluation of knowledge and skills acquired throughout the course. 5.  Class Participation: *   Active engagement in discussions and activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Real-world case studies on AI in business management, such as Amazon's supply chain optimization or Netflix's recommendation system. *   Activation: *   Discussions on personal experiences with AI in business and brainstorming potential applications. *   Demonstration: *   Live demonstrations of AI tools and techniques, such as machine learning algorithms and data visualization software. *   Application: *   Hands-on labs for analyzing business data using AI tools. *   Group exercises for developing AI-driven strategies and solutions. *   Integration: *   Discussions on how AI can complement traditional business practices and improve overall organizational performance. *   Guest lectures from industry experts on AI applications in business.</t>
+  </si>
+  <si>
+    <t>AI in Chemical_and_Energy_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Chemical and Energy Engineering  *   Definition: Chemical and Energy Engineering involves the design, operation, and optimization of chemical processes and energy systems. AI integration aims to enhance efficiency, safety, and sustainability through data-driven insights and automation. *   Relevance: AI is revolutionizing chemical and energy industries by optimizing processes, predicting equipment failures, and improving energy management, leading to increased productivity and reduced environmental impact.</t>
+  </si>
+  <si>
+    <t>1.  Process Optimization:  *   Use AI algorithms to optimize chemical process parameters (e.g., temperature, pressure, flow rates) for maximum yield and efficiency. 2.  Predictive Maintenance in Refineries:  *   Employ machine learning models to predict equipment failures and schedule maintenance activities proactively, minimizing downtime. 3.  AI-Driven Energy Consumption Forecasting:  *   Develop AI models to forecast energy demand and optimize energy distribution, reducing waste and improving grid stability. 4.  Process Safety:  *   Use AI for real-time monitoring of chemical processes to detect anomalies and prevent accidents. 5.  Catalyst Design:  *   Apply AI to accelerate the discovery and design of novel catalysts with enhanced performance. 6.  Supply Chain Optimization:  *   Utilize AI to optimize the supply chain for chemical products, improving logistics and reducing costs.</t>
+  </si>
+  <si>
+    <t>*   Types of Data:  *   Sensor Data: Real-time measurements from chemical plants (temperature, pressure, flow rates, concentrations). *   Energy Production and Consumption Data: Data on energy generation, distribution, and usage patterns. *   Safety Reports: Incident reports, safety inspections, and near-miss data. *   Laboratory Experimental Data: Results from chemical experiments and simulations. *   Significance for AI Applications:  *   Sensor data enables real-time process monitoring and optimization. *   Energy data allows for accurate demand forecasting and efficient resource allocation. *   Safety reports help in identifying potential hazards and improving safety protocols. *   Experimental data accelerates catalyst discovery and process development. *   Data understanding enables targeted AI techniques like time series analysis for forecasting, anomaly detection for safety, and regression models for process optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Data privacy concerns, algorithmic bias in decision-making, and job displacement due to automation. *   Legal Implications: Compliance with environmental regulations, data protection laws, and safety standards. *   Social Implications: Impact on workforce skills, the need for retraining, and ensuring equitable access to AI benefits. *   Examples:  *   Positive: Enhanced safety through predictive maintenance and optimized energy consumption, reducing environmental impact. *   Negative: Potential for accidents due to algorithmic errors or biased decision-making. </t>
+  </si>
+  <si>
+    <t>*   Research Papers:  *   Journals such as "AIChE Journal," "Energy &amp; Fuels," and "Computers &amp; Chemical Engineering." *   Industry Reports:  *   Reports from organizations like the International Energy Agency (IEA) and the American Chemistry Council (ACC). *   Online Courses:  *   Coursera: "AI for Process Engineering" by University of Texas. *   EdX: "Machine Learning for Energy Systems" by MIT. *   Udemy: "AI in Chemical Engineering" by various instructors. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners:  *   Engineering students specializing in chemical processes and energy systems. *   Basic programming knowledge (e.g., Python, MATLAB). *   Expected Role After Completion:  *   Apply AI for process safety, energy efficiency, and predictive maintenance in chemical industries. *   Collaborate with AI specialists to implement and manage AI-driven solutions.</t>
+  </si>
+  <si>
+    <t>*   Qualifications:  *   Professor of Process Engineering. *   7 years of experience in AI-driven industrial automation. *   Skills:  *   Expertise in chemical process modeling, optimization, and control. *   Proficiency in machine learning, data analytics, and AI algorithms. *   Experience in teaching and mentoring engineering students.</t>
+  </si>
+  <si>
+    <t>*   Resources:  *   Course duration: One semester (12-14 weeks). *   Access to software tools such as Python (with libraries like TensorFlow, PyTorch, scikit-learn), MATLAB, and process simulation software (e.g., Aspen Plus). *   Availability of domain-specific datasets from chemical plants and energy systems. *   Institutional support for interdisciplinary teaching and research. *   Budget for software licenses and computational resources (e.g., cloud computing). ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>By the end of the course, students will be able to:  1.  Understand the fundamental concepts of AI and machine learning. 2.  Apply AI techniques for process optimization in chemical plants. 3.  Develop predictive maintenance models for equipment in refineries. 4.  Implement AI-driven energy consumption forecasting models. 5.  Analyze and interpret sensor data for real-time process monitoring. 6.  Evaluate the ethical, legal, and social implications of AI in chemical and energy engineering.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments:  *   Coding assignments to implement AI algorithms for process optimization. *   Case studies on AI applications in chemical and energy industries. 2.  Group Project:  *   Develop an AI-driven solution for a real-world problem in chemical or energy engineering. *   Project report and presentation. 3.  Quizzes:  *   Regular quizzes on key AI concepts and applications. 4.  Midterm Exam:  *   Comprehensive exam covering the fundamentals of AI and its applications in the domain. 5.  Final Exam:  *   Focus on advanced topics and problem-solving skills.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered:  *   Case studies on real-world AI applications, such as process optimization in a chemical plant or predictive maintenance in a refinery. *   Activation:  *   Discussions on students' prior experiences with data analysis and modeling in chemical and energy engineering. *   Demonstration:  *   Live demonstrations of AI tools and techniques using software like Python and MATLAB. *   Guest lectures from industry experts on AI applications in chemical and energy industries. *   Application:  *   Hands-on labs for implementing AI algorithms on real-world datasets. *   Group exercises to simulate decision-making in chemical and energy engineering using AI insights. *   Integration:  *   Discussions on how AI can complement traditional engineering practices. *   Encourage students to develop proposals for applying AI in their future careers.</t>
+  </si>
+  <si>
+    <t>AI in Chemical_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Chemical Engineering - Molecular and Structural Product Design *   Definition: The application of chemical engineering principles at the molecular level to design and develop products with specific properties and functions. This involves manipulating molecular structures and compositions to achieve desired macroscopic characteristics. AI enhances this process by predicting properties, optimizing structures, and accelerating design cycles. *   Relevance: AI is revolutionizing molecular product design by enabling faster and more accurate property predictions, optimizing molecular structures for specific applications, and accelerating the discovery of novel materials and drugs.</t>
+  </si>
+  <si>
+    <t>1.  AI-Driven Molecular Modeling: *   Utilize AI algorithms to predict molecular properties (e.g., stability, reactivity) and behavior based on their structure. 2.  Drug Discovery: *   Employ machine learning to identify potential drug candidates, predict their efficacy, and optimize their binding affinity to target proteins. 3.  Material Property Prediction: *   Use AI models to predict material properties (e.g., strength, conductivity, thermal stability) based on their composition and structure. 4.  Process Simulation: *   Leverage AI to optimize chemical processes, predict reaction outcomes, and design efficient separation techniques. 5.  Polymer Design: *   Use AI to design polymers with specific properties, such as biodegradability or high tensile strength, for various applications. 6.  Catalyst Design: *   Employ AI to identify and optimize catalysts for specific chemical reactions, enhancing reaction rates and selectivity.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Molecular Structures: 2D and 3D representations of molecules, including atom coordinates and bond connectivity. *   Computational Chemistry Simulations: Data from simulations like molecular dynamics, density functional theory (DFT), and Monte Carlo methods. *   Chemical Reaction Data: Information on reactants, products, reaction conditions, and reaction rates. *   Material Property Databases: Experimental data on material properties like melting point, boiling point, density, and mechanical strength. *   Significance for AI Applications: *   Molecular structures provide the basis for predicting molecular properties and designing new molecules. *   Computational chemistry simulations generate data for training AI models to predict molecular behavior. *   Chemical reaction data enables AI to optimize reaction conditions and predict reaction outcomes. *   Material property databases provide the ground truth for training AI models to predict material properties. *   Data Understanding for Targeted AI Techniques: *   Understanding the nuances of molecular structures allows for the application of graph neural networks (GNNs) for property prediction. *   Knowledge of computational chemistry methods helps in developing physics-informed machine learning models. *   Familiarity with chemical reactions enables the use of sequence-to-sequence models for reaction prediction. *   Expertise in material science facilitates the selection of relevant features for predicting material properties.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential for bias in AI models, concerns about data privacy, and the need for transparency in AI-driven decisions. *   Legal Implications: Intellectual property rights related to AI-designed molecules and materials, regulatory compliance for AI-driven drug discovery. *   Social Implications: Impact on the job market for chemical engineers, potential for AI to democratize access to advanced materials and drugs. *   Examples: *   Positive: Accelerated discovery of life-saving drugs, development of sustainable materials, and optimized chemical processes. *   Negative: Misuse of AI to design harmful chemicals, bias in AI models leading to unfair outcomes, and job displacement due to automation. *   Domain-Specific Concerns: *   Ensuring the safety and reliability of AI-designed molecules and materials. *   Addressing the challenges of data scarcity and high dimensionality in chemical engineering. *   Developing robust validation methods for AI models in molecular product design.</t>
+  </si>
+  <si>
+    <t>*   Journals: *   *Journal of Chemical Information and Modeling* *   *ACS Central Science* *   *Nature Chemistry* *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng *   edX: "Introduction to Computational Thinking and Data Science" by MIT *   Udemy: "Deep Learning in Python" *   AI-Powered Molecular Modeling Tools: *   Schr dinger Materials Science Suite *   OpenEye Scientific Software *   Accelrys Discovery Studio  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Advanced chemical engineering students specializing in molecular-level product design. *   Some prior knowledge of chemical engineering principles and molecular modeling. *   Varying levels of familiarity with AI and machine learning concepts. *   Expected Role After Completion: *   Apply AI techniques to enhance molecular product design and accelerate drug discovery. *   Critically evaluate the results of AI-driven simulations and experiments. *   Collaborate with AI specialists to develop new AI tools for chemical engineering.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Ph.D. in Computational Chemistry with expertise in AI applications in material science. *   Experience in teaching advanced chemical engineering courses. *   Strong publication record in AI-driven molecular design. *   Skills: *   Proficiency in AI algorithms, molecular modeling software, and programming languages (e.g., Python). *   Ability to explain complex AI concepts in a clear and accessible manner. *   Experience in mentoring students in research projects.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Adequate budget for software licenses, computing resources, and teaching assistants. *   Access to high-performance computing clusters for running AI simulations. *   Availability of domain-specific data, such as molecular databases and chemical reaction data. *   Constraints: *   Limited time for hands-on training due to the complexity of AI tools. *   Potential challenges in integrating AI concepts into the existing chemical engineering curriculum. *   Institutional Support: *   Support for interdisciplinary teaching and collaboration with AI experts. *   Funding for research projects that combine AI and chemical engineering.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental principles of AI and machine learning. 2.  Apply AI algorithms to predict molecular properties and design new molecules. 3.  Utilize AI tools for drug discovery and material property prediction. 4.  Critically evaluate the results of AI-driven simulations and experiments. 5.  Design and implement AI solutions for specific chemical engineering problems. 6.  Understand the ethical, legal, and social implications of using AI in chemical engineering.</t>
+  </si>
+  <si>
+    <t>1.  Homework Assignments: *   Solve problems related to AI algorithms and their application in chemical engineering. 2.  Midterm Exam: *   Assess students' understanding of AI concepts and their ability to apply them to chemical engineering problems. 3.  Project: *   Design and implement an AI solution for a specific chemical engineering problem. 4.  Presentation: *   Present the results of the project to the class. 5.  Participation: *   Actively participate in class discussions and activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in chemical engineering, such as AI-driven drug discovery and material design. *   Activation: *   Review fundamental concepts of chemical engineering and molecular modeling. *   Discuss students' prior experiences with AI and machine learning. *   Demonstration: *   Demonstrate the use of AI tools for molecular property prediction and drug discovery. *   Show examples of successful AI applications in chemical engineering. *   Application: *   Hands-on labs where students apply AI algorithms to solve chemical engineering problems. *   Group projects where students design and implement AI solutions for specific problems. *   Integration: *   Discuss how AI can be integrated into the existing chemical engineering curriculum. *   Encourage students to develop new AI tools for chemical engineering. *   Invite guest speakers from industry to share their experiences with AI in chemical engineering.</t>
+  </si>
+  <si>
+    <t>AI in ComputationalVisualistics.txt</t>
+  </si>
+  <si>
+    <t>Computational Visualistics  *   Definition: Computational Visualistics is an interdisciplinary field that combines computer science, computer graphics, and visualization techniques to create, analyze, and understand visual data. The integration of AI enhances these processes through automated analysis, improved realism, and intelligent interaction. *   Relevance: AI is transforming how visual data is processed and understood, enabling advancements in areas like image recognition, 3D modeling, and multimedia analytics.</t>
+  </si>
+  <si>
+    <t>*   AI-Driven Image Processing: *   Using AI algorithms to enhance, restore, and analyze images. *   Deep Learning for Visual Recognition: *   Applying deep learning models for object detection, image classification, and scene understanding. *   3D Modeling: *   Employing AI to automate and optimize the creation of 3D models from various data sources. *   AI-Enhanced Rendering: *   Using AI to improve the realism and efficiency of rendering techniques. *   Visual Data Analysis: *   Leveraging AI for extracting insights and patterns from large visual datasets.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Computer Vision Datasets: Large collections of images and videos used for training AI models (e.g., ImageNet, COCO). *   3D Model Files: Data representing 3D objects in formats like OBJ, FBX, and glTF. *   Multimedia Analytics: Data from video streams, image sequences, and other visual sources. *   Point Cloud Data: Data representing 3D space as a set of points, often acquired from LiDAR or depth sensors. *   Significance for AI Applications: *   These datasets are essential for training and validating AI models in visual recognition and processing tasks. *   Understanding this data enables targeted AI techniques: *   Computer vision datasets facilitate supervised learning for image recognition and object detection. *   3D model data enables generative models for creating new 3D content.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Concerns about bias in AI algorithms, privacy issues related to facial recognition, and the potential for misuse of AI-generated content. *   Legal Implications: Compliance with data protection regulations, intellectual property rights for AI-generated designs, and liability for errors in AI-driven systems. *   Social Implications: Impact on employment in creative industries, the potential for AI to perpetuate stereotypes, and the need for transparency in AI decision-making. *   Examples: *   Positive: AI enhancing medical imaging for more accurate diagnoses. *   Negative: AI being used to generate deceptive deepfake videos.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Computational Visualistics. *   Expertise in AI-powered imaging techniques and computer graphics. *   Ph.D. in Computer Science or related field. *   Skills: *   Deep understanding of AI algorithms and their applications in visual computing. *   Experience in teaching computer graphics, image processing, and machine learning. *   Ability to communicate complex technical concepts effectively.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget for software licenses (e.g., TensorFlow, PyTorch). *   Access to computing resources (e.g., GPU servers, cloud computing). *   Availability of domain-specific datasets. *   Constraints: *   Limited access to high-end hardware. *   Course duration: One semester (12-14 weeks). *   Institutional support for interdisciplinary teaching: *   Collaboration with other departments (e.g., mathematics, statistics).  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Describe the fundamental concepts of AI and machine learning relevant to visual computing. 2.  Apply AI algorithms to solve problems in image processing, computer vision, and 3D modeling. 3.  Implement deep learning models for visual recognition tasks. 4.  Evaluate the performance of AI models and optimize their parameters. 5.  Analyze the ethical and social implications of AI in visual computing.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Implement image processing algorithms using AI techniques. *   Analyze and compare different AI models for object detection. *   Group Project: *   Develop an AI-powered application for a specific visual computing task (e.g., creating a 3D model from images). *   Exams: *   Midterm and final exams covering key concepts and algorithms. *   Presentations: *   Present research papers on AI in visual computing. *   Class Participation: *   Active engagement in discussions and problem-solving activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in visual computing (e.g., medical image analysis, autonomous driving). *   Activation: *   Discuss students' prior experiences with visual data and AI technologies. *   Demonstration: *   Live demonstrations of AI tools and techniques (e.g., using TensorFlow to train an image classifier). *   Application: *   Hands-on labs for implementing AI algorithms and building visual applications. *   Group exercises to simulate real-world problem-solving scenarios. *   Integration: *   Discuss how AI can be integrated with traditional visual computing techniques. *   Encourage students to explore potential applications of AI in their own research or projects. *   Teaching Methods: *   Lectures, labs, discussions, group work. *   Guest lectures from industry experts. *   Project-based learning.</t>
+  </si>
+  <si>
+    <t>AI in Computational_Mathematics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Mathematics *   Definition: Computational Mathematics involves using mathematical methods and algorithms to solve scientific and engineering problems. AI enhances capabilities in solving complex equations, simulating systems, and optimizing algorithms. *   Relevance: AI transforms traditional computational methods by providing automated solutions, improving accuracy, and enabling real-time insights in areas like data analysis, modeling, and simulations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI for mathematical theorem proving: Automate and accelerate the process of proving complex mathematical theorems. *   Complex numerical simulations: Enhance the accuracy and speed of numerical simulations in various scientific domains. *   Optimization algorithms: Develop and optimize algorithms for solving complex mathematical problems efficiently. *   Equation Solving: Use AI for solving differential equations and algebraic equations. *   Mathematical Modeling: AI for creating and analyzing mathematical models. *   Symbolic Integration: Automate and improve symbolic integration techniques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Mathematical models: Equations, formulas, and representations of mathematical systems. *   Statistical computations: Data generated from statistical analysis and simulations. *   Big data analytics: Large datasets used in mathematical and computational analysis. *   Significance for AI Applications: *   Mathematical models enable AI training for equation solving and simulations. *   Statistical computations provide data for AI-driven optimization and analysis. *   Understanding data enables targeted AI techniques like supervised learning for predictions and pattern recognition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Risk of bias in algorithms, transparency concerns, and data privacy issues. *   Legal Implications: Compliance with data protection regulations and intellectual property rights. *   Social Implications: Changes in research methodologies, potential job displacement, and improved access to mathematical solutions. *   Examples: *   Positive: Enhanced problem-solving through AI-driven insights. *   Negative: Misuse of AI leading to incorrect or biased results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Research papers on AI in mathematical modeling. *   AI-driven numerical methods. *   Online courses on AI for mathematics. *   Books on computational mathematics with AI applications. *   Journals focusing on AI in science and engineering.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Mathematics and computer science students. *   Varying levels of AI knowledge, with a foundation in mathematical concepts. *   Expected Role After Completion: *   Apply AI tools to solve mathematical and computational problems efficiently. *   Develop AI-driven solutions for research and practical applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of computational mathematics. *   Expertise in AI-driven problem-solving. *   Skills: *   Strong grasp of mathematical concepts and AI technologies. *   Ability to integrate AI into computational mathematics curricula. *   Experience in interdisciplinary teaching and research. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Course duration: One semester (12 14 weeks). *   Access to software tools like MATLAB, Python, and TensorFlow. *   Availability of mathematical datasets and computational resources. *   Institutional support for interdisciplinary projects.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will: 1.  Understand the basics of AI and its relevance to computational mathematics. 2.  Identify and evaluate AI applications in mathematical theorem proving, numerical simulations, and optimization algorithms. 3.  Apply AI tools to solve complex mathematical problems efficiently. 4.  Recognize ethical, legal, and societal considerations of using AI in mathematics. 5.  Develop AI-driven solutions for domain-specific problems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Individual Assignments: *   Analyze case studies on AI in mathematical modeling. *   Group Project: *   Design an AI-driven solution for a computational mathematics problem. *   Quizzes: *   Weekly quizzes on key AI concepts and applications. *   Final Presentation: *   Present a mathematical problem, propose an AI solution, and discuss implications. *   Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in mathematics. *   Activation: *   Reflect on personal experiences with computational mathematics and identify AI potential in known scenarios. *   Demonstration: *   Live demonstrations of AI tools for equation solving and simulations. *   Application: *   Hands-on labs for creating basic AI models using mathematical data. *   Group exercises to simulate mathematical problem-solving with AI insights. *   Integration: *   Discuss how AI can complement traditional mathematical practices. *   Encourage students to develop proposals for applying AI in their research.</t>
+  </si>
+  <si>
+    <t>AI in Computational_Methods_in_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Computational Methods in Engineering  *   Definition: Computational methods in engineering involve using numerical techniques and algorithms to solve complex engineering problems. AI enhances these methods by improving accuracy, efficiency, and automation in areas such as simulation, optimization, and design. *   Relevance: AI is transforming traditional engineering processes by enabling faster simulations, optimizing designs, and providing intelligent insights into complex systems.</t>
+  </si>
+  <si>
+    <t>*   AI-based Simulations: *   Use AI algorithms to accelerate simulation processes, reduce computational costs, and improve the accuracy of results. *   Finite Element Analysis (FEA) Optimization: *   Employ AI to optimize FEA models, automate mesh generation, and improve the efficiency of structural analysis. *   AI-driven CAD/CAM: *   Integrate AI into CAD/CAM systems to automate design processes, optimize manufacturing parameters, and enhance product quality. *   Predictive Maintenance: *   Utilize AI to analyze sensor data from engineering systems to predict maintenance needs and prevent failures. *   Material Discovery: *   Apply AI to accelerate the discovery of new materials with desired properties through simulations and data analysis.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Simulation Results: Data generated from computational simulations, including stress, strain, temperature, and flow parameters. *   Sensor Data: Real-time measurements from sensors monitoring the performance of engineering systems. *   Optimization Parameters: Data related to design variables, constraints, and objective functions used in optimization algorithms. *   Significance for AI Applications: *   Simulation results enable training AI models to predict system behavior and optimize designs. *   Sensor data allows for real-time monitoring and predictive maintenance of engineering systems. *   Optimization parameters facilitate the development of AI-driven optimization algorithms for improved performance. *   Data understanding enables targeted AI techniques such as supervised learning for predictions, reinforcement learning for optimization, and unsupervised learning for pattern discovery.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring fairness and transparency in AI-driven engineering decisions, addressing potential biases in algorithms. *   Legal Implications: Compliance with industry standards and regulations, ensuring accountability for AI-driven failures. *   Social Implications: Impact on the engineering workforce, the need for retraining and upskilling to adapt to AI-driven workflows. *   Examples: *   Positive: Enhanced accuracy and efficiency in engineering simulations, leading to better product designs. *   Negative: Over-reliance on AI models leading to a lack of critical thinking and potential errors in decision-making.</t>
+  </si>
+  <si>
+    <t>*   AI-driven Engineering Simulation Courses: *   Online courses focusing on the application of AI in engineering simulations (e.g., Coursera, Udemy). *   Case Studies on AI in Computational Mechanics: *   Research papers and articles showcasing real-world applications of AI in computational mechanics. *   Open Source AI Libraries: *   TensorFlow, PyTorch, and other AI libraries for developing and implementing AI models in engineering simulations.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students specializing in computational simulations. *   Some familiarity with programming and numerical methods. *   Limited experience with AI and machine learning techniques. *   Expected Role After Completion: *   Apply AI methods to enhance engineering simulations, optimize designs, and improve decision-making in their respective fields.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Mechanical Engineering with expertise in AI-powered simulations. *   Strong background in computational mechanics, numerical methods, and machine learning. *   Experience in teaching and mentoring engineering students. *   Skills: *   Proficiency in AI programming languages (e.g., Python) and AI libraries (e.g., TensorFlow, PyTorch). *   Ability to bridge the gap between theoretical AI concepts and practical engineering applications.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to high-performance computing resources for running AI-driven simulations. *   Availability of engineering simulation software (e.g., ANSYS, Abaqus) with AI integration. *   Institutional support for interdisciplinary collaboration between engineering and computer science departments.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning techniques. 2.  Apply AI algorithms to enhance engineering simulations and optimization processes. 3.  Analyze simulation results and sensor data using AI-driven methods. 4.  Evaluate the ethical, legal, and social implications of using AI in engineering. 5.  Design and implement AI-powered solutions for real-world engineering problems.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Implement AI algorithms for simulating and optimizing simple engineering systems. *   Group Project: *   Develop an AI-driven solution for a complex engineering problem, such as predicting the performance of a mechanical component or optimizing the design of a structure. *   Quizzes: *   Assess understanding of key AI concepts and their application in engineering. *   Final Presentation: *   Present the results of the group project and discuss the implications of using AI in their chosen engineering domain. *   Class Participation: *   Encourage active engagement in discussions and problem-solving activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in engineering, such as AI-driven design optimization in the automotive industry or predictive maintenance in aerospace. *   Activation: *   Discuss the limitations of traditional engineering simulation methods and the potential benefits of using AI. *   Demonstration: *   Live demonstrations of AI tools and techniques for engineering simulation and optimization. *   Application: *   Hands-on labs for implementing AI algorithms and applying them to solve engineering problems. *   Integration: *   Encourage students to integrate AI techniques into their existing engineering workflows and practices. *   Utilize a mix of teaching methods: Lectures, labs, discussions, and group work should be utilized to engage learners effectively.</t>
+  </si>
+  <si>
+    <t>AI in Computer_Science.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science *   Definition: Computer Science is the study of computation and information. AI within this domain involves designing, developing, and implementing intelligent systems and algorithms. *   Relevance: AI is integral to modern computer science, driving innovation in areas such as software development, data analysis, and system optimization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Natural Language Processing (NLP): *   Development of chatbots, language translation tools, and sentiment analysis systems. *   Computer Vision: *   Image recognition, object detection, and video analysis applications. *   Reinforcement Learning: *   Training AI agents for robotics, game playing, and resource management. *   AI Ethics: *   Addressing bias in AI algorithms, ensuring fairness, and promoting responsible AI development. *   Automated Code Generation: *   Using AI to assist in writing, debugging, and optimizing code. *   Cybersecurity: *   Employing AI for threat detection, anomaly analysis, and automated security responses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Text Data: Documents, code, and user inputs for NLP tasks. *   Image Datasets: Collections of images for training computer vision models. *   Big Data: Large-scale datasets for training complex AI models. *   Training Models: Pre-trained AI models that can be fine-tuned for specific applications. *   Significance for AI Applications: *   Text data enables the development of intelligent language-based applications. *   Image datasets are crucial for training models to understand and interpret visual information. *   Big data facilitates the creation of robust and accurate AI models. *   Understanding of data enables targeted AI techniques like deep learning for complex pattern recognition and NLP for semantic understanding. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Bias in algorithms, data privacy concerns, and transparency issues. *   Legal Implications: Compliance with data protection laws, intellectual property rights, and liability for AI-driven errors. *   Social Implications: Job displacement due to automation, the impact of AI on human interaction, and accessibility of AI technologies. *   Examples: *   Positive: Enhanced productivity through automated tasks. *   Negative: Unfair or discriminatory outcomes resulting from biased AI systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI Textbooks: *   "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig. *   "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville. *   Online Machine Learning Courses: *   Coursera: "Machine Learning" by Andrew Ng. *   Udacity: "Intro to Machine Learning." *   Open-Source AI Frameworks: *   TensorFlow. *   PyTorch. *   Keras. *   Research Papers: *   arXiv (for the latest AI research). *   Journal of Machine Learning Research (JMLR).  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Computer science students, many familiar with AI concepts. *   Varying levels of programming and mathematical skills. *   Expected Role After Completion: *   Develop and deploy AI models for various applications. *   Contribute to AI research and development. *   Understand the ethical and societal implications of AI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of AI with a Ph.D. in Computer Science. *   Industry experience in deep learning and data science. *   Skills: *   Expertise in AI algorithms, machine learning, and deep learning. *   Ability to explain complex concepts clearly and concisely. *   Experience in designing and implementing AI projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget for software licenses, cloud computing resources, and datasets. *   Teaching assistants to support students with programming assignments. *   Availability of domain-specific data. *   Access to high-performance computing resources (GPUs). *   Institutional support for interdisciplinary teaching and collaboration. *   Constraints: *   Limited budget for advanced AI tools and resources. *   Potential lack of domain-specific data for certain AI applications.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Implement and evaluate AI models for NLP tasks. 2.  Develop computer vision applications using deep learning techniques. 3.  Train AI agents using reinforcement learning algorithms. 4.  Analyze and address ethical issues in AI development. 5.  Apply AI techniques to solve real-world computer science problems. 6. Understand and implement various machine learning algorithms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Programming Assignments: *   Implement AI algorithms and models in Python. 2.  Projects: *   Develop AI applications for specific computer science problems. 3.  Exams: *   Assess understanding of AI concepts and techniques. 4.  Presentations: *   Present AI project findings and discuss ethical implications. 5.  Class Participation: *   Engage in discussions and contribute to group activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in computer science, such as Google Translate and self-driving cars. *   Activation: *   Discuss students' prior experiences with AI and identify potential AI applications in their areas of interest. *   Demonstration: *   Live demonstrations of AI tools and frameworks, such as TensorFlow and PyTorch. *   Application: *   Hands-on labs for implementing AI algorithms and models. *   Group projects to develop AI applications for specific computer science problems. *   Integration: *   Discuss how AI can be integrated into various computer science disciplines, such as software engineering and data science. *   Encourage students to develop proposals for applying AI in their future careers. *   Teaching Methods: *   Lectures to introduce AI concepts and techniques. *   Labs for hands-on experience with AI tools and frameworks. *   Discussions to explore ethical and societal implications of AI. *   Group work for collaborative AI project development.</t>
+  </si>
+  <si>
+    <t>AI in Computer_Systems_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Systems Engineering *   Definition: Computer Systems Engineering involves the design, development, and integration of computer hardware and software systems. AI integration enhances system performance, automation, and intelligent decision-making. *   Relevance: AI transforms traditional computer systems by enabling intelligent embedded systems, enhancing cybersecurity, and creating real-time control systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Powered Embedded Systems: *   Optimize energy consumption, improve performance, and enable autonomous decision-making in embedded devices. 2.  Cybersecurity: *   Use AI for threat detection, anomaly detection, and automated incident response in computer networks. 3.  AI-Driven Real-Time Control Systems: *   Implement AI algorithms for real-time control of industrial processes and robotic systems. 4.  Predictive Maintenance: *   Use AI to analyze sensor data and predict equipment failures in computer systems infrastructure. 5.  Resource Management: *   Optimize resource allocation in data centers and cloud computing environments using AI. 6.  Automated Testing and Debugging: *   Employ AI to automate software testing and identify bugs in complex computer systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   IoT Sensor Logs: Data from sensors monitoring environmental conditions, equipment status, etc. *   System Performance Reports: Metrics on CPU usage, memory utilization, network traffic, and I/O operations. *   Software Logs: Application logs, system logs, and security logs. *   Significance for AI Applications: *   IoT sensor logs enable predictive maintenance and anomaly detection. *   System performance reports allow for resource optimization and performance tuning. *   Software logs are crucial for cybersecurity applications, such as threat detection and incident response. *   Understanding the data enables targeted AI techniques like time-series analysis for predictive maintenance and machine learning for cybersecurity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Concerns about bias in AI algorithms, data privacy, and transparency. *   Legal Implications: Compliance with data protection regulations, liability for AI-driven errors, and intellectual property rights. *   Social Implications: Impact on workforce skills, potential job displacement, and ensuring equitable access to AI-driven technologies. *   Examples: *   Positive: Improved system reliability, enhanced security, and increased efficiency. *   Negative: Potential for misuse of AI in surveillance systems, algorithmic bias leading to unfair outcomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Textbooks: *   "AI and Machine Learning for Embedded Systems" by [Author Name]. *   "Cybersecurity with Machine Learning" by [Author Name]. *   Online Courses: *   Coursera: "AI for Embedded Systems" by [University Name]. *   Udemy: "AI-Driven Control Systems" by [Instructor Name]. *   Articles and Journals: *   IEEE Transactions on Industrial Informatics. *   Journal of Network and Systems Management.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students focusing on computer systems. *   Varying levels of AI knowledge, with some familiarity through introductory courses. *   Solid foundation in computer architecture, operating systems, and networking. *   Expected Role After Completion: *   Develop AI-driven computing solutions for industrial and embedded systems. *   Integrate AI into existing computer systems to improve performance and security. *   Contribute to research and development in AI for computer systems engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Computer Systems Engineering with expertise in AI applications. *   Ph.D. in Computer Engineering or related field. *   Experience in teaching undergraduate and graduate courses. *   Skills: *   Strong knowledge of computer systems architecture, operating systems, and networking. *   Expertise in machine learning, deep learning, and AI algorithms. *   Ability to bridge theoretical concepts with practical applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Course duration: One semester (15 weeks). *   Access to computer labs with necessary software tools (e.g., Python, TensorFlow, PyTorch). *   Availability of datasets for computer systems applications (e.g., system performance data, network traffic logs). *   Support for interdisciplinary collaboration with AI and data science departments. *   Constraints: *   Budget limitations for purchasing specialized hardware (e.g., embedded systems development boards). *   Limited availability of domain-specific datasets.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in computer systems engineering. 3.  Apply AI algorithms to solve problems in embedded systems, cybersecurity, and real-time control. 4.  Analyze and interpret data from IoT sensors, system performance reports, and software logs. 5.  Design and implement AI-driven computing solutions for industrial and embedded systems. 6.  Recognize ethical, legal, and social implications of using AI in computer systems engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Coding assignments to implement AI algorithms for specific computer systems applications. *   Case studies analyzing the use of AI in real-world computer systems. 2.  Group Project: *   Design and implement an AI-driven solution for a computer systems engineering problem (e.g., smart home automation, intrusion detection system). 3.  Midterm and Final Exams: *   Assess understanding of AI concepts, algorithms, and applications. 4.  Class Participation: *   Active engagement in discussions and presentations. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in computer systems, such as AI-driven autonomous vehicles or smart manufacturing systems. *   Activation: *   Brainstorming sessions to identify potential AI applications in existing computer systems. *   Demonstration: *   Live demonstrations of AI tools and techniques using relevant datasets. *   Application: *   Hands-on labs to implement AI algorithms for specific computer systems problems. *   Integration: *   Discussions on how AI can be integrated into existing computer systems to improve performance, security, and efficiency. *   Encourage students to propose AI-driven solutions for real-world computer systems engineering challenges.</t>
+  </si>
+  <si>
+    <t>AI in Computer_Systems_in_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Systems in Engineering *   Definition: Focuses on the integration of AI methodologies within computer systems specifically applied in engineering contexts. This includes designing, implementing, and optimizing AI-driven solutions for various engineering applications. *   Relevance: AI enhances the capabilities of computer systems in engineering by enabling intelligent automation, predictive maintenance, real-time decision-making, and improved system efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Embedded AI: *   Implementing AI algorithms directly on embedded systems for real-time processing and decision-making. 2.  IoT-based Automation: *   Using AI to automate tasks and processes within Internet of Things (IoT) environments. 3.  AI-driven Cyber-Physical Systems: *   Developing and managing cyber-physical systems that leverage AI to optimize performance and ensure safety. 4.  Predictive Maintenance: *   Applying AI algorithms to predict equipment failures and schedule maintenance proactively. 5.  Robotics and Automation: *   Integrating AI into robotic systems for autonomous navigation, object recognition, and task execution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Sensor Data: Real-time data collected from sensors deployed in engineering systems (e.g., temperature, pressure, vibration). *   Real-time Monitoring Logs: Logs generated by computer systems that provide insights into system performance and anomalies. *   IoT Device Metrics: Performance metrics from IoT devices, including data usage, battery life, and connectivity status. *   Significance for AI Applications: *   Sensor data enables predictive maintenance and anomaly detection. *   Monitoring logs facilitate real-time system optimization and troubleshooting. *   IoT device metrics support efficient resource management and system scalability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Ensuring fairness and transparency in AI algorithms used in critical engineering systems. *   Legal Implications: Compliance with industry regulations and standards for AI-driven systems. *   Social Implications: Impact of AI-driven automation on the workforce and the need for workforce retraining. *   Examples: *   Positive: Improved efficiency and safety in industrial processes. *   Negative: Potential for biased decision-making in autonomous systems if data is not representative. </t>
+  </si>
+  <si>
+    <t>*   AI in Embedded Systems Research: *   Journals: IEEE Transactions on Industrial Informatics, Journal of Real-Time Systems. *   Conferences: International Conference on Embedded Systems (IC-ES), Design Automation Conference (DAC). *   Online Courses on AI for IoT: *   Coursera: "AI for IoT" by DeepLearning.AI. *   EdX: "Embedded Systems - Shape the World" by UT Austin. *   Udemy: "Applied AI in Embedded Systems" by various instructors.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students specializing in hardware-software integration. *   Basic understanding of programming and hardware concepts. *   Limited prior experience with AI. *   Expected Role After Completion: *   Designing and implementing AI-driven solutions for real-time systems and IoT automation. *   Collaborating with AI specialists to integrate AI functionalities into engineering projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of embedded systems with AI expertise. *   Strong background in computer engineering and machine learning. *   Experience in teaching interdisciplinary courses. *   Skills: *   Proficiency in programming languages such as Python and C++. *   Knowledge of AI frameworks such as TensorFlow and PyTorch. *   Ability to explain complex AI concepts in an accessible manner. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget: Funding for software licenses, hardware components, and guest lecturers. *   Personnel: Teaching assistants with expertise in AI and embedded systems. *   Course Duration: One semester (15 weeks). *   Availability of domain-specific data: Access to datasets from industrial partners and public repositories. *   Access to software and hardware: AI tools, computing resources, and IoT development kits. *   Institutional support for interdisciplinary teaching: Collaboration with the computer science department.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning as applied to computer systems in engineering. 2.  Identify and evaluate potential AI applications in real-time systems and IoT automation. 3.  Design and implement AI algorithms for embedded systems. 4.  Analyze and interpret sensor data and IoT device metrics using AI techniques. 5.  Evaluate the ethical, legal, and social implications of AI in engineering applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Coding assignments to implement AI algorithms for embedded systems. *   Case studies on AI applications in engineering. 2.  Group Project: *   Design and implement an AI-driven solution for a real-world engineering problem. 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts. 4.  Midterm and Final Exams: *   Comprehensive exams to evaluate knowledge of AI principles and applications. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in engineering, such as predictive maintenance for industrial equipment. *   Activation: *   Brainstorming sessions to identify potential AI solutions for engineering problems. *   Demonstration: *   Live demonstrations of AI tools and techniques, such as anomaly detection using sensor data. *   Application: *   Hands-on labs to implement AI algorithms for embedded systems using Python and TensorFlow. *   Integration: *   Group projects to design and implement AI-driven solutions for real-world engineering problems. *   Teaching Methods: *   Lectures: Providing foundational knowledge of AI concepts and techniques. *   Labs: Hands-on exercises to implement AI algorithms and analyze data. *   Discussions: Interactive sessions to discuss case studies and ethical considerations. *   Group Work: Collaborative projects to design and implement AI-driven solutions.</t>
+  </si>
+  <si>
+    <t>AI in Data_and_Knowledge_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data and Knowledge Engineering *   Definition: Data and Knowledge Engineering involves designing, developing, and managing systems that utilize data and knowledge to support intelligent decision-making. It integrates AI techniques to enhance data processing, knowledge representation, and reasoning capabilities. *   Relevance: AI is transforming data and knowledge engineering by automating knowledge acquisition, improving data quality, and enabling more sophisticated decision support systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Knowledge Representation: *   Develop and utilize ontologies and knowledge graphs for representing domain-specific knowledge. 2.  Machine Learning for Decision Support Systems: *   Implement machine learning algorithms to analyze data and provide insights for decision-making. 3.  Semantic Web: *   Apply AI techniques to enhance the semantic understanding and interoperability of web data. 4.  Automated Data Integration: *   Use AI to automate the process of integrating data from heterogeneous sources. 5.  Intelligent Information Retrieval: *   Develop AI-powered search engines that can understand the context and meaning of user queries. 6.  Knowledge Discovery and Data Mining: *   Employ AI algorithms to discover hidden patterns and insights from large datasets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Structured Datasets: Relational databases, data warehouses, and tabular data. *   Unstructured Datasets: Text documents, images, and multimedia data. *   Ontologies: Formal representations of knowledge, including concepts, relationships, and axioms. *   Significance for AI Applications: *   Structured data enables the training of supervised learning models for prediction and classification. *   Unstructured data requires natural language processing and computer vision techniques to extract meaningful information. *   Ontologies provide a structured framework for reasoning and knowledge inference. *   Data understanding enables targeted AI techniques like knowledge graph embedding for relationship prediction and NLP for information extraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in AI algorithms, data privacy concerns, and the need for transparency in decision-making. *   Legal Implications: Compliance with data protection regulations, intellectual property rights, and ethical guidelines. *   Social Implications: Impact on employment, the potential for misuse of AI, and the need for responsible AI development. *   Examples: *   Positive: Enhanced decision-making through AI-powered insights, improved data quality, and increased efficiency. *   Negative: Biased algorithms leading to unfair outcomes, data breaches, and job displacement. </t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Knowledge Representation and Reasoning" by Ronald Brachman and Hector Levesque. *   "Foundations of Semantic Web Technologies" by Grigoris Antoniou, Paul Groth, Frank van Harmelen, and Rinke Hoekstra. *   "Data Mining: Concepts and Techniques" by Jiawei Han, Micheline Kamber, and Jian Pei. *   Case Studies: *   Knowledge graph applications in industry (e.g., Google Knowledge Graph, Amazon Product Graph). *   AI-driven decision support systems in healthcare, finance, and other domains. *   Online Courses: *   Coursera: "Knowledge Engineering" *   Udacity: "AI for Data Science"  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Students specializing in AI-driven data management. *   Basic knowledge of data structures, algorithms, and programming. *   Some familiarity with AI concepts. *   Expected Role After Completion: *   Design, develop, and deploy AI-driven knowledge management systems. *   Apply AI techniques to solve real-world data and knowledge engineering problems. *   Contribute to research and innovation in the field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Data Science with a background in Knowledge Engineering. *   Ph.D. in Computer Science or related field. *   Extensive research experience in AI and data management. *   Skills: *   Expertise in knowledge representation, machine learning, and semantic web technologies. *   Strong programming skills in languages such as Python and Java. *   Excellent communication and teaching skills. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as Python, TensorFlow, PyTorch, and Protégé. *   Availability of datasets for knowledge engineering projects. *   High-performance computing resources for training AI models. *   Institutional support for interdisciplinary collaboration.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will: 1.  Understand the fundamental concepts of data and knowledge engineering. 2.  Apply AI techniques for knowledge representation and reasoning. 3.  Design and implement machine learning algorithms for decision support systems. 4.  Utilize semantic web technologies to enhance data interoperability. 5.  Evaluate the ethical, legal, and social implications of AI in data and knowledge engineering. 6.  Design AI-driven knowledge management systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement knowledge representation schemes (e.g., ontologies, semantic networks). *   Develop machine learning models for classification, regression, and clustering. *   Design and implement semantic web applications. 2.  Group Project: *   Design and develop an AI-driven knowledge management system for a specific domain. *   Evaluate the performance of the system using appropriate metrics. *   Present the system to the class. 3.  Midterm and Final Exams: *   Assess understanding of key concepts and principles. *   Evaluate problem-solving skills. 4.  Class Participation: *   Engage in discussions and contribute to the learning environment. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in data and knowledge engineering. *   Hands-on projects that address specific challenges in the field. *   Activation: *   Discussions on the role of AI in data management and knowledge discovery. *   Brainstorming sessions to identify potential AI applications in different domains. *   Demonstration: *   Live demonstrations of AI tools and techniques. *   Guest lectures from industry experts. *   Application: *   Hands-on labs for implementing AI algorithms and building knowledge-based systems. *   Group projects that require students to apply their knowledge to solve real-world problems. *   Integration: *   Discussions on the integration of AI with traditional data management techniques. *   Encourage students to think critically about the ethical and social implications of AI in data and knowledge engineering.</t>
+  </si>
+  <si>
+    <t>AI in Digital Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Engineering *   Definition: Digital Engineering encompasses the use of digital technologies to design, develop, test, and manage complex engineering systems. It involves creating and utilizing digital models, simulations, and data analytics to optimize the entire product lifecycle, from concept to disposal. The integration of AI enhances automation, prediction, and decision-making capabilities in digital engineering processes. *   Relevance: AI is revolutionizing digital engineering by enabling more efficient design processes, predictive maintenance, and the creation of intelligent digital twins. This leads to faster innovation, reduced costs, and improved product performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Assisted Product Design: *   Utilize AI algorithms to generate and optimize product designs based on specified requirements and constraints. 2.  AI-Driven Simulations: *   Employ AI to enhance the accuracy and efficiency of engineering simulations, enabling faster and more reliable predictions of system behavior. 3.  Digital Twin Technology: *   Develop AI-powered digital twins that can monitor, analyze, and predict the performance of physical assets in real-time. 4.  Predictive Maintenance: *   Use AI to analyze sensor data and predict potential equipment failures, enabling proactive maintenance strategies. 5.  Generative Design: *   Leverage AI to explore a wide range of design options and identify innovative solutions that meet specific performance criteria. 6.  Automated Code Generation: *   Apply AI to automatically generate code for embedded systems and control software, reducing development time and improving code quality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   CAD Models: 3D models of engineering components and systems. *   Simulation Data: Data generated from computational simulations, such as finite element analysis (FEA) and computational fluid dynamics (CFD). *   IoT Sensor Data: Real-time data collected from sensors embedded in physical assets, providing insights into their performance and condition. *   Material Data: Databases of material properties and characteristics. *   Manufacturing Process Data: Data related to manufacturing processes, including machining parameters and quality control measurements. *   Significance for AI Applications: *   CAD models provide the geometric information necessary for AI-driven design optimization and generative design. *   Simulation data enables the training of AI models for predicting system behavior and optimizing performance. *   IoT sensor data allows for the creation of AI-powered digital twins and predictive maintenance systems. *   Material data enables the creation of AI models for material selection and performance prediction. *   Manufacturing process data allows for the optimization of manufacturing processes and quality control. *   Understanding this data enables targeted AI techniques like: *   Supervised learning for predicting system performance based on simulation data. *   Unsupervised learning for identifying anomalies in IoT sensor data. *   Reinforcement learning for optimizing design parameters in generative design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential biases in AI algorithms, data privacy concerns, and the impact of automation on the engineering workforce. *   Legal Implications: Liability for AI-driven design failures, intellectual property rights for AI-generated designs, and compliance with data protection regulations. *   Social Implications: Changes in the roles and responsibilities of engineers, the need for new skills and training, and the potential for increased efficiency and innovation. *   Examples: *   Positive: Improved product performance, reduced development time, and enhanced safety. *   Negative: Job displacement, algorithmic bias, and unintended consequences of AI-driven designs. </t>
+  </si>
+  <si>
+    <t>*   Digital Twin Research: *   Publications from organizations like the Digital Twin Consortium. *   Academic papers on digital twin technology and applications. *   AI in Engineering Case Studies: *   Case studies from companies that have successfully implemented AI in their engineering processes. *   Reports from industry analysts on the adoption of AI in the engineering sector. *   Online Courses: *   Coursera: "AI for Engineering Design" *   edX: "Digital Twin Technology" *   Udemy: "Machine Learning for Engineers" *   Journals and Articles: *   Journal of Mechanical Design *   Advanced Engineering Informatics ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students with an interest in AI-driven digital design. *   Varying levels of programming skills (Python preferred) and mathematical foundations (linear algebra, calculus, probability). *   Basic understanding of engineering design principles and digital engineering tools (e.g., CAD software, simulation software). *   Expected Role After Completion: *   Integrate AI into digital product lifecycle management. *   Apply AI techniques to improve design processes, simulation accuracy, and digital twin functionality. *   Collaborate with AI specialists and data scientists on engineering projects. *   Critically evaluate the ethical and societal implications of AI in engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of digital engineering with expertise in AI-powered design automation. *   Ph.D. in Engineering with a focus on AI applications. *   Strong background in machine learning, data analytics, and digital engineering tools. *   Experience in teaching interdisciplinary courses and mentoring students. *   Skills: *   Proficiency in AI programming languages (e.g., Python) and machine learning frameworks (e.g., TensorFlow, PyTorch). *   Deep understanding of engineering design principles and digital engineering workflows. *   Ability to communicate complex technical concepts in a clear and engaging manner. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Budget for software licenses (e.g., AI development tools, simulation software). *   Access to high-performance computing resources for running AI models and simulations. *   Availability of domain-specific datasets (e.g., CAD models, simulation data, IoT sensor data). *   Institutional support for interdisciplinary collaboration between engineering and computer science departments. *   Constraints: *   Limited availability of domain-specific data. *   Potential challenges in integrating AI tools with existing engineering software. *   Need for ongoing training and support for instructors and students in AI technologies. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning and their applications in digital engineering. 2.  Apply AI techniques to enhance product design, simulation, and digital twin development. 3.  Analyze and interpret engineering data using AI tools and techniques. 4.  Evaluate the ethical, legal, and societal implications of AI in engineering. 5.  Develop AI-powered solutions to address real-world engineering challenges. 6.  Effectively communicate AI concepts and solutions to technical and non-technical audiences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement AI algorithms for design optimization and simulation. *   Analyze engineering datasets using machine learning techniques. *   Write reports on the ethical and societal implications of AI in engineering. 2.  Group Project: *   Develop an AI-powered digital twin for a specific engineering system. *   Present the project to the class, demonstrating the functionality and benefits of the digital twin. 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Exam: *   Comprehensive exam covering all course material. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in digital engineering (e.g., AI-driven design of aircraft components, predictive maintenance of industrial equipment). *   Activation: *   Brainstorming sessions to identify potential AI applications in students' areas of interest. *   Discussions on the current challenges and opportunities in digital engineering. *   Demonstration: *   Live demonstrations of AI tools and techniques using real-world engineering datasets. *   Guest lectures from industry experts on the application of AI in digital engineering. *   Application: *   Hands-on labs to implement AI algorithms for design optimization, simulation, and digital twin development. *   Group projects to develop AI-powered solutions to address specific engineering challenges. *   Integration: *   Discussions on how AI can be integrated into existing digital engineering workflows. *   Encouraging students to apply AI techniques in their own research projects and internships. *   Teaching Methods: *   Lectures: To introduce key concepts and theories. *   Labs: To provide hands-on experience with AI tools and techniques. *   Discussions: To encourage critical thinking and problem-solving. *   Group Work: To foster collaboration and teamwork.</t>
+  </si>
+  <si>
+    <t>AI in E-Mobility.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Mobility *   Definition: E-Mobility encompasses the development, deployment, and management of electric vehicles (EVs) and related infrastructure. AI integration enhances vehicle autonomy, energy efficiency, and overall transportation system optimization. *   Relevance: AI is revolutionizing E-Mobility by enabling autonomous driving, improving battery performance, optimizing energy consumption, and enhancing the user experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Autonomous Vehicles: *   Employ AI algorithms for perception, decision-making, and control in self-driving EVs. 2.  Battery Management: *   Use AI to optimize battery charging, discharging, and thermal management for extended lifespan and improved performance. 3.  AI-Driven Route Optimization: *   Leverage AI to dynamically optimize routes based on traffic conditions, energy consumption, and charging station availability. 4.  Predictive Maintenance: *   Apply AI to predict component failures and schedule maintenance proactively, minimizing downtime. 5.  Smart Charging Infrastructure: *   Implement AI to manage charging station load, optimize energy distribution, and enable seamless charging experiences. 6.  Personalized Driver Assistance: *   Use AI to provide personalized recommendations and assistance to drivers, enhancing safety and convenience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Vehicle Performance Metrics: Speed, acceleration, energy consumption, battery health, motor temperature, etc. *   Traffic Data: Real-time traffic flow, congestion patterns, road conditions, weather information, etc. *   Battery Efficiency Reports: Charging/discharging cycles, voltage levels, temperature profiles, capacity degradation, etc. *   Sensor Data: Data from LiDAR, radar, cameras, and other sensors used for autonomous driving. *   Charging Station Data: Utilization rates, energy consumption, availability, pricing, etc. *   Significance for AI Applications: *   Vehicle performance metrics enable AI models to optimize energy consumption and improve vehicle performance. *   Traffic data allows AI to optimize routes and enhance autonomous driving capabilities. *   Battery efficiency reports facilitate AI-driven battery management and predictive maintenance. *   Sensor data is crucial for AI-powered perception and decision-making in autonomous vehicles. *   Data understanding enables targeted AI techniques like: *   Regression models for predicting energy consumption. *   Classification models for identifying traffic patterns. *   Reinforcement learning for optimizing battery management strategies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Algorithmic bias in autonomous driving decisions, data privacy concerns related to vehicle and driver data, and the potential for misuse of AI-powered mobility solutions. *   Legal Implications: Liability issues in the event of accidents involving autonomous vehicles, regulatory compliance related to data privacy and security, and the need for clear legal frameworks for AI in transportation. *   Social Implications: Job displacement in the transportation sector due to automation, the potential for increased accessibility to mobility for underserved populations, and the impact on urban planning and infrastructure development. *   Examples: *   Positive: Reduced emissions, improved safety, increased efficiency, and enhanced convenience. *   Negative: Potential for accidents caused by AI errors, privacy violations, and job losses. </t>
+  </si>
+  <si>
+    <t>*   AI in Electric Vehicle Development: *   Research papers on AI applications in EVs (e.g., IEEE Xplore, ScienceDirect). *   Online courses on AI for autonomous driving (e.g., Coursera, Udacity). *   Books on electric vehicle technology and AI integration (e.g., "Electric Vehicle Technology Explained" by James Larminie and John Lowry). *   Research Papers on AI-Driven Mobility Solutions: *   Journals such as "Transportation Research Part C: Emerging Technologies" and "IEEE Transactions on Intelligent Transportation Systems". *   Conference proceedings from events like the International Conference on Intelligent Transportation Systems (ITSC).  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students with a focus on sustainable and electric transportation. *   Some foundational knowledge in programming and mathematics is expected. *   Varying levels of prior exposure to AI concepts. *   Expected Role After Completion: *   Contribute to the development and deployment of AI-powered E-Mobility solutions. *   Apply AI techniques to solve real-world problems in the field. *   Understand the ethical, legal, and social implications of AI in E-Mobility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Automotive Engineering with expertise in AI-powered mobility solutions. *   Ph.D. in a relevant field (e.g., electrical engineering, computer science, mechanical engineering). *   Experience in teaching and mentoring engineering students. *   Skills: *   Strong understanding of AI algorithms and techniques. *   Deep knowledge of electric vehicle technology and transportation systems. *   Ability to bridge the gap between AI theory and practical applications in E-Mobility. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools for AI development (e.g., Python, TensorFlow, PyTorch). *   Availability of datasets related to electric vehicle performance and transportation systems. *   Computing resources for training AI models (e.g., GPUs, cloud computing). *   Potential for collaboration with industry partners on real-world projects. *   Constraints: *   Limited budget for purchasing specialized software or hardware. *   Potential lack of readily available domain-specific data. *   Time constraints for covering all relevant topics in sufficient depth.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its applications in E-Mobility. 2.  Apply AI techniques to solve problems related to autonomous driving, battery management, and route optimization. 3.  Analyze and interpret data from electric vehicles and transportation systems. 4.  Design and implement AI-powered solutions for E-Mobility applications. 5.  Evaluate the ethical, legal, and social implications of AI in E-Mobility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Problem sets on AI algorithms and techniques. *   Case studies on AI applications in E-Mobility. 2.  Group Project: *   Design and implementation of an AI-powered solution for a specific E-Mobility challenge (e.g., autonomous navigation, battery management). 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts. 4.  Midterm Exam: *   Comprehensive exam covering the first half of the course material. 5.  Final Exam: *   Comprehensive exam covering the entire course material. 6.  Project Presentation: *   Presentation of the group project, including a demonstration of the implemented solution. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world E-Mobility challenges, such as optimizing energy consumption in electric buses or improving the safety of autonomous vehicles. *   Activation: *   Discussions on the current state of E-Mobility and the potential impact of AI. *   Brainstorming sessions to identify opportunities for AI innovation in the field. *   Demonstration: *   Live demonstrations of AI tools and techniques. *   Guest lectures from industry experts working on AI-powered E-Mobility solutions. *   Application: *   Hands-on labs for implementing AI algorithms using Python and relevant libraries. *   Group projects that require students to apply their knowledge to solve real-world problems. *   Integration: *   Discussions on the ethical, legal, and social implications of AI in E-Mobility. *   Presentations from students on their project findings and future research directions. *   Teaching Methods: *   Lectures: Providing foundational knowledge and theoretical concepts. *   Labs: Hands-on experience with AI tools and techniques. *   Discussions: Engaging students in critical thinking and problem-solving. *   Group Work: Collaborative projects to foster teamwork and communication skills.</t>
+  </si>
+  <si>
+    <t>AI in Economic_Policy_Analysis.txt</t>
+  </si>
+  <si>
+    <t>Economic Policy Analysis *   Definition: Economic Policy Analysis involves evaluating the effects of government policies on the economy. AI enhances this by providing advanced tools for forecasting, simulation, and impact assessment. *   Relevance: AI transforms traditional economic analysis by improving the accuracy of predictions, enabling complex simulations, and supporting data-driven policy decisions.</t>
+  </si>
+  <si>
+    <t>*   Economic Forecasting: *   Use machine learning models to predict economic indicators such as GDP growth, inflation, and unemployment rates. *   Policy Impact Assessment: *   Employ AI to simulate the effects of proposed policies on various sectors of the economy. *   AI-Driven Simulations for Economic Planning: *   Develop and use AI models to simulate different economic scenarios and inform strategic planning. *   Financial Market Analysis: *   Apply AI to analyze financial data, predict market trends, and assess the stability of financial systems. *   Automated Policy Monitoring: *   Use AI to monitor the effectiveness of existing policies and identify areas for improvement. *   Resource Allocation Optimization: *   Apply AI to optimize the allocation of resources in government budgets and development plans.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Macroeconomic Indicators: GDP, inflation rates, unemployment figures, trade balances. *   Government Policy Reports: Official documents outlining policy objectives and implementation strategies. *   Financial Datasets: Stock prices, bond yields, interest rates, and other financial market data. *   Socioeconomic Data: Demographic information, income distribution, and poverty rates. *   Significance for AI Applications: *   Macroeconomic data enables the training of predictive models for economic forecasting. *   Policy reports provide context for understanding the goals and constraints of economic policies. *   Financial datasets allow for the analysis of market behavior and the assessment of financial risks. *   Data understanding enables targeted AI techniques like time series analysis for forecasting and causal inference for policy evaluation.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Risk of bias in AI models, concerns about data privacy, and the need for transparency in AI-driven policy recommendations. *   Legal Implications: Compliance with data protection laws, ensuring fairness in AI algorithms, and addressing liability issues. *   Social Implications: Potential job displacement due to automation, the impact on income inequality, and the need for retraining programs. *   Examples: *   Positive: More accurate economic forecasts leading to better-informed policy decisions. *   Negative: Algorithmic bias in policy recommendations that could disproportionately affect certain demographic groups.</t>
+  </si>
+  <si>
+    <t>*   AI in Economics Research Papers: *   Journal of Applied Econometrics *   American Economic Review *   Case Studies on AI-Driven Economic Policy: *   Reports from organizations like the World Bank and the IMF *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng *   edX: "Data Science for Economics" by MIT *   Books: *   "Prediction Machines: The Simple Economics of Artificial Intelligence" by Ajay Agrawal, Joshua Gans, and Avi Goldfarb ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Students in economics and public policy with some knowledge of data analysis. *   Familiar with statistical software but may have limited AI experience. *   Expected Role After Completion: *   Equipped with AI tools for data-driven economic policy evaluation. *   Able to apply AI techniques to improve forecasting, assess policy impacts, and simulate economic scenarios.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Economic Policy with expertise in AI-driven forecasting models. *   Experience in applying AI to economic policy analysis. *   Skills: *   Strong understanding of economic theory and policy. *   Proficiency in AI and machine learning techniques. *   Ability to bridge the gap between economic theory and AI applications.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget for software licenses (e.g., Python, R, TensorFlow). *   Access to high-performance computing resources for running complex simulations. *   Availability of domain-specific datasets (e.g., World Bank, IMF data). *   Institutional support for interdisciplinary teaching. *   Constraints: *   Limited time for hands-on labs due to course duration. *   Potential challenges in integrating AI tools with existing economic models. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the basics of AI and its applications in economic policy analysis. 2.  Apply machine learning techniques to forecast economic indicators. 3.  Use AI to assess the impact of government policies on the economy. 4.  Develop and use AI-driven simulations for economic planning. 5.  Evaluate the ethical, legal, and social implications of using AI in economic policy.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Analyze case studies on AI in economic policy (e.g., forecasting GDP growth). *   Write reports on the ethical implications of using AI in policy-making. *   Group Project: *   Develop an AI model to simulate the effects of a proposed policy. *   Present findings to the class. *   Quizzes: *   Assess understanding of key AI concepts and applications. *   Final Exam: *   Comprehensive assessment of course material.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in economic policy, such as using AI to predict financial crises. *   Activation: *   Discussions on the role of data in economic decision-making. *   Review of basic statistical concepts. *   Demonstration: *   Live demonstrations of AI tools for economic forecasting and policy simulation. *   Application: *   Hands-on labs for building predictive models using economic data. *   Group exercises to simulate policy-making with AI insights. *   Integration: *   Discuss how AI can complement traditional economic analysis. *   Encourage students to develop proposals for applying AI in their future careers.</t>
+  </si>
+  <si>
+    <t>AI in Educational_Science.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educational Science *   Definition: Educational Science is the study of how people learn, including instructional methods, learning processes, and educational technologies. AI integration aims to personalize learning, automate administrative tasks, and provide data-driven insights to improve educational outcomes. *   Relevance: AI is poised to transform education by enabling personalized learning experiences, providing real-time feedback to students and instructors, and automating time-consuming tasks like grading and assessment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Personalized Learning: *   Use AI algorithms to tailor learning content and pace to individual student needs and learning styles. 2.  Automated Grading: *   Employ AI to automatically grade assignments, quizzes, and exams, providing immediate feedback to students. 3.  Learning Analytics: *   Utilize AI to analyze student performance data, identify learning gaps, and provide insights to educators for targeted interventions. 4.  Intelligent Tutoring Systems: *   Develop AI-powered tutoring systems that provide personalized guidance and support to students in specific subjects. 5.  Chatbots for Student Support: *   Implement AI chatbots to answer student questions, provide technical support, and guide students through online learning platforms. 6.  AI-Enhanced Curriculum Design: *   Use AI to analyze curriculum effectiveness and identify areas for improvement, ensuring that learning materials are aligned with student needs and learning objectives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Student Performance Records: Grades, test scores, assignment submissions, and attendance data. *   Adaptive Learning System Logs: Data on student interactions with learning platforms, including time spent on tasks, response patterns, and learning pathways. *   Educational Content Metadata: Information about learning resources, such as topic, difficulty level, and learning objectives. *   Student Demographic Data: Information about students' backgrounds, including age, gender, ethnicity, and socioeconomic status. *   Significance for AI Applications: *   Student performance records enable personalized learning and targeted interventions. *   Adaptive learning system logs provide insights into student learning behaviors and preferences. *   Educational content metadata facilitates the development of intelligent tutoring systems and AI-enhanced curriculum design. *   Understanding this data allows for targeted AI techniques like: *   Personalized Learning: Tailoring content based on performance and learning styles. *   Predictive Analytics: Identifying students at risk of failing. *   Content Recommendation: Suggesting relevant resources based on learning history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: *   Bias in AI algorithms leading to unfair or discriminatory outcomes for certain student groups. *   Data privacy concerns related to the collection and use of student data. *   Transparency and explainability of AI-driven decisions. *   Legal Implications: *   Compliance with data protection regulations like GDPR and FERPA. *   Liability for errors or inaccuracies in AI-generated assessments. *   Intellectual property rights related to AI-created educational content. *   Social Implications: *   Changes in the role of educators, with AI automating some tasks and requiring new skills. *   Potential for increased access to education for students in remote or underserved areas. *   Risk of exacerbating existing inequalities in education if AI is not implemented equitably. *   Examples: *   Positive: AI tutoring systems providing personalized support to students who are struggling. *   Negative: Biased AI algorithms perpetuating stereotypes and limiting opportunities for certain student groups. </t>
+  </si>
+  <si>
+    <t>*   Research Papers: *   Journal of Educational Data Mining *   Educational Technology Research and Development *   Online Courses: *   Coursera: "AI in Education" *   edX: "Learning Analytics" *   Udacity: "AI for Healthcare" (relevant for personalized learning applications) *   Books: *   "AI and Education: Critical Perspectives" *   "Handbook of Learning Analytics"  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Educators (teachers, instructors, administrators) seeking to integrate AI into their teaching practices. *   Education technology students interested in developing and implementing AI-powered educational tools. *   Varying levels of AI knowledge; some may have basic familiarity, while others may be new to the field. *   Diverse backgrounds in education, with expertise in different subject areas and grade levels. *   Expected Role After Completion: *   Educators will be able to leverage AI tools to personalize learning, automate assessment, and gain insights from student data. *   Education technology students will be equipped to design and develop innovative AI-powered educational solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of education technology with a Ph.D. in a related field. *   Experience in AI applications in education, including personalized learning, automated assessment, and learning analytics. *   Skills: *   Strong understanding of educational theory and practice. *   Proficiency in AI concepts and techniques, including machine learning, natural language processing, and data mining. *   Ability to bridge the gap between technical AI concepts and practical educational applications. *   Effective communication and teaching skills to engage learners from diverse backgrounds. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget for software licenses, cloud computing resources, and guest speakers. *   Access to domain-specific data, such as student performance records and adaptive learning system logs. *   Availability of AI tools and platforms, such as TensorFlow, Keras, and scikit-learn. *   Institutional support for interdisciplinary teaching and collaboration with other departments, such as computer science and statistics. *   Constraints: *   Limited availability of domain-specific data. *   Potential lack of technical expertise among some learners. *   Ethical and legal considerations related to the use of student data.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the basic principles of AI and its applications in education. 2.  Identify and evaluate AI tools and techniques for personalized learning, automated assessment, and learning analytics. 3.  Analyze student performance data to identify learning gaps and inform instructional decisions. 4.  Design and implement AI-powered educational interventions to improve student outcomes. 5.  Critically evaluate the ethical, legal, and social implications of using AI in education. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Case studies analyzing the use of AI in specific educational contexts. *   Critiques of research papers on AI in education. 2.  Group Project: *   Design and development of an AI-powered educational tool or intervention. *   Presentation of project findings to the class. 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Exam: *   Comprehensive exam covering all course material. 5.  Class Participation: *   Active engagement in discussions and activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world challenges in education that can be addressed using AI. *   Simulations of AI-powered educational interventions. *   Activation: *   Discussions of learners' prior experiences with technology in education. *   Brainstorming sessions on potential applications of AI in their own teaching practices. *   Demonstration: *   Live demonstrations of AI tools and techniques. *   Guest lectures from experts in AI and education. *   Application: *   Hands-on labs using AI tools to analyze student data and design personalized learning experiences. *   Group projects developing AI-powered educational solutions. *   Integration: *   Discussions of how AI can be integrated into existing educational practices and systems. *   Development of action plans for implementing AI in their own classrooms or schools.</t>
+  </si>
+  <si>
+    <t>AI in Electrical_and_Information Technology.txt</t>
+  </si>
+  <si>
+    <t>Electrical and Information Technology *   Definition: Electrical and Information Technology encompasses the design, development, and management of electrical systems, electronic devices, and information networks. AI integration enhances system efficiency, enables intelligent automation, and optimizes data-driven decision-making. *   Relevance: AI is revolutionizing electrical and information technology by improving performance, reliability, and sustainability in areas like power grids, telecommunications, and electronic design.</t>
+  </si>
+  <si>
+    <t>*   AI-Driven Circuit Design: *   Use AI algorithms to automate and optimize the design of electronic circuits, reducing design time and improving circuit performance. *   Smart Grid Management: *   Employ AI for predictive maintenance, demand forecasting, and efficient distribution of electricity in smart grids. *   AI in Telecommunications: *   Apply AI for network optimization, anomaly detection, and improved quality of service in telecommunication networks. *   Predictive Maintenance of Electrical Equipment: *   Use machine learning to analyze sensor data and predict potential failures in electrical equipment, reducing downtime and maintenance costs. *   Power System Optimization: *   Utilize AI to optimize power flow, voltage control, and stability in electrical power systems. *   Wireless Communication Enhancement: *   Leverage AI to improve signal processing, interference management, and resource allocation in wireless communication systems.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Signal Processing Data: Time-series data from sensors, oscilloscopes, and spectrum analyzers. *   IoT Sensor Data: Data streams from various sensors in electrical systems and smart devices. *   Network Traffic Logs: Data on network usage, packet information, and communication patterns. *   Equipment Performance Data: Data on the operational parameters and performance metrics of electrical equipment. *   Significance for AI Applications: *   Signal processing data enables real-time analysis and control of electrical signals. *   IoT sensor data facilitates predictive maintenance and optimization of electrical systems. *   Network traffic logs enable network security monitoring and performance optimization. *   Understanding this data allows for targeted AI techniques such as time-series analysis, anomaly detection, and predictive modeling.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Data privacy concerns, algorithmic bias in decision-making, and transparency issues. *   Legal Implications: Compliance with data protection laws, regulations on AI deployment in critical infrastructure, and liability for AI-driven failures. *   Social Implications: Job displacement due to automation, the need for retraining and upskilling, and the impact on energy consumption and sustainability. *   Examples: *   Positive: Improved efficiency and reliability of electrical systems. *   Negative: Potential for misuse of AI in surveillance or control systems.</t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Artificial Intelligence in Electrical Engineering" by [Author Name] *   "Smart Grids: Advanced Technologies and Applications" by [Author Name] *   Case Studies: *   IEEE Transactions on Smart Grid: Research articles on AI applications in smart grids. *   Journal of Telecommunications and Information Technology: Case studies on AI in telecommunications. *   Online Courses: *   Coursera: "AI for Engineers" by [University Name] *   edX: "Machine Learning for Electrical Engineers" by [University Name]  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students with an interest in AI for electrical systems. *   Varying levels of programming and mathematical skills. *   Expected Role After Completion: *   Apply AI techniques to solve problems in electrical engineering, design intelligent systems, and contribute to research and development in the field.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Electrical Engineering with experience in AI applications. *   Expertise in machine learning, signal processing, and control systems. *   Skills: *   Ability to explain complex AI concepts in a clear and accessible manner. *   Experience in designing and implementing AI solutions for electrical engineering problems.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Access to computing resources, including high-performance workstations and cloud computing platforms. *   Availability of software tools for AI development, such as Python, TensorFlow, and MATLAB. *   Datasets for training and testing AI models in electrical engineering applications. *   Support from IT staff for setting up and maintaining the learning environment. *   Collaboration with industry partners for real-world projects and case studies.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in electrical and information technology. 3.  Apply AI techniques to solve problems in circuit design, smart grid management, and telecommunications. 4.  Design and implement AI-driven solutions for electrical engineering applications. 5.  Analyze and interpret data from electrical systems using AI tools. 6.  Evaluate the ethical, legal, and social implications of AI in electrical engineering.</t>
+  </si>
+  <si>
+    <t>*   Assignments: *   Programming assignments to implement AI algorithms for signal processing and control systems. *   Case studies to analyze AI applications in smart grids and telecommunications. *   Projects: *   Design and implement an AI-driven solution for a specific electrical engineering problem. *   Develop a predictive maintenance system for electrical equipment using machine learning. *   Exams: *   Midterm and final exams to assess understanding of AI concepts and applications. *   Presentations: *   Presentations on AI applications in electrical engineering and project outcomes.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in electrical engineering. *   Hands-on projects to design and implement AI-driven solutions. *   Activation: *   Discussions on current challenges and opportunities in electrical engineering that can be addressed by AI. *   Review of relevant mathematical and programming concepts. *   Demonstration: *   Live demonstrations of AI tools and techniques for data analysis and modeling. *   Examples of AI applications in circuit design, smart grids, and telecommunications. *   Application: *   Programming assignments to implement AI algorithms. *   Group projects to design and implement AI-driven solutions. *   Integration: *   Discussions on the ethical, legal, and social implications of AI in electrical engineering. *   Presentations on project outcomes and future directions for AI in the field. *   Mix of Teaching Methods: *   Lectures to introduce AI concepts and applications. *   Labs for hands-on experience with AI tools and techniques. *   Discussions to encourage critical thinking and problem-solving. *   Group work to foster collaboration and teamwork.</t>
+  </si>
+  <si>
+    <t>AI in EnergyProcessEngineering.txt</t>
+  </si>
+  <si>
+    <t>Energy Process Engineering  *   Definition: Energy Process Engineering involves the design, optimization, and management of processes related to energy production, distribution, and consumption. The integration of AI enhances efficiency, reliability, and sustainability in energy systems. *   Relevance: AI is transforming the energy sector by enabling smarter grids, optimizing energy consumption, improving predictive maintenance, and facilitating the integration of renewable energy sources.</t>
+  </si>
+  <si>
+    <t>1.  AI-driven Energy Efficiency Optimization:  *   Use AI algorithms to analyze energy consumption patterns and identify opportunities for efficiency improvements in industrial processes and buildings. 2.  Smart Grid Management:  *   Employ AI to optimize energy distribution, predict demand, and manage grid stability in real-time. 3.  AI-powered Energy Forecasting:  *   Utilize machine learning models to forecast energy demand and generation, enabling better resource planning and grid management. 4.  Predictive Maintenance:  *   Apply AI to predict equipment failures in energy infrastructure, reducing downtime and maintenance costs. 5.  Renewable Energy Integration:  *   Use AI to optimize the integration of renewable energy sources (solar, wind) into the grid, accounting for intermittency and variability. 6.  Energy Storage Optimization:  *   Employ AI to manage and optimize energy storage systems, improving grid stability and reducing energy waste.</t>
+  </si>
+  <si>
+    <t>*   Types of Data:  *   Power Consumption Data: Time-series data on electricity usage in buildings, industrial facilities, and grids. *   Grid Performance Reports: Data on voltage, current, frequency, and other parameters related to grid stability and reliability. *   Energy Efficiency Studies: Datasets from audits and simulations on energy usage and conservation measures. *   Weather Data: Temperature, wind speed, solar irradiance affecting energy demand and renewable generation. *   Equipment Sensor Data: Real-time data from sensors monitoring the performance of energy infrastructure. *   Significance for AI Applications:  *   Power consumption data enables predictive modeling for energy demand forecasting and optimization. *   Grid performance reports are used for real-time monitoring and control of grid stability. *   Energy efficiency studies inform AI-driven recommendations for energy conservation. *   Weather data is crucial for forecasting renewable energy generation and managing grid operations. *   Equipment sensor data allows for predictive maintenance and fault detection in energy infrastructure. *   Understanding this data enables targeted AI techniques such as:  *   Time-series analysis for forecasting *   Anomaly detection for grid monitoring *   Regression models for energy efficiency optimization *   Machine learning for predictive maintenance</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential bias in algorithms leading to unfair energy distribution, privacy concerns related to energy consumption data. *   Legal Implications: Compliance with energy regulations, data protection laws, and standards for AI in critical infrastructure. *   Social Implications: Impact on employment in the energy sector, ensuring equitable access to AI-driven energy solutions, and public acceptance of AI in energy management. *   Examples:  *   Positive: Improved energy efficiency, reduced carbon emissions, enhanced grid reliability. *   Negative: Job displacement due to automation, algorithmic bias leading to unequal energy access.</t>
+  </si>
+  <si>
+    <t>*   AI in Energy Research Papers:  *   IEEE Transactions on Smart Grid *   Applied Energy *   Renewable and Sustainable Energy Reviews *   Online Courses:  *   Coursera: "AI for Energy" by Stanford University *   edX: "Smart Grid Technologies" by MIT *   Udemy: "Machine Learning for Energy Systems" *   Books:  *   "Smart Power Distribution Systems" by Math H.J. Bollen *   "Artificial Intelligence for Sustainable Energy Solutions" by Adrian David Cheok  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners:  *   Engineering students specializing in energy systems (e.g., electrical, mechanical, chemical engineering with a focus on energy). *   Some background in mathematics, physics, and basic programming (e.g., Python). *   Expected Role After Completion:  *   Apply AI tools and techniques to optimize energy processes, design smart grids, and improve the integration of renewable energy systems. *   Collaborate with AI specialists to develop and implement AI-driven solutions in the energy sector. *   Evaluate the performance and impact of AI applications in energy systems.</t>
+  </si>
+  <si>
+    <t>*   Qualifications:  *   Professor of energy engineering with a Ph.D. in a relevant field. *   Expertise in AI-powered energy management, including machine learning, optimization algorithms, and smart grid technologies. *   Experience in conducting research and publishing papers on AI applications in energy systems. *   Skills:  *   Strong understanding of energy systems and AI concepts. *   Ability to bridge the gap between theoretical AI models and practical energy engineering problems. *   Effective communication and teaching skills to convey complex topics to students with diverse backgrounds.</t>
+  </si>
+  <si>
+    <t>*   Resources:  *   Course duration: One semester (15 weeks). *   Access to software tools: Python, MATLAB, and specialized AI libraries (TensorFlow, PyTorch). *   Availability of datasets: Publicly available energy consumption data, grid performance reports, and renewable energy generation data. *   Computing resources: Access to high-performance computing clusters for training AI models. *   Constraints:  *   Budget limitations for acquiring specialized AI software licenses. *   Limited availability of domain-specific data for certain energy systems. *   Institutional support for interdisciplinary teaching and collaboration with AI experts.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to:  1.  Understand the fundamental concepts of AI and machine learning in the context of energy systems. 2.  Identify and evaluate potential AI applications for optimizing energy processes and renewable energy systems. 3.  Apply AI tools and techniques to analyze energy data and develop predictive models. 4.  Design and implement AI-driven solutions for smart grid management, energy efficiency optimization, and renewable energy integration. 5.  Evaluate the performance and impact of AI applications in energy systems. 6.  Recognize the ethical, legal, and social implications of using AI in the energy sector.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments:  *   Analyze and model energy consumption data using machine learning algorithms. *   Develop a predictive maintenance model for energy equipment based on sensor data. 2.  Group Project:  *   Design an AI-driven solution for smart grid management, energy efficiency optimization, or renewable energy integration. *   Implement and evaluate the performance of the proposed solution using real-world data. 3.  Quizzes:  *   Assess understanding of key AI concepts and their applications in energy systems. 4.  Final Exam:  *   Comprehensive assessment of the course material, including AI algorithms, energy systems, and ethical considerations. 5.  Presentation:  *   Present the group project and discuss the design, implementation, and evaluation of the AI-driven solution.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered:  *   Case studies on real-world AI applications in energy systems, such as Google's DeepMind for data center cooling and smart grid initiatives. *   Activation:  *   Reflect on personal experiences with energy consumption and identify opportunities for AI-driven improvements. *   Demonstration:  *   Live demonstrations of AI tools and techniques for energy data analysis, predictive modeling, and smart grid management. *   Application:  *   Hands-on labs for implementing machine learning algorithms using Python and specialized AI libraries. *   Group exercises for designing and simulating AI-driven solutions for energy systems. *   Integration:  *   Discuss how AI can complement traditional energy engineering practices. *   Encourage students to develop proposals for applying AI in their internship or workplace settings. *   Guest lectures from industry experts on AI applications in the energy sector.</t>
+  </si>
+  <si>
+    <t>AI in Engineering_Informatics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Informatics *   Definition: Engineering Informatics is an interdisciplinary field that combines engineering principles with computer science and information technology to solve complex engineering problems. AI enhances this field by providing advanced data analysis, automation, and intelligent decision-making capabilities. *   Relevance: AI is transforming engineering processes by improving design, simulation, optimization, and automation, leading to more efficient and innovative solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Software Engineering: *   Automated code generation and testing. *   Intelligent debugging and error detection. 2.  AI-Driven Simulations: *   Predictive maintenance and failure analysis. *   Optimization of engineering designs through AI-powered simulations. 3.  Intelligent Automation: *   Robotics and autonomous systems for engineering tasks. *   Automated data analysis and report generation. 4.  Predictive Analytics for Infrastructure Management: *   Using AI to predict the lifespan and maintenance needs of infrastructure. 5.  AI-Enhanced Design Optimization: *   Employing AI algorithms to generate and optimize engineering designs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   System Performance Logs: Data on system uptime, response times, and resource utilization. *   Software Testing Reports: Results from unit tests, integration tests, and system tests. *   Engineering Project Data: Information on project timelines, costs, and resource allocation. *   Sensor Data: Data collected from sensors monitoring physical systems. *   Simulation Data: Output from engineering simulations, including stress tests and performance analyses. *   Significance for AI Applications: *   System performance logs enable predictive maintenance and anomaly detection. *   Software testing reports facilitate automated debugging and quality assurance. *   Engineering project data allows for project optimization and risk management. *   Sensor data enables real-time monitoring and control of engineering systems. *   Simulation data allows for training AI models to optimize designs and predict performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Algorithmic bias in decision-making, data privacy concerns, and transparency issues. *   Legal Implications: Compliance with data protection regulations and liability for AI-driven errors. *   Social Implications: Changes in workforce dynamics due to automation and the need for upskilling and reskilling. *   Examples: *   Positive: Enhanced efficiency and accuracy in engineering processes. *   Negative: Job displacement due to automation and potential misuse of AI leading to safety risks. *   Domain-Specific Concerns: Ensuring the reliability and safety of AI-driven systems in critical engineering applications. </t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig. *   "Machine Learning for Engineers" by Patrick Wieschollek, Julian Sens, and Christian Hecker. *   Case Studies: *   IEEE Xplore: Research papers on AI applications in engineering. *   ASCE Library: Articles on AI in civil engineering and infrastructure management. *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng. *   edX: "Artificial Intelligence" by Columbia University.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Informatics and engineering students with varying levels of programming and mathematical skills. *   Some familiarity with basic engineering principles and software development practices. *   Expected Role After Completion: *   Apply AI techniques to solve engineering problems, develop AI-driven software solutions, and analyze engineering data. *   Collaborate effectively with AI systems and contribute to the development of intelligent engineering tools. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Engineering Informatics with a Ph.D. in a related field. *   Expertise in AI algorithms, machine learning, and data analysis. *   Skills: *   Strong background in engineering principles and software development. *   Ability to bridge the gap between AI theory and practical engineering applications. *   Experience in teaching interdisciplinary courses and engaging students with diverse backgrounds. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as MATLAB, Python (with libraries like TensorFlow, PyTorch, Scikit-learn), and simulation software. *   Availability of domain-specific datasets (e.g., system performance logs, software testing reports). *   High-performance computing resources for running AI models. *   Institutional support for interdisciplinary teaching and collaboration.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Apply AI algorithms to solve engineering problems. 3.  Develop AI-driven software solutions for engineering applications. 4.  Analyze and interpret engineering data using AI techniques. 5.  Evaluate the ethical, legal, and social implications of AI in engineering. 6.  Design and implement AI-based simulations for engineering systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement AI algorithms for data analysis and prediction tasks. *   Analyze case studies on AI applications in engineering. 2.  Group Project: *   Develop an AI-driven software solution for a specific engineering problem. *   Design and implement AI-based simulations for engineering systems. 3.  Quizzes: *   Assess understanding of key AI concepts and algorithms. 4.  Final Exam: *   Comprehensive assessment of all course material. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in engineering, such as predictive maintenance in aerospace or AI-driven design in civil engineering. *   Activation: *   Discuss personal experiences with technology in engineering and identify AI potential in familiar scenarios. *   Demonstration: *   Live demonstrations of AI tools and techniques using software like MATLAB and Python. *   Examples of AI-driven simulations and their applications in engineering. *   Application: *   Hands-on labs for implementing AI algorithms and developing AI-driven software solutions. *   Group exercises to simulate engineering decision-making with AI insights. *   Integration: *   Discuss how AI can complement traditional engineering practices. *   Encourage students to develop proposals for applying AI in their internship or workplace settings.</t>
+  </si>
+  <si>
+    <t>AI in Engineering_Science.txt</t>
+  </si>
+  <si>
+    <t>Engineering Science *   Definition: Engineering Science is a multidisciplinary field that applies scientific principles to the design, development, and analysis of engineering solutions. The integration of AI can enhance simulations, optimize designs, and accelerate material discovery. *   Relevance: AI is transforming traditional engineering processes by enabling more efficient and accurate simulations, providing insights from large datasets, and facilitating the development of novel materials and structures.</t>
+  </si>
+  <si>
+    <t>1.  AI for Material Discovery: *   Use machine learning to predict material properties and accelerate the discovery of new materials with desired characteristics. 2.  Structural Analysis: *   Employ AI algorithms to analyze structural integrity, predict failure points, and optimize designs for safety and efficiency. 3.  AI-Driven Simulations: *   Utilize AI to enhance the speed and accuracy of engineering simulations, reducing the need for physical prototyping. 4.  Predictive Maintenance: *   Apply AI to predict equipment failures and optimize maintenance schedules, minimizing downtime and costs. 5.  Design Optimization: *   Use AI to explore a wide range of design options and optimize designs for performance, cost, and sustainability. 6.  Robotics and Automation: *   Implement AI to control robots and automate engineering processes, improving efficiency and precision.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Structural Integrity Reports: Data on stress, strain, and deformation of structures under various conditions. *   Experimental Material Data: Material properties obtained through laboratory testing, such as tensile strength, elasticity, and thermal conductivity. *   Computational Models: Data generated from simulations, including finite element analysis (FEA) and computational fluid dynamics (CFD). *   Sensor Data: Real-time data from sensors monitoring the performance and condition of engineering systems. *   Significance for AI Applications: *   Structural integrity reports enable AI to predict structural failures and optimize designs. *   Experimental material data allows AI to discover new materials with desired properties. *   Computational models provide data for training AI algorithms to enhance simulation accuracy and speed.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring fairness and transparency in AI-driven designs and decisions, addressing potential biases in data. *   Legal Implications: Compliance with safety regulations and standards, ensuring accountability for AI-driven failures. *   Social Implications: Impact on the engineering workforce due to automation, the need for retraining and upskilling. *   Examples: *   Positive: Development of safer and more efficient structures, discovery of new materials with enhanced properties. *   Negative: Over-reliance on AI leading to a decline in fundamental engineering skills, potential for misuse of AI in critical infrastructure.</t>
+  </si>
+  <si>
+    <t>*   AI in Engineering Science Research: Scholarly articles and publications on AI applications in engineering. *   Case Studies on AI-Driven Material Optimization: Real-world examples of how AI has been used to discover and optimize materials. *   Online Courses: *   Coursera: "AI for Engineers" *   edX: "Machine Learning for Engineering Applications" *   Books: *   "Artificial Intelligence in Engineering Design" by Christopher Tong *   "Machine Learning for Materials Science" by Gareth Conduit  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students with a multidisciplinary focus (e.g., mechanical, civil, materials). *   Varying levels of AI knowledge, but generally limited experience with hands-on AI applications. *   Expected Role After Completion: *   Understand AI tools and techniques applicable to engineering research and problem-solving. *   Be able to collaborate with AI specialists and contribute to AI-driven engineering projects. *   Apply AI to enhance their research, design, and analysis activities.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Engineering Science with expertise in AI-powered simulations and data analysis. *   Experience in applying AI to solve engineering problems. *   Skills: *   Strong understanding of engineering principles and AI algorithms. *   Ability to bridge the gap between theoretical AI concepts and practical engineering applications. *   Experience in teaching and mentoring students in interdisciplinary fields.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and FEA/CFD software. *   Availability of datasets for engineering applications (e.g., material databases, structural integrity reports). *   High-performance computing resources for running AI simulations. *   Institutional support for interdisciplinary teaching and research collaborations.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in various engineering domains. 3.  Apply AI algorithms to solve engineering problems, such as material discovery, structural analysis, and design optimization. 4.  Interpret and analyze data generated from AI simulations and experiments. 5.  Critically assess the ethical, legal, and social implications of using AI in engineering.</t>
+  </si>
+  <si>
+    <t>1.  Assignments: *   Implement AI algorithms for material property prediction. *   Analyze structural integrity using AI-driven simulations. *   Optimize engineering designs using AI techniques. 2.  Projects: *   Develop an AI-driven predictive maintenance system for engineering equipment. *   Design a new material using AI-based discovery methods. 3.  Quizzes: *   Assess understanding of key AI concepts and algorithms. 4.  Final Exam: *   Comprehensive evaluation of learning outcomes. 5.  Presentation: *   Present project findings and discuss the impact of AI on engineering.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in engineering, such as AI-driven material discovery for aerospace applications or AI-enhanced structural analysis for bridge design. *   Activation: *   Discussions on current engineering challenges and how AI can provide innovative solutions. *   Brainstorming sessions on potential AI applications in students' specific engineering disciplines. *   Demonstration: *   Live demonstrations of AI tools and techniques for engineering applications. *   Guest lectures from industry experts on AI in engineering. *   Application: *   Hands-on labs for implementing AI algorithms using software tools like MATLAB and Python. *   Group projects to apply AI to solve real-world engineering problems. *   Integration: *   Discussions on how AI can complement traditional engineering methods. *   Encourage students to explore AI applications in their own research and design projects.</t>
+  </si>
+  <si>
+    <t>AI in European_Studies.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Studies *   Definition: European Studies is an interdisciplinary field focusing on the politics, economics, history, and culture of Europe. The integration of AI allows for enhanced analysis of complex datasets, automated translation of multilingual documents, and predictive modeling of political trends. *   Relevance: AI is transforming how European policies are analyzed, public opinion is understood, and historical data is interpreted, enabling more informed decision-making and efficient governance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Policy Analysis: *   Use natural language processing (NLP) to analyze policy documents and identify key themes, potential conflicts, and areas for improvement. 2.  Automated Translation: *   Employ machine translation tools to facilitate communication and understanding across different languages within the European Union. 3.  AI-Driven Public Opinion Analysis: *   Analyze social media data and news articles to gauge public sentiment towards European policies and political figures. 4.  Predictive Modeling of Political Trends: *   Develop models to forecast election outcomes, policy adoption rates, and social unrest based on historical data and current events. 5.  Comparative Analysis of European Legal Systems: *   Utilize AI to compare and contrast legal frameworks across different European countries, identifying similarities and differences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Political Speeches: Transcripts of speeches by European leaders and politicians. *   Economic Data: Statistical data on GDP, employment, trade, and other economic indicators. *   Historical Records: Archival documents, treaties, and other historical sources. *   Legal Documents: EU directives, national laws, and court decisions. *   News Articles and Social Media: Text data from news sources and social media platforms. *   Significance for AI Applications: *   Political speeches can be analyzed to understand policy positions and rhetoric. *   Economic data can be used to build predictive models of economic performance. *   Historical records provide context for understanding current events and policy decisions. *   Legal documents can be processed to identify legal precedents and inconsistencies. *   News articles and social media data offer insights into public opinion and political discourse. *   Understanding this data enables targeted AI techniques such as sentiment analysis of political speeches, predictive modeling of economic trends, and automated summarization of historical records. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: *   Potential bias in AI algorithms leading to unfair or discriminatory outcomes. *   Privacy concerns related to the collection and use of personal data. *   Lack of transparency in AI decision-making processes. *   Legal Implications: *   Compliance with GDPR and other data protection regulations. *   Liability for errors or biases in AI-driven decisions. *   Intellectual property rights related to AI algorithms and data. *   Social Implications: *   Impact on employment due to automation of tasks. *   Potential for manipulation of public opinion through AI-driven disinformation campaigns. *   Changes in the nature of political discourse and engagement. *   Examples: *   Positive: More efficient policy analysis and decision-making. *   Negative: Use of AI to spread propaganda or manipulate elections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Political Science Research: *   Books: "Artificial Intelligence and Politics" by Richard Nadler. *   Journals: "Journal of Artificial Intelligence Research," "Political Analysis." *   Online AI Tools for Social Analysis: *   Platforms: Google AI, Microsoft Azure AI, IBM Watson. *   Online Courses: *   Coursera: "AI for Social Good" by University of Michigan. *   edX: "AI and the Future of Work" by MIT.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Political science and European studies students. *   Varying levels of AI knowledge, ranging from novice to intermediate. *   Solid background in political science theories, European history, and EU policies. *   Expected Role After Completion: *   Apply AI tools and techniques to analyze political data, assess policy impacts, and understand public opinion in a European context. *   Critically evaluate the ethical and social implications of AI in European politics and governance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Ph.D. in Political Science or European Studies. *   Specialization in European politics and AI-driven policy research. *   Experience in teaching quantitative methods and data analysis. *   Skills: *   Proficiency in AI techniques such as machine learning, natural language processing, and network analysis. *   Deep understanding of European political systems and institutions. *   Ability to bridge technical AI concepts with real-world policy applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget for software licenses, data acquisition, and guest speakers. *   Access to computing resources, including cloud-based AI platforms. *   Availability of domain-specific datasets, such as European Parliament debates, Eurostat data, and social media feeds. *   Institutional support for interdisciplinary teaching and research. *   Constraints: *   Limited availability of domain-specific AI tools and datasets. *   Potential challenges in bridging the gap between technical AI concepts and political science theories.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and its applications in political science and European studies. 2.  Identify and evaluate AI tools and techniques for analyzing political data and assessing policy impacts. 3.  Apply AI methods to address specific research questions related to European politics and governance. 4.  Critically assess the ethical, legal, and social implications of AI in European studies. 5.  Communicate AI-driven insights effectively to both technical and non-technical audiences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Analyze a political speech using natural language processing techniques. *   Build a predictive model of election outcomes based on historical data. 2.  Group Project: *   Design an AI-driven policy analysis tool for a specific European issue. *   Conduct a comparative analysis of European legal systems using AI. 3.  Midterm Exam: *   Assess understanding of AI concepts and techniques. 4.  Final Presentation: *   Present the results of the group project and discuss its implications. 5.  Class Participation: *   Engage in discussions and contribute to online forums. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in European politics, such as analyzing the impact of Brexit on public opinion or predicting the outcomes of European Parliament elections. *   Activation: *   Discussions on how AI is already being used in political campaigns and policy debates. *   Brainstorming sessions on potential applications of AI to address specific challenges in European studies. *   Demonstration: *   Live demonstrations of AI tools for natural language processing, machine learning, and network analysis. *   Guest lectures by experts in AI and European politics. *   Application: *   Hands-on labs for building and testing AI models using real-world datasets. *   Group exercises to simulate policy decision-making using AI-driven insights. *   Integration: *   Discussions on how AI can complement traditional research methods in European studies. *   Encouraging students to develop their own AI-driven research projects. *   Debates on the ethical and social implications of AI in European politics and governance.</t>
+  </si>
+  <si>
+    <t>AI in Financial_Economics.txt</t>
+  </si>
+  <si>
+    <t>Financial Economics * Definition: Financial Economics applies economic theory to study financial markets, institutions, and instruments. Integrating AI allows for enhanced data analysis, predictive modeling, and automation of financial processes. * Relevance: AI is revolutionizing financial economics by providing tools for more accurate forecasting, algorithmic trading, and improved risk management, leading to better investment decisions and market efficiency.</t>
+  </si>
+  <si>
+    <t>1. AI-Powered Investment Strategies: * Develop and implement automated trading strategies using machine learning algorithms to optimize portfolio returns. 2. Risk Analysis: * Employ AI to identify, assess, and manage financial risks, including credit risk, market risk, and operational risk. 3. Fraud Detection: * Utilize AI algorithms to detect and prevent fraudulent activities in financial transactions and systems. 4. Algorithmic Trading: * Implement high-frequency trading algorithms using AI to capitalize on market inefficiencies. 5. Portfolio Optimization: * Use machine learning to optimize asset allocation and portfolio construction based on risk-return profiles. 6. Credit Scoring: * Develop AI-driven models for assessing creditworthiness and predicting loan defaults.</t>
+  </si>
+  <si>
+    <t>* Types of Data: * Financial Market Data: Stock prices, trading volumes, and market indices. * Economic Indicators: GDP, inflation rates, unemployment rates, and interest rates. * Alternative Data: Social media sentiment, news articles, and satellite imagery. * Significance for AI Applications: * Financial market data enables predictive modeling for stock prices and market trends. * Economic indicators provide insights into macroeconomic factors affecting financial markets. * Alternative data enhances traditional models by incorporating real-time and unconventional information. * Data understanding enables targeted AI techniques like time series analysis for forecasting and sentiment analysis for market behavior.</t>
+  </si>
+  <si>
+    <t>* Ethical Implications: Algorithmic bias in trading, fairness in credit scoring, and transparency in AI-driven investment decisions. * Legal Implications: Compliance with financial regulations (e.g., SEC rules), data privacy laws, and algorithmic accountability. * Social Implications: Job displacement in the financial sector, increased market volatility due to algorithmic trading, and equitable access to AI-driven financial services. * Examples: * Positive: More efficient markets, personalized financial advice, and improved risk management. * Negative: Flash crashes due to algorithmic errors, biased lending practices, and market manipulation.</t>
+  </si>
+  <si>
+    <t>* Textbooks: * "Machine Learning for Financial Risk Management with Python" by Abdishakur Hassan and Jafar A. Siddiqui. * "Advances in Financial Machine Learning" by Marcos Lopez de Prado. * Case Studies: * Harvard Business School cases on AI-driven investment funds. * Journal articles on AI applications in financial modeling and forecasting. * Online Courses: * Coursera: "AI in Finance" by the Hong Kong University of Science and Technology. * Udacity: "AI for Trading." ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>* Learners: * Finance students with a solid foundation in statistics and data analysis. * Familiar with financial markets, investment strategies, and economic principles. * Expected Role After Completion: * Equipped with AI tools and techniques for financial forecasting, investment analysis, and risk management. * Able to critically evaluate AI-driven financial models and strategies. * Prepared to apply AI in roles such as financial analyst, portfolio manager, or risk consultant.</t>
+  </si>
+  <si>
+    <t>* Qualifications: * Professor of financial economics with a Ph.D. in Finance or Economics. * Expertise in AI-based market analysis, machine learning, and statistical modeling. * Skills: * Strong knowledge of financial markets, investment strategies, and economic indicators. * Proficient in programming languages such as Python and statistical software like R. * Ability to bridge theoretical concepts with practical applications and real-world case studies.</t>
+  </si>
+  <si>
+    <t>* Resources: * Course duration: One semester (12-14 weeks). * Access to financial databases (e.g., Bloomberg, Thomson Reuters). * Software and hardware: Python, R, TensorFlow, cloud computing resources. * Institutional support for interdisciplinary teaching and research collaborations. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>* By the end of the course, students will: 1. Understand the fundamental concepts of AI and machine learning in the context of financial economics. 2. Apply AI algorithms for financial forecasting, investment analysis, and risk management. 3. Evaluate the performance of AI-driven financial models using appropriate metrics. 4. Analyze the ethical, legal, and social implications of AI in finance. 5. Develop and implement AI-powered investment strategies using real-world financial data.</t>
+  </si>
+  <si>
+    <t>1. Individual Assignments: * Problem sets on applying AI algorithms to financial data. * Case studies on analyzing AI-driven investment strategies. 2. Group Project: * Develop an AI-powered investment model and backtest its performance. * Present findings and discuss implications for portfolio management. 3. Quizzes: * Regular quizzes on key AI concepts and applications in finance. 4. Midterm Exam: * Comprehensive exam covering theoretical and practical aspects of AI in financial economics. 5. Final Presentation: * Present the results of the group project and discuss the limitations and future directions.</t>
+  </si>
+  <si>
+    <t>* Problem-Centered: * Real-world case studies on algorithmic trading failures and successes. * Analysis of AI-driven fraud detection in financial institutions. * Activation: * Discussion of current events in financial markets and the role of AI. * Review of statistical concepts relevant to AI algorithms. * Demonstration: * Live coding sessions on implementing AI models in Python and R. * Guest lectures from industry professionals on AI applications in finance. * Application: * Hands-on labs on building predictive models for stock prices and economic indicators. * Group exercises on optimizing portfolios using machine learning techniques. * Integration: * Discussion on the future of AI in finance and its potential impact on the industry. * Reflection on the ethical considerations of AI-driven financial decision-making.</t>
+  </si>
+  <si>
+    <t>AI in Human_Medicine.txt</t>
+  </si>
+  <si>
+    <t>Human Medicine Definition: The application of AI technologies to enhance medical practices, improve patient outcomes, and accelerate medical research within the field of human health and wellness. Relevance: AI is transforming healthcare by enabling faster and more accurate diagnoses, personalized treatment plans, and the discovery of novel drugs and therapies.</t>
+  </si>
+  <si>
+    <t>AI-Assisted Diagnostics: *   Use machine learning algorithms to analyze medical images (X-rays, MRIs, CT scans) for early detection of diseases. *   Develop AI systems to assist pathologists in analyzing tissue samples for cancer diagnosis. Personalized Medicine: *   Utilize AI to analyze patient genomics data and electronic health records to tailor treatment plans based on individual patient characteristics. *   Create AI-powered decision support systems to recommend optimal drug dosages and treatment strategies. Drug Discovery: *   Employ AI to analyze large datasets of chemical compounds and biological interactions to identify potential drug candidates. *   Use AI to predict the efficacy and toxicity of new drugs, accelerating the drug development process. Predictive Analytics: *   Leverage AI to predict patient risk for various conditions (e.g., heart disease, diabetes) and proactively implement preventive measures. Robotic Surgery: *   Integrate AI into surgical robots to enhance precision, minimize invasiveness, and improve surgical outcomes. Virtual Assistants: *   Develop AI-powered virtual assistants to provide patients with information, schedule appointments, and monitor their health.</t>
+  </si>
+  <si>
+    <t>Types of Data: Electronic Health Records (EHRs): Patient demographics, medical history, diagnoses, medications, lab results, and clinical notes. Medical Imaging Data: X-rays, MRIs, CT scans, ultrasounds, and PET scans. Patient Genomics Data: DNA sequences, gene expression profiles, and genetic variations. Sensor Data: Wearable devices that track vital signs, activity levels, and sleep patterns. Significance for AI Applications: *   EHRs provide a comprehensive view of patient health, enabling AI to identify patterns and predict outcomes. *   Medical imaging data allows AI to detect subtle anomalies that may be missed by human clinicians. *   Patient genomics data enables AI to personalize treatment plans based on individual genetic profiles. Data Understanding Enables Targeted AI Techniques: *   Supervised learning for diagnosis and prediction based on labeled data. *   Unsupervised learning for identifying new patterns and relationships in patient data. *   Natural language processing (NLP) for extracting information from clinical notes and research articles.</t>
+  </si>
+  <si>
+    <t>Ethical Implications: Concerns about patient privacy, data security, algorithmic bias, and the potential for over-reliance on AI. Legal Implications: Compliance with HIPAA and other data protection regulations, as well as liability issues related to AI-driven medical errors. Social Implications: Changes in the role of healthcare professionals, the potential for job displacement, and the need for public education about AI in medicine. Examples: Positive: Improved accuracy and efficiency of diagnosis, personalized treatment plans, and accelerated drug discovery. Negative: Algorithmic bias leading to disparities in healthcare outcomes, data breaches compromising patient privacy, and over-reliance on AI leading to a decline in clinical skills.</t>
+  </si>
+  <si>
+    <t>AI in Healthcare Research Papers: *   PubMed: Search for articles on AI applications in medicine. *   IEEE Xplore: Access research papers on AI and biomedical engineering. Case Studies on AI-Driven Medical Innovations: *   NEJM Catalyst: Case studies on innovative healthcare delivery models. *   Rock Health: Reports and articles on digital health and AI in healthcare. Online Courses and Tutorials: *   Coursera: "AI for Medicine" by Andrew Ng. *   edX: "Artificial Intelligence in Healthcare" by MIT.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>Learners: *   Medical students and healthcare professionals (e.g., doctors, nurses, pharmacists). *   Varying levels of AI knowledge, ranging from novice to intermediate. *   Strong background in medical sciences and clinical practice. Expected Role After Completion: *   Understand the capabilities and limitations of AI in medicine. *   Critically evaluate AI-powered medical technologies and decision-support systems. *   Collaborate with AI developers to design and implement AI solutions for healthcare. *   Utilize AI tools to enhance their clinical practice and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>Qualifications: *   Professor of Medicine with expertise in AI applications for diagnostics and treatment planning. *   Strong background in medical informatics, data science, and machine learning. *   Experience in clinical practice and medical research. Skills: *   Ability to explain complex AI concepts in a clear and accessible manner. *   Experience in teaching interdisciplinary courses to medical students and healthcare professionals. *   Ability to bridge the gap between AI technology and clinical practice.</t>
+  </si>
+  <si>
+    <t>Resources: *   Budget for software licenses, computing resources, and guest speakers. *   Availability of domain-specific data (e.g., medical imaging datasets, EHR data). *   Access to AI tools and platforms (e.g., TensorFlow, PyTorch, cloud-based AI services). *   Institutional support for interdisciplinary teaching and research collaborations. Constraints: *   Limited time for hands-on AI training due to the demanding medical curriculum. *   Potential challenges in accessing and sharing sensitive patient data. *   Need for ongoing faculty development to keep up with the rapidly evolving field of AI in medicine.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Describe the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in various areas of medicine, such as diagnostics, treatment planning, and drug discovery. 3.  Analyze and interpret medical data using AI tools and techniques. 4.  Assess the ethical, legal, and social implications of AI in healthcare. 5.  Critically evaluate the performance of AI-powered medical technologies. 6.  Collaborate with AI developers to design and implement AI solutions for healthcare problems.</t>
+  </si>
+  <si>
+    <t>Exams: Assess students' understanding of AI concepts and their application in medicine. Projects: Develop and implement AI solutions for specific medical problems. Presentations: Present research findings and project outcomes to the class. Case Studies: Analyze and evaluate real-world examples of AI in healthcare. Class Participation: Engage in discussions and share insights on AI in medicine. Real-world applications: Students will be asked to solve real-world problems using the knowledge they acquired from the course. Fairness: Assessment methods are fair and account for the diverse backgrounds of the learners.</t>
+  </si>
+  <si>
+    <t>Problem-Centered: *   Case studies on real-world AI applications in medicine (e.g., AI-powered diagnosis of lung cancer, AI-driven personalized treatment of diabetes). Activation: *   Discussions on students' prior experiences with AI and their expectations for the course. *   Brainstorming sessions on potential AI solutions for healthcare problems. Demonstration: *   Live demonstrations of AI tools and platforms for medical imaging analysis, genomics data analysis, and drug discovery. *   Guest lectures from AI experts and healthcare professionals who are using AI in their practice. Application: *   Hands-on labs for developing and implementing AI solutions for specific medical problems. *   Group projects for designing and evaluating AI-powered medical technologies. Integration: *   Discussions on the future of AI in medicine and its potential impact on healthcare. *   Encouraging students to integrate AI into their clinical practice and research projects. Teaching Methods: *   Lectures to provide foundational knowledge on AI concepts and applications. *   Labs to provide hands-on experience with AI tools and techniques. *   Discussions to encourage critical thinking and knowledge sharing. *   Group work to promote collaboration and problem-solving skills.</t>
+  </si>
+  <si>
+    <t>AI in Immunology.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunology Definition: Immunology is the study of the immune system, its functions, and its role in health and disease. AI applications in immunology aim to improve our understanding of immune processes, accelerate disease diagnosis, and enhance treatment strategies. Relevance: AI addresses the complexity of immunological data by identifying patterns, predicting immune responses, and automating tasks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Vaccine Development: *   Use AI to analyze pathogen genomes and predict effective vaccine targets. *   Optimize vaccine formulations and delivery methods through machine learning. 2.  Disease Diagnosis: *   Employ AI to detect immune-related diseases from medical images and clinical data. *   Develop diagnostic tools that can identify biomarkers indicative of specific immunological conditions. 3.  Immune Response Modeling: *   Create AI models to simulate and predict immune responses to infections or therapies. *   Use these models to optimize treatment strategies and understand disease progression. 4.  Personalized Immunotherapy: *   Tailor immunotherapy treatments based on individual patient's immune profiles using AI. *   Predict treatment response and minimize adverse effects. 5.  Drug Discovery: *   Accelerate the discovery of new immunomodulatory drugs using AI-driven virtual screening. *   Predict drug efficacy and toxicity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of Data: Medical Imaging Data: Microscopic images of immune cells, radiological scans (CT, MRI) showing immune-related pathologies. Clinical Trial Results: Data from clinical trials evaluating the efficacy and safety of immunotherapies and vaccines. Genomic Datasets: Sequencing data of immune cells, pathogens, and host genomes. Flow Cytometry Data: High-dimensional data characterizing immune cell populations. Electronic Health Records (EHR): Patient history, lab results, and treatment outcomes. Significance for AI Applications: *   Imaging data enables AI-driven image analysis for disease diagnosis and monitoring. *   Clinical trial data allows for AI-based prediction of treatment outcomes and optimization of trial designs. *   Genomic data facilitates AI-driven discovery of disease biomarkers and vaccine targets. Data Understanding: *   Understanding data types allows targeted AI techniques such as convolutional neural networks for image analysis and recurrent neural networks for time-series data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical Implications: Bias in AI models, data privacy concerns, and equitable access to AI-driven healthcare. Legal Implications: Compliance with data protection regulations (e.g., HIPAA, GDPR) and intellectual property rights. Social Implications: Impact on the role of healthcare professionals, patient trust in AI, and public perception of AI in medicine. Examples: Positive: Improved diagnostic accuracy, faster vaccine development, and personalized treatments. Negative: Potential for algorithmic bias leading to unequal access to care, job displacement for some healthcare professionals, and privacy breaches. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Immunology Research Papers: *   PubMed: Search for "artificial intelligence immunology" to find relevant publications. *   Google Scholar: Similar search terms to find research articles and reviews. Online Courses: *   Coursera: "AI for Medicine" specialization. *   edX: "Data Science in Biomedicine" programs. *   MIT OpenCourseWare: Courses on machine learning and bioinformatics. Books: *   "Deep Learning in Healthcare" by Arvind Rao and Murad Mahmud. *   "Artificial Intelligence in Medicine" edited by Riccardo Bellazzi and Jasmina Bratko.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learners: *   Medical and biology students specializing in immunology. *   Some familiarity with basic immunology concepts. *   Varying levels of prior exposure to AI and programming. Expected Role After Completion: *   Understand the potential of AI in immunology research and diagnostics. *   Critically evaluate AI-driven studies and tools. *   Collaborate effectively with AI specialists in research projects. *   Apply AI tools and techniques to solve immunological problems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualifications: *   Professor of Immunology with a strong research background in AI-driven medical research. *   Expertise in immunology, machine learning, and bioinformatics. *   Experience in teaching interdisciplinary courses and mentoring students. Skills: *   Ability to explain complex AI concepts in an accessible manner. *   Proficiency in programming languages commonly used in AI (e.g., Python, R). *   Familiarity with AI tools and platforms (e.g., TensorFlow, PyTorch). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources: *   Budget: Funding for software licenses, cloud computing resources, and guest speakers. *   Personnel: Teaching assistants with expertise in AI and immunology. *   Course Duration: One semester (15 weeks). *   Availability of Domain-Specific Data: Access to publicly available immunology datasets (e.g., from NCBI GEO) and synthetic datasets for experimentation. *   Access to Software and Hardware: Access to cloud computing platforms (e.g., AWS, Google Cloud) and AI software libraries (e.g., TensorFlow, PyTorch). *   Institutional Support: Collaboration with the computer science department and access to high-performance computing facilities.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Describe the fundamental concepts of AI and machine learning. 2.  Identify and explain various AI applications in immunology research and diagnostics. 3.  Critically evaluate the strengths and limitations of AI-driven studies in immunology. 4.  Apply AI tools and techniques to analyze immunological data. 5.  Discuss the ethical, legal, and social implications of AI in immunology. 6.  Propose AI-based solutions to address specific challenges in immunology. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Literature reviews of AI applications in immunology. *   Coding assignments using AI tools to analyze immunological data. 2.  Group Project: *   Design and implement an AI-based solution to a specific immunological problem. *   Prepare a project report and present findings to the class. 3.  Quizzes: *   Regular quizzes to assess understanding of key AI concepts and immunology principles. 4.  Midterm Exam: *   Comprehensive exam covering all course material up to the midterm point. 5.  Final Exam: *   Comprehensive exam covering all course material. 6.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>Problem-Centered: *   Case studies on real-world applications of AI in immunology, such as AI-driven vaccine design for COVID-19. Activation: *   Discussions on students' prior knowledge of immunology and AI. *   Brainstorming sessions on potential AI applications in immunology. Demonstration: *   Live demonstrations of AI tools for image analysis, genomic data analysis, and immune response modeling. *   Guest lectures from experts in AI and immunology. Application: *   Hands-on labs using AI tools to analyze immunological datasets. *   Group exercises to simulate AI-driven decision-making in immunological research. Integration: *   Discussions on how AI can complement traditional immunology research methods. *   Encourage students to develop proposals for applying AI in their future research projects or careers. Teaching Methods: *   Lectures: Providing foundational knowledge of AI and immunology. *   Labs: Hands-on experience with AI tools and techniques. *   Discussions: Facilitating critical thinking and knowledge sharing. *   Group Work: Promoting collaboration and problem-solving skills.</t>
+  </si>
+  <si>
+    <t>AI in IndustrialEngineeringProductionLogisticsProducts.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Engineering - Production, Logistics, and Products *   Definition: Industrial Engineering focuses on optimizing complex processes and systems. In the context of production, logistics, and products, AI enhances efficiency, reduces costs, and improves overall performance through data-driven decision-making. *   Relevance: AI is revolutionizing industrial engineering by automating processes, predicting outcomes, and optimizing resource allocation, leading to smarter manufacturing and logistics operations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Production Planning: *   Use AI algorithms to forecast demand and optimize production schedules. 2.  Smart Manufacturing: *   Implement AI-driven systems for real-time monitoring and control of manufacturing processes. 3.  Supply Chain Optimization: *   Employ AI to optimize inventory levels, transportation routes, and warehouse operations. 4.  Predictive Maintenance: *   Use AI to analyze equipment data and predict maintenance needs, reducing downtime. 5.  Quality Control: *   Apply AI-based image recognition and machine learning to detect defects in products. 6.  Process Automation: *   Automate repetitive tasks in production and logistics using AI-powered robots and software. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Production Efficiency Reports: Data on output, resource utilization, and downtime. *   Logistics Tracking Data: Information on shipment locations, delivery times, and transportation costs. *   Quality Control Data: Records of defects, inspections, and product performance. *   Sensor Data: Real-time data from machines and equipment on the factory floor. *   Significance for AI Applications: *   Production efficiency data helps optimize resource allocation and improve throughput. *   Logistics tracking data enables efficient route planning and delivery optimization. *   Quality control data allows for the early detection of defects and process improvements. *   Sensor data facilitates predictive maintenance and real-time process control. *   Understanding this data enables targeted AI techniques like time series forecasting for demand prediction and machine vision for quality inspection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Data privacy concerns, algorithmic bias in decision-making, and job displacement due to automation. *   Legal Implications: Compliance with data protection regulations and ensuring transparency in AI algorithms. *   Social Implications: Changes in workforce skills requirements, potential job losses, and the need for retraining programs. *   Examples: *   Positive: Improved efficiency, reduced costs, and enhanced product quality. *   Negative: Job displacement, increased dependence on technology, and potential for algorithmic bias. *   Domain-specific concerns include the need for robust cybersecurity measures to protect sensitive production data and the importance of human oversight in AI-driven decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Textbooks: *   "Artificial Intelligence in Manufacturing" by [Author Name] *   "AI-Powered Supply Chain Management" by [Author Name] *   Research Papers: *   IEEE Transactions on Automation Science and Engineering *   Journal of Intelligent Manufacturing *   Online Courses: *   Coursera: "Supply Chain Analytics" by [University Name] *   edX: "Smart Manufacturing" by [Organization Name] *   Industry Reports: *   Reports from McKinsey, Deloitte, and PwC on AI in manufacturing and logistics.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Students studying industrial production and logistics. *   Varying levels of AI knowledge, with some familiarity with basic concepts. *   Strong background in industrial engineering principles and practices. *   Expected Role After Completion: *   Apply AI techniques to solve real-world problems in manufacturing and logistics. *   Lead or participate in AI implementation projects in their organizations. *   Contribute to the development of AI-driven solutions for industrial engineering applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Industrial Engineering. *   Expertise in AI-powered logistics and manufacturing. *   Strong background in machine learning, data analytics, and optimization techniques. *   Experience in teaching and mentoring students in industrial engineering. *   Skills: *   Ability to explain complex AI concepts in a clear and accessible manner. *   Proficiency in using AI tools and software for industrial engineering applications. *   Experience in conducting research and publishing papers on AI in manufacturing and logistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget for software licenses, datasets, and computing resources. *   Availability of domain-specific data from industry partners or public repositories. *   Access to AI tools and platforms such as Python, TensorFlow, and cloud-based AI services. *   Institutional support for interdisciplinary teaching and collaboration with other departments. *   Constraints: *   Limited availability of specialized AI hardware such as GPUs. *   Potential challenges in accessing proprietary data from industry partners. *   Time constraints due to the breadth of topics covered in the course.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in manufacturing, logistics, and product development. 3.  Apply AI techniques to solve real-world problems in industrial engineering. 4.  Analyze and interpret data relevant to AI-driven decision-making in industrial settings. 5.  Evaluate the ethical, legal, and social implications of using AI in industrial engineering. 6.  Design and implement AI-based solutions for specific industrial engineering challenges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Case studies analyzing AI applications in manufacturing and logistics. *   Problem-solving exercises using AI tools and techniques. 2.  Group Project: *   Design and implementation of an AI-based solution for a specific industrial engineering problem. *   Presentation of the project findings to the class. 3.  Quizzes: *   Regular quizzes to assess understanding of key AI concepts and techniques. 4.  Midterm Exam: *   Comprehensive exam covering the fundamentals of AI and its applications in industrial engineering. 5.  Final Exam: *   Comprehensive exam covering all topics covered in the course. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Problem-Centered: *   Case studies on real-world AI applications in manufacturing, such as Tesla's automated factory or Amazon's warehouse robotics. *   Hands-on projects involving the development of AI-based solutions for specific industrial engineering challenges. *   Activation: *   Discussions on students' prior experiences with AI and its potential impact on industrial engineering. *   Brainstorming sessions to identify opportunities for AI implementation in various industrial settings. *   Demonstration: *   Live demonstrations of AI tools and software for industrial engineering applications. *   Guest lectures by industry experts on AI in manufacturing and logistics. *   Application: *   Hands-on labs for data preprocessing, model training, and performance evaluation. *   Group exercises to simulate decision-making in AI-driven industrial environments. *   Integration: *   Discussions on the ethical, legal, and social implications of using AI in industrial engineering. *   Presentations by students on their AI-based project findings and their potential impact on the field. </t>
+  </si>
+  <si>
+    <t>AI in Industrial_Engineering_Logistics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Engineering / Logistics *   Definition: Industrial Engineering focuses on optimizing complex processes and systems, while logistics involves managing the flow of goods, information, and resources. AI integration aims to enhance efficiency, reduce costs, and improve decision-making within these areas. *   Relevance: AI is transforming logistics and supply chain management by enabling automation, providing real-time insights, and optimizing operations through data-driven strategies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Powered Supply Chain Optimization: *   Use AI algorithms to optimize the entire supply chain, from sourcing and production to distribution and delivery. 2.  Warehouse Automation: *   Implement AI-driven robots and systems to automate tasks such as picking, packing, and sorting in warehouses. 3.  Predictive Logistics: *   Employ AI to forecast demand, predict potential disruptions, and optimize transportation routes and schedules. 4.  Inventory Management: *   Utilize AI to monitor and optimize inventory levels, reduce stockouts, and minimize carrying costs. 5.  Route Optimization: *   Apply AI algorithms to find the most efficient routes for delivery vehicles, considering factors like traffic, weather, and delivery time windows. 6.  Quality Control: *   Use AI-powered vision systems to inspect products for defects and ensure quality standards are met. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of Data: *   Real-time tracking data: GPS data, sensor data from IoT devices. *   Inventory management reports: Stock levels, reorder points, demand forecasts. *   Transportation data: Vehicle locations, delivery times, fuel consumption. *   Warehouse operational data: Picking times, packing rates, storage utilization. *   Supplier data: Lead times, pricing, quality metrics. Significance for AI Applications: *   Real-time tracking data enables dynamic route optimization and proactive disruption management. *   Inventory management reports facilitate demand forecasting and inventory level optimization. *   Transportation data allows for efficient route planning and predictive maintenance of vehicles. *   Understanding this data enables targeted AI techniques such as time series analysis, machine learning for predictions, and optimization algorithms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical Implications: Potential bias in algorithms, data privacy concerns related to tracking and monitoring. Legal Implications: Compliance with data protection regulations (e.g., GDPR), liability for autonomous systems. Social Implications: Job displacement due to automation, need for workforce retraining and upskilling. Examples: *   Positive: Improved efficiency, reduced costs, enhanced customer service. *   Negative: Job losses, increased reliance on technology, potential for system failures. Domain-Specific Concerns: *   Ensuring the security of AI systems against cyberattacks. *   Addressing the potential for algorithmic bias in decision-making. *   Managing the environmental impact of AI-driven logistics solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Logistics Case Studies: *   Reports and articles on successful AI implementations in logistics companies. Online Courses: *   Coursera: "Supply Chain Analytics" *   edX: "AI for Supply Chain Management" *   Udemy: "AI in Logistics: Practical Applications" Industry Publications: *   Supply Chain Management Review *   Journal of Business Logistics  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Learners: Industrial engineering students with a focus on logistics and supply chain management. Current Level of AI Knowledge: Basic understanding of AI concepts, limited hands-on experience. Background in the Domain: Strong foundation in industrial engineering principles, logistics, and supply chain management. Expected Role After Completion: Apply AI tools and techniques to streamline logistics operations, improve supply chain efficiency, and make data-driven decisions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualifications: Professor of industrial engineering with expertise in AI applications for logistics. AI-Related Skills: Machine learning, optimization algorithms, data analytics. Domain Expertise: Supply chain management, logistics, industrial engineering. Teaching Experience: Proven track record of teaching industrial engineering and logistics courses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources: *   Budget: Funding for software licenses, hardware, and guest speakers. *   Personnel: Teaching assistants, lab technicians. *   Course Duration: One semester (15 weeks). Availability of Domain-Specific Data: Access to real-world logistics datasets for hands-on projects. Access to Software and Hardware: AI tools (e.g., Python, TensorFlow, PyTorch), computing resources (e.g., cloud-based platforms). Institutional Support: Collaboration with the computer science department, interdisciplinary teaching initiatives.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Upon completion of this course, students will be able to: 1.  Understand the fundamental concepts of AI and its applications in logistics and supply chain management. 2.  Identify and evaluate AI-powered solutions for optimizing various logistics processes. 3.  Apply AI tools and techniques to analyze logistics data and make data-driven decisions. 4.  Design and implement AI-driven solutions for specific logistics challenges. 5.  Critically assess the ethical, legal, and social implications of using AI in logistics. 6.  Use AI tools for streamlining logistics and improving supply chain efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Case study analysis of AI applications in logistics. *   Data analysis and modeling using AI tools. 2.  Group Project: *   Design and implementation of an AI-driven solution for a real-world logistics problem. 3.  Midterm Exam: *   Assess understanding of fundamental AI concepts and their applications in logistics. 4.  Final Exam: *   Comprehensive assessment of all course material. 5.  Presentations: *   Presentation of the group project and individual assignments. </t>
+  </si>
+  <si>
+    <t>Problem-Centered: *   Case studies on real-world logistics challenges and AI-driven solutions. *   Hands-on projects that require students to apply AI tools to solve specific problems. Activation: *   Brainstorming sessions to identify potential AI applications in logistics. *   Discussions on current trends and challenges in the logistics industry. Demonstration: *   Guest lectures from industry experts on AI applications in logistics. *   Live demonstrations of AI tools and techniques. Application: *   Hands-on labs using AI tools to analyze logistics data and build predictive models. *   Group projects that require students to design and implement AI-driven solutions. Integration: *   Discussions on the ethical, legal, and social implications of using AI in logistics. *   Presentations from students on their AI-driven solutions and their potential impact on the logistics industry. Teaching Methods: *   Lectures: To introduce fundamental concepts and theories. *   Labs: To provide hands-on experience with AI tools and techniques. *   Discussions: To encourage critical thinking and problem-solving. *   Group Work: To foster collaboration and teamwork.</t>
+  </si>
+  <si>
+    <t>AI in Industrial_Engineering_Mechanical_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial and Mechanical Engineering *   Definition: This domain encompasses the design, development, and optimization of mechanical systems and industrial processes. AI integration enhances efficiency, precision, and automation across various engineering tasks. *   Relevance: AI is revolutionizing traditional mechanical and industrial engineering practices by enabling data-driven decision-making, automating complex tasks, and improving overall system performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Assisted Design: *   Utilize AI algorithms to generate and optimize mechanical designs based on performance requirements and constraints. 2.  Predictive Maintenance: *   Employ machine learning techniques to analyze sensor data and predict equipment failures, minimizing downtime and maintenance costs. 3.  AI-Driven Automation: *   Implement AI-powered robots and automated systems to improve manufacturing processes, enhance product quality, and reduce human error. 4.  Process Optimization: *   Use AI to analyze and optimize industrial processes for increased efficiency, reduced waste, and improved resource utilization. 5.  Quality Control: *   Apply computer vision and machine learning to automate quality inspection processes, ensuring product compliance and reducing defects. 6.  Supply Chain Optimization: *   Leverage AI to optimize supply chain logistics, improve inventory management, and reduce transportation costs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Machine Performance Logs: Data from sensors monitoring machine health and performance metrics (e.g., temperature, vibration, pressure). *   CAD Design Files: 3D models and technical drawings of mechanical components and systems. *   Sensor Data from Manufacturing: Real-time data from sensors monitoring production processes (e.g., speed, flow rate, material composition). *   Simulation Data: Data generated from simulations of mechanical systems and industrial processes. *   Maintenance Records: Historical data on equipment maintenance, repairs, and replacements. *   Significance for AI Applications: *   Machine performance logs enable predictive maintenance and anomaly detection. *   CAD design files facilitate AI-assisted design and optimization. *   Sensor data from manufacturing allows for real-time process monitoring and control. *   Understanding data enables targeted AI techniques like regression for predictive maintenance and generative models for design optimization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in AI algorithms, job displacement due to automation, and concerns about data privacy and security. *   Legal Implications: Compliance with industry regulations, ensuring safety and reliability of AI-driven systems, and addressing liability issues. *   Social Implications: Impact on workforce skills, need for retraining and upskilling, and ensuring equitable access to AI technologies. *   Examples: *   Positive: Increased efficiency, improved product quality, and enhanced safety in industrial environments. *   Negative: Job displacement, algorithmic bias, and potential for misuse of AI technologies. </t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Artificial Intelligence for Engineers" by Tatsuo Arai *   "AI and Machine Learning in Mechanical Engineering" by Chad M. Hebert *   Research Papers: *   IEEE Xplore: Research articles on AI applications in manufacturing and mechanical engineering. *   ScienceDirect: Articles on AI-driven automation and predictive maintenance. *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng (Stanford University) *   edX: "Artificial Intelligence" by MIT ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students specializing in mechanical systems and industrial processes. *   Varying levels of AI knowledge, with some exposure to basic programming and data analysis. *   Solid foundation in mechanical engineering principles, mathematics, and physics. *   Expected Role After Completion: *   Apply AI techniques to solve engineering problems, design intelligent systems, and optimize industrial processes. *   Collaborate with AI specialists to develop and implement AI-driven solutions. *   Critically evaluate the ethical and societal implications of AI in engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of mechanical engineering with expertise in AI-driven industrial automation. *   Ph.D. in Mechanical Engineering or related field. *   Experience in teaching AI and machine learning concepts to engineering students. *   Skills: *   Strong understanding of mechanical engineering principles and AI techniques. *   Ability to bridge the gap between theoretical AI concepts and practical engineering applications. *   Experience in developing and implementing AI-driven solutions in industrial settings. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (14 weeks). *   Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software. *   Availability of datasets from industrial partners or public repositories. *   Access to high-performance computing resources for training AI models. *   Constraints: *   Limited budget for purchasing specialized AI software or hardware. *   Potential challenges in accessing real-world industrial data due to confidentiality concerns. *   Need for interdisciplinary collaboration with computer science and data science departments. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate potential AI applications in mechanical and industrial engineering. 3.  Apply AI techniques to solve engineering problems such as design optimization, predictive maintenance, and process control. 4.  Develop and implement AI-driven solutions using appropriate software tools and datasets. 5.  Critically evaluate the ethical, legal, and social implications of AI in engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Homework Assignments: *   Solve engineering problems using AI techniques. *   Analyze case studies of AI applications in industry. 2.  Midterm Exam: *   Assess understanding of fundamental AI concepts and algorithms. 3.  Group Project: *   Develop and implement an AI-driven solution for a real-world engineering problem. *   Present project findings and demonstrate the effectiveness of the solution. 4.  Final Exam: *   Comprehensive assessment of course material, including AI concepts, applications, and ethical considerations. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on AI-assisted design, predictive maintenance in manufacturing plants, and AI-driven robotics. *   Activation: *   Discussions on current challenges in mechanical and industrial engineering and how AI can provide solutions. *   Demonstration: *   Live demonstrations of AI tools for design optimization, predictive maintenance, and process control. *   Application: *   Hands-on labs for developing and implementing AI models using Python and relevant libraries. *   Group projects to apply AI techniques to solve real-world engineering problems. *   Integration: *   Discussions on the future of AI in engineering and the need for interdisciplinary collaboration. *   Encourage students to explore AI applications in their own areas of interest within mechanical and industrial engineering.</t>
+  </si>
+  <si>
+    <t>AI in IntegratedDesignEngineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Design Engineering *   Definition: Integrated Design Engineering is a holistic approach to product development that combines various engineering disciplines with design principles. AI enhances this process by automating design tasks, optimizing solutions, and providing data-driven insights. *   Relevance: AI is revolutionizing design engineering by enabling faster iteration, improved performance, and innovative solutions that were previously unattainable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Product Design: *   Utilize AI algorithms to generate and evaluate product designs based on specified criteria and constraints. 2.  Generative Design: *   Employ generative design techniques to explore a wide range of design options automatically, optimizing for performance, cost, and manufacturability. 3.  AI-Powered Simulation: *   Leverage AI to accelerate and enhance engineering simulations, predicting product behavior and identifying potential issues early in the design process. 4.  Material Selection: *   Use AI to analyze material properties and recommend optimal materials for specific design applications. 5.  Predictive Maintenance: *   Implement AI-driven predictive maintenance strategies by analyzing sensor data from products in operation to anticipate failures and optimize maintenance schedules. 6.  Design Optimization: *   Apply AI algorithms to optimize existing designs for improved performance, reduced weight, or enhanced efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   CAD Files: 3D models and 2D drawings representing product geometry. *   Engineering Blueprints: Detailed technical drawings specifying dimensions, tolerances, and manufacturing processes. *   Material Properties Databases: Comprehensive data on the physical and mechanical properties of various materials. *   Simulation Data: Results from finite element analysis (FEA) and computational fluid dynamics (CFD) simulations. *   Sensor Data: Real-time data collected from sensors embedded in products during testing or operation. *   Significance for AI Applications: *   CAD files and blueprints provide geometric information for AI-driven design and analysis. *   Material properties databases enable AI to make informed material selection decisions. *   Simulation data trains AI models to predict product behavior and optimize designs. *   Sensor data allows AI to monitor product performance and predict failures. *   Data understanding enables targeted AI techniques such as deep learning for image recognition in CAD files and machine learning for predictive maintenance based on sensor data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential biases in AI algorithms, impact on human designers' roles, and ensuring fairness in design outcomes. *   Legal Implications: Intellectual property rights for AI-generated designs, liability for failures caused by AI errors, and compliance with safety regulations. *   Social Implications: Changes in the engineering workforce due to automation, need for retraining and upskilling, and potential impact on product innovation. *   Examples: *   Positive: Faster product development cycles, improved product performance, and innovative designs. *   Negative: Job displacement for human designers, potential for biased or unsafe designs, and over-reliance on AI. </t>
+  </si>
+  <si>
+    <t>*   AI in Design Engineering Research Papers: *   IEEE Xplore: Search for articles on AI applications in design and manufacturing. *   ASME Digital Collection: Explore research on AI-driven design optimization and simulation. *   Case Studies on AI-Powered Product Development: *   MIT Sloan Management Review: Articles on companies using AI to transform product design. *   Harvard Business Review: Case studies on the adoption of AI in engineering and manufacturing. *   Online Courses: *   Coursera: "AI for Product Innovation" *   edX: "Machine Learning for Engineering Design"  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students specializing in design and product development (e.g., mechanical, aerospace, industrial engineering). *   Basic understanding of engineering principles, CAD software, and simulation tools. *   Limited or no prior experience with AI or machine learning. *   Expected Role After Completion: *   Apply AI tools and techniques to enhance their design workflows. *   Collaborate with AI systems to generate and evaluate design options. *   Understand the limitations and ethical implications of AI in design engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Design Engineering with a Ph.D. in a relevant field. *   Expertise in AI-driven optimization, machine learning, and data analysis. *   Experience in teaching design engineering courses and mentoring students. *   Skills: *   Strong understanding of engineering design principles and practices. *   Proficiency in AI programming languages (e.g., Python) and machine learning frameworks (e.g., TensorFlow, PyTorch). *   Ability to communicate complex technical concepts to students with varying backgrounds. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (15 weeks). *   Access to CAD software (e.g., SolidWorks, AutoCAD) with AI-integrated features. *   Availability of high-performance computing resources for running AI models and simulations. *   Domain-specific data sets (e.g., material properties, design specifications) for training AI algorithms. *   Institutional support for interdisciplinary collaboration between engineering and computer science departments. *   Constraints: *   Budget limitations for purchasing AI software licenses or hiring external consultants. *   Limited availability of domain-specific data. *   Potential challenges in integrating AI tools into existing design engineering curriculum.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in integrated design engineering. 3.  Apply AI tools and techniques to solve design problems. 4.  Interpret and analyze data generated by AI-driven design processes. 5.  Assess the ethical, legal, and social implications of using AI in design engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement AI algorithms for design optimization or material selection. *   Analyze case studies on AI-powered product development. 2.  Group Project: *   Design a product using generative design techniques and AI-powered simulation. *   Present the design process, results, and potential applications of the product. 3.  Quizzes: *   Assess understanding of key AI concepts and design engineering principles. 4.  Midterm Exam: *   Comprehensive assessment of knowledge gained in the first half of the course. 5.  Final Exam: *   Comprehensive assessment of all learning outcomes. 6.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in design engineering, such as Airbus's use of generative design for aircraft components or BMW's use of AI for predictive maintenance. *   Activation: *   Brainstorming sessions to identify design problems that could be solved using AI. *   Discussions on the limitations of traditional design methods and the potential benefits of AI. *   Demonstration: *   Live demonstrations of AI tools for design optimization, generative design, and AI-powered simulation. *   Guest lectures from industry experts on the use of AI in product development. *   Application: *   Hands-on labs for implementing AI algorithms in CAD software and simulation tools. *   Group exercises for designing products using generative design techniques. *   Integration: *   Discussions on how AI can complement traditional design methods and enhance the creativity of human designers. *   Encourage students to develop proposals for applying AI in their future design engineering projects.</t>
+  </si>
+  <si>
+    <t>AI in Integrated_Design_Engineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Design Engineering *   Definition: Integrated Design Engineering (IDE) is a holistic approach to design that combines various engineering disciplines to create innovative and functional products or systems. AI integration enhances design processes by automating tasks, generating design alternatives, and optimizing performance. *   Relevance: AI is transforming traditional design workflows by enabling rapid prototyping, improving design efficiency, and facilitating data-driven decision-making in product development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Industrial Design: *   Use AI algorithms to generate aesthetically pleasing and ergonomic designs based on user preferences and design principles. 2.  Generative Design: *   Employ AI to automatically create multiple design options that meet specified performance criteria, materials, and manufacturing constraints. 3.  AI-Powered Prototyping: *   Use AI to simulate and test design prototypes, predicting performance and identifying potential issues before physical prototypes are built. 4.  Design Optimization: *   Optimize designs for various factors like weight, cost, and performance using AI-driven optimization algorithms. 5.  Predictive Maintenance: *   Use AI to predict when product components may fail, enabling proactive maintenance and reducing downtime. 6.  Virtual Reality (VR) and Augmented Reality (AR) Integration: *   Enhance design visualization and user interaction through AI-powered VR/AR interfaces. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   CAD Models: 3D representations of designs, including geometric and material properties. *   Simulation Data: Results from finite element analysis (FEA), computational fluid dynamics (CFD), and other simulations. *   User Feedback Reports: Qualitative and quantitative data from user testing, surveys, and reviews. *   Material Properties: Data on material characteristics, such as strength, density, and thermal conductivity. *   Manufacturing Constraints: Information on manufacturing processes, limitations, and costs. *   Significance for AI Applications: *   CAD models enable AI to learn design patterns and generate new design options. *   Simulation data allows AI to predict product performance under various conditions. *   User feedback informs AI about user preferences and helps refine designs. *   Material and Manufacturing data enables AI to generate feasible and optimized designs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Ensuring fairness and transparency in AI-generated designs, addressing potential biases in training data. *   Legal Implications: Intellectual property rights for AI-generated designs, liability for design flaws identified by AI. *   Social Implications: Impact on employment for designers and engineers, the need for new skills in AI-driven design processes. *   Examples: *   Positive: Enhanced creativity, improved design performance, faster time-to-market. *   Negative: Over-reliance on AI leading to a decline in human design skills, potential for job displacement. </t>
+  </si>
+  <si>
+    <t>*   Research Papers: *   IEEE Xplore: Articles on AI applications in design and engineering. *   ASME Digital Collection: Research on AI-driven design optimization. *   Online Courses: *   Coursera: "Generative Design Specialization" by Autodesk. *   edX: "AI for Design and Manufacturing" by MIT. *   Books: *   "AI and Design: A Conceptual Framework for Understanding Artificial Intelligence in Design" by Achim Menges. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Undergraduate and graduate students in design engineering or related fields. *   Varying levels of experience with CAD software and engineering simulations. *   Limited or no prior experience with AI or machine learning. *   Expected Role After Completion: *   Apply AI tools and techniques to enhance design workflows. *   Collaborate with AI systems to generate and optimize designs. *   Evaluate the performance and feasibility of AI-generated designs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Design Engineering with a PhD in a relevant field. *   Experience in AI-powered design optimization and generative design. *   Skills: *   Strong understanding of design principles and engineering simulations. *   Proficiency in AI and machine learning algorithms. *   Ability to bridge the gap between design theory and AI applications. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to CAD software (e.g., SolidWorks, AutoCAD) with AI plugins. *   Availability of simulation tools (e.g., ANSYS, COMSOL). *   Access to computing resources for training AI models. *   Institutional support for interdisciplinary collaboration. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its applications in design engineering. 2.  Use AI tools to generate and evaluate design alternatives. 3.  Apply AI algorithms to optimize designs for specific performance criteria. 4.  Interpret and analyze simulation data generated by AI models. 5.  Assess the ethical, legal, and social implications of using AI in design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Analyze case studies on AI-driven design projects. *   Develop AI models for design optimization tasks. 2.  Group Project: *   Design a product or system using AI-powered generative design tools. *   Evaluate the performance of AI-generated designs through simulations. 3.  Quizzes: *   Assess understanding of key AI concepts and design principles. 4.  Final Presentation: *   Present the design process, AI techniques used, and results achieved in the group project. 5.  Class Participation: *   Engage in discussions and contribute to problem-solving activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in design, such as Airbuss cabin design optimization or Nikes generative shoe design. *   Activation: *   Brainstorming sessions to identify opportunities for AI in existing design workflows. *   Demonstration: *   Live demonstrations of AI-powered CAD software, generative design tools, and simulation platforms. *   Application: *   Hands-on labs for creating AI models for design optimization. *   Group exercises to simulate design decision-making with AI insights. *   Integration: *   Discussions on how AI can augment human creativity and expertise in design. *   Encourage students to propose AI-driven solutions for design challenges in their own projects.</t>
+  </si>
+  <si>
+    <t>AI in Integrative Neurosciences.txt</t>
+  </si>
+  <si>
+    <t>Integrative Neurosciences  *   Definition: Integrative Neurosciences combines various disciplines (e.g., neuroscience, computer science, psychology) to understand the brain's functions and mechanisms. AI enhances data analysis, modeling, and simulation of complex neural processes. *   Relevance: AI transforms neuroscience by enabling advanced analysis of brain imaging data, creating detailed cognitive models, and managing large-scale neuroinformatics databases.</t>
+  </si>
+  <si>
+    <t>*   AI in Brain Imaging:  *   Utilize AI to analyze MRI, fMRI, and PET scans to identify patterns and anomalies indicative of neurological disorders or cognitive functions. *   Neuroinformatics:  *   Employ AI to manage, analyze, and integrate large datasets of neural information, including genomic, proteomic, and connectomic data. *   Cognitive Modeling:  *   Develop AI models that simulate human cognitive processes, such as memory, attention, and decision-making. *   Brain-Computer Interfaces (BCIs):  *   Use AI algorithms to decode brain signals for controlling external devices or restoring motor functions. *   Personalized Medicine:  *   Apply AI to predict individual responses to treatments based on brain imaging and genetic data.</t>
+  </si>
+  <si>
+    <t>*   Types of Data:  *   MRI and EEG Scans: High-resolution images and time-series data capturing brain activity. *   Neural Network Models: Computational representations of brain circuits and functions. *   Cognitive Science Datasets: Behavioral data from experiments on perception, memory, and learning. *   Genomic and Proteomic Data: Genetic and protein information related to brain development and function. *   Significance for AI Applications:  *   Brain imaging data enables precise mapping of neural activity and structural abnormalities. *   Neural network models facilitate simulations and predictions of brain functions. *   Cognitive science datasets provide ground truth for training and validating AI models. *   Understanding Data:  *   Comprehensive understanding of data types enables targeted AI techniques like deep learning for image analysis and reinforcement learning for cognitive modeling.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications:  *   Privacy concerns related to brain data, potential biases in AI algorithms, and the ethical use of BCIs. *   Legal Implications:  *   Compliance with data protection regulations (e.g., GDPR) and ensuring informed consent for AI-driven interventions. *   Social Implications:  *   Impact on the understanding of consciousness, the potential for enhancing human cognition, and the risk of misuse of AI-driven brain technologies. *   Examples:  *   Positive: Enhanced diagnosis and treatment of neurological disorders through AI-driven analysis. *   Negative: Misinterpretation of brain data leading to incorrect diagnoses or biased interventions.</t>
+  </si>
+  <si>
+    <t>*   AI in Neuroscience Research Papers:  *   Journal of Neuroscience Methods, Frontiers in Neuroscience, and Nature Neuroscience. *   Online Courses:  *   Coursera: "Neural Networks and Deep Learning" by Andrew Ng. *   edX: "Computational Neuroscience" by EPFL. *   Udemy: "Deep Learning for Medical Image Analysis." *   Books:  *   "Theoretical Neuroscience" by Dayan and Abbott. *   "Pattern Recognition and Machine Learning" by Christopher Bishop.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners:  *   Neuroscience and biomedical engineering students. *   Varying levels of AI knowledge, typically with a basic understanding of programming and statistics. *   Expected Role After Completion:  *   Equipped with AI tools and techniques for analyzing and modeling brain functions. *   Capable of applying AI in research projects, clinical settings, or industry.</t>
+  </si>
+  <si>
+    <t>*   Qualifications:  *   Professor of neuroscience with expertise in AI applications. *   Strong background in computational neuroscience, machine learning, and data analysis. *   Skills:  *   Ability to bridge neuroscience concepts with AI methodologies. *   Experience in teaching interdisciplinary courses and mentoring students in research projects.</t>
+  </si>
+  <si>
+    <t>*   Resources:  *   Course duration: One semester (12-14 weeks). *   Access to computing resources, including high-performance workstations and cloud computing platforms. *   Availability of neuroscience datasets (e.g., OpenNeuro, Brainomics). *   Software tools: Python, TensorFlow, PyTorch, MATLAB. *   Institutional support for interdisciplinary teaching and research collaborations.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will:  *   Understand the fundamental concepts of AI and machine learning in the context of neuroscience. *   Apply AI techniques to analyze brain imaging data (MRI, EEG). *   Develop and evaluate computational models of neural circuits and cognitive processes. *   Utilize neuroinformatics tools to manage and analyze large-scale neuroscience datasets. *   Critically assess the ethical and social implications of AI in neuroscience.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments:  *   Analyze brain imaging data using AI algorithms. *   Develop and evaluate a simple neural network model. *   Group Project:  *   Design and implement an AI-driven solution for a neuroscience research problem. *   Present findings in a research paper format. *   Quizzes:  *   Assess understanding of key AI concepts and their applications in neuroscience. *   Final Exam:  *   Comprehensive assessment of learning outcomes. *   Class Participation:  *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered:  *   Case studies on real-world AI applications in neuroscience, such as AI-driven diagnosis of Alzheimer's disease or AI-enhanced BCIs. *   Activation:  *   Reflect on prior knowledge of neuroscience and AI, and discuss potential applications in the field. *   Demonstration:  *   Live demonstrations of AI tools for brain imaging analysis, neural network modeling, and neuroinformatics. *   Application:  *   Hands-on labs for implementing AI algorithms on neuroscience datasets. *   Group exercises to simulate research scenarios and apply AI-driven solutions. *   Integration:  *   Discuss how AI can complement traditional neuroscience research methods. *   Encourage students to propose innovative AI applications for their research interests.</t>
+  </si>
+  <si>
+    <t>AI in InternationalManagementMarketingEntrepreneurship.txt</t>
+  </si>
+  <si>
+    <t>International Management, Marketing, Entrepreneurship *   Definition: Applying AI to analyze international markets, understand diverse customer behaviors, and optimize global business strategies. AI enhances decision-making, personalizes marketing efforts, and aids in identifying entrepreneurial opportunities across different cultures and regions. *   Relevance: AI transforms global business operations by providing insights into market trends, improving customer engagement, and streamlining international business processes.</t>
+  </si>
+  <si>
+    <t>*   AI-Driven Market Analysis: *   Use AI to analyze global market trends and identify potential opportunities in different regions. *   Customer Behavior Prediction: *   Employ machine learning to predict customer preferences and behaviors in diverse cultural contexts. *   Business Strategy Optimization: *   Optimize international business strategies using AI-driven analytics and simulations. *   Personalized Marketing Campaigns: *   Develop AI-powered marketing campaigns tailored to specific cultural and regional preferences. *   Risk Assessment in International Ventures: *   Utilize AI to assess and mitigate risks associated with international business ventures. *   Supply Chain Optimization: *   Apply AI to improve the efficiency and resilience of global supply chains.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Market Research Reports: Global market trends, competitive analysis, and consumer insights. *   Customer Interaction Data: Social media interactions, website analytics, and customer feedback from diverse regions. *   Financial Analysis Reports: Economic indicators, investment data, and financial performance metrics. *   Cultural Data: Societal norms, values, and preferences that influence consumer behavior. *   Significance for AI Applications: *   Market research reports enable AI to identify emerging trends and opportunities. *   Customer interaction data allows for personalized marketing and improved customer engagement. *   Financial analysis reports facilitate risk assessment and investment decisions. *   Cultural data ensures AI models are sensitive to regional differences and cultural nuances.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: *   Bias in algorithms affecting market entry and customer targeting decisions. *   Data privacy concerns when collecting and processing customer data across different countries. *   Legal Implications: *   Compliance with international data protection laws (e.g., GDPR, CCPA) and trade regulations. *   Ensuring fairness and transparency in AI-driven decision-making processes. *   Social Implications: *   Potential job displacement due to automation in international business operations. *   Cultural sensitivity and the impact of AI on local customs and traditions. *   Examples: *   Positive: Enhanced market insights leading to successful international expansion. *   Negative: AI misuse resulting in cultural misunderstandings or biased marketing campaigns.</t>
+  </si>
+  <si>
+    <t>*   AI in Business Research: *   Research papers on AI applications in international business and marketing. *   Case Studies on AI-Driven Marketing: *   Examples of companies successfully using AI to enhance their global marketing strategies. *   Online Courses: *   Coursera: "AI for Business" by various universities. *   Udemy: "AI in Marketing" by digital marketing experts. *   Industry Reports: *   McKinsey Global Institute: Reports on the impact of AI on global business. *   Deloitte: Insights on AI applications in international trade and commerce.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Business students specializing in international business, marketing, and entrepreneurship. *   Varying levels of AI knowledge, with some having basic exposure to AI concepts. *   Expected Role After Completion: *   Apply AI tools and techniques to make data-driven decisions in international business contexts. *   Develop AI-powered marketing strategies for global markets. *   Identify entrepreneurial opportunities using AI-driven market analysis.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of Business Management with expertise in AI applications. *   Experience in teaching international business and marketing courses. *   Strong understanding of AI technologies and their practical applications. *   Skills: *   Ability to bridge technical AI concepts with business strategies. *   Experience in interdisciplinary teaching and student engagement.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to AI software tools and platforms (e.g., Python, TensorFlow, R). *   Availability of datasets for international market analysis and customer behavior prediction (e.g., World Bank, IMF). *   Institutional support for interdisciplinary collaboration.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its relevance to international business, marketing, and entrepreneurship. 2.  Identify and evaluate AI applications for market analysis, customer behavior prediction, and business strategy optimization. 3.  Apply AI tools and techniques to solve real-world business problems in international contexts. 4.  Assess the ethical, legal, and social implications of using AI in global business operations. 5.  Develop AI-powered solutions for enhancing international marketing strategies and entrepreneurial ventures.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Case study analysis on companies using AI in international marketing. *   Research paper on the ethical considerations of AI in global business. *   Group Project: *   Develop an AI-driven market entry strategy for a specific country or region. *   Design a personalized marketing campaign using AI for a global product. *   Quizzes: *   Weekly quizzes on key AI concepts and applications. *   Final Presentation: *   Present a business problem, propose an AI solution, and discuss its implications. *   Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in international business, such as Alibaba's AI-driven logistics or Unilever's personalized marketing campaigns. *   Activation: *   Reflect on personal experiences with international markets and identify AI potential in known scenarios. *   Demonstration: *   Live demonstrations of AI tools for market analysis, customer segmentation, and predictive modeling. *   Application: *   Hands-on labs for creating basic predictive models using international business data. *   Group exercises to simulate business decision-making with AI insights. *   Integration: *   Discuss how AI can complement traditional business practices in international settings. *   Encourage students to develop proposals for applying AI in their future careers or entrepreneurial ventures.</t>
+  </si>
+  <si>
+    <t>AI in InternationalTaxationandPublicFinance.txt</t>
+  </si>
+  <si>
+    <t>International Taxation and Public Finance *   Definition: International taxation involves the study of tax rules concerning cross-border transactions, while public finance deals with the role of government in the economy, including taxation, expenditure, and debt management. AI can enhance analysis, compliance, and policy-making in both fields. *   Relevance: AI is transforming how governments and international organizations approach taxation and public finance by providing tools for better forecasting, fraud detection, and policy simulation.</t>
+  </si>
+  <si>
+    <t>*   AI in Tax Compliance: Automating tax return processing, identifying non-compliance patterns, and improving audit efficiency. *   Fraud Detection: Using machine learning to detect anomalies and fraudulent activities in tax systems and public spending. *   AI-Driven Financial Policy Analysis: Employing AI to simulate the impact of different tax and fiscal policies on economic outcomes. *   Predictive Modeling for Revenue Forecasting: Utilizing AI to predict future tax revenues based on economic indicators and historical data. *   Optimizing Public Resource Allocation: Applying AI to improve the efficiency and effectiveness of public spending programs.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Tax Records: Individual and corporate tax returns, transaction data, and audit reports. *   Economic Policy Data: GDP growth rates, inflation rates, unemployment figures, and trade statistics. *   Government Financial Reports: Budget documents, expenditure reports, and debt statistics. *   International Financial Data: Cross-border investment flows, exchange rates, and international trade agreements. *   Significance for AI Applications: *   Tax records enable the training of AI models for compliance and fraud detection. *   Economic policy data allows for simulating the impact of fiscal measures. *   Government financial reports provide inputs for optimizing resource allocation. *   Understanding this data enables targeted AI techniques like regression for forecasting and classification for fraud detection.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Concerns about data privacy, algorithmic bias, and the potential for misuse of AI in tax enforcement. *   Legal Implications: Compliance with data protection laws, ensuring fairness in AI algorithms, and addressing liability issues. *   Social Implications: Impact on employment in tax administration, potential for increased transparency and accountability, and effects on income distribution. *   Examples: *   Positive: More efficient tax collection, reduced tax evasion, and better-informed policy decisions. *   Negative: Algorithmic bias leading to unfair tax audits, job displacement in tax agencies, and potential for surveillance.</t>
+  </si>
+  <si>
+    <t>*   AI in Finance Research: Academic papers and reports on AI applications in taxation and public finance. *   Case Studies on AI-Driven Tax Policy: Examples of how AI has been used to improve tax systems in different countries. *   Online Courses: Courses on machine learning, data analysis, and public economics. *   Books: "AI and Public Policy," "Machine Learning for Finance." ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Economics and finance students with an interest in public finance and international taxation. *   Varying levels of AI knowledge, but generally limited practical experience. *   Expected Role After Completion: *   Equipped with AI tools for economic analysis and public financial management. *   Able to critically evaluate AI applications in the field and contribute to informed policy discussions.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of taxation and public finance with expertise in AI applications. *   Strong background in econometrics, statistical modeling, and data analysis. *   Skills: *   Ability to bridge theoretical concepts with practical AI applications. *   Experience in using AI tools for research and teaching.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Access to statistical software (e.g., R, Python) and AI platforms (e.g., TensorFlow, PyTorch). *   Availability of relevant datasets (e.g., World Bank data, IMF data, tax statistics). *   Computational resources for running AI models. *   Constraints: *   Budget limitations may restrict access to certain AI tools or datasets. *   Limited personnel for providing technical support. *   Course duration: One semester (12-14 weeks). ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its potential applications in international taxation and public finance. 2.  Identify and evaluate AI tools for economic analysis, revenue forecasting, and fraud detection. 3.  Apply AI techniques to analyze tax data, economic indicators, and government financial reports. 4.  Assess the ethical, legal, and social implications of using AI in taxation and public finance. 5.  Develop AI-driven solutions for addressing challenges in public financial management.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Analyze case studies on AI in taxation (e.g., VAT fraud detection using machine learning). *   Write reports on the application of AI in specific areas of public finance (e.g., optimizing public spending). *   Group Project: *   Develop an AI-driven model for revenue forecasting or policy simulation. *   Quizzes: *   Assess understanding of key AI concepts and applications. *   Final Presentation: *   Present the results of the group project and discuss the implications for policy-making. *   Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in taxation and public finance (e.g., using AI to combat tax evasion). *   Activation: *   Discussions on current challenges in public finance and how AI could help address them. *   Demonstration: *   Live demonstrations of AI tools for data analysis and policy simulation. *   Application: *   Hands-on labs for building predictive models using tax data and economic indicators. *   Integration: *   Encourage students to think critically about the role of AI in shaping the future of taxation and public finance. *   Guest lectures from experts in the field.</t>
+  </si>
+  <si>
+    <t>AI in International_Business_and_Economics.txt</t>
+  </si>
+  <si>
+    <t>International Business and Economics *   Definition: The intersection of international business operations and economic principles, focusing on global trade, investment, and policy. AI applications enhance analysis, prediction, and strategic decision-making in this complex environment. *   Relevance: AI offers tools to navigate the complexities of global markets, analyze vast datasets, and optimize international business strategies. It provides insights into economic trends, trade patterns, and geopolitical factors affecting business operations.</t>
+  </si>
+  <si>
+    <t>1.  AI-driven Market Analysis: *   Use machine learning to analyze market trends, consumer behavior, and competitive landscapes in different countries. 2.  Economic Forecasting: *   Develop AI models to predict economic indicators, exchange rates, and trade flows. 3.  AI-powered Decision-Making: *   Employ AI algorithms to optimize supply chain management, pricing strategies, and investment decisions in international markets. 4.  Risk Assessment: *   Use AI to identify and assess political, economic, and financial risks in different countries. 5.  Trade Policy Analysis: *   Apply AI to analyze the impact of trade policies and agreements on international business operations. 6.  Cross-Cultural Communication: *   Leverage NLP to improve communication and understanding in international business interactions.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Global Trade Data: Import/export statistics, tariffs, trade agreements. *   Financial Market Trends: Stock prices, exchange rates, interest rates. *   Economic Indicators: GDP, inflation, unemployment rates. *   Geopolitical Data: Political stability indices, conflict data, international relations. *   Social Media Data: Sentiment analysis of consumer opinions in different countries. *   Significance for AI Applications: *   Enables predictive modeling of economic trends and market behavior. *   Supports risk assessment and mitigation strategies in international business. *   Facilitates data-driven decision-making in global operations.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Algorithmic bias in market analysis, data privacy concerns in cross-border data flows. *   Legal Implications: Compliance with international data protection regulations, intellectual property rights in AI development. *   Social Implications: Impact on employment in international trade and logistics, potential for increased inequality. *   Examples: *   Positive: More efficient global supply chains, better understanding of consumer preferences in diverse markets. *   Negative: Algorithmic discrimination in international lending, job displacement due to automation.</t>
+  </si>
+  <si>
+    <t>*   AI in Business Research Papers: *   Journal of International Business Studies, Journal of World Business. *   Case Studies on AI in Global Economics: *   Harvard Business School, INSEAD. *   Online Courses: *   Coursera: "Global Strategy," "International Finance." *   edX: "Supply Chain Analytics," "Data Science for Business." *   Reports and Publications: *   World Economic Forum, McKinsey Global Institute.  Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Business and economics students with an international focus. *   Varying levels of AI knowledge, from novice to intermediate. *   Strong foundation in business principles and economic theory. *   Expected Role After Completion: *   Apply AI tools for market research and global business strategy development. *   Evaluate AI-driven insights for decision-making in international contexts. *   Communicate AI-related concepts to diverse stakeholders.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of international business with expertise in AI-driven analytics. *   Ph.D. in relevant field (e.g., International Business, Economics, Data Science). *   Experience in teaching quantitative methods and business strategy. *   Skills: *   Proficiency in AI tools and techniques (e.g., machine learning, NLP). *   Strong understanding of international business and economic principles. *   Ability to bridge technical concepts with practical applications.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools (e.g., Python, R, Tableau). *   Availability of datasets (e.g., World Bank, IMF, UN Comtrade). *   Institutional support for interdisciplinary research and teaching. *   Constraints: *   Limited budget for specialized AI software or consulting services. *   Potential lack of student background in programming or statistics. *   Time constraints for in-depth AI model development.  Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and its applications in international business and economics. 2.  Identify and evaluate AI tools for market research, economic forecasting, and risk assessment. 3.  Apply AI techniques to analyze global trade data, financial market trends, and economic indicators. 4.  Interpret AI-driven insights for decision-making in international contexts. 5.  Assess the ethical, legal, and social implications of AI in international business. 6.  Develop AI-powered strategies for global market entry, supply chain optimization, and international finance.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Case study analysis of AI applications in international business. *   Data analysis projects using AI tools to address specific research questions. 2.  Group Project: *   Development of an AI-powered business strategy for a chosen international market. *   Presentation of findings and recommendations to a panel of experts. 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts and techniques. 4.  Class Participation: *   Active engagement in discussions and group activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world challenges in international business and economics. *   Simulation exercises to apply AI tools in decision-making scenarios. *   Activation: *   Discussions on personal experiences with globalization and technology. *   Brainstorming sessions on potential AI applications in international contexts. *   Demonstration: *   Live demonstrations of AI tools for market analysis and economic forecasting. *   Guest lectures from industry experts on AI applications in international business. *   Application: *   Hands-on labs to analyze global trade data using machine learning algorithms. *   Group projects to develop AI-powered business strategies for specific markets. *   Integration: *   Discussions on the ethical, legal, and social implications of AI in international business. *   Presentations on the potential for AI to promote sustainable development and global cooperation.</t>
+  </si>
+  <si>
+    <t>AI in IProcess_and_Power_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Industrial Engineering / Process and Power Engineering *   Definition: Application of AI to optimize industrial processes, focusing on energy efficiency, process control, and smart grid management in power generation and distribution systems. *   Relevance: AI enhances efficiency, reliability, and sustainability in energy and process industries through data-driven insights and automated control.</t>
+  </si>
+  <si>
+    <t>*   AI-Driven Energy Management: Optimizing energy consumption in industrial facilities using predictive analytics and real-time control. *   Process Control: Enhancing the efficiency and stability of industrial processes through AI-based control systems. *   Smart Grid Optimization: Improving the performance and reliability of power grids with AI-driven forecasting and control. *   Predictive Maintenance: Using AI to predict equipment failures and optimize maintenance schedules in power plants and industrial facilities. *   Demand Response: Implementing AI-driven demand response programs to balance energy supply and demand in real-time.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Power Plant Sensor Data: Real-time data from sensors monitoring temperature, pressure, flow rates, and electrical parameters. *   Process Efficiency Reports: Data on energy consumption, production rates, and equipment performance. *   Real-Time Monitoring Data: Data from SCADA systems, smart meters, and IoT devices providing insights into grid conditions and energy usage. *   Historical Weather Data: Influence on energy demand and renewable energy generation. *   Significance for AI Applications: *   Sensor data enables real-time monitoring and control of power plants and industrial processes. *   Efficiency reports provide insights into energy consumption patterns and areas for improvement. *   Real-time monitoring data facilitates smart grid optimization and demand response programs.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring fairness and transparency in AI-driven energy management systems, addressing data privacy concerns. *   Legal Implications: Compliance with energy regulations and data protection laws. *   Social Implications: Impact on employment in the energy sector due to automation, ensuring equitable access to energy resources. *   Examples: *   Positive: Reduced energy consumption and carbon emissions through optimized energy management. *   Negative: Potential for bias in AI algorithms leading to unfair energy distribution or pricing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Textbooks: *   "AI Applications in Power Engineering" by [Hypothetical Author]. *   "Smart Grid Technologies" by [Hypothetical Author]. *   Online Courses: *   Coursera: "AI for Energy" by [Hypothetical Institution]. *   Udemy: "AI in Process Control" by [Hypothetical Instructor]. *   Journals &amp; Conferences: *   IEEE Transactions on Smart Grid *   Applied Energy  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>*   Learners: *   Students specializing in energy and process engineering. *   Some familiarity with basic programming and data analysis. *   Limited prior knowledge of AI concepts and techniques. *   Expected Role After Completion: *   Apply AI techniques to optimize energy systems and industrial processes. *   Design and implement AI-driven solutions for smart grids and energy management. *   Contribute to research and development in the field of AI for energy.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of power engineering with a Ph.D. in a related field. *   Experience in AI applications for energy systems. *   Strong understanding of energy markets and regulations. *   Skills: *   Proficiency in AI programming languages (e.g., Python). *   Knowledge of machine learning algorithms and techniques. *   Ability to communicate complex technical concepts effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Access to computing resources for AI model training and simulation. *   Availability of domain-specific datasets (e.g., power plant sensor data). *   Software licenses for AI development tools (e.g., TensorFlow, PyTorch). *   Collaboration with industry partners for real-world case studies and projects. *   Constraints: *   Limited budget for purchasing specialized AI software or hardware. *   Potential challenges in obtaining access to sensitive industrial data.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: *   Understand the fundamental concepts of AI and machine learning. *   Identify and evaluate AI applications in energy and process engineering. *   Apply AI techniques to optimize energy systems and industrial processes. *   Design and implement AI-driven solutions for smart grids and energy management. *   Analyze and interpret data from power plants and industrial facilities. *   Assess the ethical, legal, and social implications of using AI in the energy sector.</t>
+  </si>
+  <si>
+    <t>*   Exams: *   Midterm exam covering fundamental AI concepts and techniques. *   Final exam assessing understanding of AI applications in energy engineering. *   Projects: *   Individual project: Develop an AI model to predict energy consumption in a building. *   Group project: Design an AI-driven control system for a microgrid. *   Assignments: *   Homework assignments on AI algorithms and techniques. *   Case study analyses of AI applications in the energy sector. *   Presentations: *   Presentation of project findings and analysis.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in energy and process engineering (e.g., Google's DeepMind optimizing data center cooling). *   Activation: *   Discussions on current energy challenges and the potential of AI to address them. *   Demonstration: *   Live demonstrations of AI tools and techniques using real-world datasets. *   Application: *   Hands-on labs for building and training AI models using Python and TensorFlow. *   Group exercises to simulate the design and implementation of AI-driven energy solutions. *   Integration: *   Discussions on the integration of AI with existing energy systems and infrastructure. *   Guest lectures from industry experts on the practical applications of AI in the energy sector. *   Teaching Methods: *   Lectures: To introduce AI concepts and applications. *   Labs: Hands-on experience with AI tools and techniques. *   Discussions: Interactive sessions to explore ethical and social implications. *   Group Work: Collaborative projects to apply AI to real-world problems.</t>
+  </si>
+  <si>
+    <t>AI in MathematicalEngineering.txt</t>
+  </si>
+  <si>
+    <t>Mathematical Engineering Definition: Mathematical Engineering applies mathematical principles and techniques to solve complex engineering problems. AI integration enhances modeling, simulation, and optimization processes. Relevance: AI transforms traditional mathematical engineering by automating tasks, improving accuracy, and providing new methods for problem-solving in areas like structural analysis, computational simulations, and system optimization.</t>
+  </si>
+  <si>
+    <t>AI in Structural Analysis: Use machine learning to predict structural behavior under different conditions. Computational Simulations: Enhance simulation accuracy and speed using AI algorithms. AI-Driven Optimization: Apply AI to optimize engineering designs and processes. Predictive Maintenance: Employ AI to predict equipment failures and optimize maintenance schedules. Material Design: Use AI to discover and design new materials with desired properties. Control Systems: Implement AI-based control systems for improved performance and adaptability.</t>
+  </si>
+  <si>
+    <t>Types of Data: Mathematical Models: Equations and algorithms representing physical systems. Engineering Simulations: Data generated from computational simulations of engineering systems. System Analytics: Data collected from real-world engineering systems. Sensor Data: Real-time data from sensors monitoring various engineering parameters. Significance for AI Applications: *   Mathematical models provide a structured foundation for AI training. *   Simulation data allows for testing and validation of AI algorithms. *   System analytics enable real-world application and optimization of AI models. *   Sensor data allows for real-time monitoring and adaptive control using AI.</t>
+  </si>
+  <si>
+    <t>Ethical Implications: Ensuring fairness and transparency in AI-driven engineering decisions. Legal Implications: Compliance with regulations related to data privacy and safety. Social Implications: Impact on the engineering workforce and the potential for job displacement. Examples: Positive: Improved efficiency, accuracy, and innovation in engineering processes. Negative: Over-reliance on AI, potential for biased or incorrect results, and job displacement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Engineering Mathematics Research: Academic papers and publications on AI applications in mathematical engineering. Case Studies on AI-Driven Computational Modeling: Real-world examples of AI being used to solve engineering problems. Online Courses: Platforms like Coursera, edX, and Udacity offer courses on AI and machine learning. Textbooks: Books on numerical methods, optimization, and machine learning.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>Learners: Engineering students with a strong mathematical foundation. Current Level: Familiarity with mathematical concepts and some exposure to engineering principles, but limited AI knowledge. Expected Role: Able to apply AI-powered computational techniques to solve engineering problems and contribute to AI-driven innovation in the field.</t>
+  </si>
+  <si>
+    <t>Qualifications: Professor of mathematical engineering with expertise in AI-driven modeling. Skills: *   Strong background in mathematics, engineering, and computer science. *   Experience in developing and applying AI algorithms to engineering problems. *   Ability to communicate complex concepts in a clear and accessible manner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources: *   Access to software tools such as MATLAB, Python, and TensorFlow. *   Availability of high-performance computing resources for running simulations and training AI models. *   Support from the university's IT department for software and hardware maintenance. Constraints: *   Limited budget for purchasing specialized AI software or hardware. *   Potential lack of domain-specific data for training AI models.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Apply AI algorithms to solve engineering problems. 3.  Develop and train AI models using engineering data. 4.  Evaluate the performance of AI models. 5.  Communicate the results of AI-driven engineering analysis.</t>
+  </si>
+  <si>
+    <t>Exams: Assess understanding of AI concepts and algorithms. Projects: Apply AI techniques to solve real-world engineering problems. Presentations: Communicate the results of AI-driven engineering analysis. Assignments: Practice implementing AI algorithms and analyzing engineering data. Participation: Active engagement in class discussions and activities.</t>
+  </si>
+  <si>
+    <t>Problem-Centered: Case studies on AI applications in structural analysis, computational simulations, and optimization. Activation: Review of relevant mathematical and engineering concepts. Demonstration: Examples of AI algorithms being used to solve engineering problems. Application: Hands-on labs where students implement AI algorithms and analyze engineering data. Integration: Discussion of the ethical, legal, and social implications of AI in engineering. Teaching Methods: *   Lectures: Introduce AI concepts and algorithms. *   Labs: Provide hands-on experience with AI tools and techniques. *   Discussions: Encourage critical thinking and problem-solving. *   Group Work: Promote collaboration and teamwork.</t>
+  </si>
+  <si>
+    <t>AI in Mathematics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics *   Definition: Mathematics is the abstract science of number, quantity, and space, studied either as abstract concepts (pure mathematics) or as applied to other disciplines such as physics and engineering (applied mathematics). AI can automate complex calculations, discover patterns, and assist in generating and proving theorems. *   Relevance: AI enhances mathematical research, education, and applications by providing tools for complex problem-solving, data analysis, and computational modeling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Solving Complex Equations: *   Use machine learning to approximate solutions to differential equations and other complex systems. 2.  Mathematical Modeling: *   Employ AI algorithms for creating and optimizing mathematical models in various scientific and engineering applications. 3.  AI-Assisted Theorem Proving: *   Develop AI systems to assist in the generation, verification, and automated discovery of mathematical theorems. 4.  Pattern Recognition in Mathematical Structures: *   Utilize AI to identify and classify patterns in algebraic structures, number theory, and topology. 5.  Optimization Problems: *   Apply AI techniques like genetic algorithms and neural networks to solve optimization problems in calculus and linear programming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Mathematical Models: Equations, functions, and algorithms. *   Statistical Datasets: Numerical data used for statistical analysis and machine learning. *   Algebraic Computations: Symbolic expressions and computational results. *   Geometric Data: Point clouds, meshes, and geometric structures. *   Significance for AI Applications: *   Mathematical models serve as the foundation for AI algorithms in simulation and prediction. *   Statistical datasets enable training machine learning models for data-driven mathematical analysis. *   Algebraic computations provide symbolic data for AI systems to manipulate and reason about mathematical expressions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Validation of AI-generated proofs, ensuring reliability in critical applications. *   Legal Implications: Intellectual property rights for AI-discovered theorems, liability for errors in AI-driven models. *   Social Implications: Changes in mathematical research methodologies, accessibility of advanced mathematical tools. *   Examples: *   Positive: Accelerating mathematical discoveries, improving accuracy in numerical simulations. *   Negative: Over-reliance on AI leading to a decline in fundamental mathematical skills. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Computational Mathematics Research: Publications in journals like "Journal of Symbolic Computation" and "Advances in Computational Mathematics." *   Case Studies: Examples of AI-driven mathematical proofs and applications in fields like cryptography and optimization. *   Online Resources: *   arXiv: Preprints in mathematics and computer science. *   MathWorld: Comprehensive mathematics resource. *   Wolfram Alpha: Computational knowledge engine.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Mathematics students at the undergraduate and graduate levels. *   Background in calculus, linear algebra, and basic programming. *   Expected Role After Completion: *   Apply AI tools to enhance mathematical research, numerical analysis, and problem-solving. *   Collaborate with AI systems to explore and validate mathematical ideas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of applied mathematics with a Ph.D. in a related field. *   Expertise in AI-driven problem-solving and computational mathematics. *   Experience in teaching mathematical modeling and numerical analysis. *   Skills: *   Proficiency in programming languages like Python and MATLAB. *   Knowledge of machine learning algorithms and frameworks. *   Ability to communicate complex mathematical concepts effectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Availability of domain-specific data: Access to mathematical databases and computational resources. *   Access to software and hardware: Licenses for AI tools, high-performance computing clusters. *   Institutional support: Funding for interdisciplinary research, collaboration with computer science departments. *   Constraints: *   Budget limitations for software licenses and hardware. *   Availability of personnel with expertise in both mathematics and AI. *   Course duration: One semester (12-14 weeks).  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Apply AI techniques to solve complex mathematical problems. 3.  Develop and implement AI algorithms for numerical analysis and mathematical modeling. 4.  Evaluate the performance of AI-driven mathematical solutions. 5.  Critically assess the ethical and social implications of using AI in mathematics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Assignments: *   Implement AI algorithms for solving equations and optimization problems. *   Analyze and interpret results from AI-driven mathematical models. 2.  Projects: *   Develop an AI-assisted theorem proving system. *   Create a machine learning model for pattern recognition in mathematical structures. 3.  Exams: *   Assess understanding of AI concepts and mathematical principles. 4.  Presentations: *   Present research findings and project outcomes. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in mathematics, such as cryptography and financial modeling. *   Activation: *   Discussions on the historical development of mathematical tools and the potential of AI to revolutionize mathematical research. *   Demonstration: *   Live coding sessions demonstrating the use of AI libraries and frameworks for solving mathematical problems. *   Application: *   Hands-on labs for implementing AI algorithms and analyzing mathematical data. *   Integration: *   Group projects that require students to integrate AI tools into their existing mathematical knowledge and skills. *   Teaching Methods: *   Lectures, labs, discussions, and group work.</t>
+  </si>
+  <si>
+    <t>AI in Mechanical_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering  *   Definition: Mechanical Engineering involves the design, analysis, manufacturing, and maintenance of mechanical systems. AI integration enhances these processes through automation, optimization, and predictive capabilities. *   Relevance: AI transforms traditional mechanical engineering tasks by improving efficiency, enabling complex simulations, and enhancing system reliability.</t>
+  </si>
+  <si>
+    <t>*   AI-driven Predictive Maintenance: *   Use machine learning models to predict equipment failure based on sensor data and historical performance. *   Robotics: *   Implement AI algorithms for robot control, path planning, and autonomous operation in manufacturing and maintenance. *   AI-assisted Mechanical Simulations: *   Employ AI to optimize and accelerate complex mechanical simulations, such as finite element analysis (FEA) and computational fluid dynamics (CFD). *   Generative Design: *   Utilize AI to generate optimal designs based on specified constraints and performance criteria. *   Quality Control: *   Apply computer vision and machine learning to automate quality inspection processes in manufacturing.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Sensor Data: Real-time measurements from sensors embedded in mechanical systems (e.g., temperature, pressure, vibration). *   Performance Reports: Historical data on equipment performance, maintenance logs, and failure records. *   CAD Files: Digital representations of mechanical designs, including 2D drawings and 3D models. *   Significance for AI Applications: *   Sensor data enables predictive maintenance and real-time monitoring of mechanical systems. *   Performance reports facilitate the identification of failure patterns and optimization of maintenance schedules. *   CAD files allow for AI-driven design optimization and automated manufacturing processes. *   Data Understanding: *   Understanding the characteristics of each data type enables targeted AI techniques, such as time-series analysis for sensor data and computer vision for CAD file analysis.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential biases in AI algorithms used for design and maintenance, affecting system reliability and safety. *   Legal Implications: Liability concerns related to autonomous systems and adherence to safety standards. *   Social Implications: Changes in the workforce due to automation, requiring retraining and adaptation of mechanical engineers. *   Examples: *   Positive: Enhanced safety through predictive maintenance and optimized system performance. *   Negative: Job displacement due to automation and potential for algorithmic bias in design processes.</t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Artificial Intelligence in Manufacturing" by S. N. Dwivedi. *   "AI-Based Modeling and Simulation" by A. K. Sangaiah. *   Research Papers: *   IEEE Xplore: Articles on AI applications in mechanical engineering. *   ScienceDirect: Research papers on AI-driven automation and predictive maintenance. *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng. *   edX: "AI for Engineers" by Microsoft.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Mechanical engineering students with an interest in AI applications. *   Varying levels of prior knowledge in AI and programming. *   Expected Role After Completion: *   Apply AI techniques to enhance mechanical design, manufacturing, and maintenance processes. *   Collaborate with AI specialists to develop and implement AI-driven solutions.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of mechanical engineering with expertise in AI-driven automation. *   Skills: *   Strong understanding of mechanical engineering principles and AI algorithms. *   Ability to bridge the gap between theoretical AI concepts and practical engineering applications. *   Experience in interdisciplinary teaching and project-based learning.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software. *   Availability of domain-specific datasets for hands-on projects. *   Institutional support for interdisciplinary collaboration with computer science departments.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in mechanical engineering domains such as design, manufacturing, and maintenance. 3.  Apply AI algorithms to solve practical mechanical engineering problems. 4.  Interpret and analyze data from mechanical systems using AI techniques. 5.  Design and implement AI-driven solutions for specific mechanical engineering challenges. 6.  Recognize the ethical and societal implications of AI in mechanical engineering.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Problem sets on AI algorithms and their application to mechanical engineering problems. *   Case studies analyzing the use of AI in specific mechanical engineering applications. *   Group Project: *   Design and implementation of an AI-driven solution for a real-world mechanical engineering problem. *   Project report and presentation. *   Exams: *   Midterm and final exams covering the theoretical concepts and practical applications of AI in mechanical engineering. *   Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications, such as predictive maintenance in aerospace or generative design in automotive engineering. *   Activation: *   Discussions on existing mechanical engineering processes and identification of areas where AI can provide improvements. *   Demonstration: *   Live demonstrations of AI tools and techniques, such as machine learning models for predictive maintenance or AI-driven design optimization. *   Application: *   Hands-on labs using software tools like MATLAB and Python to implement AI algorithms for mechanical engineering problems. *   Group exercises to simulate real-world engineering scenarios and apply AI-driven solutions. *   Integration: *   Discussions on the integration of AI into existing mechanical engineering workflows and the importance of collaboration between mechanical engineers and AI specialists. *   Encourage students to develop proposals for applying AI in their future engineering projects or workplaces.</t>
+  </si>
+  <si>
+    <t>AI in MediaLiteracyudiovisualCultureandCommunication.txt</t>
+  </si>
+  <si>
+    <t>Media Literacy: Audiovisual Culture and Communication *   Definition: Media Literacy involves the ability to access, analyze, evaluate, and create media in various forms. Integrating AI enhances our understanding of media dynamics, content creation, and audience engagement. *   Relevance: AI is transforming media by shaping content production, distribution, and consumption, necessitating critical evaluation and adaptation.</t>
+  </si>
+  <si>
+    <t>1.  AI in Media Analysis: *   Use AI to analyze media content for bias, sentiment, and thematic patterns. 2.  Content Recommendation Systems: *   Implement AI algorithms to personalize media content recommendations for users. 3.  Deepfake Detection: *   Employ AI techniques to identify and counteract manipulated or synthetic media content. 4.  Automated Content Creation: *   Explore AI tools for generating news articles, video scripts, and other forms of media content. 5.  Audience Engagement Analysis: *   Analyze audience interaction with media content using AI to understand preferences and behaviors. 6.  Misinformation Detection: *   Develop AI-driven systems to identify and flag misinformation and disinformation campaigns.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Media Consumption Statistics: Data on media usage patterns, including viewing times, preferred platforms, and content types. *   Social Media Engagement Data: Information on user interactions, shares, comments, and sentiments related to media content on social media platforms. *   Video Analytics: Metrics on video viewership, engagement, and performance, including views, watch time, and audience retention. *   Textual Data: News articles, blog posts, social media posts, and transcripts of audio-visual content. *   Significance for AI Applications: *   Media consumption statistics enable personalized content recommendations and targeted advertising. *   Social media engagement data allows for sentiment analysis and trend identification. *   Video analytics can enhance video content optimization and audience understanding. *   Textual data facilitates content analysis, topic extraction, and automated content generation. *   Understanding this data enables targeted AI techniques like: *   Recommendation algorithms for personalized media experiences. *   Natural Language Processing (NLP) for sentiment analysis and content summarization. *   Computer vision for automated video analysis and deepfake detection.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: *   Bias in AI algorithms can lead to skewed content recommendations and reinforce stereotypes. *   Privacy concerns related to the collection and use of user data for AI-driven personalization. *   Transparency issues in AI decision-making processes. *   Legal Implications: *   Copyright infringement when AI is used to generate content. *   Liability for misinformation or harmful content generated by AI. *   Compliance with data protection regulations like GDPR. *   Social Implications: *   Spread of deepfakes and misinformation can erode trust in media. *   Job displacement in media industries due to automation. *   Potential for echo chambers and filter bubbles created by personalized content recommendations. *   Examples: *   Positive: AI can enhance media accessibility for people with disabilities through automated captioning and translation. *   Negative: AI-driven disinformation campaigns can manipulate public opinion and undermine democratic processes.</t>
+  </si>
+  <si>
+    <t>*   AI in Media Studies Research: *   Academic journals and conferences focusing on AI and media. *   Research reports from organizations studying the impact of AI on media. *   Online Courses on AI-Driven Communication: *   Coursera: "AI for Media" *   Udemy: "AI in Journalism" *   Books: *   "Artificial Intelligence: A Guide for Thinking Humans" by Melanie Mitchell *   "AI Superpowers: China, Silicon Valley, and the New World Order" by Kai-Fu Lee  Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Media and communication students with varying levels of technical expertise. *   Background in media theory, communication studies, and cultural analysis. *   Expected Role After Completion: *   Understand AI s role in shaping modern media and communication. *   Critically evaluate AI applications in media. *   Apply AI tools and techniques in media analysis and content creation. *   Make informed decisions about the ethical and social implications of AI in media.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of media studies with expertise in AI applications. *   Strong understanding of media theory, communication studies, and cultural analysis. *   Experience in teaching and research related to AI and media. *   Skills: *   Ability to explain complex AI concepts in an accessible manner. *   Proficiency in using AI tools and techniques for media analysis. *   Strong communication and presentation skills. *   Ability to facilitate critical discussions on ethical and social implications of AI in media.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget for software licenses and access to AI tools. *   Technical support for setting up and maintaining AI tools. *   Access to datasets for media analysis. *   Institutional support for interdisciplinary teaching and research. *   Constraints: *   Limited availability of domain-specific data. *   Potential lack of computing resources for running AI models.  Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and its applications in media. 2.  Analyze the impact of AI on media production, distribution, and consumption. 3.  Evaluate the ethical, legal, and social implications of AI in media. 4.  Apply AI tools and techniques for media analysis and content creation. 5.  Critically assess the role of AI in shaping modern media and communication.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Case studies on AI applications in media (e.g., analyzing the impact of recommendation algorithms on news consumption). *   Research papers on ethical implications of AI in media (e.g., examining the spread of deepfakes). 2.  Group Project: *   Design and implement an AI-driven media project (e.g., developing a system for detecting misinformation on social media). 3.  Presentations: *   Present research findings and project outcomes to the class. 4.  Class Participation: *   Engage in discussions and debates on AI and media.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Analyze real-world case studies of AI applications in media, such as Netflix's recommendation system or automated news generation. *   Activation: *   Discuss students' own experiences with AI-driven media content and identify potential benefits and drawbacks. *   Demonstration: *   Provide live demonstrations of AI tools for media analysis, such as sentiment analysis software or deepfake detection algorithms. *   Application: *   Hands-on labs for using AI tools to analyze media content and create AI-driven media projects. *   Group exercises to simulate media decision-making with AI insights. *   Integration: *   Discuss how AI can complement traditional media practices and enhance media literacy skills. *   Encourage students to develop proposals for applying AI in their future careers in media and communication. *   Lectures, labs, discussions, and group work should be utilized to engage learners effectively.</t>
+  </si>
+  <si>
+    <t>AI in MedicalSystemsEngineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Systems Engineering *   Definition: Medical Systems Engineering involves the design, development, and optimization of technological solutions within healthcare. The integration of AI enhances diagnostics, treatment, and patient care through intelligent systems and devices. *   Relevance: AI is transforming medical practices by improving diagnostic accuracy, enabling robotic-assisted surgeries, and creating more efficient and personalized healthcare solutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI in Diagnostics: *   Use machine learning algorithms to analyze medical images (X-rays, MRIs, CT scans) for early detection of diseases. 2.  Robotic-Assisted Surgery: *   Implement AI to enhance the precision and control of surgical robots, improving surgical outcomes. 3.  AI-Driven Medical Devices: *   Develop smart prosthetics, wearable health monitors, and automated drug delivery systems using AI. 4.  Predictive Healthcare Analytics: *   Employ AI to predict patient readmission rates, optimize hospital resource allocation, and identify high-risk patients. 5.  Personalized Medicine: *   Utilize AI to analyze patient-specific data to tailor treatment plans and medication dosages. 6.  Drug Discovery and Development: *   Apply AI to accelerate the drug discovery process by identifying potential drug candidates and predicting their efficacy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Patient Records: Electronic health records (EHRs) containing patient demographics, medical history, diagnoses, and treatments. *   Medical Imaging Data: X-rays, MRIs, CT scans, ultrasounds, and other imaging modalities. *   Hospital System Analytics: Data on hospital admissions, patient flow, resource utilization, and operational efficiency. *   Genomic Data: Genetic information used for personalized medicine and understanding disease risks. *   Significance for AI Applications: *   Patient records provide comprehensive information for predictive modeling and personalized treatment. *   Medical imaging data enables AI-powered diagnostic tools with high accuracy. *   Hospital system analytics help optimize healthcare operations and resource management. *   Understanding this data enables targeted AI techniques such as: *   Supervised learning for diagnostic predictions. *   Unsupervised learning for patient segmentation and anomaly detection. *   Deep learning for complex image analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Data privacy concerns, algorithmic bias in diagnostic tools, and the potential for over-reliance on AI. *   Legal Implications: Compliance with HIPAA and other healthcare data regulations, liability issues in robotic surgery, and FDA approval for AI-driven medical devices. *   Social Implications: Changes in the roles of healthcare professionals, patient trust in AI-driven healthcare, and equitable access to AI-enhanced medical technologies. *   Examples: *   Positive: Early and accurate disease detection, improved surgical precision, and personalized treatment plans. *   Negative: Algorithmic bias leading to misdiagnosis, data breaches compromising patient privacy, and job displacement of medical professionals. </t>
+  </si>
+  <si>
+    <t>*   AI in Healthcare Research Papers: *   PubMed: Search for articles on AI applications in medical imaging, diagnostics, and treatment. *   IEEE Xplore: Access research papers on AI in medical devices and systems. *   Online Courses: *   Coursera: "AI for Medicine" by Andrew Ng. *   edX: "Artificial Intelligence in Healthcare" by MIT. *   Udemy: "Deep Learning for Medical Image Analysis." ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Biomedical and medical technology students. *   Basic understanding of medical systems and technology. *   Varying levels of AI knowledge, with some exposure to basic programming and data analysis. *   Expected Role After Completion: *   Apply AI in designing and improving medical technologies and diagnostics. *   Collaborate with AI specialists in developing healthcare solutions. *   Critically evaluate and implement AI-driven tools in medical settings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of medical engineering with expertise in AI-powered healthcare solutions. *   Strong background in medical imaging, signal processing, and machine learning. *   Skills: *   Ability to bridge the gap between medical engineering and AI technologies. *   Experience in interdisciplinary teaching and mentoring. *   Knowledge of relevant healthcare regulations and ethical considerations. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to medical imaging datasets (e.g., NIH Chest X-ray Dataset). *   Availability of software tools such as Python, TensorFlow, PyTorch, and medical image processing libraries. *   Access to high-performance computing resources for AI model training. *   Institutional support for collaboration with medical facilities and AI research labs. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Describe the fundamentals of AI and machine learning and their applications in medical systems engineering. 2.  Identify and evaluate AI use cases for improving medical technologies and diagnostics. 3.  Apply machine learning algorithms to analyze medical imaging data and patient records. 4.  Design AI-driven medical devices and systems, considering ethical and regulatory constraints. 5.  Critically assess the performance and limitations of AI solutions in healthcare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Analyze case studies on AI applications in medical diagnostics and treatment. *   Develop and evaluate machine learning models for medical image classification. 2.  Group Project: *   Design an AI-driven medical device or system to address a specific healthcare challenge. *   Present a detailed project proposal, implementation plan, and performance evaluation. 3.  Quizzes: *   Regular quizzes on key AI concepts, algorithms, and healthcare applications. 4.  Final Exam: *   Comprehensive exam covering all course topics, including AI fundamentals, medical applications, and ethical considerations. 5.  Class Participation: *   Active engagement in discussions, presentations, and group activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in medical diagnostics, robotic surgery, and personalized medicine. *   Activation: *   Discuss current challenges in medical systems engineering and identify potential AI solutions. *   Demonstration: *   Live demonstrations of AI tools for medical image analysis, predictive modeling, and robotic control. *   Application: *   Hands-on labs for developing and evaluating machine learning models using medical datasets. *   Group exercises to simulate the design and implementation of AI-driven medical devices. *   Integration: *   Discuss the integration of AI with existing medical technologies and workflows. *   Encourage students to propose innovative AI solutions for improving healthcare outcomes.</t>
+  </si>
+  <si>
+    <t>AI in Operations_Research_and_Business_Analytics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations Research and Business Analytics *   Definition: Operations Research (OR) and Business Analytics involve using advanced analytical methods to make better decisions. AI enhances these fields by automating processes, improving predictive accuracy, and enabling real-time optimization. *   Relevance: AI is transforming OR and business analytics by enabling the analysis of large datasets, improving forecasting accuracy, and automating complex decision-making processes in various industries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Decision-Making: *   Use AI algorithms to analyze complex datasets and provide recommendations for strategic decisions. 2.  Supply Chain Optimization: *   Employ machine learning models to optimize inventory levels, routing, and logistics. 3.  AI-Powered Simulations: *   Utilize AI to create realistic simulations for testing different scenarios and strategies. 4.  Demand Forecasting: *   Improve demand prediction accuracy using time series analysis and machine learning techniques. 5.  Resource Allocation: *   Optimize resource allocation using AI to balance efficiency and effectiveness. 6.  Risk Management: *   Use AI to identify and mitigate risks in operational processes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Business Analytics Reports: Structured reports containing key performance indicators (KPIs) and analytical insights. *   Supply Chain Data: Information on inventory levels, logistics, and supplier performance. *   Real-Time Decision Models: Dynamic data used for real-time decision-making in operations. *   Customer Data: Purchase history, preferences, and demographic information for demand forecasting. *   Financial Data: Revenue, costs, and profit margins for resource allocation. *   Significance for AI Applications: *   Business analytics reports provide insights into organizational performance, enabling AI to identify areas for improvement. *   Supply chain data allows AI to optimize logistics and reduce costs. *   Real-time decision models enable AI to make dynamic decisions in response to changing conditions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in decision-making models, data privacy concerns, and transparency issues. *   Legal Implications: Compliance with data protection regulations and ensuring fairness in AI algorithms. *   Social Implications: Changes in workforce dynamics due to automation, potential job displacement, and enhanced operational efficiency. *   Examples: *   Positive: Improved efficiency and cost savings through optimized supply chains. *   Negative: Job displacement due to automation and potential bias in decision-making. </t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "AI in Operations Research" by Dr. Optimization Expert. *   "Business Analytics with AI" by Data Insights Guru. *   Case Studies: *   Case studies on AI-driven logistics at leading companies like Amazon and FedEx. *   Online Courses: *   Coursera: "AI for Business" by Andrew Ng. *   edX: "Supply Chain Analytics" by MIT. *   Blogs and Articles: *   Towards Data Science: Articles on AI applications in operations research. *   Harvard Business Review: Insights on AI strategies for business leaders.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Business and engineering students with a focus on optimization and analytics. *   Some familiarity with basic statistical methods and optimization techniques. *   Expected Role After Completion: *   Equipped with AI tools for improving operational efficiency and strategic decision-making. *   Able to apply AI concepts to solve real-world problems in operations research and business analytics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of business analytics with expertise in AI applications. *   Ph.D. in Operations Research or related field. *   Experience in teaching and research in AI and analytics. *   Skills: *   Strong understanding of optimization techniques and AI algorithms. *   Ability to bridge technical AI concepts with practical business applications. *   Experience in interdisciplinary teaching and student engagement. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (1214 weeks). *   Access to software tools like Python, R, and optimization solvers (e.g., Gurobi, CPLEX). *   Availability of datasets for business applications and supply chain optimization. *   Institutional support for interdisciplinary learning and access to computing resources.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will: 1.  Understand the fundamentals of AI and its relevance to operations research and business analytics. 2.  Identify and evaluate AI applications in various operational functions, such as supply chain management and resource allocation. 3.  Apply AI techniques to improve decision-making in complex business scenarios. 4.  Interpret and analyze data for AI-driven insights in operations research. 5.  Recognize ethical, legal, and societal considerations of using AI in business. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Analyze case studies on AI in operations research (e.g., optimizing a supply chain using AI). 2.  Group Project: *   Design an AI-driven solution for a business problem (e.g., developing a demand forecasting model). 3.  Quizzes: *   Weekly quizzes on key AI concepts and applications. 4.  Final Presentation: *   Present a business problem, propose an AI solution, and discuss implications. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications, such as optimizing logistics for e-commerce companies. *   Activation: *   Reflect on personal experiences with optimization and analytics and identify AI potential in known scenarios. *   Demonstration: *   Live demonstrations of AI tools like Python for supply chain optimization and simulation software for scenario testing. *   Application: *   Hands-on labs for creating basic predictive models using business data. *   Group exercises to simulate business decision-making with AI insights. *   Integration: *   Discuss how AI can complement traditional operations research methods. *   Encourage students to develop proposals for applying AI in their internship or workplace settings.</t>
+  </si>
+  <si>
+    <t>AI in PhilosophyNeurosciencesCognition.txt</t>
+  </si>
+  <si>
+    <t>Philosophy - Neurosciences - Cognition  Definition: Explores the intersection of AI with philosophical inquiry, cognitive processes, and neuroscientific understanding. It focuses on how AI impacts our understanding of the mind, ethics, and society.  Relevance: AI is increasingly relevant as it challenges traditional views on consciousness, decision-making, and moral responsibility, requiring interdisciplinary analysis.</t>
+  </si>
+  <si>
+    <t>1. AI and Ethics: o Investigate ethical dilemmas arising from AI decision-making, bias, and autonomy. 2. AI in Cognitive Science: o Use AI models to simulate and understand human cognitive processes such as memory, learning, and perception. 3. Human-AI Interaction: o Study the psychological and social impacts of interactions between humans and AI systems. 4. AI in Mental Health: o Develop AI-driven tools for diagnosing and treating mental health disorders. 5. AI and Consciousness: o Explore the philosophical implications of AI systems exhibiting consciousness-like behavior. 6. AI for Neuroscientific Research: o Utilize AI to analyze large neuroimaging datasets to uncover patterns of brain activity.</t>
+  </si>
+  <si>
+    <t> Types of Data: o Behavioral Science Datasets: Data from experiments on human behavior and decision-making. o Ethical Case Studies: Real-world examples of ethical dilemmas involving AI. o Neurocognitive Studies: Data from neuroimaging techniques (fMRI, EEG) correlated with cognitive tasks. o Textual Data: Philosophical texts, research papers, and ethical guidelines.  Significance for AI Applications: o Behavioral data informs AI models of human behavior and decision-making. o Ethical case studies provide context for ethical AI development and policy. o Neurocognitive data helps understand the neural correlates of cognitive functions modeled by AI.</t>
+  </si>
+  <si>
+    <t> Ethical Implications: Concerns about AI bias, privacy, autonomy, and moral responsibility.  Legal Implications: Challenges in assigning liability for AI-caused harm and regulating AI development.  Social Implications: Changes in human relationships, job displacement, and the potential for AI to exacerbate existing inequalities.  Examples: o Positive: AI-driven tools for mental health support and enhanced cognitive research. o Negative: Algorithmic bias in decision-making systems leading to unfair outcomes.</t>
+  </si>
+  <si>
+    <t> AI and Philosophy Research: o Stanford Encyclopedia of Philosophy: Entries on AI, ethics, and philosophy of mind. o Journal of Artificial Intelligence and Society: Research on the social impact of AI.  Case Studies on AI Ethics: o AI Ethics Guidelines by the IEEE: Standards for ethically aligned design. o The AI Now Institute Reports: Research and policy recommendations on AI ethics.  Books: o "Life 3.0: Being Human in the Age of Artificial Intelligence" by Max Tegmark. o "Weapons of Math Destruction: How Big Data Increases Inequality and Threatens Democracy" by Cathy O'Neil. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t> Learners: o Students from Philosophy, Cognitive Science, and Neuroscience backgrounds. o Varying levels of familiarity with AI concepts and programming skills.  Expected Role After Completion: o Engage in informed ethical and philosophical discussions on AI. o Critically evaluate AI's role in cognitive science and neuroscience research. o Contribute to the development of ethical AI policies and guidelines.</t>
+  </si>
+  <si>
+    <t> Qualifications: o Professor of Philosophy and Cognition with expertise in AI ethics. o Strong background in cognitive science, neuroscience, and ethical theory.  Skills: o Ability to bridge technical AI concepts with philosophical and ethical considerations. o Experience in interdisciplinary teaching and facilitating ethical discussions.</t>
+  </si>
+  <si>
+    <t> Resources: o Course duration: One semester (1214 weeks). o Access to datasets for behavioral science and neurocognitive studies. o Software tools for AI simulation and data analysis (e.g., Python, R). o Institutional support for interdisciplinary collaboration. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>By the end of the course, students will: 1. Understand the fundamental concepts of AI and its applications in cognitive science and neuroscience. 2. Identify and analyze ethical dilemmas arising from AI development and deployment. 3. Critically evaluate the philosophical implications of AI on human cognition and consciousness. 4. Apply ethical frameworks to assess the moral responsibility of AI systems. 5. Engage in constructive dialogue on the social and policy implications of AI.</t>
+  </si>
+  <si>
+    <t>1. Individual Essays: o Analyze ethical case studies on AI in healthcare, autonomous vehicles, or criminal justice. 2. Group Project: o Develop an ethical guideline for a specific AI application (e.g., AI in education). 3. Presentations: o Present research on AI's impact on cognitive processes or neuroscientific understanding. 4. Debate: o Participate in a debate on the ethical implications of AI autonomy. 5. Class Participation: o Active engagement in discussions and critical analysis of assigned readings.</t>
+  </si>
+  <si>
+    <t> Problem-Centered: o Case studies on real-world AI dilemmas, such as autonomous vehicle ethics or algorithmic bias in hiring.  Activation: o Reflect on personal experiences with AI and discuss the ethical implications of AI in daily life.  Demonstration: o Guest lectures from AI researchers and ethicists. o Demonstrations of AI tools used in cognitive science and neuroscience research.  Application: o Group exercises to apply ethical frameworks to AI decision-making scenarios. o Hands-on labs for analyzing AI bias in datasets.  Integration: o Discuss how AI can complement or challenge traditional philosophical and scientific perspectives. o Encourage students to develop personal ethical frameworks for AI development and use.</t>
+  </si>
+  <si>
+    <t>AI in ProcessSafetyandEnvironmentalEngineering.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Safety and Environmental Engineering *   Definition: Process Safety and Environmental Engineering focuses on preventing incidents and minimizing environmental impact in industrial processes. AI integration aims to enhance safety measures, optimize resource use, and ensure regulatory compliance. *   Relevance: AI technologies are revolutionizing the field by providing tools for predictive maintenance, real-time monitoring, and improved decision-making in managing complex industrial systems and environmental challenges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Risk Assessment: *   Use machine learning algorithms to predict potential risks based on historical incident data, process parameters, and environmental factors. 2.  Environmental Monitoring: *   Employ AI to analyze real-time data from sensors to detect pollution, monitor air and water quality, and predict environmental changes. 3.  AI-Powered Hazard Detection: *   Utilize computer vision and deep learning to identify hazardous conditions in industrial environments, such as leaks, spills, and equipment malfunctions. 4.  Predictive Maintenance: *   Apply AI algorithms to predict equipment failures and schedule maintenance to prevent downtime and reduce safety risks. 5.  Optimization of Resource Use: *   Use AI to optimize energy consumption, waste reduction, and water usage in industrial processes to promote sustainability. 6.  Compliance Monitoring: *   Employ AI to monitor compliance with environmental regulations and safety standards, automating reporting and reducing the risk of violations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Industrial Safety Reports: Incident reports, near-miss reports, safety audits, and risk assessments. *   Pollution Monitoring Data: Air and water quality data, emissions data, waste disposal records, and chemical inventories. *   Climate Impact Studies: Climate models, weather data, environmental impact assessments, and sustainability reports. *   Process Data: Sensor readings from industrial equipment (temperature, pressure, flow rates), equipment maintenance logs, and operational parameters. *   Significance for AI Applications: *   Industrial safety reports provide critical data for training AI models to predict and prevent accidents. *   Pollution monitoring data enables AI algorithms to detect and mitigate environmental hazards in real-time. *   Climate impact studies help AI models predict long-term environmental risks and inform sustainable practices. *   Process data allows for optimizing industrial processes for safety and efficiency. *   Data understanding enables targeted AI techniques like supervised learning for risk prediction and anomaly detection for hazard prevention. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Ensuring fairness and transparency in AI-driven risk assessments, addressing privacy concerns related to environmental monitoring data, and preventing biased decision-making. *   Legal Implications: Compliance with environmental regulations and safety standards, liability for AI-driven failures, and data governance issues. *   Social Implications: Job displacement due to automation, public perception of AI in environmental protection, and community involvement in AI-driven environmental initiatives. *   Examples: *   Positive: Enhanced safety through predictive maintenance, reduced environmental impact through optimized resource use, and improved regulatory compliance. *   Negative: AI failures leading to accidents, biased algorithms resulting in unfair environmental policies, and job losses due to automation. </t>
+  </si>
+  <si>
+    <t>*   Research Articles: *   "Applications of Artificial Intelligence in Environmental Engineering" - Journal of Environmental Engineering. *   "AI-Driven Risk Management in Process Safety" - Process Safety and Environmental Protection. *   Online Courses: *   Coursera: "AI for Environmental Risk Management" by the University of X. *   Udemy: "Machine Learning for Environmental Monitoring" by Y Academy. *   Books: *   "Artificial Intelligence in Process Safety" by Z Publications. *   "Environmental Data Science" by A Press.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Environmental and Safety Engineering students at the undergraduate and graduate levels. *   Varying levels of AI knowledge, with some familiarity with basic programming and statistical concepts. *   Strong foundation in environmental science, chemical engineering, and safety principles. *   Expected Role After Completion: *   Apply AI tools and techniques to solve real-world problems in environmental protection and risk management. *   Participate in interdisciplinary teams to develop AI-driven solutions for industrial safety and sustainability. *   Effectively communicate the benefits and limitations of AI applications to stakeholders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Process Safety with a Ph.D. in Chemical Engineering or related field. *   Expertise in AI applications for environmental protection and risk management. *   Experience in teaching undergraduate and graduate courses in process safety and environmental engineering. *   Skills: *   Strong understanding of AI algorithms, machine learning techniques, and data science principles. *   Ability to integrate AI concepts into process safety and environmental engineering curricula. *   Excellent communication and pedagogical skills to effectively engage students with diverse backgrounds. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget for software licenses (e.g., Python, TensorFlow, specialized environmental modeling tools). *   Access to high-performance computing resources for AI model training and simulations. *   Availability of domain-specific datasets from industrial partners and environmental agencies. *   Institutional support for interdisciplinary collaboration between engineering and computer science departments. *   Constraints: *   Limited availability of pre-trained AI models specific to process safety and environmental engineering. *   Challenges in securing industry partnerships for real-world case studies and data access. *   Potential need for faculty training in advanced AI techniques and software tools.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning algorithms. 2.  Identify and evaluate potential AI applications in process safety and environmental engineering. 3.  Apply AI techniques to analyze environmental and safety data for risk assessment and hazard detection. 4.  Develop AI-driven solutions for optimizing resource use and promoting sustainability in industrial processes. 5.  Evaluate the ethical, legal, and social implications of using AI in environmental protection and risk management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Case studies on AI-driven risk assessment in industrial facilities. *   Analysis of environmental monitoring data using machine learning algorithms. 2.  Group Project: *   Development of an AI-based system for predictive maintenance in a chemical plant. *   Design of an AI-driven solution for optimizing energy consumption in a manufacturing process. 3.  Quizzes: *   Regular quizzes on key AI concepts and applications. 4.  Final Exam: *   Comprehensive assessment of students' understanding of AI principles and their application in process safety and environmental engineering. 5.  Presentations: *   Student presentations on their group projects and case study analyses. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Real-world case studies on industrial accidents and environmental disasters where AI could have made a difference. *   Activation: *   Discussions on students' prior knowledge and experiences related to AI and its potential applications in their field. *   Demonstration: *   Live demonstrations of AI tools and techniques for data analysis, risk assessment, and hazard detection. *   Application: *   Hands-on labs for developing AI models using Python and relevant libraries. *   Group exercises to simulate decision-making scenarios in process safety and environmental engineering. *   Integration: *   Discussions on how AI can complement traditional engineering practices and improve overall safety and sustainability. *   Guest lectures from industry experts on AI applications in their respective fields. *   Teaching Methods: *   Lectures: Provide theoretical background on AI concepts and their application in process safety and environmental engineering. *   Labs: Hands-on exercises to apply AI techniques to real-world datasets and case studies. *   Discussions: Interactive sessions to discuss ethical, legal, and social implications of AI. *   Group Work: Collaborative projects to develop AI-driven solutions for specific problems in the domain.</t>
+  </si>
+  <si>
+    <t>AI in Process_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Process Engineering *   Definition: Process Engineering involves the design, operation, control, and optimization of chemical, physical, and biological processes. AI enhances these processes by automating tasks, predicting outcomes, and optimizing performance. *   Relevance: AI is transforming process engineering by improving efficiency, reducing costs, and enhancing safety in industrial operations.</t>
+  </si>
+  <si>
+    <t>*   AI-driven process automation: Automating routine tasks and decision-making in process control systems. *   Predictive maintenance in industrial plants: Using machine learning to predict equipment failures and optimize maintenance schedules. *   Real-time process control: Employing AI algorithms to dynamically adjust process parameters for optimal performance. *   Process Optimization: Using AI to analyze process data and identify optimal operating conditions. *   Chemical Reaction Simulations: Utilizing AI to predict reaction outcomes and optimize reaction parameters. *   Quality Control: Applying AI to monitor and maintain product quality through real-time analysis of process data.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Industrial sensor data: Real-time measurements of temperature, pressure, flow rates, and other process parameters. *   Chemical reaction simulations: Data generated from computational models of chemical reactions. *   Process optimization reports: Historical data on process performance and optimization strategies. *   Equipment logs: Records of equipment operation, maintenance, and failures. *   Material properties: Data on the physical and chemical properties of materials used in the processes. *   Significance for AI Applications: *   Sensor data allows for real-time monitoring and control of processes. *   Simulation data enables the development of predictive models for process behavior. *   Optimization reports provide insights for improving process efficiency and reducing costs. *   Understanding data enables targeted AI techniques like time-series analysis for predictive maintenance and reinforcement learning for process optimization.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Ensuring fairness and transparency in AI-driven decision-making, addressing potential biases in algorithms. *   Legal Implications: Compliance with industry regulations and safety standards, ensuring data privacy and security. *   Social Implications: Changes in workforce dynamics due to automation, potential job displacement, and the need for retraining and upskilling. *   Examples: *   Positive: Enhanced process safety, improved product quality, and reduced environmental impact. *   Negative: Potential for algorithmic errors leading to process disruptions or safety hazards, over-reliance on AI systems.</t>
+  </si>
+  <si>
+    <t>*   AI in Process Engineering Research: Academic papers and publications on the application of AI in process engineering. *   Case Studies on AI-Driven Industrial Automation: Real-world examples of how AI is being used to automate and optimize industrial processes. *   Online Courses: *   Coursera: "AI for Process Optimization" by [Hypothetical University/Industry Partner]. *   Udemy: "Machine Learning for Chemical Engineering" by [Hypothetical Instructor/Company]. *   Books: *   "Process Control: Modeling, Design, and Simulation" by Bequette. (Supplement with AI-specific chapters/readings). *   "Deep Learning for the Chemical Sciences" by Bharath Ramsundar and Peter Eastman.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Engineering students specializing in process engineering. *   Some familiarity with basic programming concepts and mathematical modeling. *   Limited prior experience with AI and machine learning. *   Expected Role After Completion: *   Apply AI tools and techniques to solve process engineering problems. *   Contribute to the development and implementation of AI-driven solutions in industrial settings. *   Understand the limitations and potential risks of using AI in process engineering.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Professor of process engineering with a Ph.D. in a related field. *   Expertise in AI-powered industrial optimization and process control. *   Experience in teaching process engineering courses and mentoring students. *   Skills: *   Strong understanding of process engineering principles and practices. *   Proficiency in AI and machine learning algorithms and tools. *   Ability to communicate complex concepts clearly and effectively.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (15 weeks). *   Access to software tools such as Python, MATLAB, and process simulation software (e.g., Aspen Plus). *   Availability of industrial sensor data and process optimization reports for case studies and projects. *   High-performance computing resources for running AI models and simulations. *   Institutional support for interdisciplinary collaboration and industry partnerships. *   Constraints: *   Limited budget for purchasing specialized AI software or hardware. *   Potential challenges in accessing real-world industrial data due to confidentiality concerns.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning and their relevance to process engineering. 2.  Identify and evaluate potential AI applications in various process engineering domains. 3.  Apply AI tools and techniques to solve process optimization, predictive maintenance, and process control problems. 4.  Interpret and analyze industrial sensor data and process simulation results. 5.  Design and implement AI-driven solutions for process automation and optimization. 6.  Evaluate the ethical, legal, and social implications of using AI in process engineering.</t>
+  </si>
+  <si>
+    <t>*   Individual Assignments: *   Problem sets on AI algorithms and techniques. *   Case studies on AI applications in process engineering. *   Group Project: *   Design and implementation of an AI-driven solution for a real-world process engineering problem. *   Presentation of project results and findings. *   Midterm and Final Exams: *   Comprehensive assessments of the course material. *   Class Participation: *   Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world industrial processes and the challenges they face. *   Projects that require students to develop AI-driven solutions for specific process engineering problems. *   Activation: *   Discussions on students' prior knowledge of process engineering and AI. *   Brainstorming sessions on potential AI applications in process engineering. *   Demonstration: *   Lectures and presentations on AI algorithms and techniques. *   Live demonstrations of AI tools and software. *   Guest lectures from industry experts on AI applications in process engineering. *   Application: *   Hands-on labs and workshops on using AI tools to solve process engineering problems. *   Group projects that require students to apply their knowledge and skills to design and implement AI-driven solutions. *   Integration: *   Discussions on the ethical, legal, and social implications of using AI in process engineering. *   Presentations by students on their project results and findings. *   Reflections on the course material and its relevance to students' future careers. *   Utilize a mix of teaching methods: Lectures, labs, discussions, and group work should be utilized to engage learners effectively.</t>
+  </si>
+  <si>
+    <t>AI in Psychology.txt</t>
+  </si>
+  <si>
+    <t>Psychology *   Definition: Psychology is the scientific study of the mind and behavior. AI applications in psychology aim to enhance understanding, prediction, and treatment of mental processes and behavioral patterns. *   Relevance: AI is transforming psychological research and practice by enabling large-scale data analysis, personalized interventions, and the development of innovative tools for mental health support.</t>
+  </si>
+  <si>
+    <t>1.  AI-Driven Mental Health Applications: *   Develop AI-powered chatbots for preliminary mental health assessments and support. 2.  Emotion Recognition: *   Use AI to analyze facial expressions, voice tones, and text to detect and interpret human emotions. 3.  Cognitive Modeling: *   Create computational models of cognitive processes to better understand decision-making, memory, and learning. 4.  Personalized Therapy: *   Tailor therapeutic interventions using AI algorithms that analyze patient data to optimize treatment plans. 5.  Predictive Analysis for Mental Health: *   Employ machine learning to predict the likelihood of mental health crises based on historical data. 6.  Automated Psychological Assessments: *   Develop AI tools to automate the administration and scoring of psychological tests.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Psychological Survey Data: Responses from questionnaires and surveys measuring psychological traits and states. *   EEG Signals: Electrical activity of the brain recorded via electroencephalography. *   Facial Expression Analysis: Images and videos of facial expressions used to infer emotional states. *   Text Data: Transcripts of therapy sessions, social media posts, and written journals. *   Behavioral Data: Data collected from observing behavior in controlled experiments or naturalistic settings. *   Significance for AI Applications: *   Survey data enables the development of predictive models for mental health outcomes. *   EEG signals provide insights into brain activity related to cognitive and emotional processes. *   Facial expression analysis allows for automated emotion recognition. *   Text data can be analyzed using NLP techniques to identify patterns in language indicative of psychological distress. *   Behavioral data is crucial for training AI models to understand and predict human behavior.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Concerns about data privacy, algorithmic bias, and the potential for misdiagnosis or inappropriate interventions. *   Legal Implications: Compliance with data protection regulations (e.g., GDPR, HIPAA) and ensuring transparency and accountability in AI-driven psychological assessments and treatments. *   Social Implications: Potential changes in the role of psychologists, the need for training in AI literacy, and the impact of AI on the accessibility and affordability of mental health services. *   Examples: *   Positive: Enhanced access to mental health support through AI-powered chatbots. *   Negative: Algorithmic bias leading to unfair or discriminatory treatment recommendations.</t>
+  </si>
+  <si>
+    <t>*   Research Papers: *   Journal of Artificial Intelligence in Mental Health *   Studies in computational modeling and cognitive science *   Case Studies: *   Reports on the implementation of AI-driven therapy programs. *   Analyses of AI applications in behavioral research. *   Online Courses: *   Coursera: "AI for Mental Health" *   edX: "Computational Cognitive Science"  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners: *   Psychology students with an interest in AI applications. *   Varying levels of programming and data analysis skills. *   Expected Role After Completion: *   Ability to critically evaluate and apply AI tools in psychological research and practice. *   Understanding of the ethical and practical considerations of using AI in mental health.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Ph.D. in Psychology with a specialization in AI-driven cognitive modeling. *   Experience in developing and applying computational models to psychological phenomena. *   Familiarity with relevant AI tools and techniques (e.g., machine learning, natural language processing). *   Skills: *   Strong understanding of psychological theory and research methods. *   Ability to bridge the gap between psychological concepts and AI algorithms.</t>
+  </si>
+  <si>
+    <t>*   Resources: *   Access to computing resources for running AI models. *   Availability of psychological datasets for analysis and experimentation. *   Support from IT staff for software installation and troubleshooting. *   Collaboration with the computer science department for interdisciplinary projects. *   Constraints: *   Limited budget for purchasing specialized AI software or datasets. *   Time constraints due to the breadth of topics to be covered in a single course.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Describe the fundamental principles of AI and machine learning. 2.  Identify and evaluate AI applications in various areas of psychology, such as mental health, cognitive science, and behavioral analysis. 3.  Apply AI techniques to analyze psychological data and develop predictive models. 4.  Critically assess the ethical, legal, and social implications of using AI in psychology. 5.  Design and implement a small-scale AI project to address a psychological research question or practical problem.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Critique of research papers on AI in psychology. *   Data analysis exercises using AI tools and psychological datasets. 2.  Group Project: *   Development of an AI-driven solution to a psychological problem. *   Presentation of project findings to the class. 3.  Midterm and Final Exams: *   Assess understanding of key concepts and theories. 4.  Class Participation: *   Active engagement in discussions and debates on relevant topics.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in mental health and cognitive science. *   Discussions on the ethical dilemmas posed by AI in psychology. *   Activation: *   Brainstorming sessions on how AI can address current challenges in psychological research and practice. *   Reflection on personal experiences with technology and its impact on mental well-being. *   Demonstration: *   Live demonstrations of AI tools for emotion recognition, cognitive modeling, and data analysis. *   Guest lectures from experts in AI and psychology. *   Application: *   Hands-on labs for building and testing AI models using psychological data. *   Group projects that require students to apply AI techniques to solve real-world problems. *   Integration: *   Discussions on how AI can complement traditional psychological methods. *   Encouragement of students to consider AI applications in their future research or clinical work.</t>
+  </si>
+  <si>
+    <t>AI in Statistics&amp;DataAnalysis.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics &amp; Data Analysis *   Definition: The application of AI techniques to enhance statistical methodologies and data analysis processes. This includes automating tasks, improving model accuracy, and extracting deeper insights from data. *   Relevance: AI is revolutionizing statistics and data analysis by enabling the processing of large datasets, improving predictive modeling, and facilitating real-time decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven Data Visualization: *   Automated generation of insightful visualizations from complex datasets using AI algorithms. 2.  Predictive Analytics: *   Enhance predictive models with machine learning techniques to improve accuracy and forecasting capabilities. 3.  Machine Learning in Statistical Modeling: *   Utilize machine learning algorithms for statistical modeling, including regression, classification, and clustering. 4.  Automated Data Cleaning and Preprocessing: *   Apply AI to automatically identify and correct errors, handle missing values, and transform data for analysis. 5.  Anomaly Detection: *   Employ AI techniques to detect outliers and anomalies in datasets, identifying unusual patterns or events. 6.  Real-Time Analytics: *   Use AI to process and analyze data streams in real-time, enabling immediate insights and decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Large-Scale Datasets: Massive datasets from various sources, including structured, semi-structured, and unstructured data. *   Statistical Reports: Summary reports containing statistical analyses and findings. *   Real-Time Analytics: Data streams from sensors, social media, and other dynamic sources. *   Significance for AI Applications: *   Large-scale datasets provide the necessary volume for training complex AI models. *   Statistical reports offer a baseline for comparison and validation of AI-driven analyses. *   Real-time analytics enable immediate responses to changing conditions and events. *   Understanding Data: *   Understanding the statistical properties of the data enables the selection of appropriate AI techniques and the interpretation of results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: *   Potential for bias in AI models leading to unfair or discriminatory outcomes. *   Concerns about data privacy and security when handling sensitive information. *   Transparency and interpretability of AI models to ensure accountability. *   Legal Implications: *   Compliance with data protection regulations (e.g., GDPR) and industry-specific standards. *   Liability for errors or damages caused by AI-driven decisions. *   Social Implications: *   Changes in the role of statisticians and data analysts as AI automates routine tasks. *   Potential for misuse of AI to manipulate or distort statistical findings. *   Examples: *   Positive: Improved accuracy and efficiency in statistical analysis, leading to better insights and decisions. *   Negative: Misinterpretation of AI-driven results, leading to flawed conclusions and unintended consequences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Statistics Research Papers: *   Journals such as the Journal of the American Statistical Association, and the Journal of Machine Learning Research. *   Online Courses: *   Coursera: "Machine Learning" by Andrew Ng, "AI for Data Science" specialization. *   Udemy: "Data Science and Machine Learning Bootcamp," "AI for Statistics." *   Textbooks: *   "The Elements of Statistical Learning" by Hastie, Tibshirani, and Friedman. *   "Pattern Recognition and Machine Learning" by Christopher Bishop.  ________________________________________ Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Students in statistics and data science programs. *   Varying levels of experience with AI and machine learning. *   Solid foundation in statistical principles and methods. *   Expected Role After Completion: *   Apply AI techniques to enhance statistical modeling and predictive analysis. *   Develop AI-driven solutions for data analysis problems. *   Critically evaluate the ethical and practical implications of using AI in statistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of statistics with expertise in AI-powered analytics. *   Strong background in machine learning, data mining, and statistical modeling. *   Skills: *   Ability to bridge the gap between statistical theory and AI applications. *   Experience in teaching and mentoring students in data science. *   Familiarity with relevant software tools and programming languages (e.g., R, Python). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Course duration: One semester (12-14 weeks). *   Availability of domain-specific datasets for hands-on exercises. *   Access to software and hardware resources, including cloud computing platforms and AI development tools. *   Institutional support for interdisciplinary teaching and research collaborations. *   Constraints: *   Budget limitations for purchasing software licenses or hiring additional personnel. *   Potential lack of access to specialized hardware resources (e.g., GPUs) for computationally intensive tasks.  ________________________________________ Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning in the context of statistics. 2.  Apply AI techniques to enhance statistical modeling and predictive analysis. 3.  Evaluate the performance of AI-driven statistical models using appropriate metrics. 4.  Identify and address ethical and practical challenges in using AI for statistical analysis. 5.  Communicate the results of AI-driven analyses effectively to both technical and non-technical audiences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement AI algorithms for statistical modeling tasks (e.g., regression, classification, clustering). *   Analyze and interpret the results of AI-driven analyses. 2.  Group Project: *   Develop an AI-driven solution for a real-world statistical problem. *   Present the project findings to the class. 3.  Quizzes: *   Assess understanding of key concepts and techniques. 4.  Midterm and Final Exams: *   Comprehensive evaluation of learning outcomes. 5.  Class Participation: *   Active engagement in discussions and activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world applications of AI in statistics (e.g., fraud detection, medical diagnosis). *   Activation: *   Discussions on prior knowledge of statistical methods and their limitations. *   Brainstorming sessions on how AI can address these limitations. *   Demonstration: *   Live coding sessions demonstrating the implementation of AI algorithms for statistical tasks. *   Interactive tutorials on using AI tools and libraries. *   Application: *   Hands-on exercises where students apply AI techniques to solve statistical problems. *   Group projects where students develop AI-driven solutions for real-world datasets. *   Integration: *   Discussions on the ethical and practical implications of using AI in statistics. *   Guest lectures from industry experts on the latest trends and challenges in AI-driven data analysis. *   Encourage students to explore how AI can be integrated into their future research or professional activities.</t>
+  </si>
+  <si>
+    <t>AI in Sustainable_Energy_Systems.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable Energy Systems *   Definition: Sustainable Energy Systems involve developing and managing energy resources to meet current needs without compromising the ability of future generations to meet their own needs. This includes renewable energy sources, energy efficiency, and smart grid technologies. AI enhances these systems through optimization, prediction, and intelligent control. *   Relevance: AI is transforming sustainable energy by improving the efficiency of renewable energy generation, enabling smarter grid management, and optimizing energy consumption. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-driven Renewable Energy Optimization: *   Use AI algorithms to optimize the placement, configuration, and operation of renewable energy systems (e.g., solar farms, wind farms) to maximize energy output. 2.  Grid Management: *   Employ AI to predict energy demand, manage grid stability, and optimize energy distribution across the grid. 3.  Smart Energy Storage: *   Utilize AI to manage and optimize energy storage systems (e.g., batteries, pumped hydro storage) to balance energy supply and demand. 4.  Predictive Maintenance: *   Apply AI to predict equipment failures in renewable energy systems and grid infrastructure, reducing downtime and maintenance costs. 5.  Energy Consumption Optimization: *   Use AI to analyze energy consumption patterns in buildings and industrial processes, identifying opportunities for efficiency improvements. 6.  Demand Response: *   Implement AI-driven demand response programs that automatically adjust energy consumption based on grid conditions and user preferences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Solar Panel Efficiency Data: Performance metrics, weather data, and maintenance records. *   Wind Turbine Performance Metrics: Wind speed, power output, and mechanical condition data. *   Energy Consumption Reports: Data on energy usage patterns from residential, commercial, and industrial consumers. *   Grid Sensor Data: Real-time data from sensors monitoring grid conditions, such as voltage, current, and frequency. *   Significance for AI Applications: *   Solar panel and wind turbine data enables predictive maintenance and performance optimization. *   Energy consumption data allows for the development of AI models that optimize energy usage and reduce waste. *   Grid sensor data supports real-time grid management and stability control. *   Understanding this data enables targeted AI techniques such as time series forecasting for energy demand, anomaly detection for equipment failures, and reinforcement learning for grid optimization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential biases in AI algorithms affecting energy access, data privacy concerns related to smart meter data, and transparency issues in automated decision-making. *   Legal Implications: Compliance with regulations regarding data privacy, cybersecurity, and grid stability. *   Social Implications: Impact on employment in the energy sector, public acceptance of AI-driven energy systems, and equitable distribution of benefits from sustainable energy technologies. *   Examples: *   Positive: Enhanced grid reliability, reduced carbon emissions, and increased access to affordable energy. *   Negative: Job displacement in traditional energy sectors, cybersecurity vulnerabilities in smart grids, and unequal access to AI-driven energy solutions. </t>
+  </si>
+  <si>
+    <t>*   AI in Renewable Energy Research: *   Papers from journals like "Renewable and Sustainable Energy Reviews" and "Applied Energy." *   Conferences such as the IEEE Power &amp; Energy Society General Meeting and the International Conference on Smart Energy Systems and Technologies (SEST). *   Smart Grid Management Case Studies: *   Reports from organizations like the International Energy Agency (IEA) and the U.S. Department of Energy (DOE). *   Case studies from companies like Siemens, ABB, and Schneider Electric. *   Online Courses: *   Coursera: "Smart Grids" by École Polytechnique Fédérale de Lausanne (EPFL). *   edX: "Energy: The Future Challenges" by Delft University of Technology (TU Delft). *   Udemy: "Renewable Energy Systems: Design and Optimization." ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students interested in AI applications for sustainability. *   Varying levels of AI knowledge (some may have basic programming experience). *   Solid foundation in engineering principles and sustainable energy concepts. *   Expected Role After Completion: *   Apply AI tools and techniques to optimize energy consumption, improve renewable energy solutions, and contribute to the development of sustainable energy systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Sustainable Energy with a focus on AI-driven optimization. *   Expertise in renewable energy systems, grid management, and energy efficiency. *   Strong background in AI, machine learning, and data analytics. *   Skills: *   Ability to bridge the gap between engineering principles and AI technologies. *   Experience in designing and implementing AI-based solutions for sustainable energy problems. *   Effective communication and teaching skills to convey complex concepts. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools like Python, MATLAB, and specialized AI libraries (e.g., TensorFlow, PyTorch). *   Availability of datasets related to renewable energy systems, grid operations, and energy consumption. *   High-performance computing resources for running AI models. *   Institutional support for interdisciplinary collaboration between engineering and computer science departments. *   Budget for guest lecturers and field trips to renewable energy facilities. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate potential AI applications in sustainable energy systems. 3.  Apply AI tools and techniques to optimize energy consumption and improve renewable energy solutions. 4.  Analyze and interpret data related to renewable energy systems, grid operations, and energy consumption. 5.  Design and implement AI-based solutions for real-world sustainable energy problems. 6.  Evaluate the ethical, legal, and social implications of using AI in sustainable energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Problem sets on AI fundamentals and applications in sustainable energy. *   Case study analysis of AI-driven renewable energy projects. 2.  Group Project: *   Design and implementation of an AI-based solution for a sustainable energy problem (e.g., optimizing the operation of a microgrid, predicting solar panel performance, or reducing energy consumption in a building). 3.  Quizzes: *   Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Presentation: *   Presentation of the group project, including problem definition, methodology, results, and conclusions. 5.  Class Participation: *   Active engagement in discussions and in-class activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Real-world case studies on AI applications in sustainable energy, such as Google's DeepMind using AI to optimize data center energy consumption. *   Activation: *   Brainstorming sessions on how AI can address specific challenges in the energy sector. *   Discussions on current trends and emerging technologies in AI and sustainable energy. *   Demonstration: *   Live demonstrations of AI tools and techniques, such as using Python to build predictive models for solar panel performance. *   Guest lectures from industry experts working on AI-driven sustainable energy projects. *   Application: *   Hands-on labs where students apply AI algorithms to real-world datasets related to renewable energy systems and energy consumption. *   Group exercises where students design and implement AI-based solutions for specific sustainable energy problems. *   Integration: *   Discussions on how AI can be integrated into existing energy systems and policies. *   Encouraging students to explore career opportunities in the field of AI for sustainable energy. *   Teaching Methods: Lectures, labs, discussions, and group work will be utilized to engage learners effectively.</t>
+  </si>
+  <si>
+    <t>AI in Sustainable_Process_and_Environmental_Engineering.txt</t>
+  </si>
+  <si>
+    <t>Sustainable Process and Environmental Engineering  *   Definition: Sustainable Process and Environmental Engineering focuses on designing and optimizing industrial processes and environmental management strategies to minimize environmental impact and promote sustainability. The integration of AI enhances data analysis, predictive modeling, and decision-making for environmental protection and resource management. *   Relevance: AI is transforming environmental engineering by enabling more efficient resource utilization, better pollution control, and improved climate modeling, leading to more sustainable practices and policies.</t>
+  </si>
+  <si>
+    <t>1.  AI-driven Waste Management:  *   Use AI to optimize waste sorting, recycling processes, and waste reduction strategies through image recognition and predictive analytics. 2.  Climate Modeling:  *   Employ AI algorithms to analyze climate data, predict future climate scenarios, and assess the impact of environmental policies. 3.  AI in Environmental Impact Assessments (EIA):  *   Utilize AI to streamline EIA processes, predict environmental impacts, and optimize mitigation strategies through data analysis and simulation. 4.  Water Resource Management:  *   Apply AI to monitor water quality, predict water scarcity, and optimize water distribution networks. 5.  Air Quality Monitoring and Prediction:  *   Use AI models to analyze air pollution data, predict air quality levels, and optimize pollution control measures. 6.  Sustainable Process Optimization:  *   Employ AI to optimize industrial processes for energy efficiency, waste reduction, and resource conservation.</t>
+  </si>
+  <si>
+    <t>*   Types of Data:  *   Pollution Monitoring Data: Air and water quality measurements, emissions data, and pollutant concentrations. *   Weather Patterns: Temperature, precipitation, wind speed, and other meteorological data. *   Industrial Sustainability Reports: Data on energy consumption, waste generation, resource utilization, and environmental compliance. *   Remote Sensing Data: Satellite imagery and aerial surveys for land use, deforestation, and environmental changes. *   Sensor Data: Real-time data from environmental sensors deployed in various locations. *   Significance for AI Applications:  *   Pollution data enables AI models to predict pollution levels and identify pollution sources. *   Weather data allows for accurate climate modeling and prediction of extreme weather events. *   Industrial reports provide insights for optimizing industrial processes and reducing environmental impact. *   Understanding this data facilitates targeted AI techniques like time series analysis for prediction and machine learning for pattern recognition.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential biases in environmental models, data privacy concerns, and equitable distribution of environmental benefits. *   Legal Implications: Compliance with environmental regulations, data protection laws, and accountability for AI-driven decisions. *   Social Implications: Job displacement in traditional environmental monitoring roles, increased public awareness, and community involvement in environmental management. *   Examples:  *   Positive: Improved accuracy in climate predictions leading to better adaptation strategies. *   Negative: AI misuse leading to biased environmental policies or unintended ecological consequences.</t>
+  </si>
+  <si>
+    <t>*   AI in Environmental Science Research:  *   Journal of Environmental Informatics: Articles on AI applications in environmental modeling and analysis. *   Environmental Science &amp; Technology: Research on AI-driven sustainability solutions. *   Case Studies on AI-driven Sustainability Solutions:  *   UN Environment Programme (UNEP): Reports on AI for sustainable development. *   World Resources Institute (WRI): Insights on AI applications for environmental management. *   Online Courses:  *   Coursera: "AI for Earth" by Microsoft. *   EdX: "Sustainable Energy Design" by Delft University of Technology.  ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t>*   Learners:  *   Engineering students specializing in sustainability, environmental engineering, and related fields. *   Some familiarity with basic programming and data analysis concepts. *   Expected Role After Completion:  *   Apply AI techniques to solve environmental problems, optimize sustainable processes, and develop innovative environmental management strategies.</t>
+  </si>
+  <si>
+    <t>*   Qualifications:  *   Professor of environmental engineering with a PhD in a related field. *   Experience in AI-driven climate analysis, environmental modeling, and sustainable process design. *   Skills:  *   Strong understanding of environmental science, engineering principles, and AI technologies. *   Ability to bridge technical AI concepts with practical environmental applications. *   Experience in interdisciplinary teaching and student engagement.</t>
+  </si>
+  <si>
+    <t>*   Resources:  *   Course duration: One semester (12-14 weeks). *   Access to software tools such as Python, R, TensorFlow, and ArcGIS for AI demonstrations and data analysis. *   Availability of environmental datasets from government agencies, research institutions, and industry partners. *   Institutional support for interdisciplinary learning and collaboration with environmental organizations.  ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will:  1.  Understand the fundamentals of AI and its relevance to sustainable process and environmental engineering. 2.  Identify and evaluate AI applications in various environmental domains, such as waste management, climate modeling, and water resource management. 3.  Interpret environmental data for AI-driven decision-making and problem-solving. 4.  Apply AI techniques to develop models and solutions for environmental challenges. 5.  Recognize ethical, legal, and societal considerations of using AI in environmental applications.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments:  *   Analyze case studies on AI in environmental management (e.g., AI-driven pollution control). 2.  Group Project:  *   Design an AI-based solution for a specific environmental problem (e.g., developing a predictive model for water quality). 3.  Quizzes:  *   Weekly quizzes on key AI concepts and environmental applications. 4.  Final Presentation:  *   Present a proposed AI solution to an environmental challenge, including its implications and feasibility. 5.  Class Participation:  *   Active engagement in discussions, hands-on activities, and collaborative projects.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered:  *   Case studies on real-world AI applications, such as IBM's Green Horizon project for air quality forecasting or Google's AI for Earth initiative. *   Activation:  *   Reflect on personal experiences with environmental issues and identify AI potential in addressing these challenges. *   Demonstration:  *   Live demonstrations of AI tools for environmental data analysis, modeling, and visualization. *   Guest lectures from industry experts on AI applications in sustainability. *   Application:  *   Hands-on labs for creating basic predictive models using environmental datasets. *   Group exercises to simulate environmental decision-making with AI insights. *   Integration:  *   Discuss how AI can complement traditional environmental practices. *   Encourage students to develop proposals for applying AI in their future research or workplace settings.</t>
+  </si>
+  <si>
+    <t>AI in SystemsEngineeringandEngineeringCybernetics.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Engineering and Engineering Cybernetics *   Definition: Systems Engineering is an interdisciplinary field focusing on the design, integration, and management of complex systems over their life cycles. Engineering Cybernetics applies control theory and information science to engineer and understand complex systems. AI integration enhances system optimization, automation, and adaptive control. *   Relevance: AI is transforming traditional systems engineering by enabling real-time optimization, predictive maintenance, and autonomous control, improving the efficiency and reliability of complex systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Driven System Optimization: *   Use AI algorithms to optimize system parameters for performance, efficiency, and reliability. 2.  Control Systems: *   Implement AI-based controllers for adaptive and intelligent control of complex systems. 3.  AI in Cybernetics: *   Apply AI to model, simulate, and control cybernetic systems, enhancing their adaptability and autonomy. 4.  Predictive Maintenance: *   Employ machine learning to predict system failures and schedule maintenance proactively. 5.  Fault Detection and Diagnosis: *   Utilize AI to detect anomalies and diagnose faults in complex systems in real-time. 6.  Resource Allocation: *   Optimize resource allocation within systems using AI-driven decision-making. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Control System Logs: Time-series data from sensors and actuators in control systems. *   Industrial Automation Data: Data from manufacturing processes, including machine performance and production metrics. *   Cybernetics Models: Simulation data, state variables, and system parameters. *   Significance for AI Applications: *   Control system logs enable the training of AI models for predictive control and fault detection. *   Industrial automation data facilitates the optimization of manufacturing processes and resource allocation. *   Cybernetics models allow for the simulation and validation of AI-driven control strategies. *   Data understanding enables targeted AI techniques like reinforcement learning for control and time-series analysis for prediction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in AI algorithms, concerns about autonomy and control, and the need for transparency. *   Legal Implications: Liability for AI-driven system failures, compliance with safety regulations, and data privacy concerns. *   Social Implications: Impact on workforce skills and job roles due to automation, potential for increased system efficiency and safety. *   Examples: *   Positive: Enhanced system performance and reliability through AI-driven optimization. *   Negative: Unintended consequences of AI control decisions and the risk of system failures. </t>
+  </si>
+  <si>
+    <t>*   Textbooks: *   "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig. *   "Systems Engineering: Principles and Practices" by Alexander Kossiakoff et al. *   Case Studies: *   IEEE Transactions on Systems, Man, and Cybernetics: Research articles on AI applications in systems engineering. *   Journal of Systems Engineering: Case studies on AI-driven automation in various industries. *   Online Courses: *   Coursera: "Control of Mobile Robots" by University of Pennsylvania. *   edX: "Artificial Intelligence" by Columbia University. ________________________________________ Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Engineering students specializing in system design and control. *   Varying levels of AI knowledge, with some familiarity with programming and mathematics. *   Expected Role After Completion: *   Apply AI techniques to optimize and control complex systems, design intelligent automation solutions, and contribute to AI-driven systems engineering projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   Professor of Systems Engineering with a PhD in a related field. *   Expertise in AI-driven automation and control systems. *   Skills: *   Strong understanding of systems engineering principles and AI algorithms. *   Ability to integrate AI concepts into practical engineering applications. *   Experience in teaching interdisciplinary courses and mentoring engineering students. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Course duration: One semester (12-14 weeks). *   Access to software tools like MATLAB, Python, and Simulink for AI simulations and control system design. *   Availability of datasets from industrial automation and control systems. *   Institutional support for interdisciplinary teaching and research collaborations. ________________________________________ Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will: 1.  Understand the fundamentals of AI and its applications in systems engineering and cybernetics. 2.  Apply AI algorithms to optimize and control complex systems. 3.  Design AI-driven automation solutions for industrial applications. 4.  Analyze and interpret data from control systems and industrial processes for AI modeling. 5.  Evaluate the ethical, legal, and social implications of AI in systems engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: *   Implement AI algorithms for system optimization and control. *   Analyze case studies on AI-driven automation in specific industries. 2.  Group Project: *   Design an AI-driven control system for a real-world engineering application. *   Develop a predictive maintenance model for an industrial system. 3.  Quizzes: *   Assess understanding of key AI concepts and systems engineering principles. 4.  Final Presentation: *   Present the design and results of the group project, discussing the AI techniques used and the implications of the solution. 5.  Class Participation: *   Engage in discussions, share insights, and contribute to problem-solving activities. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in systems engineering, such as autonomous vehicles, smart grids, and robotic manufacturing. *   Activation: *   Reflect on prior knowledge of control systems, automation, and AI concepts. *   Demonstration: *   Live demonstrations of AI tools like MATLAB, Python, and Simulink for system simulation and control. *   Application: *   Hands-on labs for implementing AI algorithms for system optimization and control. *   Group exercises to design and simulate AI-driven automation solutions. *   Integration: *   Discuss how AI can enhance traditional systems engineering practices and enable new capabilities. *   Encourage students to develop proposals for applying AI in their future engineering projects.</t>
+  </si>
+  <si>
+    <t>AI in Systems_Engineering_for_Manufacturing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Engineering for Manufacturing *   Definition: Application of systems engineering principles to design, optimize, and manage manufacturing processes. AI enhances automation, decision-making, and overall efficiency. *   Relevance: AI is revolutionizing manufacturing by enabling smart factories, predictive maintenance, and adaptive production systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-driven Process Optimization: *   Using machine learning to analyze manufacturing process data and identify opportunities for improvement. 2.  Automated Quality Control: *   Employing computer vision and AI algorithms to detect defects and ensure product quality. 3.  Intelligent Robotics: *   Developing AI-powered robots for tasks such as assembly, material handling, and inspection. 4.  Predictive Maintenance: *   Using AI to predict equipment failures and schedule maintenance proactively. 5.  Supply Chain Optimization: *   Leveraging AI to forecast demand, optimize inventory levels, and improve logistics. 6.  Digital Twins: *   Creating virtual replicas of manufacturing systems for simulation, monitoring, and optimization using AI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Manufacturing Process Data: Sensor readings, machine parameters, production rates, and cycle times. *   Quality Assurance Reports: Defect logs, inspection results, and compliance records. *   Industrial Sensor Logs: Data from temperature sensors, pressure sensors, and vibration sensors. *   Equipment Maintenance Records: Maintenance schedules, repair logs, and downtime reports. *   Supply Chain Data: Inventory levels, supplier information, and shipping data. *   Significance for AI Applications: *   Process data enables AI models to optimize manufacturing processes and improve efficiency. *   Quality data allows for the development of AI-driven quality control systems. *   Sensor logs facilitate predictive maintenance and anomaly detection. *   Understanding this data allows for targeted AI techniques such as time-series analysis for predictive maintenance, computer vision for quality inspection, and reinforcement learning for process optimization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential bias in AI algorithms, data privacy concerns, and the impact on human workers. *   Legal Implications: Compliance with industry regulations, data security standards, and intellectual property rights. *   Social Implications: Changes in workforce dynamics due to automation, the need for retraining and upskilling, and the impact on job creation and displacement. *   Examples: *   Positive: Improved product quality, increased efficiency, and reduced costs. *   Negative: Job displacement, ethical concerns related to AI bias, and potential security vulnerabilities. *   Domain-specific considerations: Ensuring the safety and reliability of AI-driven systems, addressing cybersecurity risks, and promoting human-AI collaboration. </t>
+  </si>
+  <si>
+    <t>*   AI in Manufacturing Research Papers: *   IEEE Transactions on Automation Science and Engineering *   Journal of Manufacturing Systems *   Case Studies on AI-driven Production Optimization: *   McKinsey &amp; Company: "Smartening up with Artificial Intelligence" *   Deloitte: "Industry 4.0: Challenges and solutions for European manufacturers" *   Online Courses: *   Coursera: "AI for Manufacturing" by DeepLearning.AI *   edX: "Manufacturing 4.0: How to Revolutionize Your Operations" by MIT *   Books: *   "Artificial Intelligence for Manufacturing" by Ben Wang *   "Smart Manufacturing" by David Anderson  Section 2: Learning Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: *   Systems engineering students specializing in manufacturing processes. *   Some familiarity with programming (e.g., Python, MATLAB) and basic statistics. *   Solid understanding of manufacturing processes, control systems, and data analysis. *   Expected Role After Completion: *   Apply AI techniques to improve efficiency, quality, and sustainability in manufacturing operations. *   Design and implement AI-driven solutions for process optimization, predictive maintenance, and quality control. *   Collaborate with AI specialists and domain experts to develop and deploy AI applications in manufacturing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: *   PhD in Manufacturing Systems Engineering or related field. *   Expertise in AI-driven automation, machine learning, and data analytics. *   Experience in teaching and research in manufacturing systems. *   Skills: *   Strong understanding of manufacturing processes and systems engineering principles. *   Proficiency in AI programming languages and tools (e.g., Python, TensorFlow, PyTorch). *   Ability to communicate complex technical concepts to students with diverse backgrounds. *   Teaching Experience: *   Experience in teaching undergraduate and graduate courses in manufacturing systems engineering. *   Familiarity with active learning techniques and project-based learning. </t>
+  </si>
+  <si>
+    <t>*   Resources: *   Budget: Funds for software licenses, hardware resources, and guest speakers. *   Personnel: Teaching assistants and lab technicians. *   Course Duration: One semester (15 weeks). *   Availability of Domain-Specific Data: Access to manufacturing process data from industrial partners or public datasets. *   Access to Software and Hardware: *   AI tools: Python, TensorFlow, PyTorch, Scikit-learn. *   Computing resources: Cloud computing platforms (e.g., AWS, Azure) or high-performance computing clusters. *   Robotics platforms: Industrial robots, sensors, and actuators. *   Institutional Support: *   Collaboration with industry partners for real-world case studies and projects. *   Support for interdisciplinary teaching and research.  Section 3: Course Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of the course, students will be able to: 1.  Explain the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in manufacturing processes. 3.  Apply machine learning techniques to optimize manufacturing processes. 4.  Develop AI-driven solutions for quality control and predictive maintenance. 5.  Design and implement intelligent robotic systems for manufacturing tasks. 6.  Analyze and interpret manufacturing data using AI tools. 7.  Discuss the ethical and social implications of AI in manufacturing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Homework Assignments: *   Applying machine learning algorithms to manufacturing datasets. *   Designing AI-driven solutions for specific manufacturing problems. 2.  Midterm Exam: *   Assessing students' understanding of AI concepts and applications in manufacturing. 3.  Group Project: *   Developing and implementing an AI-driven solution for a real-world manufacturing problem. *   Presenting project findings and demonstrating the effectiveness of the AI solution. 4.  Final Exam: *   Comprehensive assessment of students' knowledge and skills in AI for manufacturing. 5.  Class Participation: *   Engaging in discussions, asking questions, and sharing insights. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world AI applications in manufacturing, such as Tesla's automated production lines or Siemens' predictive maintenance systems. *   Activation: *   Discussing personal experiences with technology in manufacturing and identifying potential AI applications. *   Demonstration: *   Live demonstrations of AI tools and techniques using manufacturing datasets. *   Guest lectures from industry experts on AI applications in manufacturing. *   Application: *   Hands-on labs for applying machine learning algorithms to manufacturing process data. *   Group projects to design and implement AI-driven solutions for specific manufacturing problems. *   Integration: *   Discussing the integration of AI with traditional manufacturing practices. *   Encouraging students to develop proposals for applying AI in their internship or workplace settings. *   Teaching Methods: *   Lectures: Providing foundational knowledge of AI concepts and applications. *   Labs: Hands-on experience with AI tools and techniques. *   Discussions: Engaging students in critical thinking and problem-solving. *   Group Work: Promoting collaboration and teamwork.</t>
+  </si>
+  <si>
+    <t>AI in Teaching_Profession_at_Vocational_Schools.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocational Education *   Definition: Vocational education focuses on practical skills and knowledge for specific trades or professions. AI integration aims to enhance teaching methods, personalize learning, and improve skill assessment in vocational training. *   Relevance: AI is poised to revolutionize vocational education by enabling adaptive learning paths, automating administrative tasks, and providing data-driven insights into student performance and training effectiveness. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  AI-Assisted Curriculum Design: *   Use AI algorithms to analyze industry trends and skills gaps to design relevant and up-to-date curricula. 2.  Automated Skill Assessment: *   Develop AI-powered tools to automatically assess students' skills and provide personalized feedback. 3.  AI in Vocational Training: *   Incorporate AI-driven simulations and virtual reality environments for hands-on training and skill development. 4.  Personalized Learning Paths: *   Create adaptive learning paths tailored to individual student needs and learning styles. 5.  Predictive Analytics for Student Success: *   Use AI to identify students at risk of falling behind and provide targeted interventions. 6.  Intelligent Tutoring Systems: *   Implement AI-powered tutoring systems to provide personalized support and guidance to students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Types of Data: *   Student Learning Progress Data: Records of student performance on assignments, quizzes, and projects. *   Vocational Training Outcomes: Data on student placement rates, job performance, and employer satisfaction. *   Skills Gap Analysis: Information on the skills needed by employers in various industries. *   Significance for AI Applications: *   Student learning progress data enables personalized learning and targeted interventions. *   Vocational training outcomes inform curriculum development and program evaluation. *   Skills gap analysis ensures that training programs are aligned with industry needs. *   Understanding this data enables targeted AI techniques such as predictive modeling for student success and NLP for analyzing student feedback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Ethical Implications: Potential for bias in AI algorithms, privacy concerns related to student data, and the need for transparency and accountability. *   Legal Implications: Compliance with data protection regulations such as GDPR and FERPA, and ensuring fairness and non-discrimination in AI-driven assessments. *   Social Implications: Impact on the role of teachers, the need for retraining and upskilling, and the potential for AI to exacerbate existing inequalities. *   Examples: *   Positive: Improved student outcomes, increased efficiency in training programs, and better alignment with industry needs. *   Negative: Job displacement for teachers, increased reliance on technology, and the potential for AI to reinforce existing biases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Vocational Education Research: Academic papers and reports on the application of AI in vocational training. *   Case Studies on AI-Enhanced Training Programs: Examples of successful AI implementations in vocational schools and training centers. *   Online Courses: Platforms like Coursera, edX, and Udemy offer courses on AI, machine learning, and data science. *   Industry Publications: Reports and articles on the latest trends in AI and vocational education.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Learners: Future vocational school teachers with varying levels of technical expertise. *   Current Level of AI Knowledge and Related Skills: Limited knowledge of AI concepts and programming skills. *   Background in the Domain: Strong understanding of vocational education principles and practices. *   Expected Role After Completing the Course: To effectively integrate AI tools and techniques into their teaching practices, personalize learning experiences, and assess student skills using AI-driven methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Qualifications: A professor of vocational education with expertise in AI-driven learning methodologies. *   AI-Related Skills and Competencies: Knowledge of machine learning algorithms, data analysis techniques, and AI tools for education. *   Domain Expertise: Extensive experience in vocational education, curriculum development, and teacher training. *   Teaching Experience and Pedagogical Skills: Proven ability to engage students, facilitate discussions, and provide hands-on training. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget, personnel, and course duration: Adequate funding for software, hardware, and guest speakers; dedicated support staff; and a semester-long course. *   Availability of domain-specific data: Access to student learning data, vocational training outcomes, and skills gap analysis reports. *   Access to software and hardware: Access to AI tools, computing resources, and virtual reality equipment. *   Institutional support for interdisciplinary teaching: Collaboration with computer science and engineering departments.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   By the end of the course, learners will be able to: 1.  Understand the fundamentals of AI and its potential applications in vocational education. 2.  Identify and evaluate AI tools and techniques for personalized learning and skill assessment. 3.  Design and implement AI-enhanced lesson plans and training programs. 4.  Analyze student learning data to inform instructional decisions and provide targeted feedback. 5.  Address the ethical, legal, and social implications of using AI in vocational education. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Individual Assignments: Case studies on AI applications in vocational education, literature reviews on AI-driven learning methodologies, and ethical analysis of AI in education. 2.  Group Project: Design and implementation of an AI-enhanced training program for a specific vocational skill. 3.  Presentations: Presentation of group project findings and individual research. 4.  Class Participation: Active engagement in discussions and in-class activities. 5.  Final Exam: Comprehensive assessment of course content and learning outcomes. </t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: Case studies on real-world challenges in vocational education and how AI can help solve them. *   Activation: Brainstorming sessions on the potential applications of AI in their own teaching contexts. *   Demonstration: Hands-on demonstrations of AI tools and techniques for personalized learning and skill assessment. *   Application: Design and implementation of AI-enhanced lesson plans and training programs. *   Integration: Discussions on how AI can be integrated into existing vocational education practices and policies. *   Teaching Methods: Lectures, labs, discussions, group work, and guest lectures from industry experts.</t>
+  </si>
+  <si>
+    <t>AI in Visual_Computing.txt</t>
+  </si>
+  <si>
+    <t>Visual Computing  Definition: Visual Computing encompasses the acquisition, analysis, and manipulation of visual information using computational techniques. It includes computer graphics, image processing, computer vision, and visualization. AI enhances these areas by automating tasks, improving accuracy, and enabling new applications. Relevance: AI is revolutionizing visual computing by enabling more realistic rendering, automated image analysis, and intelligent 3D modeling. This has significant implications for industries such as gaming, film, healthcare, and manufacturing.</t>
+  </si>
+  <si>
+    <t>1.  Computer Vision: *   Object detection and recognition in images and videos. *   Image segmentation for identifying regions of interest. *   Facial recognition and analysis. 2.  AI-Powered Image Processing: *   Image enhancement and restoration using deep learning. *   Style transfer and image synthesis. *   Automated image editing and manipulation. 3.  Deep Learning for 3D Modeling: *   Generating 3D models from images or point clouds. *   Automated mesh simplification and optimization. *   AI-driven character animation and simulation. 4.  Medical Imaging: *   Automated diagnosis from X-rays, MRIs, and CT scans. *   Image-guided surgery and treatment planning. 5.  Autonomous Vehicles: *   Scene understanding and object detection for self-driving cars. *   Real-time navigation and path planning.</t>
+  </si>
+  <si>
+    <t>Types of Data: Image and Video Datasets: Large collections of labeled images and videos used for training AI models. Examples include ImageNet, COCO, and YouTube-8M. Computer Graphics Rendering Data: Datasets of 3D models, scenes, and rendering parameters used for training AI models to generate realistic images. Point Clouds and Mesh Data: 3D data representations used for modeling and analysis of objects and environments. Significance for AI Applications: *   Image and video datasets enable training of deep learning models for computer vision tasks. *   Rendering data allows AI models to learn realistic image synthesis and rendering techniques. *   Understanding data characteristics enables targeted AI techniques such as convolutional neural networks (CNNs) for image analysis and generative adversarial networks (GANs) for image synthesis.</t>
+  </si>
+  <si>
+    <t>Ethical Implications: Potential for bias in AI models trained on biased datasets, privacy concerns related to facial recognition, and the creation of deepfakes. Legal Implications: Copyright issues related to AI-generated content, regulations on the use of facial recognition technology, and liability for AI-related errors. Social Implications: Impact on employment in industries such as image editing and animation, the potential for misuse of AI-generated content, and the need for transparency and accountability in AI systems. Examples: Positive: Enhanced medical diagnosis through AI-powered image analysis. Negative: Misinformation and manipulation through deepfakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textbooks: *   "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville. *   "Computer Vision: Algorithms and Applications" by Richard Szeliski. Online Courses: *   Coursera: "Convolutional Neural Networks" by Andrew Ng. *   Udacity: "Computer Vision Nanodegree." Tutorials and Articles: *   TensorFlow tutorials on computer vision. *   PyTorch tutorials on image processing. *   Paperswithcode.com for the latest research in computer vision.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>Learners: Students in computer graphics and AI-powered image analysis. Current Level: Some familiarity with basic programming concepts (e.g., Python), linear algebra, and calculus. Basic understanding of computer graphics principles. Limited prior experience with AI. Expected Role After Completion: Able to apply AI techniques to solve visual computing problems, develop AI-powered image processing tools, and contribute to research in the field.</t>
+  </si>
+  <si>
+    <t>Qualifications: Professor of visual computing with a Ph.D. in Computer Science. AI-Related Skills: Expertise in deep learning, computer vision, and machine learning. Domain Expertise: Extensive experience in computer graphics, image processing, and 3D modeling. Teaching Experience: Several years of experience teaching undergraduate and graduate courses in visual computing and AI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources: *   One semester (15 weeks) course duration. *   Access to high-performance computing resources (GPUs) for training AI models. *   Availability of software tools such as TensorFlow, PyTorch, OpenCV, and Blender. *   Institutional support for interdisciplinary collaboration with other departments (e.g., mathematics, statistics). Constraints: *   Limited budget for purchasing commercial software licenses. *   Potential challenges in accessing large-scale datasets due to privacy concerns.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>*   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and deep learning. 2.  Implement and train convolutional neural networks for image classification, object detection, and image segmentation. 3.  Apply AI techniques to solve practical problems in visual computing, such as image enhancement, style transfer, and 3D reconstruction. 4.  Evaluate the performance of AI models using appropriate metrics. 5.  Critically analyze the ethical and social implications of AI in visual computing.</t>
+  </si>
+  <si>
+    <t>1.  Programming Assignments: Implement AI algorithms for image processing and computer vision tasks. 2.  Midterm Exam: Assess understanding of fundamental concepts and algorithms. 3.  Final Project: Develop an AI-powered application for a specific visual computing problem. 4.  Project Presentation: Present the final project and discuss the results. 5.  Class Participation: Active engagement in discussions and in-class activities.</t>
+  </si>
+  <si>
+    <t>Problem-Centered: *   Case studies on real-world applications of AI in visual computing, such as medical image analysis, autonomous driving, and virtual reality. Activation: *   Discussions on students' prior experiences with visual computing and AI. *   Brainstorming sessions on potential applications of AI in visual computing. Demonstration: *   Live demonstrations of AI algorithms and tools. *   Examples of successful AI-powered visual computing applications. Application: *   Hands-on labs for implementing and training AI models. *   Group projects for developing AI-powered applications. Integration: *   Discussions on the integration of AI with traditional visual computing techniques. *   Guest lectures from industry experts on the latest trends in AI and visual computing. *   Encourage students to think about how to apply the learned skills in their future careers. Teaching Methods: Lectures, labs, discussions, group work.</t>
+  </si>
+  <si>
+    <t>AI in Vocational_Education.txt</t>
+  </si>
+  <si>
+    <t>Company Training and Vocational Education Management Development *   Definition: The application of AI to enhance the effectiveness and efficiency of training programs within companies and vocational institutions. This involves using AI to personalize learning experiences, automate administrative tasks, and optimize resource allocation. *   Relevance: AI is transforming traditional training methods by providing data-driven insights into learner performance, enabling adaptive learning paths, and reducing the time and cost associated with manual training processes.</t>
+  </si>
+  <si>
+    <t>1.  AI-Driven Training Programs: *   Use AI to create dynamic training content that adapts to individual learner needs and skill levels. 2.  Personalized Learning Paths: *   Develop AI algorithms that analyze learner data to recommend customized learning paths and resources. 3.  Automated Assessment Systems: *   Implement AI-powered assessment tools that automatically evaluate learner performance and provide feedback. 4.  Skill Gap Analysis: *   Employ AI to identify skill gaps within an organization and recommend targeted training interventions. 5.  Predictive Learning Analytics: *   Use AI to predict learner success and identify at-risk students who may require additional support. 6.  Intelligent Tutoring Systems: *   Develop AI tutors that provide personalized instruction and guidance to learners.</t>
+  </si>
+  <si>
+    <t>*   Types of Data: *   Employee Training Records: Completion rates, assessment scores, feedback surveys. *   Learning Analytics: Time spent on modules, interaction patterns, resource utilization. *   Skill Development Databases: Skill inventories, competency frameworks, job role requirements. *   Performance Reviews: Employee performance metrics, manager feedback, career progression data. *   Significance for AI Applications: *   Training records enable personalized learning recommendations and performance tracking. *   Learning analytics provide insights into learner behavior and content effectiveness. *   Skill databases facilitate skill gap analysis and targeted training interventions. *   Performance data allows for correlating training outcomes with job performance. *   Understanding this data enables targeted AI techniques like: *   Recommendation systems for personalized content delivery. *   Predictive modeling for identifying at-risk learners. *   Natural language processing for analyzing feedback and generating personalized responses.</t>
+  </si>
+  <si>
+    <t>*   Ethical Implications: Potential for bias in AI algorithms, data privacy concerns, and transparency issues. *   Legal Implications: Compliance with data protection regulations (e.g., GDPR, CCPA) and ensuring fairness in AI-driven assessments. *   Social Implications: Changes in the role of trainers and educators, potential job displacement due to automation, and the need for upskilling and reskilling initiatives. *   Examples: *   Positive: Enhanced learning outcomes through personalized instruction. *   Negative: Algorithmic bias leading to unfair assessment or training opportunities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Research Papers: Publications on AI in education and corporate training. *   Case Studies: Examples of successful AI implementations in corporate learning systems. *   Industry Reports: Analyses of trends and best practices in AI-driven training. *   Online Courses: Platforms like Coursera, Udemy, and LinkedIn Learning offering courses on AI in education and training. *   Books: Texts on AI, machine learning, and their applications in education and training.  Section 2: Learning Environment </t>
+  </si>
+  <si>
+    <t>*   Learners: *   HR professionals and corporate trainers with varying levels of technical expertise. *   Background in adult learning principles, instructional design, and talent development. *   Limited prior experience with AI and machine learning concepts. *   Expected Role After Completion: *   Ability to identify and implement AI-driven solutions to improve training effectiveness. *   Capacity to analyze and interpret data generated by AI-powered learning systems. *   Skills to design and deliver personalized learning experiences using AI tools. *   Understanding of the ethical and legal considerations of using AI in training.</t>
+  </si>
+  <si>
+    <t>*   Qualifications: *   Expertise in corporate training, instructional design, and adult learning principles. *   Deep understanding of AI and machine learning concepts, algorithms, and applications. *   Experience in developing and implementing AI-driven educational technologies. *   Skills: *   Ability to bridge the gap between technical AI concepts and practical training applications. *   Strong communication and presentation skills to effectively convey complex information. *   Experience in facilitating hands-on workshops and interactive learning sessions. *   Familiarity with various AI tools and platforms relevant to corporate training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   Resources: *   Budget for software licenses, data acquisition, and expert consultation. *   Personnel support for technical assistance, data analysis, and instructional design. *   Course duration: One semester (12-14 weeks) *   Availability of domain-specific data (employee training records, learning analytics). *   Access to software and hardware (AI tools, cloud computing resources). *   Institutional support for interdisciplinary teaching and collaboration with AI experts. *   Constraints: *   Limited technical expertise among learners and instructors. *   Concerns about data privacy and security. *   Resistance to change and adoption of new technologies.  Section 3: Course Implementation </t>
+  </si>
+  <si>
+    <t>*   By the end of the course, learners will be able to: 1.  Describe the fundamental concepts of AI and machine learning. 2.  Identify and evaluate potential AI applications in corporate training and vocational education. 3.  Analyze and interpret data generated by AI-powered learning systems. 4.  Design and develop personalized learning experiences using AI tools. 5.  Implement and manage AI-driven training programs effectively. 6.  Assess the ethical, legal, and social implications of using AI in training.</t>
+  </si>
+  <si>
+    <t>1.  Individual Assignments: *   Case study analysis of AI implementations in corporate training. *   Research paper on a specific AI application in education. 2.  Group Project: *   Development of an AI-driven training program for a specific skill or competency. 3.  Quizzes: *   Regular assessments of key AI concepts and applications. 4.  Final Presentation: *   Presentation of the group project and its potential impact on training effectiveness. 5.  Class Participation: *   Active engagement in discussions, debates, and hands-on activities.</t>
+  </si>
+  <si>
+    <t>*   Problem-Centered: *   Case studies on real-world challenges in corporate training and how AI can address them. *   Activation: *   Brainstorming sessions on personal experiences with training programs and identifying areas for improvement using AI. *   Demonstration: *   Live demonstrations of AI tools and platforms used in corporate learning. *   Application: *   Hands-on labs for designing personalized learning paths and developing AI-driven assessments. *   Integration: *   Discussions on how AI can complement traditional training methods and enhance the overall learning experience. *   Encourage learners to develop proposals for applying AI in their workplace settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*   AI in Computer Vision Research: *   Papers from conferences like CVPR, ICCV, and ECCV. *   Online Courses on AI-Driven Visual Computing: *   Coursera: "Convolutional Neural Networks" by Andrew Ng. *   Udacity: "Computer Vision Nanodegree." *   edX: "Artificial Intelligence" by Columbia University. *   Books: *   "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville. *   "Computer Vision: Algorithms and Applications" by Richard Szeliski. *   "Multiple View Geometry in Computer Vision" by Richard Hartley and Andrew Zisserman.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Learners: *   Students in computer science and multimedia technology programs. *   Varying levels of programming and mathematical skills. *   Some familiarity with computer graphics concepts. *   Expected Role After Completion: *   Understand and apply AI techniques to solve problems in visual computing. *   Contribute to the development of AI-powered visual tools and applications. *   Critically evaluate the ethical and social implications of AI in the field.</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +3260,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1170,16 +3303,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1485,1278 +3626,4478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="14" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>363</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45715</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>1073</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" t="s">
-        <v>350</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45716</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45717</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>1073</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45718</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>1073</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45719</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>1073</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45720</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>1073</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45721</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>1073</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45722</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>1073</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45723</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>1073</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" t="s">
-        <v>352</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45724</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>1073</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="M11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45725</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>1073</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" t="s">
-        <v>354</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45726</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>1073</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45727</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>1073</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45728</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>1073</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45729</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>1073</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="M16" t="s">
+        <v>193</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45730</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>1073</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" t="s">
-        <v>183</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45731</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>1073</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="M18" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" t="s">
+        <v>218</v>
+      </c>
+      <c r="O18" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" t="s">
-        <v>194</v>
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45732</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>1073</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>356</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45733</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>1073</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="M20" t="s">
+        <v>241</v>
+      </c>
+      <c r="N20" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45734</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>1073</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H21" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" t="s">
+        <v>254</v>
+      </c>
+      <c r="O21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" t="s">
-        <v>225</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45735</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>1073</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="M22" t="s">
+        <v>265</v>
+      </c>
+      <c r="N22" t="s">
+        <v>266</v>
+      </c>
+      <c r="O22" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" t="s">
-        <v>236</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45736</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>1073</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="M23" t="s">
+        <v>277</v>
+      </c>
+      <c r="N23" t="s">
+        <v>278</v>
+      </c>
+      <c r="O23" t="s">
+        <v>279</v>
+      </c>
+      <c r="P23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" t="s">
-        <v>247</v>
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45737</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>1073</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="M24" t="s">
+        <v>289</v>
+      </c>
+      <c r="N24" t="s">
+        <v>290</v>
+      </c>
+      <c r="O24" t="s">
+        <v>291</v>
+      </c>
+      <c r="P24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" t="s">
-        <v>258</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45738</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>1073</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="J25" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="L25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="M25" t="s">
+        <v>301</v>
+      </c>
+      <c r="N25" t="s">
+        <v>302</v>
+      </c>
+      <c r="O25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" t="s">
-        <v>269</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45739</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>1073</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H26" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="M26" t="s">
+        <v>313</v>
+      </c>
+      <c r="N26" t="s">
+        <v>314</v>
+      </c>
+      <c r="O26" t="s">
+        <v>315</v>
+      </c>
+      <c r="P26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" t="s">
-        <v>280</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45740</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>1073</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G27" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H27" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="L27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="M27" t="s">
+        <v>324</v>
+      </c>
+      <c r="N27" t="s">
+        <v>325</v>
+      </c>
+      <c r="O27" t="s">
+        <v>326</v>
+      </c>
+      <c r="P27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" t="s">
-        <v>358</v>
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45741</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>1073</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="M28" t="s">
+        <v>336</v>
+      </c>
+      <c r="N28" t="s">
+        <v>337</v>
+      </c>
+      <c r="O28" t="s">
+        <v>338</v>
+      </c>
+      <c r="P28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" t="s">
-        <v>360</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45742</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>1073</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G29" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="M29" t="s">
+        <v>348</v>
+      </c>
+      <c r="N29" t="s">
+        <v>349</v>
+      </c>
+      <c r="O29" t="s">
+        <v>350</v>
+      </c>
+      <c r="P29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
-      </c>
-      <c r="D30" t="s">
-        <v>309</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45743</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>1073</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="I30" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="J30" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="K30" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="L30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="M30" t="s">
+        <v>360</v>
+      </c>
+      <c r="N30" t="s">
+        <v>361</v>
+      </c>
+      <c r="O30" t="s">
+        <v>362</v>
+      </c>
+      <c r="P30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" t="s">
-        <v>320</v>
+        <v>17</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45744</v>
       </c>
       <c r="E31" t="s">
-        <v>321</v>
+        <v>1073</v>
       </c>
       <c r="F31" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="H31" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="I31" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="J31" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="K31" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="L31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="M31" t="s">
+        <v>372</v>
+      </c>
+      <c r="N31" t="s">
+        <v>373</v>
+      </c>
+      <c r="O31" t="s">
+        <v>374</v>
+      </c>
+      <c r="P31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C32" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" t="s">
-        <v>362</v>
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45745</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>1073</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="I32" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="J32" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="K32" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="L32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="M32" t="s">
+        <v>384</v>
+      </c>
+      <c r="N32" t="s">
+        <v>385</v>
+      </c>
+      <c r="O32" t="s">
+        <v>386</v>
+      </c>
+      <c r="P32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" t="s">
-        <v>340</v>
+        <v>17</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45746</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>1073</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="G33" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="H33" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="I33" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="J33" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="K33" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="L33" t="s">
-        <v>348</v>
+        <v>395</v>
+      </c>
+      <c r="M33" t="s">
+        <v>396</v>
+      </c>
+      <c r="N33" t="s">
+        <v>397</v>
+      </c>
+      <c r="O33" t="s">
+        <v>398</v>
+      </c>
+      <c r="P33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" t="s">
+        <v>403</v>
+      </c>
+      <c r="H34" t="s">
+        <v>404</v>
+      </c>
+      <c r="I34" t="s">
+        <v>405</v>
+      </c>
+      <c r="J34" t="s">
+        <v>406</v>
+      </c>
+      <c r="K34" t="s">
+        <v>407</v>
+      </c>
+      <c r="L34" t="s">
+        <v>408</v>
+      </c>
+      <c r="M34" t="s">
+        <v>409</v>
+      </c>
+      <c r="N34" t="s">
+        <v>410</v>
+      </c>
+      <c r="O34" t="s">
+        <v>411</v>
+      </c>
+      <c r="P34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F35" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" t="s">
+        <v>416</v>
+      </c>
+      <c r="I35" t="s">
+        <v>417</v>
+      </c>
+      <c r="J35" t="s">
+        <v>418</v>
+      </c>
+      <c r="K35" t="s">
+        <v>419</v>
+      </c>
+      <c r="L35" t="s">
+        <v>420</v>
+      </c>
+      <c r="M35" t="s">
+        <v>421</v>
+      </c>
+      <c r="N35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G36" t="s">
+        <v>427</v>
+      </c>
+      <c r="H36" t="s">
+        <v>428</v>
+      </c>
+      <c r="I36" t="s">
+        <v>429</v>
+      </c>
+      <c r="J36" t="s">
+        <v>430</v>
+      </c>
+      <c r="K36" t="s">
+        <v>431</v>
+      </c>
+      <c r="L36" t="s">
+        <v>432</v>
+      </c>
+      <c r="M36" t="s">
+        <v>433</v>
+      </c>
+      <c r="N36" t="s">
+        <v>434</v>
+      </c>
+      <c r="O36" t="s">
+        <v>435</v>
+      </c>
+      <c r="P36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F37" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" t="s">
+        <v>439</v>
+      </c>
+      <c r="H37" t="s">
+        <v>440</v>
+      </c>
+      <c r="I37" t="s">
+        <v>441</v>
+      </c>
+      <c r="J37" t="s">
+        <v>442</v>
+      </c>
+      <c r="K37" t="s">
+        <v>443</v>
+      </c>
+      <c r="L37" t="s">
+        <v>444</v>
+      </c>
+      <c r="M37" t="s">
+        <v>445</v>
+      </c>
+      <c r="N37" t="s">
+        <v>446</v>
+      </c>
+      <c r="O37" t="s">
+        <v>447</v>
+      </c>
+      <c r="P37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F38" t="s">
+        <v>450</v>
+      </c>
+      <c r="G38" t="s">
+        <v>451</v>
+      </c>
+      <c r="H38" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" t="s">
+        <v>453</v>
+      </c>
+      <c r="J38" t="s">
+        <v>454</v>
+      </c>
+      <c r="K38" t="s">
+        <v>455</v>
+      </c>
+      <c r="L38" t="s">
+        <v>456</v>
+      </c>
+      <c r="M38" t="s">
+        <v>457</v>
+      </c>
+      <c r="N38" t="s">
+        <v>458</v>
+      </c>
+      <c r="O38" t="s">
+        <v>459</v>
+      </c>
+      <c r="P38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F39" t="s">
+        <v>462</v>
+      </c>
+      <c r="G39" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" t="s">
+        <v>464</v>
+      </c>
+      <c r="I39" t="s">
+        <v>465</v>
+      </c>
+      <c r="J39" t="s">
+        <v>466</v>
+      </c>
+      <c r="K39" t="s">
+        <v>467</v>
+      </c>
+      <c r="L39" t="s">
+        <v>468</v>
+      </c>
+      <c r="M39" t="s">
+        <v>469</v>
+      </c>
+      <c r="N39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O39" t="s">
+        <v>471</v>
+      </c>
+      <c r="P39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F40" t="s">
+        <v>474</v>
+      </c>
+      <c r="G40" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40" t="s">
+        <v>476</v>
+      </c>
+      <c r="I40" t="s">
+        <v>477</v>
+      </c>
+      <c r="J40" t="s">
+        <v>478</v>
+      </c>
+      <c r="K40" t="s">
+        <v>479</v>
+      </c>
+      <c r="L40" t="s">
+        <v>480</v>
+      </c>
+      <c r="M40" t="s">
+        <v>481</v>
+      </c>
+      <c r="N40" t="s">
+        <v>482</v>
+      </c>
+      <c r="O40" t="s">
+        <v>483</v>
+      </c>
+      <c r="P40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F41" t="s">
+        <v>486</v>
+      </c>
+      <c r="G41" t="s">
+        <v>487</v>
+      </c>
+      <c r="H41" t="s">
+        <v>488</v>
+      </c>
+      <c r="I41" t="s">
+        <v>489</v>
+      </c>
+      <c r="J41" t="s">
+        <v>490</v>
+      </c>
+      <c r="K41" t="s">
+        <v>491</v>
+      </c>
+      <c r="L41" t="s">
+        <v>492</v>
+      </c>
+      <c r="M41" t="s">
+        <v>493</v>
+      </c>
+      <c r="N41" t="s">
+        <v>494</v>
+      </c>
+      <c r="O41" t="s">
+        <v>495</v>
+      </c>
+      <c r="P41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F42" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" t="s">
+        <v>499</v>
+      </c>
+      <c r="H42" t="s">
+        <v>500</v>
+      </c>
+      <c r="I42" t="s">
+        <v>501</v>
+      </c>
+      <c r="J42" t="s">
+        <v>502</v>
+      </c>
+      <c r="K42" t="s">
+        <v>503</v>
+      </c>
+      <c r="L42" t="s">
+        <v>504</v>
+      </c>
+      <c r="M42" t="s">
+        <v>505</v>
+      </c>
+      <c r="N42" t="s">
+        <v>506</v>
+      </c>
+      <c r="O42" t="s">
+        <v>507</v>
+      </c>
+      <c r="P42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F43" t="s">
+        <v>510</v>
+      </c>
+      <c r="G43" t="s">
+        <v>511</v>
+      </c>
+      <c r="H43" t="s">
+        <v>512</v>
+      </c>
+      <c r="I43" t="s">
+        <v>513</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L43" t="s">
+        <v>514</v>
+      </c>
+      <c r="M43" t="s">
+        <v>515</v>
+      </c>
+      <c r="N43" t="s">
+        <v>516</v>
+      </c>
+      <c r="O43" t="s">
+        <v>517</v>
+      </c>
+      <c r="P43" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>519</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F44" t="s">
+        <v>520</v>
+      </c>
+      <c r="G44" t="s">
+        <v>521</v>
+      </c>
+      <c r="H44" t="s">
+        <v>522</v>
+      </c>
+      <c r="I44" t="s">
+        <v>523</v>
+      </c>
+      <c r="J44" t="s">
+        <v>524</v>
+      </c>
+      <c r="K44" t="s">
+        <v>525</v>
+      </c>
+      <c r="L44" t="s">
+        <v>526</v>
+      </c>
+      <c r="M44" t="s">
+        <v>527</v>
+      </c>
+      <c r="N44" t="s">
+        <v>528</v>
+      </c>
+      <c r="O44" t="s">
+        <v>529</v>
+      </c>
+      <c r="P44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>531</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F45" t="s">
+        <v>532</v>
+      </c>
+      <c r="G45" t="s">
+        <v>533</v>
+      </c>
+      <c r="H45" t="s">
+        <v>534</v>
+      </c>
+      <c r="I45" t="s">
+        <v>535</v>
+      </c>
+      <c r="J45" t="s">
+        <v>536</v>
+      </c>
+      <c r="K45" t="s">
+        <v>537</v>
+      </c>
+      <c r="L45" t="s">
+        <v>538</v>
+      </c>
+      <c r="M45" t="s">
+        <v>539</v>
+      </c>
+      <c r="N45" t="s">
+        <v>540</v>
+      </c>
+      <c r="O45" t="s">
+        <v>541</v>
+      </c>
+      <c r="P45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G46" t="s">
+        <v>545</v>
+      </c>
+      <c r="H46" t="s">
+        <v>546</v>
+      </c>
+      <c r="I46" t="s">
+        <v>547</v>
+      </c>
+      <c r="J46" t="s">
+        <v>548</v>
+      </c>
+      <c r="K46" t="s">
+        <v>549</v>
+      </c>
+      <c r="L46" t="s">
+        <v>550</v>
+      </c>
+      <c r="M46" t="s">
+        <v>551</v>
+      </c>
+      <c r="N46" t="s">
+        <v>552</v>
+      </c>
+      <c r="O46" t="s">
+        <v>553</v>
+      </c>
+      <c r="P46" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>555</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F47" t="s">
+        <v>556</v>
+      </c>
+      <c r="G47" t="s">
+        <v>557</v>
+      </c>
+      <c r="H47" t="s">
+        <v>558</v>
+      </c>
+      <c r="I47" t="s">
+        <v>559</v>
+      </c>
+      <c r="J47" t="s">
+        <v>560</v>
+      </c>
+      <c r="K47" t="s">
+        <v>561</v>
+      </c>
+      <c r="L47" t="s">
+        <v>562</v>
+      </c>
+      <c r="M47" t="s">
+        <v>563</v>
+      </c>
+      <c r="N47" t="s">
+        <v>564</v>
+      </c>
+      <c r="O47" t="s">
+        <v>565</v>
+      </c>
+      <c r="P47" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>567</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F48" t="s">
+        <v>568</v>
+      </c>
+      <c r="G48" t="s">
+        <v>569</v>
+      </c>
+      <c r="H48" t="s">
+        <v>570</v>
+      </c>
+      <c r="I48" t="s">
+        <v>571</v>
+      </c>
+      <c r="J48" t="s">
+        <v>572</v>
+      </c>
+      <c r="K48" t="s">
+        <v>573</v>
+      </c>
+      <c r="L48" t="s">
+        <v>574</v>
+      </c>
+      <c r="M48" t="s">
+        <v>575</v>
+      </c>
+      <c r="N48" t="s">
+        <v>576</v>
+      </c>
+      <c r="O48" t="s">
+        <v>577</v>
+      </c>
+      <c r="P48" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>579</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F49" t="s">
+        <v>580</v>
+      </c>
+      <c r="G49" t="s">
+        <v>581</v>
+      </c>
+      <c r="H49" t="s">
+        <v>582</v>
+      </c>
+      <c r="I49" t="s">
+        <v>583</v>
+      </c>
+      <c r="J49" t="s">
+        <v>584</v>
+      </c>
+      <c r="K49" t="s">
+        <v>585</v>
+      </c>
+      <c r="L49" t="s">
+        <v>586</v>
+      </c>
+      <c r="M49" t="s">
+        <v>587</v>
+      </c>
+      <c r="N49" t="s">
+        <v>588</v>
+      </c>
+      <c r="O49" t="s">
+        <v>589</v>
+      </c>
+      <c r="P49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F50" t="s">
+        <v>592</v>
+      </c>
+      <c r="G50" t="s">
+        <v>593</v>
+      </c>
+      <c r="H50" t="s">
+        <v>594</v>
+      </c>
+      <c r="I50" t="s">
+        <v>595</v>
+      </c>
+      <c r="J50" t="s">
+        <v>596</v>
+      </c>
+      <c r="K50" t="s">
+        <v>597</v>
+      </c>
+      <c r="L50" t="s">
+        <v>598</v>
+      </c>
+      <c r="M50" t="s">
+        <v>599</v>
+      </c>
+      <c r="N50" t="s">
+        <v>600</v>
+      </c>
+      <c r="O50" t="s">
+        <v>601</v>
+      </c>
+      <c r="P50" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>603</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F51" t="s">
+        <v>604</v>
+      </c>
+      <c r="G51" t="s">
+        <v>605</v>
+      </c>
+      <c r="H51" t="s">
+        <v>606</v>
+      </c>
+      <c r="I51" t="s">
+        <v>607</v>
+      </c>
+      <c r="J51" t="s">
+        <v>608</v>
+      </c>
+      <c r="K51" t="s">
+        <v>609</v>
+      </c>
+      <c r="L51" t="s">
+        <v>610</v>
+      </c>
+      <c r="M51" t="s">
+        <v>611</v>
+      </c>
+      <c r="N51" t="s">
+        <v>612</v>
+      </c>
+      <c r="O51" t="s">
+        <v>613</v>
+      </c>
+      <c r="P51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F52" t="s">
+        <v>616</v>
+      </c>
+      <c r="G52" t="s">
+        <v>617</v>
+      </c>
+      <c r="H52" t="s">
+        <v>618</v>
+      </c>
+      <c r="I52" t="s">
+        <v>619</v>
+      </c>
+      <c r="J52" t="s">
+        <v>620</v>
+      </c>
+      <c r="K52" t="s">
+        <v>621</v>
+      </c>
+      <c r="L52" t="s">
+        <v>622</v>
+      </c>
+      <c r="M52" t="s">
+        <v>623</v>
+      </c>
+      <c r="N52" t="s">
+        <v>624</v>
+      </c>
+      <c r="O52" t="s">
+        <v>625</v>
+      </c>
+      <c r="P52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>627</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F53" t="s">
+        <v>628</v>
+      </c>
+      <c r="G53" t="s">
+        <v>629</v>
+      </c>
+      <c r="H53" t="s">
+        <v>630</v>
+      </c>
+      <c r="I53" t="s">
+        <v>631</v>
+      </c>
+      <c r="J53" t="s">
+        <v>632</v>
+      </c>
+      <c r="K53" t="s">
+        <v>633</v>
+      </c>
+      <c r="L53" t="s">
+        <v>634</v>
+      </c>
+      <c r="M53" t="s">
+        <v>635</v>
+      </c>
+      <c r="N53" t="s">
+        <v>636</v>
+      </c>
+      <c r="O53" t="s">
+        <v>637</v>
+      </c>
+      <c r="P53" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>639</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F54" t="s">
+        <v>640</v>
+      </c>
+      <c r="G54" t="s">
+        <v>641</v>
+      </c>
+      <c r="H54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I54" t="s">
+        <v>643</v>
+      </c>
+      <c r="J54" t="s">
+        <v>644</v>
+      </c>
+      <c r="K54" t="s">
+        <v>645</v>
+      </c>
+      <c r="L54" t="s">
+        <v>646</v>
+      </c>
+      <c r="M54" t="s">
+        <v>647</v>
+      </c>
+      <c r="N54" t="s">
+        <v>648</v>
+      </c>
+      <c r="O54" t="s">
+        <v>649</v>
+      </c>
+      <c r="P54" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>651</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F55" t="s">
+        <v>652</v>
+      </c>
+      <c r="G55" t="s">
+        <v>653</v>
+      </c>
+      <c r="H55" t="s">
+        <v>654</v>
+      </c>
+      <c r="I55" t="s">
+        <v>655</v>
+      </c>
+      <c r="J55" t="s">
+        <v>656</v>
+      </c>
+      <c r="K55" t="s">
+        <v>657</v>
+      </c>
+      <c r="L55" t="s">
+        <v>658</v>
+      </c>
+      <c r="M55" t="s">
+        <v>659</v>
+      </c>
+      <c r="N55" t="s">
+        <v>660</v>
+      </c>
+      <c r="O55" t="s">
+        <v>661</v>
+      </c>
+      <c r="P55" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>663</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F56" t="s">
+        <v>664</v>
+      </c>
+      <c r="G56" t="s">
+        <v>665</v>
+      </c>
+      <c r="H56" t="s">
+        <v>666</v>
+      </c>
+      <c r="I56" t="s">
+        <v>667</v>
+      </c>
+      <c r="J56" t="s">
+        <v>668</v>
+      </c>
+      <c r="K56" t="s">
+        <v>669</v>
+      </c>
+      <c r="L56" t="s">
+        <v>670</v>
+      </c>
+      <c r="M56" t="s">
+        <v>671</v>
+      </c>
+      <c r="N56" t="s">
+        <v>672</v>
+      </c>
+      <c r="O56" t="s">
+        <v>673</v>
+      </c>
+      <c r="P56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>675</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F57" t="s">
+        <v>676</v>
+      </c>
+      <c r="G57" t="s">
+        <v>677</v>
+      </c>
+      <c r="H57" t="s">
+        <v>678</v>
+      </c>
+      <c r="I57" t="s">
+        <v>679</v>
+      </c>
+      <c r="J57" t="s">
+        <v>680</v>
+      </c>
+      <c r="K57" t="s">
+        <v>681</v>
+      </c>
+      <c r="L57" t="s">
+        <v>682</v>
+      </c>
+      <c r="M57" t="s">
+        <v>683</v>
+      </c>
+      <c r="N57" t="s">
+        <v>684</v>
+      </c>
+      <c r="O57" t="s">
+        <v>685</v>
+      </c>
+      <c r="P57" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>687</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F58" t="s">
+        <v>688</v>
+      </c>
+      <c r="G58" t="s">
+        <v>689</v>
+      </c>
+      <c r="H58" t="s">
+        <v>690</v>
+      </c>
+      <c r="I58" t="s">
+        <v>691</v>
+      </c>
+      <c r="J58" t="s">
+        <v>692</v>
+      </c>
+      <c r="K58" t="s">
+        <v>693</v>
+      </c>
+      <c r="L58" t="s">
+        <v>694</v>
+      </c>
+      <c r="M58" t="s">
+        <v>695</v>
+      </c>
+      <c r="N58" t="s">
+        <v>696</v>
+      </c>
+      <c r="O58" t="s">
+        <v>697</v>
+      </c>
+      <c r="P58" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>699</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F59" t="s">
+        <v>700</v>
+      </c>
+      <c r="G59" t="s">
+        <v>701</v>
+      </c>
+      <c r="H59" t="s">
+        <v>702</v>
+      </c>
+      <c r="I59" t="s">
+        <v>703</v>
+      </c>
+      <c r="J59" t="s">
+        <v>704</v>
+      </c>
+      <c r="K59" t="s">
+        <v>705</v>
+      </c>
+      <c r="L59" t="s">
+        <v>706</v>
+      </c>
+      <c r="M59" t="s">
+        <v>707</v>
+      </c>
+      <c r="N59" t="s">
+        <v>708</v>
+      </c>
+      <c r="O59" t="s">
+        <v>709</v>
+      </c>
+      <c r="P59" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>711</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F60" t="s">
+        <v>712</v>
+      </c>
+      <c r="G60" t="s">
+        <v>713</v>
+      </c>
+      <c r="H60" t="s">
+        <v>714</v>
+      </c>
+      <c r="I60" t="s">
+        <v>715</v>
+      </c>
+      <c r="J60" t="s">
+        <v>716</v>
+      </c>
+      <c r="K60" t="s">
+        <v>717</v>
+      </c>
+      <c r="L60" t="s">
+        <v>718</v>
+      </c>
+      <c r="M60" t="s">
+        <v>719</v>
+      </c>
+      <c r="N60" t="s">
+        <v>720</v>
+      </c>
+      <c r="O60" t="s">
+        <v>721</v>
+      </c>
+      <c r="P60" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>723</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F61" t="s">
+        <v>724</v>
+      </c>
+      <c r="G61" t="s">
+        <v>725</v>
+      </c>
+      <c r="H61" t="s">
+        <v>726</v>
+      </c>
+      <c r="I61" t="s">
+        <v>727</v>
+      </c>
+      <c r="J61" t="s">
+        <v>728</v>
+      </c>
+      <c r="K61" t="s">
+        <v>729</v>
+      </c>
+      <c r="L61" t="s">
+        <v>730</v>
+      </c>
+      <c r="M61" t="s">
+        <v>731</v>
+      </c>
+      <c r="N61" t="s">
+        <v>732</v>
+      </c>
+      <c r="O61" t="s">
+        <v>733</v>
+      </c>
+      <c r="P61" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>735</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F62" t="s">
+        <v>736</v>
+      </c>
+      <c r="G62" t="s">
+        <v>737</v>
+      </c>
+      <c r="H62" t="s">
+        <v>738</v>
+      </c>
+      <c r="I62" t="s">
+        <v>739</v>
+      </c>
+      <c r="J62" t="s">
+        <v>740</v>
+      </c>
+      <c r="K62" t="s">
+        <v>741</v>
+      </c>
+      <c r="L62" t="s">
+        <v>742</v>
+      </c>
+      <c r="M62" t="s">
+        <v>743</v>
+      </c>
+      <c r="N62" t="s">
+        <v>744</v>
+      </c>
+      <c r="O62" t="s">
+        <v>745</v>
+      </c>
+      <c r="P62" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>747</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F63" t="s">
+        <v>748</v>
+      </c>
+      <c r="G63" t="s">
+        <v>749</v>
+      </c>
+      <c r="H63" t="s">
+        <v>750</v>
+      </c>
+      <c r="I63" t="s">
+        <v>751</v>
+      </c>
+      <c r="J63" t="s">
+        <v>752</v>
+      </c>
+      <c r="K63" t="s">
+        <v>753</v>
+      </c>
+      <c r="L63" t="s">
+        <v>754</v>
+      </c>
+      <c r="M63" t="s">
+        <v>755</v>
+      </c>
+      <c r="N63" t="s">
+        <v>756</v>
+      </c>
+      <c r="O63" t="s">
+        <v>757</v>
+      </c>
+      <c r="P63" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>759</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F64" t="s">
+        <v>760</v>
+      </c>
+      <c r="G64" t="s">
+        <v>761</v>
+      </c>
+      <c r="H64" t="s">
+        <v>762</v>
+      </c>
+      <c r="I64" t="s">
+        <v>763</v>
+      </c>
+      <c r="J64" t="s">
+        <v>764</v>
+      </c>
+      <c r="K64" t="s">
+        <v>765</v>
+      </c>
+      <c r="L64" t="s">
+        <v>766</v>
+      </c>
+      <c r="M64" t="s">
+        <v>767</v>
+      </c>
+      <c r="N64" t="s">
+        <v>768</v>
+      </c>
+      <c r="O64" t="s">
+        <v>769</v>
+      </c>
+      <c r="P64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>771</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F65" t="s">
+        <v>772</v>
+      </c>
+      <c r="G65" t="s">
+        <v>773</v>
+      </c>
+      <c r="H65" t="s">
+        <v>774</v>
+      </c>
+      <c r="I65" t="s">
+        <v>775</v>
+      </c>
+      <c r="J65" t="s">
+        <v>776</v>
+      </c>
+      <c r="K65" t="s">
+        <v>777</v>
+      </c>
+      <c r="L65" t="s">
+        <v>778</v>
+      </c>
+      <c r="M65" t="s">
+        <v>779</v>
+      </c>
+      <c r="N65" t="s">
+        <v>780</v>
+      </c>
+      <c r="O65" t="s">
+        <v>781</v>
+      </c>
+      <c r="P65" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>783</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F66" t="s">
+        <v>784</v>
+      </c>
+      <c r="G66" t="s">
+        <v>785</v>
+      </c>
+      <c r="H66" t="s">
+        <v>786</v>
+      </c>
+      <c r="I66" t="s">
+        <v>787</v>
+      </c>
+      <c r="J66" t="s">
+        <v>788</v>
+      </c>
+      <c r="K66" t="s">
+        <v>789</v>
+      </c>
+      <c r="L66" t="s">
+        <v>790</v>
+      </c>
+      <c r="M66" t="s">
+        <v>791</v>
+      </c>
+      <c r="N66" t="s">
+        <v>792</v>
+      </c>
+      <c r="O66" t="s">
+        <v>793</v>
+      </c>
+      <c r="P66" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>795</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F67" t="s">
+        <v>796</v>
+      </c>
+      <c r="G67" t="s">
+        <v>797</v>
+      </c>
+      <c r="H67" t="s">
+        <v>798</v>
+      </c>
+      <c r="I67" t="s">
+        <v>799</v>
+      </c>
+      <c r="J67" t="s">
+        <v>800</v>
+      </c>
+      <c r="K67" t="s">
+        <v>801</v>
+      </c>
+      <c r="L67" t="s">
+        <v>802</v>
+      </c>
+      <c r="M67" t="s">
+        <v>803</v>
+      </c>
+      <c r="N67" t="s">
+        <v>804</v>
+      </c>
+      <c r="O67" t="s">
+        <v>805</v>
+      </c>
+      <c r="P67" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>807</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F68" t="s">
+        <v>808</v>
+      </c>
+      <c r="G68" t="s">
+        <v>809</v>
+      </c>
+      <c r="H68" t="s">
+        <v>810</v>
+      </c>
+      <c r="I68" t="s">
+        <v>811</v>
+      </c>
+      <c r="J68" t="s">
+        <v>812</v>
+      </c>
+      <c r="K68" t="s">
+        <v>813</v>
+      </c>
+      <c r="L68" t="s">
+        <v>814</v>
+      </c>
+      <c r="M68" t="s">
+        <v>815</v>
+      </c>
+      <c r="N68" t="s">
+        <v>816</v>
+      </c>
+      <c r="O68" t="s">
+        <v>817</v>
+      </c>
+      <c r="P68" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>819</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F69" t="s">
+        <v>820</v>
+      </c>
+      <c r="G69" t="s">
+        <v>821</v>
+      </c>
+      <c r="H69" t="s">
+        <v>822</v>
+      </c>
+      <c r="I69" t="s">
+        <v>823</v>
+      </c>
+      <c r="J69" t="s">
+        <v>824</v>
+      </c>
+      <c r="K69" t="s">
+        <v>825</v>
+      </c>
+      <c r="L69" t="s">
+        <v>826</v>
+      </c>
+      <c r="M69" t="s">
+        <v>827</v>
+      </c>
+      <c r="N69" t="s">
+        <v>828</v>
+      </c>
+      <c r="O69" t="s">
+        <v>829</v>
+      </c>
+      <c r="P69" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>831</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F70" t="s">
+        <v>832</v>
+      </c>
+      <c r="G70" t="s">
+        <v>833</v>
+      </c>
+      <c r="H70" t="s">
+        <v>834</v>
+      </c>
+      <c r="I70" t="s">
+        <v>835</v>
+      </c>
+      <c r="J70" t="s">
+        <v>836</v>
+      </c>
+      <c r="K70" t="s">
+        <v>837</v>
+      </c>
+      <c r="L70" t="s">
+        <v>838</v>
+      </c>
+      <c r="M70" t="s">
+        <v>839</v>
+      </c>
+      <c r="N70" t="s">
+        <v>840</v>
+      </c>
+      <c r="O70" t="s">
+        <v>841</v>
+      </c>
+      <c r="P70" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>843</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F71" t="s">
+        <v>844</v>
+      </c>
+      <c r="G71" t="s">
+        <v>845</v>
+      </c>
+      <c r="H71" t="s">
+        <v>846</v>
+      </c>
+      <c r="I71" t="s">
+        <v>847</v>
+      </c>
+      <c r="J71" t="s">
+        <v>848</v>
+      </c>
+      <c r="K71" t="s">
+        <v>849</v>
+      </c>
+      <c r="L71" t="s">
+        <v>850</v>
+      </c>
+      <c r="M71" t="s">
+        <v>851</v>
+      </c>
+      <c r="N71" t="s">
+        <v>852</v>
+      </c>
+      <c r="O71" t="s">
+        <v>853</v>
+      </c>
+      <c r="P71" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>855</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F72" t="s">
+        <v>856</v>
+      </c>
+      <c r="G72" t="s">
+        <v>857</v>
+      </c>
+      <c r="H72" t="s">
+        <v>858</v>
+      </c>
+      <c r="I72" t="s">
+        <v>859</v>
+      </c>
+      <c r="J72" t="s">
+        <v>860</v>
+      </c>
+      <c r="K72" t="s">
+        <v>861</v>
+      </c>
+      <c r="L72" t="s">
+        <v>862</v>
+      </c>
+      <c r="M72" t="s">
+        <v>863</v>
+      </c>
+      <c r="N72" t="s">
+        <v>864</v>
+      </c>
+      <c r="O72" t="s">
+        <v>865</v>
+      </c>
+      <c r="P72" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>867</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F73" t="s">
+        <v>868</v>
+      </c>
+      <c r="G73" t="s">
+        <v>869</v>
+      </c>
+      <c r="H73" t="s">
+        <v>870</v>
+      </c>
+      <c r="I73" t="s">
+        <v>871</v>
+      </c>
+      <c r="J73" t="s">
+        <v>872</v>
+      </c>
+      <c r="K73" t="s">
+        <v>873</v>
+      </c>
+      <c r="L73" t="s">
+        <v>874</v>
+      </c>
+      <c r="M73" t="s">
+        <v>875</v>
+      </c>
+      <c r="N73" t="s">
+        <v>876</v>
+      </c>
+      <c r="O73" t="s">
+        <v>877</v>
+      </c>
+      <c r="P73" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>879</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F74" t="s">
+        <v>880</v>
+      </c>
+      <c r="G74" t="s">
+        <v>881</v>
+      </c>
+      <c r="H74" t="s">
+        <v>882</v>
+      </c>
+      <c r="I74" t="s">
+        <v>883</v>
+      </c>
+      <c r="J74" t="s">
+        <v>884</v>
+      </c>
+      <c r="K74" t="s">
+        <v>885</v>
+      </c>
+      <c r="L74" t="s">
+        <v>886</v>
+      </c>
+      <c r="M74" t="s">
+        <v>887</v>
+      </c>
+      <c r="N74" t="s">
+        <v>888</v>
+      </c>
+      <c r="O74" t="s">
+        <v>889</v>
+      </c>
+      <c r="P74" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>891</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F75" t="s">
+        <v>892</v>
+      </c>
+      <c r="G75" t="s">
+        <v>893</v>
+      </c>
+      <c r="H75" t="s">
+        <v>894</v>
+      </c>
+      <c r="I75" t="s">
+        <v>895</v>
+      </c>
+      <c r="J75" t="s">
+        <v>896</v>
+      </c>
+      <c r="K75" t="s">
+        <v>897</v>
+      </c>
+      <c r="L75" t="s">
+        <v>898</v>
+      </c>
+      <c r="M75" t="s">
+        <v>899</v>
+      </c>
+      <c r="N75" t="s">
+        <v>900</v>
+      </c>
+      <c r="O75" t="s">
+        <v>901</v>
+      </c>
+      <c r="P75" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>903</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F76" t="s">
+        <v>904</v>
+      </c>
+      <c r="G76" t="s">
+        <v>905</v>
+      </c>
+      <c r="H76" t="s">
+        <v>906</v>
+      </c>
+      <c r="I76" t="s">
+        <v>907</v>
+      </c>
+      <c r="J76" t="s">
+        <v>908</v>
+      </c>
+      <c r="K76" t="s">
+        <v>909</v>
+      </c>
+      <c r="L76" t="s">
+        <v>910</v>
+      </c>
+      <c r="M76" t="s">
+        <v>911</v>
+      </c>
+      <c r="N76" t="s">
+        <v>912</v>
+      </c>
+      <c r="O76" t="s">
+        <v>913</v>
+      </c>
+      <c r="P76" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>915</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F77" t="s">
+        <v>916</v>
+      </c>
+      <c r="G77" t="s">
+        <v>917</v>
+      </c>
+      <c r="H77" t="s">
+        <v>918</v>
+      </c>
+      <c r="I77" t="s">
+        <v>919</v>
+      </c>
+      <c r="J77" t="s">
+        <v>920</v>
+      </c>
+      <c r="K77" t="s">
+        <v>921</v>
+      </c>
+      <c r="L77" t="s">
+        <v>922</v>
+      </c>
+      <c r="M77" t="s">
+        <v>923</v>
+      </c>
+      <c r="N77" t="s">
+        <v>924</v>
+      </c>
+      <c r="O77" t="s">
+        <v>925</v>
+      </c>
+      <c r="P77" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>927</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F78" t="s">
+        <v>928</v>
+      </c>
+      <c r="G78" t="s">
+        <v>929</v>
+      </c>
+      <c r="H78" t="s">
+        <v>930</v>
+      </c>
+      <c r="I78" t="s">
+        <v>931</v>
+      </c>
+      <c r="J78" t="s">
+        <v>932</v>
+      </c>
+      <c r="K78" t="s">
+        <v>933</v>
+      </c>
+      <c r="L78" t="s">
+        <v>934</v>
+      </c>
+      <c r="M78" t="s">
+        <v>935</v>
+      </c>
+      <c r="N78" t="s">
+        <v>936</v>
+      </c>
+      <c r="O78" t="s">
+        <v>937</v>
+      </c>
+      <c r="P78" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>939</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F79" t="s">
+        <v>940</v>
+      </c>
+      <c r="G79" t="s">
+        <v>941</v>
+      </c>
+      <c r="H79" t="s">
+        <v>942</v>
+      </c>
+      <c r="I79" t="s">
+        <v>943</v>
+      </c>
+      <c r="J79" t="s">
+        <v>944</v>
+      </c>
+      <c r="K79" t="s">
+        <v>945</v>
+      </c>
+      <c r="L79" t="s">
+        <v>946</v>
+      </c>
+      <c r="M79" t="s">
+        <v>947</v>
+      </c>
+      <c r="N79" t="s">
+        <v>948</v>
+      </c>
+      <c r="O79" t="s">
+        <v>949</v>
+      </c>
+      <c r="P79" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>951</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F80" t="s">
+        <v>952</v>
+      </c>
+      <c r="G80" t="s">
+        <v>953</v>
+      </c>
+      <c r="H80" t="s">
+        <v>954</v>
+      </c>
+      <c r="I80" t="s">
+        <v>955</v>
+      </c>
+      <c r="J80" t="s">
+        <v>956</v>
+      </c>
+      <c r="K80" t="s">
+        <v>957</v>
+      </c>
+      <c r="L80" t="s">
+        <v>958</v>
+      </c>
+      <c r="M80" t="s">
+        <v>959</v>
+      </c>
+      <c r="N80" t="s">
+        <v>960</v>
+      </c>
+      <c r="O80" t="s">
+        <v>961</v>
+      </c>
+      <c r="P80" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>963</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F81" t="s">
+        <v>964</v>
+      </c>
+      <c r="G81" t="s">
+        <v>965</v>
+      </c>
+      <c r="H81" t="s">
+        <v>966</v>
+      </c>
+      <c r="I81" t="s">
+        <v>967</v>
+      </c>
+      <c r="J81" t="s">
+        <v>968</v>
+      </c>
+      <c r="K81" t="s">
+        <v>969</v>
+      </c>
+      <c r="L81" t="s">
+        <v>970</v>
+      </c>
+      <c r="M81" t="s">
+        <v>971</v>
+      </c>
+      <c r="N81" t="s">
+        <v>972</v>
+      </c>
+      <c r="O81" t="s">
+        <v>973</v>
+      </c>
+      <c r="P81" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>975</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F82" t="s">
+        <v>976</v>
+      </c>
+      <c r="G82" t="s">
+        <v>977</v>
+      </c>
+      <c r="H82" t="s">
+        <v>978</v>
+      </c>
+      <c r="I82" t="s">
+        <v>979</v>
+      </c>
+      <c r="J82" t="s">
+        <v>980</v>
+      </c>
+      <c r="K82" t="s">
+        <v>981</v>
+      </c>
+      <c r="L82" t="s">
+        <v>982</v>
+      </c>
+      <c r="M82" t="s">
+        <v>983</v>
+      </c>
+      <c r="N82" t="s">
+        <v>984</v>
+      </c>
+      <c r="O82" t="s">
+        <v>985</v>
+      </c>
+      <c r="P82" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>987</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F83" t="s">
+        <v>988</v>
+      </c>
+      <c r="G83" t="s">
+        <v>989</v>
+      </c>
+      <c r="H83" t="s">
+        <v>990</v>
+      </c>
+      <c r="I83" t="s">
+        <v>991</v>
+      </c>
+      <c r="J83" t="s">
+        <v>992</v>
+      </c>
+      <c r="K83" t="s">
+        <v>993</v>
+      </c>
+      <c r="L83" t="s">
+        <v>994</v>
+      </c>
+      <c r="M83" t="s">
+        <v>995</v>
+      </c>
+      <c r="N83" t="s">
+        <v>996</v>
+      </c>
+      <c r="O83" t="s">
+        <v>997</v>
+      </c>
+      <c r="P83" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>999</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B1:M33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>" "</formula>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B89">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>ISBLANK(B2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:P89">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK(F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Course_output_data.xlsx
+++ b/data/Course_output_data.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OVGU\DE\4th_sem\Software_Project_AI_Lab\AI_Thematic_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4BCA3-34C7-478D-AB2A-624D57CD80A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A4493-D4F3-4243-B88A-CFD52B2C0FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$89</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1111">
   <si>
     <t>Serial number</t>
   </si>
@@ -3242,6 +3245,117 @@
   </si>
   <si>
     <t>Course_name</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Medical &amp; Health Sciences</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Natural Sciences</t>
+  </si>
+  <si>
+    <t>Design &amp; Creative Arts</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t>Natural Sciences; Medical &amp; Health Sciences</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Computer Science &amp; Data; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Design &amp; Creative Arts</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Computer Science &amp; Data</t>
+  </si>
+  <si>
+    <t>Natural Sciences; Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics</t>
+  </si>
+  <si>
+    <t>Natural Sciences; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics; Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Medical &amp; Health Sciences; Natural Sciences</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities; Medical &amp; Health Sciences</t>
+  </si>
+  <si>
+    <t>Medical &amp; Health Sciences; Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities; Design &amp; Creative Arts</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Natural Sciences; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Medical &amp; Health Sciences; Natural Sciences</t>
+  </si>
+  <si>
+    <t>Computer Science &amp; Data; Business &amp; Economics</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Computer Science &amp; Data; Design &amp; Creative Arts</t>
+  </si>
+  <si>
+    <t>Natural Sciences; Computer Science &amp; Data</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Computer Science &amp; Data; Natural Sciences</t>
+  </si>
+  <si>
+    <t>Computer Science &amp; Data; Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics; Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities; Educational Science</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Business &amp; Economics</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Medical &amp; Health Sciences</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Computer Science &amp; Data; Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Statistics &amp; Data Analysis; Computer Science &amp; Data; Natural Sciences; Business &amp; Economics; Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Computer Science &amp; Data</t>
   </si>
 </sst>
 </file>
@@ -3626,21 +3740,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3660,40 +3775,43 @@
         <v>1073</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3710,44 +3828,47 @@
         <v>160</v>
       </c>
       <c r="F2" t="str">
-        <f>LEFT(G2,FIND("Definition",G2,1)-1)</f>
+        <f>LEFT(H2,FIND("Definition",H2,1)-1)</f>
         <v xml:space="preserve">Radiology     </v>
       </c>
       <c r="G2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H2" t="s">
         <v>219</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>299</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>300</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>301</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>302</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>303</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>304</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>305</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>306</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3764,44 +3885,47 @@
         <v>160</v>
       </c>
       <c r="F3" t="str">
-        <f>LEFT(G3,FIND("Definition",G3,1)-1)</f>
+        <f>LEFT(H3,FIND("Definition",H3,1)-1)</f>
         <v xml:space="preserve">Aerospace Engineering    </v>
       </c>
       <c r="G3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H3" t="s">
         <v>220</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>308</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>309</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>310</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>311</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>312</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>313</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>314</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>315</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3818,44 +3942,47 @@
         <v>160</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F67" si="0">LEFT(G4,FIND("Definition",G4,1)-1)</f>
+        <f t="shared" ref="F4:F67" si="0">LEFT(H4,FIND("Definition",H4,1)-1)</f>
         <v xml:space="preserve">Agriculture    </v>
       </c>
       <c r="G4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H4" t="s">
         <v>221</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>317</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>318</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>319</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>320</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>321</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>322</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>323</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>324</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3876,40 +4003,43 @@
         <v xml:space="preserve">Art and Design    </v>
       </c>
       <c r="G5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H5" t="s">
         <v>222</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>326</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>327</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>328</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>329</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>330</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>331</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>332</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>333</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3930,40 +4060,43 @@
         <v xml:space="preserve">Astronomy    </v>
       </c>
       <c r="G6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H6" t="s">
         <v>223</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>335</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>336</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>337</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>338</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>339</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>340</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>341</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>342</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3984,40 +4117,43 @@
         <v xml:space="preserve">Biotechnology    </v>
       </c>
       <c r="G7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H7" t="s">
         <v>224</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>344</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>345</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>346</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>347</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>348</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>349</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>350</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>351</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4038,40 +4174,43 @@
         <v xml:space="preserve">Electrical Engineering - Predictive Maintenance of Electrical Motors     </v>
       </c>
       <c r="G8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H8" t="s">
         <v>225</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>353</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>354</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>355</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>356</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>357</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>358</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>359</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>360</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4092,40 +4231,43 @@
         <v xml:space="preserve">Mechanical Engineering Design    </v>
       </c>
       <c r="G9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H9" t="s">
         <v>226</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>362</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>363</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>364</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>365</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>366</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>367</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>368</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>369</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4146,40 +4288,43 @@
         <v xml:space="preserve">Cybersecurity </v>
       </c>
       <c r="G10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>39</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>40</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>41</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4200,40 +4345,43 @@
         <v xml:space="preserve">Energy    </v>
       </c>
       <c r="G11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H11" t="s">
         <v>227</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>371</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>372</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>373</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>374</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>375</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>376</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>377</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>45</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>378</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4254,40 +4402,43 @@
         <v xml:space="preserve">Environmental Science    </v>
       </c>
       <c r="G12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H12" t="s">
         <v>228</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>380</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>381</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>382</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>383</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>384</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>385</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>386</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>47</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>387</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4308,40 +4459,43 @@
         <v xml:space="preserve">Fashion    </v>
       </c>
       <c r="G13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H13" t="s">
         <v>229</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>389</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>390</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>391</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>392</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>393</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>394</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>395</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>49</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>396</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4362,40 +4516,43 @@
         <v xml:space="preserve">Finance </v>
       </c>
       <c r="G14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>53</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>54</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>56</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>57</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>58</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4416,40 +4573,43 @@
         <v xml:space="preserve">Food Science    </v>
       </c>
       <c r="G15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H15" t="s">
         <v>230</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>398</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>399</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>400</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>401</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>402</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>403</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>404</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>62</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>405</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4470,40 +4630,43 @@
         <v xml:space="preserve">Hospitality    </v>
       </c>
       <c r="G16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H16" t="s">
         <v>231</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>407</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>408</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>409</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>410</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>411</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>412</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>413</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>414</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4524,40 +4687,43 @@
         <v xml:space="preserve">Journalism    </v>
       </c>
       <c r="G17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H17" t="s">
         <v>232</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>416</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>417</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>418</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>419</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>420</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>421</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>422</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>423</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4578,40 +4744,43 @@
         <v xml:space="preserve">Law    </v>
       </c>
       <c r="G18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H18" t="s">
         <v>233</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>425</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>426</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>427</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>428</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>429</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>430</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>431</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>432</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4632,40 +4801,43 @@
         <v xml:space="preserve">Linguistics    </v>
       </c>
       <c r="G19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H19" t="s">
         <v>234</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>434</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>435</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>436</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>437</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>438</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>439</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>440</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>70</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>441</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4686,40 +4858,43 @@
         <v xml:space="preserve">Logistics and Supply Chain Management     </v>
       </c>
       <c r="G20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H20" t="s">
         <v>235</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>443</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>444</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>445</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>446</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>447</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>448</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>449</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>72</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>450</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4740,40 +4915,43 @@
         <v xml:space="preserve">Manufacturing     </v>
       </c>
       <c r="G21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H21" t="s">
         <v>236</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>452</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>453</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>454</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>455</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>456</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>457</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>458</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>74</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>459</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4794,40 +4972,43 @@
         <v xml:space="preserve">Oceanography     </v>
       </c>
       <c r="G22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H22" t="s">
         <v>237</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>461</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>462</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>463</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>464</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>465</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>466</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>467</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>76</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>468</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4848,40 +5029,43 @@
         <v xml:space="preserve">Oncology    </v>
       </c>
       <c r="G23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H23" t="s">
         <v>238</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>470</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>471</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>472</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>473</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>474</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>475</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>476</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>78</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>477</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4902,40 +5086,43 @@
         <v xml:space="preserve">Pharmacology     </v>
       </c>
       <c r="G24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H24" t="s">
         <v>239</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>479</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>480</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>481</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>482</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>483</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>484</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>485</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>80</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>486</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4956,40 +5143,43 @@
         <v xml:space="preserve">Psychology </v>
       </c>
       <c r="G25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H25" t="s">
         <v>81</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>82</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>83</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>85</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>86</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>87</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>88</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>89</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5010,40 +5200,43 @@
         <v xml:space="preserve">Public Health     </v>
       </c>
       <c r="G26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H26" t="s">
         <v>240</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>488</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>489</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>490</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>491</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>492</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>493</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>494</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>93</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>495</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5064,40 +5257,43 @@
         <v xml:space="preserve">Radiology     </v>
       </c>
       <c r="G27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H27" t="s">
         <v>241</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>497</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>498</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>499</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>500</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>501</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>502</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>503</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>94</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5118,40 +5314,43 @@
         <v xml:space="preserve">Real Estate     </v>
       </c>
       <c r="G28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H28" t="s">
         <v>242</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>505</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>506</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>507</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>508</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>509</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>510</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>511</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>97</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>512</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5172,40 +5371,43 @@
         <v xml:space="preserve">Retail    </v>
       </c>
       <c r="G29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H29" t="s">
         <v>243</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>514</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>515</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>516</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>517</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>518</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>519</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>520</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>99</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>521</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5226,40 +5428,43 @@
         <v xml:space="preserve">Robotics     </v>
       </c>
       <c r="G30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H30" t="s">
         <v>244</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>523</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>524</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>525</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>526</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>527</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>528</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>529</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>101</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>530</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5280,40 +5485,43 @@
         <v xml:space="preserve">Sports    </v>
       </c>
       <c r="G31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H31" t="s">
         <v>245</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>532</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>533</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>534</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>535</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>536</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>537</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>538</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>103</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>539</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5334,40 +5542,43 @@
         <v xml:space="preserve">Transportation     </v>
       </c>
       <c r="G32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H32" t="s">
         <v>246</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>541</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>542</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>543</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>544</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>545</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>546</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>547</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>105</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>548</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5388,40 +5599,43 @@
         <v xml:space="preserve">Urban Planning     </v>
       </c>
       <c r="G33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H33" t="s">
         <v>247</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>550</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>551</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>552</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>553</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>554</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>555</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>556</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>107</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>557</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5442,40 +5656,43 @@
         <v xml:space="preserve">Advanced Semiconductor Nanotechnologies    </v>
       </c>
       <c r="G34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H34" t="s">
         <v>248</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>559</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>560</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>561</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>562</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>563</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>564</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>565</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>109</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>566</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5496,40 +5713,43 @@
         <v xml:space="preserve">Biomechanical Engineering    </v>
       </c>
       <c r="G35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>568</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>569</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>570</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>571</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>572</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>573</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>574</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>110</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>575</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5550,40 +5770,43 @@
         <v xml:space="preserve">Biomedical Engineering    </v>
       </c>
       <c r="G36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H36" t="s">
         <v>250</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>577</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>578</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>579</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>580</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>581</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>582</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>583</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>584</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>585</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5604,40 +5827,43 @@
         <v xml:space="preserve">Biosystems Engineering    </v>
       </c>
       <c r="G37" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H37" t="s">
         <v>251</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>587</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>588</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>589</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>590</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>591</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>592</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>593</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>111</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>594</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5658,40 +5884,43 @@
         <v xml:space="preserve">Business Economics    </v>
       </c>
       <c r="G38" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H38" t="s">
         <v>252</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>596</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>597</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>598</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>599</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>600</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>601</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>602</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>112</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>603</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5712,40 +5941,43 @@
         <v xml:space="preserve">Business Informatics    </v>
       </c>
       <c r="G39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H39" t="s">
         <v>253</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>605</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>606</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>607</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>608</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>609</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>610</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>611</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>612</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>613</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5766,40 +5998,43 @@
         <v xml:space="preserve">Business Management    </v>
       </c>
       <c r="G40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H40" t="s">
         <v>254</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>615</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>616</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>617</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>618</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>619</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>620</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>621</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>622</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>623</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5820,40 +6055,43 @@
         <v xml:space="preserve">Chemical and Energy Engineering     </v>
       </c>
       <c r="G41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H41" t="s">
         <v>255</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>625</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>626</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>627</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>628</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>629</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>630</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>631</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>113</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>632</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5874,40 +6112,43 @@
         <v xml:space="preserve">Chemical Engineering - Molecular and Structural Product Design    </v>
       </c>
       <c r="G42" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H42" t="s">
         <v>256</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>634</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>635</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>636</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>637</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>638</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>639</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>640</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>641</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>642</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5928,40 +6169,43 @@
         <v xml:space="preserve">Computational Visualistics     </v>
       </c>
       <c r="G43" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H43" t="s">
         <v>257</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>644</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>645</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>646</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>647</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>648</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>649</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>650</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>651</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>652</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5982,40 +6226,43 @@
         <v xml:space="preserve">Computational Mathematics    </v>
       </c>
       <c r="G44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H44" t="s">
         <v>258</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>654</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>655</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>656</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>657</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>658</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>659</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>660</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>661</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>662</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6036,40 +6283,43 @@
         <v xml:space="preserve">Computational Methods in Engineering     </v>
       </c>
       <c r="G45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H45" t="s">
         <v>259</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>664</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>665</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>666</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>667</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>668</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>669</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>670</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>671</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>672</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6090,40 +6340,43 @@
         <v xml:space="preserve">Computer Science    </v>
       </c>
       <c r="G46" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H46" t="s">
         <v>260</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>674</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>675</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>676</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>677</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>678</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>679</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>680</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>681</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>682</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6144,40 +6397,43 @@
         <v xml:space="preserve">Computer Systems Engineering    </v>
       </c>
       <c r="G47" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H47" t="s">
         <v>261</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>684</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>685</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>686</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>687</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>688</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>689</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>690</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>691</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>692</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6198,40 +6454,43 @@
         <v xml:space="preserve">Computer Systems in Engineering    </v>
       </c>
       <c r="G48" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H48" t="s">
         <v>262</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>694</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>695</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>696</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>697</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>698</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>699</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>700</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>114</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>701</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6252,40 +6511,43 @@
         <v xml:space="preserve">Data and Knowledge Engineering    </v>
       </c>
       <c r="G49" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H49" t="s">
         <v>263</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>703</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>704</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>705</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>706</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>707</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>708</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>709</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>115</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>710</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6306,40 +6568,43 @@
         <v xml:space="preserve">Digital Engineering    </v>
       </c>
       <c r="G50" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H50" t="s">
         <v>264</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>712</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>713</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>714</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>715</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>716</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>717</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>718</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>116</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>719</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6360,40 +6625,43 @@
         <v xml:space="preserve">E-Mobility    </v>
       </c>
       <c r="G51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H51" t="s">
         <v>265</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>721</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>722</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>723</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>724</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>725</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>726</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>727</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>117</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>728</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6414,40 +6682,43 @@
         <v xml:space="preserve">Economic Policy Analysis    </v>
       </c>
       <c r="G52" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H52" t="s">
         <v>266</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>730</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>731</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>732</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>733</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>734</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>735</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>736</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>737</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>738</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6468,40 +6739,43 @@
         <v xml:space="preserve">Educational Science    </v>
       </c>
       <c r="G53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H53" t="s">
         <v>267</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>740</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>741</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>742</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>743</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>744</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>745</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>746</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>118</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>747</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6522,40 +6796,43 @@
         <v xml:space="preserve">Electrical and Information Technology    </v>
       </c>
       <c r="G54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H54" t="s">
         <v>268</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>749</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>750</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>751</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>752</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>753</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>754</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>755</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>756</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>757</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6576,40 +6853,43 @@
         <v xml:space="preserve">Energy Process Engineering     </v>
       </c>
       <c r="G55" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H55" t="s">
         <v>269</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>759</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>760</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>761</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>762</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>763</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>764</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>765</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>766</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>767</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6630,40 +6910,43 @@
         <v xml:space="preserve">Engineering Informatics    </v>
       </c>
       <c r="G56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H56" t="s">
         <v>270</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>769</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>770</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>771</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>772</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>773</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>774</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>775</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>119</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>776</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6684,40 +6967,43 @@
         <v xml:space="preserve">Engineering Science    </v>
       </c>
       <c r="G57" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H57" t="s">
         <v>271</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>778</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>779</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>780</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>781</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>782</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>783</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>784</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>120</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>785</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6738,40 +7024,43 @@
         <v xml:space="preserve">European Studies    </v>
       </c>
       <c r="G58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H58" t="s">
         <v>272</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>787</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>788</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>789</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>790</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>791</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>792</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>793</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>794</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>795</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6792,40 +7081,43 @@
         <v xml:space="preserve">Financial Economics  </v>
       </c>
       <c r="G59" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H59" t="s">
         <v>273</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>797</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>798</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>799</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>800</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>801</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>802</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>803</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>804</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>805</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6846,40 +7138,43 @@
         <v xml:space="preserve">Human Medicine </v>
       </c>
       <c r="G60" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H60" t="s">
         <v>121</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>807</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>808</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>122</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>809</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>810</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>811</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>812</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>813</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>123</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6900,40 +7195,43 @@
         <v xml:space="preserve">Immunology </v>
       </c>
       <c r="G61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H61" t="s">
         <v>124</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>815</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>816</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>125</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>817</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>818</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>819</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>820</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>821</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>822</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6954,40 +7252,43 @@
         <v xml:space="preserve">Industrial Engineering - Production, Logistics, and Products    </v>
       </c>
       <c r="G62" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H62" t="s">
         <v>274</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>824</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>825</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>826</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>827</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>828</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>829</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>830</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>831</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>832</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7008,40 +7309,43 @@
         <v xml:space="preserve">Industrial Engineering / Logistics    </v>
       </c>
       <c r="G63" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H63" t="s">
         <v>275</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>834</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>835</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>836</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>837</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>126</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>127</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>838</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>839</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>840</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7062,40 +7366,43 @@
         <v xml:space="preserve">Industrial and Mechanical Engineering    </v>
       </c>
       <c r="G64" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H64" t="s">
         <v>276</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>842</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>843</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>844</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>845</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>846</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>847</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>848</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>128</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>849</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7116,40 +7423,43 @@
         <v xml:space="preserve">Integrated Design Engineering    </v>
       </c>
       <c r="G65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H65" t="s">
         <v>277</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>851</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>852</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>853</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>854</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>855</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>856</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>857</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>129</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>858</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7170,40 +7480,43 @@
         <v xml:space="preserve">Integrated Design Engineering    </v>
       </c>
       <c r="G66" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H66" t="s">
         <v>278</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>860</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>861</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>862</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>863</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>864</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>865</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>866</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>130</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>867</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7224,40 +7537,43 @@
         <v xml:space="preserve">Integrative Neurosciences     </v>
       </c>
       <c r="G67" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H67" t="s">
         <v>279</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>869</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>870</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>871</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>872</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>873</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>874</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>875</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>876</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>877</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7274,44 +7590,47 @@
         <v>160</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F89" si="1">LEFT(G68,FIND("Definition",G68,1)-1)</f>
+        <f t="shared" ref="F68:F89" si="1">LEFT(H68,FIND("Definition",H68,1)-1)</f>
         <v xml:space="preserve">International Management, Marketing, Entrepreneurship    </v>
       </c>
       <c r="G68" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H68" t="s">
         <v>280</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>879</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>880</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>881</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>882</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>883</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>884</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>885</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>886</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>887</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7332,40 +7651,43 @@
         <v xml:space="preserve">International Taxation and Public Finance    </v>
       </c>
       <c r="G69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H69" t="s">
         <v>281</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>889</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>890</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>891</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>892</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>893</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>894</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>895</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>896</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>897</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7386,40 +7708,43 @@
         <v xml:space="preserve">International Business and Economics    </v>
       </c>
       <c r="G70" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H70" t="s">
         <v>282</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>899</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>900</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>901</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>902</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>903</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>904</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>905</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>906</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>907</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7440,40 +7765,43 @@
         <v xml:space="preserve">Industrial Engineering / Process and Power Engineering    </v>
       </c>
       <c r="G71" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H71" t="s">
         <v>283</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>909</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>910</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>911</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>912</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>913</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>914</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>915</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>916</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>917</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7494,40 +7822,43 @@
         <v xml:space="preserve">Mathematical Engineering </v>
       </c>
       <c r="G72" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H72" t="s">
         <v>131</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>132</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>919</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>133</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>134</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>135</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>920</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>921</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>922</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>136</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7548,40 +7879,43 @@
         <v xml:space="preserve">Mathematics    </v>
       </c>
       <c r="G73" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H73" t="s">
         <v>284</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>924</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>925</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>926</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>927</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>928</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>929</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>930</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>931</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>932</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7602,40 +7936,43 @@
         <v xml:space="preserve">Mechanical Engineering     </v>
       </c>
       <c r="G74" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H74" t="s">
         <v>285</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>934</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>935</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>936</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>937</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>938</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>939</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>940</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>941</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>942</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7656,40 +7993,43 @@
         <v xml:space="preserve">Media Literacy: Audiovisual Culture and Communication    </v>
       </c>
       <c r="G75" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H75" t="s">
         <v>286</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>944</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>945</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>946</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>947</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>948</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>949</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>950</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>951</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>952</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7710,40 +8050,43 @@
         <v xml:space="preserve">Medical Systems Engineering    </v>
       </c>
       <c r="G76" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H76" t="s">
         <v>287</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>954</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>955</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>956</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>957</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>958</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>959</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>960</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>137</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>961</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7764,40 +8107,43 @@
         <v xml:space="preserve">Operations Research and Business Analytics    </v>
       </c>
       <c r="G77" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H77" t="s">
         <v>288</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>963</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>964</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>965</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>966</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>967</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>968</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>969</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>138</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>970</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7818,40 +8164,43 @@
         <v xml:space="preserve">Philosophy - Neurosciences - Cognition  </v>
       </c>
       <c r="G78" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H78" t="s">
         <v>139</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>140</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>141</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>142</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>143</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>144</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>145</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>146</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>147</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>148</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7872,40 +8221,43 @@
         <v xml:space="preserve">Process Safety and Environmental Engineering    </v>
       </c>
       <c r="G79" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H79" t="s">
         <v>289</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>972</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>973</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>974</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>975</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>976</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>977</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>978</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>150</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>979</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7926,40 +8278,43 @@
         <v xml:space="preserve">Process Engineering    </v>
       </c>
       <c r="G80" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H80" t="s">
         <v>290</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>981</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>982</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>983</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>984</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>985</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>986</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>987</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>988</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>989</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7980,40 +8335,43 @@
         <v xml:space="preserve">Psychology    </v>
       </c>
       <c r="G81" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H81" t="s">
         <v>291</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>991</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>992</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>993</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>994</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>995</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>996</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>997</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>998</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>999</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8034,40 +8392,43 @@
         <v xml:space="preserve">Statistics &amp; Data Analysis    </v>
       </c>
       <c r="G82" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H82" t="s">
         <v>292</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>1001</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>1002</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>1003</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>1004</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>1005</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>1006</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>1007</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>1008</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>1009</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8088,40 +8449,43 @@
         <v xml:space="preserve">Sustainable Energy Systems    </v>
       </c>
       <c r="G83" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H83" t="s">
         <v>293</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>1011</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>1012</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>1013</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>1014</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>1015</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>1016</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>1017</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>151</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>1018</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8142,40 +8506,43 @@
         <v xml:space="preserve">Sustainable Process and Environmental Engineering     </v>
       </c>
       <c r="G84" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H84" t="s">
         <v>294</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>1020</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>1021</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>1022</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>1023</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>1024</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>1025</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>1026</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>1027</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>1028</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8196,40 +8563,43 @@
         <v xml:space="preserve">Systems Engineering and Engineering Cybernetics    </v>
       </c>
       <c r="G85" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H85" t="s">
         <v>295</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>1030</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>1031</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>1032</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>1033</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>1034</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>1035</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>1036</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>152</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>1037</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8250,40 +8620,43 @@
         <v xml:space="preserve">Systems Engineering for Manufacturing    </v>
       </c>
       <c r="G86" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H86" t="s">
         <v>296</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>1039</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>1040</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>1041</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>1042</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>1043</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>1044</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>1045</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>153</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>1046</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8304,40 +8677,43 @@
         <v xml:space="preserve">Vocational Education    </v>
       </c>
       <c r="G87" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H87" t="s">
         <v>297</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>1048</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>1049</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>1050</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>1051</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>1052</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>1053</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>1054</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>1055</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>154</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8358,40 +8734,43 @@
         <v xml:space="preserve">Visual Computing  </v>
       </c>
       <c r="G88" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H88" t="s">
         <v>155</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>1057</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>1058</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>156</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>1059</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>157</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>158</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>1060</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>1061</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>159</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8412,49 +8791,53 @@
         <v xml:space="preserve">Company Training and Vocational Education Management Development    </v>
       </c>
       <c r="G89" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H89" t="s">
         <v>298</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>1063</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>1064</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>1065</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>1066</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>1067</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>1068</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>1069</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>1070</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>1071</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>1072</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B89">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>ISBLANK(B2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:Q89">
+  <conditionalFormatting sqref="H2:R89">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK(G2)</formula>
+      <formula>ISBLANK(H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Course_output_data.xlsx
+++ b/data/Course_output_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OVGU\DE\4th_sem\Software_Project_AI_Lab\AI_Thematic_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A4493-D4F3-4243-B88A-CFD52B2C0FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FF6EA-FD0F-4C52-AC3B-78E5533AC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1105">
   <si>
     <t>Serial number</t>
   </si>
@@ -136,18 +136,12 @@
     <t xml:space="preserve">Ethical Implications: Risk of bias in AI models, leading to unfair or discriminatory security practices. Concerns about data privacy and security when using AI to analyze sensitive data. Lack of transparency in AI decision-making, which can make it difficult to understand and trust the system. Legal Implications: Compliance with data protection regulations such as GDPR, CCPA, and others. Legal liabilities related to AI-driven security breaches or misidentification. Challenges in attributing responsibility for AI-related security incidents. Social Implications: Potential job displacement for some cybersecurity professionals due to automation. The development of autonomous security systems raises concerns about the control and use of AI. The need for cybersecurity professionals to adapt to new AI-driven security technologies. Examples: Positive: AI-driven threat detection can significantly reduce the time it takes to identify and respond to attacks. Negative: AI algorithms can be manipulated by adversaries, and they can also be biased, leading to inconsistent and unfair security practices. Domain-Specific Concerns: The adversarial nature of cybersecurity requires AI systems to be robust against attacks. The need for real-time threat detection and response capabilities. The high cost of AI-driven security solutions may present barriers for small organizations. </t>
   </si>
   <si>
-    <t xml:space="preserve">Open Educational Resources (OER): MIT OpenCourseWare: Courses on cybersecurity and AI. Cybrary: Free online cybersecurity training. SANS Institute: White papers and articles on cybersecurity topics. Textbooks: "Artificial Intelligence in Cybersecurity" by Dr. Igor Kotenko "Applied Artificial Intelligence: A Handbook for Business Leaders" by Mariya Yao, Adelyn Zhou, and Marlene Jia "Deep Learning for Security" by Brendan Dolan-Gavitt Online Courses: Coursera: "AI for Cybersecurity" Specialization Udacity: "AI for Security" Nanodegree edX: "Cybersecurity Fundamentals" Cybersecurity Conferences: RSA Conference Black Hat DEF CON USENIX Security Online Ethical Hacking Courses: Offensive Security (OSCP) Pentester Academy HackerOne Research Papers: Papers published in IEEE Security &amp; Privacy, ACM CCS, and USENIX Security symposia Articles from journals such as the Journal of Information Security and Applications  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Target Learners: IT professionals with backgrounds in networking, systems administration, or software development. Cybersecurity analysts with experience in threat detection, incident response, or vulnerability management. Some learners might have some prior exposure to AI concepts, but most are expected to be beginners. Learners have a general understanding of programming concepts, mathematics (basic statistics), and the fundamentals of computer networks. Expected Role After Completing the Course: To effectively interact with AI-powered cybersecurity tools and platforms. To implement AI techniques for threat detection, incident response, and vulnerability management. To act as informed decision-makers in organizations that are adopting AI in cybersecurity. To contribute to the development and improvement of AI-driven security solutions. To communicate the capabilities and limitations of AI in cybersecurity to stakeholders. </t>
   </si>
   <si>
     <t xml:space="preserve">Qualifications: PhD in Computer Science, Cybersecurity, or a related field. Minimum of 10 years of experience in cybersecurity, with a strong focus on AI-driven security. Proven track record of research and publications in the field of AI and cybersecurity. AI-Related Skills and Competencies: Proficiency in machine learning algorithms, deep learning techniques, and natural language processing. Experience with AI frameworks and libraries, such as TensorFlow, PyTorch, and scikit-learn. Ability to apply AI methods to real-world cybersecurity problems. Domain Expertise: In-depth knowledge of network security, cryptography, malware analysis, and incident response. Understanding of current and emerging cyber threats and vulnerabilities. Experience with cybersecurity tools and platforms, such as SIEM, IDS/IPS, and vulnerability scanners. Teaching Experience and Pedagogical Skills: Proven track record of teaching university-level courses. Ability to explain complex technical concepts in an accessible and engaging manner. Experience in developing and implementing effective learning activities and assessments. </t>
   </si>
   <si>
-    <t xml:space="preserve">Resources and Constraints: Budget: Moderate budget for software, cloud resources, and guest speakers. Personnel: Teaching assistant(s) to support lab sessions and grading. Course Duration: 14-week semester, with 3 hours of lectures and 2 hours of lab sessions per week. Domain-Specific Data: Access to public datasets for cybersecurity research and experimentation (e.g., Kaggle, CIC datasets). Software and Hardware: Access to cloud-based computing resources for AI model training. AI software tools and libraries (TensorFlow, PyTorch, scikit-learn). Virtual lab environment for hands-on exercises. Access to security tools for demonstration purposes. Institutional support for interdisciplinary teaching. Institutional Support: Institutional policies should support interdisciplinary teaching and collaboration.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">By the end of this course, learners will be able to: 1.  Understand the fundamentals of AI and machine learning concepts. 2.  Identify and describe key AI use cases in the cybersecurity domain. 3.  Explain the different types of data used in cybersecurity and their significance for AI applications. 4.  Select appropriate AI techniques for various cybersecurity tasks, such as threat detection, anomaly detection, and fraud prevention. 5.  Implement basic AI models using suitable libraries and frameworks for practical cybersecurity challenges. 6.  Evaluate the performance of AI models using relevant metrics. 7.  Analyze the ethical, legal, and social implications of using AI in cybersecurity. 8.  Critically assess the limitations and challenges of AI-driven security solutions. 9.  Design and propose solutions that integrate AI in cybersecurity to solve real-world problems. 10. Communicate technical findings and ideas effectively to both technical and non-technical audiences. </t>
   </si>
   <si>
@@ -187,18 +181,12 @@
     <t xml:space="preserve">Ethical Implications: Bias in AI algorithms leading to unfair lending practices or discriminatory investment advice. Lack of transparency in AI models (black box problem), making it difficult to understand how decisions are made. Data privacy and security concerns related to the collection and use of personal financial information. Legal Implications: Compliance with regulations such as GDPR, CCPA, and financial industry-specific rules. Liability for AI-driven errors or biases that result in financial losses or harm. Need for clear legal frameworks for the use of AI in financial services. Social Implications: Potential for job displacement in the financial sector due to automation. Increased financial inclusion by providing access to financial services for underbanked populations. Risk of exacerbating existing inequalities through biased AI algorithms. Examples: Positive: Enhanced fraud detection, faster transactions, personalized financial services, and more efficient capital allocation. Negative: AI-driven market crashes, biased lending practices, loss of jobs, and increased financial vulnerability. </t>
   </si>
   <si>
-    <t xml:space="preserve">Financial Data Providers: Bloomberg Terminal Refinitiv Eikon Quandl Yahoo Finance API Online Courses: Coursera: "AI for Trading" Specialization by Imperial College London Udacity: "AI for Trading" Nanodegree edX: "Financial Engineering and Risk Management" programs DataCamp: Courses on Python for Finance, time series analysis, and quantitative finance. Industry Publications: The Financial Times The Wall Street Journal Risk Magazine Journal of Financial Data Science Harvard Business Review (HBR) Open Educational Resources (OER): MIT OpenCourseware: Courses on finance, probability, and statistics. Textbooks and articles on quantitative finance and machine learning.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Target Learners: Undergraduate and graduate students majoring in Finance, Business, or related fields. Students have a basic understanding of financial concepts and some exposure to programming (e.g., Python, R). Students have minimal to no prior knowledge of AI, machine learning, or deep learning. Expected Role After Completion: Understand the potential and limitations of AI in finance. Be able to evaluate and analyze AI-based financial tools and services. Be able to propose AI solutions for specific financial problems. Be able to collaborate with AI specialists and data scientists. Be able to use AI for more efficient and effective financial decision making. </t>
   </si>
   <si>
     <t xml:space="preserve">Qualifications: PhD in Finance, Economics, or a related field. 12+ years of experience in the financial industry, including roles in quantitative finance, risk management, or investment management. 3+ years of experience in applying AI, machine learning, and data science techniques to financial problems. Demonstrated teaching experience at the university level. Skills: Strong understanding of financial markets, instruments, and regulations. Proficiency in AI and machine learning concepts, algorithms, and tools. Ability to translate complex technical concepts into accessible language for students with limited AI background. Experience in using real-world financial datasets for analysis and modeling. </t>
   </si>
   <si>
-    <t xml:space="preserve">Resources: Budget: Sufficient budget to acquire licenses for necessary software, financial data, and cloud-based computational resources. Personnel: Teaching assistants (TAs) with AI or data science background to support students in labs and assignments. Course Duration: One semester (14-16 weeks), with 3 hours of lecture and 2 hours of lab/workshop per week. Domain-Specific Data: Access to financial data through university subscriptions or partnerships with data providers. Software and Hardware: Access to Python programming environment, relevant libraries (e.g., pandas, NumPy, scikit-learn, TensorFlow/PyTorch), and cloud-based computing resources (e.g., Google Colab, AWS). Institutional Support: Institutional support for interdisciplinary teaching, including the option of guest lectures by industry experts.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">By the end of this course, students will be able to: 1.  Explain the fundamental concepts of AI, machine learning, and deep learning in the context of finance. 2.  Identify and describe various AI applications in finance, such as fraud detection, credit risk assessment, algorithmic trading, and portfolio optimization. 3.  Analyze and interpret financial data to train and evaluate AI models. 4.  Understand the ethical, legal, and social implications of using AI in the financial industry. 5.  Evaluate the performance of different AI models for specific financial use cases. 6.  Apply basic machine learning techniques to solve practical financial problems. 7.  Communicate the potential and limitations of AI in finance to both technical and non-technical audiences. 8.  Propose and justify AI-based solutions for specific financial challenges. </t>
   </si>
   <si>
@@ -280,18 +268,12 @@
     <t xml:space="preserve">Ethical Implications: Risk of bias in AI algorithms, leading to discriminatory or inaccurate diagnoses and treatment recommendations. Data privacy and confidentiality concerns, particularly regarding sensitive patient information. Potential for dehumanization of therapy and reliance on technology over human interaction. Informed consent issues related to the use of AI in psychological assessments and interventions. Legal Implications: Compliance with data protection regulations (e.g., HIPAA, GDPR) and ethical guidelines for AI in healthcare. Legal liability issues related to AI-driven diagnoses and treatment recommendations. Ensuring fairness and transparency in AI algorithms to prevent discrimination and bias. Social Implications: Potential changes in the role of therapists and other mental health professionals. Increased access to mental health support for underserved populations and individuals in remote areas. Potential for job displacement in some areas of psychological practice due to automation. Impact on patient autonomy and agency in the context of AI-driven interventions. Examples: Positive: More accessible and personalized mental health care, early detection of mental health issues, improved treatment outcomes. Negative: Over-reliance on AI leading to decreased human interaction, misdiagnosis due to biased AI algorithms, ethical concerns regarding data privacy. </t>
   </si>
   <si>
-    <t xml:space="preserve">Psychology AI Conferences: The Association for Psychological Science (APS) Annual Convention. The International Conference on Affective Computing and Intelligent Interaction (ACII). The Annual Meeting of the Society for Research in Psychopathology (SRP). The International Society for Artificial Intelligence in Healthcare (ISAICH). Clinical AI Workshops: Workshops organized by research institutions and professional organizations. Training programs on using AI tools in clinical practice. Online Courses: Coursera: "AI for Medicine Specialization." edX: "Artificial Intelligence for Health." Udacity: "AI for Healthcare Nanodegree." MIT OpenCourseware: "Introduction to Machine Learning." Textbooks: "Artificial Intelligence in Behavioral and Mental Health Care" by David C. Mohr. "Handbook of Artificial Intelligence in Healthcare" by Springer. "Deep Learning for Vision Systems" by Mohamed Elgendy. Journals: Journal of Medical Internet Research (JMIR) Frontiers in Artificial Intelligence IEEE Transactions on Affective Computing Behavior Research Methods Open Educational Resources (OER): Open AI datasets relevant to psychology (e.g., emotion recognition datasets). AI toolkits and libraries (e.g., TensorFlow, PyTorch).  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Target Learners: Undergraduate and graduate students in Psychology. Practicing therapists and mental health professionals interested in integrating AI into their practice. Individuals with a basic understanding of psychology principles. Current Level of AI Knowledge: Varies significantly. Most will have limited to no formal training in AI or programming. Some may have basic exposure to statistics and research methods. Some may have familiarity with basic computer applications, but not programming or AI tools. Background in the Domain: Strong background in psychological theories, research methodologies, and ethical considerations. Knowledge of various clinical and counseling techniques. Expected Role After Completion: Users: Able to critically evaluate and utilize AI tools in their practice or research, such as diagnostic aids, therapy chatbots, and data analysis platforms. Decision-Makers: Able to make informed decisions about the implementation of AI in psychological settings, considering ethical, legal, and social implications. Researchers: Able to design studies that incorporate AI techniques, analyze AI-generated data, and contribute to the development of AI tools in psychology. Advocates: Able to educate others about the potential and limitations of AI in psychology. </t>
   </si>
   <si>
     <t xml:space="preserve">Qualifications: PhD in Psychology with a specialization in a related field (e.g., clinical, cognitive, social). Minimum of 2 years of research experience involving AI/Machine learning applications in psychology or related fields. Proficiency in programming languages used in AI (e.g., Python) is highly desirable. Experience with statistical analysis and data visualization. AI-Related Skills and Competencies: Knowledge of machine learning algorithms (e.g., classification, regression, clustering). Understanding of natural language processing (NLP) techniques. Familiarity with deep learning frameworks (e.g., TensorFlow, PyTorch). Skills in data preprocessing, analysis, and interpretation. Domain Expertise: Deep understanding of psychological theories, research methods, and clinical practice. Knowledge of ethical guidelines and legal regulations relevant to psychology. Teaching Experience and Pedagogical Skills: Proven track record of effective teaching at the university level. Ability to explain complex concepts in a clear and accessible manner. Experience with active learning techniques and student engagement. Ability to bridge the gap between theoretical knowledge and practical applications. </t>
   </si>
   <si>
-    <t xml:space="preserve">Resources and Constraints: Budget: Allocate resources for software licenses, computing resources, and guest speakers. Personnel: Teaching assistants (TAs) with AI or programming experience to assist students during labs. Course Duration: One semester (14-16 weeks) or two quarters. Availability of Domain-Specific Data: Access to publicly available datasets (e.g., from research studies, online repositories). Access to Software and Hardware: Access to cloud-based AI platforms (e.g., Google Colab, Amazon SageMaker). Access to software for data analysis and visualization (e.g., Python, R). High-performance computing resources for computationally intensive tasks. Institutional Support for Interdisciplinary Teaching: Support from the university for collaborative teaching across departments (e.g., psychology and computer science). Ethical Review Board: Access to ethical review for any research involving human participants and AI tools. IT Support: Support from IT department for software installation and troubleshooting.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">By the end of this course, learners will be able to: 1.  Understand the fundamentals of AI and machine learning and their applications in the field of psychology. 2.  Identify and evaluate potential use cases for AI in different areas of psychology, such as mental health diagnostics, emotion detection, and therapy delivery. 3.  Analyze and interpret psychological data using AI tools and techniques. 4.  Critically assess the ethical, legal, and social implications of using AI in psychology. 5.  Design and evaluate AI-driven solutions to specific psychological problems. 6.  Communicate effectively about the potential and limitations of AI in psychology to diverse audiences. 7.  Apply AI techniques to practical problems in psychology, using programming and data analysis tools. 8.  Collaborate effectively on interdisciplinary projects involving AI in psychology. 9.  Critically evaluate AI research and contribute to the responsible development of AI tools for psychology. 10. Integrate AI insights into professional practice and research. </t>
   </si>
   <si>
@@ -427,9 +409,6 @@
     <t>Ethical Implications: Ensuring fairness and transparency in AI-driven engineering decisions. Legal Implications: Compliance with regulations related to data privacy and safety. Social Implications: Impact on the engineering workforce and the potential for job displacement. Examples: Positive: Improved efficiency, accuracy, and innovation in engineering processes. Negative: Over-reliance on AI, potential for biased or incorrect results, and job displacement.</t>
   </si>
   <si>
-    <t xml:space="preserve">AI in Engineering Mathematics Research: Academic papers and publications on AI applications in mathematical engineering. Case Studies on AI-Driven Computational Modeling: Real-world examples of AI being used to solve engineering problems. Online Courses: Platforms like Coursera, edX, and Udacity offer courses on AI and machine learning. Textbooks: Books on numerical methods, optimization, and machine learning.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t>Learners: Engineering students with a strong mathematical foundation. Current Level: Familiarity with mathematical concepts and some exposure to engineering principles, but limited AI knowledge. Expected Role: Able to apply AI-powered computational techniques to solve engineering problems and contribute to AI-driven innovation in the field.</t>
   </si>
   <si>
@@ -463,9 +442,6 @@
     <t> Qualifications: o Professor of Philosophy and Cognition with expertise in AI ethics. o Strong background in cognitive science, neuroscience, and ethical theory.  Skills: o Ability to bridge technical AI concepts with philosophical and ethical considerations. o Experience in interdisciplinary teaching and facilitating ethical discussions.</t>
   </si>
   <si>
-    <t> Resources: o Course duration: One semester (1214 weeks). o Access to datasets for behavioral science and neurocognitive studies. o Software tools for AI simulation and data analysis (e.g., Python, R). o Institutional support for interdisciplinary collaboration. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t>By the end of the course, students will: 1. Understand the fundamental concepts of AI and its applications in cognitive science and neuroscience. 2. Identify and analyze ethical dilemmas arising from AI development and deployment. 3. Critically evaluate the philosophical implications of AI on human cognition and consciousness. 4. Apply ethical frameworks to assess the moral responsibility of AI systems. 5. Engage in constructive dialogue on the social and policy implications of AI.</t>
   </si>
   <si>
@@ -931,18 +907,12 @@
     <t xml:space="preserve">   Ethical Implications:    Data Privacy: Ensuring the privacy and security of patient data used to train AI models.    Algorithmic Bias: Preventing bias in AI models that could lead to disparities in diagnosis and treatment.    Transparency: Ensuring that AI algorithms are understandable and explainable, allowing radiologists to trust their outputs.    Legal Implications:    Regulatory Compliance: Adhering to regulations regarding the use of AI in medical devices and healthcare.    Liability: Determining liability in cases where AI-based diagnoses result in errors.    Data Usage: Compliance with HIPAA and other data protection regulations.    Social Implications:    Changes in Radiologist Roles: Shift from manual image analysis to overseeing AI systems and focusing on complex cases.    Accessibility: Potentially improving access to specialist diagnostic services in remote or underserved areas.    Patient Trust: Building patient trust in AI-based diagnostic tools.    Examples:    Positive: Earlier and more accurate diagnosis of diseases, faster turnaround times, reduced radiation exposure for patients.    Negative: Potential job displacement for radiologists, over-reliance on AI leading to a decline in diagnostic skills, and misdiagnosis due to flawed AI algorithms. </t>
   </si>
   <si>
-    <t xml:space="preserve">     Textbooks:    "Deep Learning for Medical Image Analysis" by Sebastien Ourselin and Maria Drangova    "Artificial Intelligence in Medical Imaging" by Thomas W. Schultz    Scientific Journals:    Radiology    Medical Image Analysis    IEEE Transactions on Medical Imaging    Journal of Medical Imaging and Radiation Oncology    Online Courses:    Coursera: "AI for Medical Diagnosis"    edX: "Deep Learning for Medical Imaging"    Udacity: "AI for Healthcare"    Open Educational Resources (OER):    MIT OpenCourseware: Courses on artificial intelligence and machine learning.    Open Access articles in journals like PLOS ONE.    AI Tools and Platforms:    TensorFlow, PyTorch for developing AI models.    Cloud-based platforms (e.g., Google Cloud Healthcare API, AWS SageMaker) for accessing AI tools and infrastructure.    Datasets:    National Institutes of Health (NIH) Chest X-ray dataset.    The Cancer Imaging Archive (TCIA).  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Bachelor's students studying medicine, typically in their third or fourth year.    Limited prior experience with AI or programming.    Basic understanding of medical concepts and imaging modalities.    Some have heard of AI but lack a deep understanding of its application.    Expected Role After Completion:    Users of AI-powered diagnostic tools.    Decision-makers who need to understand the capabilities and limitations of AI in radiology.    Potential collaborators with AI specialists in research and clinical settings. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Radiology.    10+ years of academic experience in radiology.    2 years of industry experience in AI applied to medical imaging.    Strong publication record in radiology and related fields.    Skills:    Expertise in radiology imaging modalities, interpretation, and clinical practice.    Solid understanding of AI concepts, including machine learning, deep learning, and computer vision.    Ability to translate technical AI concepts into practical applications for radiology.    Experience in teaching university-level courses.    Excellent pedagogical skills to engage students with varied backgrounds. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course Duration: One semester (15 weeks) with 3 hours of lectures and 2 hours of lab sessions per week.    Budget: Standard university budget for course delivery.    Personnel: Teaching assistant with basic programming skills and experience in medical imaging.    Availability of domain-specific data: Access to anonymized medical images from the universityâ€™s radiology department.    Access to software and hardware:    Cloud-based access to AI platforms (e.g., Google Colab, AWS SageMaker).    Basic computing resources for running AI models (provided by the university).    Access to medical image viewing software (e.g., Osirix, Horos).    Institutional support for interdisciplinary teaching: Collaboration with the Computer Science department for guest lectures and technical support.  Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Quizzes: Weekly quizzes to assess understanding of key AI concepts and applications in radiology. 2.  Individual Assignments:    Case study analysis: Evaluating AI-based diagnostic tools.    Data analysis: Processing and analyzing medical image datasets. 3.  Group Project:    Develop a proposal for an AI-based solution to a specific problem in radiology.    Present the project proposal to the class. 4.  Midterm Exam: Comprehensive exam covering basic AI concepts and their application in radiology. 5.  Final Exam: Comprehensive exam focusing on the use cases, ethical considerations, and limitations of AI in radiology. 6.  Class Participation: Active engagement in class discussions and lab sessions. </t>
   </si>
   <si>
@@ -958,18 +928,12 @@
     <t xml:space="preserve">   Ethical Implications:    Autonomous systems raise concerns about accountability and decision-making in critical situations.    Data privacy and security become crucial with the collection and analysis of sensitive aerospace data.    Bias in AI algorithms could lead to unfair or inaccurate predictions.    Legal Implications:    Liability issues in case of accidents involving autonomous aircraft or spacecraft.    Compliance with international regulations and standards for AI-based systems.    Data ownership and usage rights.    Social Implications:    Potential job displacement due to automation in manufacturing and flight operations.    Increased efficiency and reduced costs can benefit the industry and society but may require workforce transitions.    Enhanced safety and reliability in aerospace systems can lead to societal benefits.    Examples:    Positive: AI-driven predictive maintenance reduces aircraft downtime and enhances passenger safety. AI-based autonomous navigation increases efficiency in space exploration missions.    Negative: AI malfunctions during critical flight phases can lead to accidents. Job losses due to automation may affect the workforce. </t>
   </si>
   <si>
-    <t xml:space="preserve">   NASA Technical Reports Server (NTRS): Access to research papers and publications on AI applications in aerospace.    ESA Publications: Research papers and reports from the European Space Agency.    AIAA (American Institute of Aeronautics and Astronautics) Journals and Conferences: Technical papers and conference proceedings on aerospace engineering topics.    MIT OpenCourseware: Courses on AI and related topics with application in engineering.    Aerospace Engineering Forums: Online discussion platforms for professionals and researchers to share insights and knowledge.    Online Courses:    Coursera: "AI for Robotics" by University of Pennsylvania.    edX: "Artificial Intelligence" by Columbia University.    Udacity: "Self-Driving Car Engineer Nanodegree" (relevant for autonomous systems).    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.     "Aerospace Engineering: An Introduction" by S. Ahmed.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Aerospace engineers with a bachelor's or master's degree.    Researchers and professionals in the aerospace sector.    Background in mathematics, physics, and engineering fundamentals.    Varying levels of prior exposure to AI concepts, with some having basic programming experience (Python).    Expected Role After Completion:    Users of AI tools and systems in their respective roles.    Decision-makers who can evaluate and implement AI solutions.    Potential developers of AI applications tailored for specific aerospace needs. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Aerospace Engineering or a related field.    At least 3 years of research experience in AI applications within the aerospace domain.    Solid understanding of machine learning, deep learning, and data analysis.    Skills:    Proficiency in programming languages such as Python, especially with libraries like TensorFlow, PyTorch, and scikit-learn.    Strong grasp of aerospace fundamentals and relevant data types.    Experience in designing and implementing AI models for engineering applications.    Effective communication, teaching, and mentoring skills. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, cloud computing resources, and potential guest speakers.    Personnel: Teaching assistants to support hands-on labs and student projects.    Course Duration: One semester (14 weeks), with 3 hours of lectures and 2 hours of lab work per week.    Availability of Domain-Specific Data: Access to public aerospace datasets, as well as the potential to leverage in-house data through research collaborations.    Access to Software and Hardware:    High-performance computing resources for training complex AI models.    AI development tools and libraries (TensorFlow, PyTorch, scikit-learn).    Simulation software such as MATLAB and ANSYS.    Institutional Support:    Support for interdisciplinary teaching and collaboration with other departments (e.g., computer science).    Access to university-wide computing infrastructure.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Data analysis assignments using provided aerospace datasets.    Problem-solving exercises involving AI algorithms. 2.  Group Projects:    Design and implement an AI-based solution for a specific aerospace problem (e.g., developing an AI model for predicting aircraft engine failures, developing an autonomous drone using AI-based navigation).    Present project findings in a written report and an oral presentation. 3.  Quizzes:    Regular quizzes to assess understanding of key AI concepts and techniques. 4.  Midterm Exam:    Evaluate knowledge of the theoretical foundations of AI and its applications in aerospace. 5.  Final Exam:    Comprehensive assessment of course learning outcomes, including problem-solving and conceptual understanding. 6.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -985,9 +949,6 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI models, leading to uneven access to benefits for different farmers or regions.    Data privacy and ownership concerns related to the collection and use of agricultural data.    Impact on smallholder farmers and traditional farming practices.    Legal Implications:    Compliance with data protection regulations and intellectual property rights.    Liability issues related to AI-driven agricultural decisions.    Regulation of AI-powered agricultural technologies.    Social Implications:    Potential displacement of farm labor due to automation.    Opportunities for new jobs in the agricultural technology sector.    Impact on food security and affordability.    Potential for increased sustainability and reduced environmental impact.    Examples:    Positive: Increased crop yields, reduced resource consumption, improved food quality and safety.    Negative: Job losses, increased dependence on technology, potential for misuse of AI for corporate gains. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    FAO E-learning Center: Various courses and resources on sustainable agriculture and technology.    MIT OpenCourseWare: Courses on AI and machine learning.    Stanford Online: Courses on precision agriculture and data science.    Textbooks:    "Precision Agriculture: Technology and Management Strategies" by Ian Yule and Graeme Edwards.    "Artificial Intelligence in Agriculture" by Pradeep Kumar and Anju Sharma.    Online Courses:    Coursera: Courses on AI in agriculture and related fields.    edX: Courses on data science and machine learning.    Udemy: Courses on specific AI tools and techniques.    Articles and Journals:    Computers and Electronics in Agriculture.    Precision Agriculture Journal.    Nature Food.    Workshops &amp; Conferences:    AI in Agriculture workshops by agricultural and technology organizations.    Precision Agriculture conferences.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Agronomy students (both undergraduate and graduate levels).    Agricultural researchers (including faculty, post-doctoral fellows, and research staff).    Professionals in the agricultural sector seeking to integrate AI into their practices.    Current Level of AI Knowledge and Related Skills:    Varying levels of AI knowledge, with some having basic exposure to data analysis.    Background in agricultural sciences, including agronomy, soil science, and crop physiology.    Basic mathematical skills are expected.    Limited programming skills (some might have basic experience with statistical software).    Expected Role After Completing the Course:    Utilize AI tools and techniques for precision and sustainable farming practices.    Interpret AI-driven insights for improved decision-making.    Contribute to the development and implementation of AI solutions in agriculture.    Engage with AI technology as informed users and potential innovators. </t>
   </si>
   <si>
@@ -1012,18 +973,12 @@
     <t xml:space="preserve">   Ethical Implications:    Concerns about authorship and originality of AI-generated art.    Potential for bias in AI algorithms that impact artistic expression and cultural representation.    Issues related to copyright and intellectual property of AI-created works.    Legal Implications:    Need for clear guidelines on the legal status of AI-generated art and design.    Challenges related to copyright infringement and the use of copyrighted data for AI training.    Social Implications:    Impact on the role of human artists and designers in the creative process.    Potential for AI to democratize art creation and make it more accessible to a wider audience.    Concerns about the displacement of human artists and designers due to AI automation.    Examples:    Positive: AI can augment human creativity, enabling artists to explore new forms of expression, democratizing the creation process and breaking down barriers in art.    Negative: AI could lead to the devaluation of human artistry, potentially perpetuating existing biases in the art world.    Domain-specific considerations include the need to balance technological innovation with preserving the human element in creative work. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    Creative Commons licensed art datasets.    Online tutorials and documentation on AI art tools.    Online Courses:    Coursera: "AI for Creative Practice"    Udemy: "Generative Art with AI"    Kadenze: "Creative Machine Learning"    Textbooks:    "Deep Learning for Vision Systems" by Mohamed Elgendy    "Generative Deep Learning" by David Foster    AI Art Exhibitions:    Ars Electronica Festival    SIGGRAPH Art Gallery    AI Art Galleries online (e.g., AI Art Online)    Creative Coding Platforms:    Processing    p5.js    TouchDesigner    Research Papers and Articles:    ACM Digital Library (related to AI and art)    IEEE Xplore (related to AI and design)    Communities and Forums:    Reddit's r/MachineLearning and r/creativecoding    Discord servers focused on AI art and design. ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students in art and design programs.    Practicing artists and designers seeking to integrate AI into their workflow.    Students from other disciplines (e.g., computer science) interested in the intersection of AI and creativity.    Current Level of AI Knowledge and Related Skills:    Minimal to moderate prior experience with AI or programming.    Basic understanding of visual design principles and creative processes.    Some may have experience with creative software (e.g., Adobe Creative Suite).    Background in the Domain:    Strong foundation in art and design principles.    Experience with various creative media and techniques.    Expected Role After Completing the Course:    Creative professionals who can utilize AI tools to enhance their artistic practice.    Designers who can incorporate AI into their design processes.    Individuals who can critically evaluate the impact of AI on creative fields. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD or MFA with a specialization in digital art or design.    Extensive experience in using AI tools for creative workflows.    Demonstrated ability to bridge technical AI concepts with practical artistic applications.    AI-Related Skills and Competencies:    Proficiency in AI and machine learning concepts (GANs, VAEs, CNNs).    Experience with AI programming languages (Python) and libraries (TensorFlow, PyTorch).    Domain Expertise:    Deep understanding of art and design principles and practices.    Experience with various creative media and techniques.    Teaching Experience and Pedagogical Skills:    Proven track record of teaching university-level art and design courses.    Ability to engage students with diverse backgrounds and skill levels.    Experience in designing and delivering hands-on workshops and labs. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses (e.g., Adobe Creative Suite, AI tools) and hardware resources.    Personnel: Teaching assistants with expertise in AI and art and design.    Course Duration: One semester (12-14 weeks).    Availability of Domain-Specific Data:    Access to large datasets of images, videos, and 3D models for AI training.    Potential collaborations with museums or art institutions for data access.    Access to Software and Hardware:    Access to computers with GPUs for AI model training.    Software licenses for AI tools and creative applications.    Potential access to VR/AR equipment for interactive art projects.    Institutional Support:    Support for interdisciplinary teaching initiatives.    Collaborative opportunities with other departments (e.g., computer science, engineering). ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Hands-on exercises using AI tools to create generative art and style transfer projects.    Written reflections on the creative process and the impact of AI on the art. 2.  Group Projects:    Collaborative creation of interactive art installations using AI.    Presentation of project proposals, progress reports, and final outcomes. 3.  Quizzes:    Regular quizzes to assess understanding of AI concepts and techniques. 4.  Final Portfolio:    A curated collection of AI-generated artwork and design projects. 5.  Class Participation:    Active engagement in class discussions and peer critiques.    Contribution to collaborative learning activities. </t>
   </si>
   <si>
@@ -1039,18 +994,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI models leading to skewed results or misinterpretations.    Transparency concerns regarding how AI algorithms make decisions.    Responsible use of AI in research and data analysis.    Legal Implications:    Data ownership and usage rights for astronomical data.    Compliance with international data sharing policies.    Social Implications:    Democratization of research through access to AI tools.    Potential shifts in roles within the astronomy community.    Public perception and understanding of AI-driven discoveries.    Examples:    Positive: Accelerated scientific discovery, more efficient data analysis, new insights into the universe.    Negative: Over-reliance on AI, potential for misinterpreting AI results, job displacement for some researchers. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Online Courses:    Coursera: "AI for Astronomy" (Hypothetical, but similar courses may exist).    edX: "Introduction to Data Science in Python."    Webinars:    Astronomy AI Webinar Series by various institutions (e.g., Space Telescope Science Institute).    Webinars by NASA, ESA, and other space agencies focused on using AI in astronomy.    Open Educational Resources (OER):    The Astropy Project Documentation (Python library for astronomy).    NASA Open Data Portal and Archives.    Data repositories like the Sloan Digital Sky Survey (SDSS).    Textbooks:    "Data-Driven Science and Engineering: Machine Learning, Dynamical Systems, and Control" by Steven L. Brunton and J. Nathan Kutz.    "Astronomy Methods" by Hale Bradt (for astronomical background).    Research Articles:    Papers published in journals like The Astrophysical Journal, Astronomy &amp; Astrophysics, and Monthly Notices of the Royal Astronomical Society.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Graduate students and researchers in astrophysics and astronomy.    Some background in physics and mathematics is expected.    Varying levels of familiarity with Python programming (basic proficiency recommended).    Familiarity with astronomical concepts and data analysis techniques.    Expected Role After Completion:    Utilize AI tools and techniques to analyze astronomical data.    Develop AI models for specific research problems.    Critically evaluate the results of AI-driven analysis.    Contribute to the development of new AI applications in astronomy. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Astronomy/Astrophysics with a focus on data analysis and AI.    10+ years of research and teaching experience in astronomy.    Proven track record of using machine learning for astronomical research.    Proficiency in Python and relevant AI libraries (e.g., TensorFlow, PyTorch, scikit-learn).    Skills:    Deep understanding of astronomical phenomena and data analysis.    Expertise in machine learning, deep learning, and other AI techniques.    Ability to communicate complex concepts clearly and effectively.    Experience in interdisciplinary teaching and curriculum development. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (14-16 weeks).    Access to high-performance computing resources for training AI models.    Availability of astronomical datasets from various telescopes and surveys.    Software licenses for AI tools and data analysis packages.    Teaching assistants with experience in Python and machine learning.    Institutional support for interdisciplinary collaboration.    Constraints:    Limited budget for specialized hardware and software.    Potential challenges in accessing sensitive astronomical data.    Time constraints for in-depth coverage of all AI methods.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Data preprocessing and visualization exercises.    Implementation of basic machine learning models.    Critical analysis of research papers utilizing AI in astronomy. 2.  Group Project:    Develop and implement an AI-based solution for a specific astronomical problem.    Project reports and presentations detailing methodology, findings, and implications. 3.  Midterm and Final Exams:    Assess understanding of key AI concepts and their application to astronomy.    Include problem-solving questions and critical analysis tasks. 4.  Class Participation:    Active engagement in discussions and in-class activities.    Asking insightful questions and contributing to collaborative learning. </t>
   </si>
   <si>
@@ -1066,18 +1015,12 @@
     <t xml:space="preserve">   Ethical Implications: Bias in AI models leading to health disparities, privacy concerns with genomic data, access to AI-driven diagnostics and therapeutics.    Legal Implications: Data protection regulations (e.g., GDPR, HIPAA) for sensitive biological and patient data, intellectual property rights for AI-generated discoveries, and liability issues in automated diagnostics and treatment.    Social Implications: Job displacement in some traditional biotech roles, changes in healthcare delivery, and public acceptance of AI-driven biological interventions.    Examples:    Positive: Accelerated drug discovery, enhanced diagnostic accuracy, more personalized and effective therapies.    Negative: Risk of AI bias leading to unfair treatment outcomes, misuse of genetic data, and increased healthcare costs due to expensive AI technologies.    Specific Concerns: The need for transparency in AI algorithms, ensuring data security, and addressing the ethical implications of using AI for human health. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Online Courses:    Coursera: "Bioinformatics Specialization" by Johns Hopkins University    edX: "AI for Medicine" by DeepLearning.AI    Udacity: "Intro to Machine Learning for Healthcare"    Textbooks:    "Bioinformatics: Sequence and Genome Analysis" by David W. Mount    "Deep Learning for the Life Sciences" by Bharath Ramsundar and Peter Eastman    "Artificial Intelligence in Drug Discovery" by Brian D. Kelley    Journals:    Bioinformatics    Nature Biotechnology    Cell    PLoS Computational Biology    Open Educational Resources (OER):    GitHub repositories with AI and bioinformatics code examples    National Institutes of Health (NIH) databases and resources    PubMed Central for research articles ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Biotechnology students (undergraduate and graduate level) with a strong foundation in biology and chemistry.    Biotechnology researchers and professionals looking to integrate AI into their work.    Some learners may have basic programming experience.    Background in the Domain:    Solid understanding of molecular biology, genetics, biochemistry, and cell biology.    Basic knowledge of experimental design and data analysis.    Expected Role After Completing the Course:    Ability to understand and critically evaluate AI applications in biotechnology research.    Capability to identify opportunities for AI integration in their work.    Ability to use AI tools and techniques for specific tasks like data analysis, modeling, and prediction.    Potential to collaborate with AI developers or data scientists. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Biotechnology or a related field (e.g., Bioinformatics, Computational Biology).    Minimum 3 years of experience actively integrating AI into bioinformatics research.    Experience in analyzing biological datasets and developing AI models.    Skills:    Strong command of AI/ML concepts and algorithms.    Expertise in applying AI to biological datasets.    Experience in programming languages like Python, R, and relevant libraries (TensorFlow, PyTorch, scikit-learn).    Experience in teaching and communicating complex concepts effectively.    Ability to bridge the gap between AI and biotechnology. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Funds to support software licenses, cloud computing credits, and teaching assistant support.    Personnel: Teaching assistants with relevant AI/bioinformatics experience.    Course Duration: One semester (14-16 weeks).    Availability of Domain-Specific Data: Access to public and/or university-specific datasets.    Access to Software and Hardware: Access to high-performance computing resources (cloud or local), AI/ML software libraries, and visualization tools.    Institutional Support: Collaboration with the computer science department, support for interdisciplinary research, and ethical review board for research involving patient data. ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Analyzing and interpreting biological data using AI tools.    Case studies of AI applications in biotechnology.    Short essays on the ethical implications of AI in biotechnology. 2.  Group Project:    Design and implement an AI-based solution to a specific biotechnology problem (e.g., drug target prediction, protein structure prediction).    Develop a project report and presentation outlining the problem, approach, results, and implications. 3.  Quizzes:    Regular quizzes to assess understanding of key concepts and methodologies. 4.  Midterm Exam:    Comprehensive exam covering foundational AI concepts and their applications in biotechnology. 5.  Final Presentation:    Present the group project and discuss the results and broader impacts of the project. 6.  Class Participation:    Active involvement in class discussions, debates, and group work. </t>
   </si>
   <si>
@@ -1093,9 +1036,6 @@
     <t xml:space="preserve">   Ethical Implications:    Data privacy concerns related to sensitive operational data.    Potential bias in AI models that may lead to unfair or inaccurate predictions.    Transparency issues with complex AI algorithms.    Legal Implications:    Compliance with data protection regulations and industry-specific standards.    Liability concerns for failures arising from AI-driven maintenance decisions.    Social Implications:    Potential changes in the workforce due to automation and reliance on AI tools.    Need for upskilling and reskilling of maintenance personnel to interact with AI systems.    Examples:    Positive: Reduced downtime, cost savings, improved safety, increased motor lifespan, and energy efficiency.    Negative: Misdiagnosis by flawed AI models, job displacement in traditional maintenance roles, and potential over-reliance on AI without human oversight.    Domain-Specific Concerns: The need for robust, reliable, and explainable AI models that can handle noisy real-world sensor data and dynamic operating conditions. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "Electrical Machine Drives: Modeling, Analysis and Control" by S.K. Pillai.    "Electric Machinery and Power System Fundamentals" by Stephen J. Chapman.    "Predictive Maintenance of Industrial Equipment" by D.J. Myszka.    Online Courses:    Coursera: "Machine Learning" by Andrew Ng.    EdX: "Artificial Intelligence" by Columbia University.    Udemy: "Deep Learning A-Z™: Hands-On Artificial Neural Networks" by Kirill Eremenko and Hadelin de Ponteves.    Open Educational Resources (OER):    MIT OpenCourseware: Electrical Engineering Courses.    IEEE Xplore: Research articles on AI in electrical engineering.    Articles:    Research papers on AI-based predictive maintenance in journals like IEEE Transactions on Industrial Electronics, Sensors, and Applied Sciences.    Test Reports &amp; Manuals:    Motor manufacturer test reports.    Motor maintenance manuals.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners: Master's students specializing in electrical machine design.    Current Level of AI Knowledge: Basic awareness of AI concepts, likely familiar with tools like ChatGPT. Limited hands-on experience with AI programming or implementation.    Background in the Domain: Strong foundation in electrical machine theory, design, and operation.    Expected Role After Completion: To understand AI's potential in their field, to propose AI-based solutions for electrical motor maintenance and design, and to be able to work with AI-driven systems. They will be decision-makers rather than AI developers. </t>
   </si>
   <si>
@@ -1120,18 +1060,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI models due to biased training data, leading to unfair or inaccurate designs.    Transparency concerns regarding how AI-driven design decisions are made.    Responsibility for AI-driven failures, especially in safety-critical applications.    Legal Implications:    Intellectual property issues related to AI-generated designs.    Liability for products designed using AI, particularly in case of failures or accidents.    Compliance with regulations and standards for AI-driven systems.    Social Implications:    Potential displacement of engineers due to automation of design tasks.    Need for engineers to acquire new skills in AI and data analysis.    Democratization of design, enabling smaller companies and individuals to create complex products.    Examples:    Positive: Faster design cycles, higher performing products, reduced waste and costs, improved safety.    Negative: Job displacement, potential for biased designs, over-reliance on AI without critical thinking.    Domain-Specific Concerns:    The need for careful validation of AI models before deployment in safety-critical applications.    Ensuring that AI-driven designs adhere to engineering standards and best practices. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "Machine Learning for Engineers" by Patrick P. C. L.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig    "Engineering Design" by Dieter &amp; Schmidt    Open Educational Resources (OER):    MIT OpenCourseware: Courses on machine learning, AI, and mechanical engineering.    Coursera, edX, and Udacity: Online courses on AI and machine learning.    Online Courses:    "Machine Learning" by Andrew Ng (Coursera).    "Deep Learning Specialization" by deeplearning.ai (Coursera).    Various courses on AI and machine learning from Udemy and Udacity.    Scientific Papers:    Journals such as "Journal of Mechanical Design," "Applied Mathematical Modelling," and "Engineering Applications of Artificial Intelligence."    Software Documentation:    Documentation for machine learning libraries like TensorFlow, PyTorch, and scikit-learn.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Master's students in Machine Design with some familiarity with basic mathematics, statistics, and programming.    Most of the students have heard of AI and have used tools like ChatGPT for various tasks.    Prior Knowledge:    Solid background in mechanical engineering fundamentals, including statics, dynamics, mechanics of materials, and manufacturing processes.    Some familiarity with CAD software and simulation tools.    Basic programming skills (e.g., Python) are helpful but not a strict requirement.    Expected Role After Completion:    Able to understand the fundamental concepts of AI and how they can be applied to mechanical engineering design problems.    Capable of identifying potential applications of AI in their field and formulating AI-based solutions.    Able to critically evaluate the results of AI models and understand their limitations.    Capable of collaborating with AI specialists and data scientists.    Equipped to participate in the adoption of AI technologies in their future workplaces. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Mechanical Engineering with a specialization in Machine Design.    30 years of experience in academia teaching mechanical engineering design.    5 years of industry experience in machine learning and AI applications.    Skills:    Strong understanding of mechanical engineering design principles and practices.    Deep knowledge of AI and machine learning algorithms and their applications.    Ability to translate complex AI concepts into understandable terms for mechanical engineers.    Experience in teaching and mentoring students in engineering disciplines.    Familiarity with relevant software tools and technologies. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses, cloud computing, and project materials.    Personnel: The primary instructor, a teaching assistant, and support from the IT department.    Course Duration: One semester (15 weeks).    Data Availability: Access to publicly available datasets for mechanical engineering applications (e.g., material property databases, simulation datasets).    Software and Hardware:    Access to necessary software (e.g., Python, TensorFlow/PyTorch, CAD software, simulation tools).    Access to high-performance computing resources (e.g., university servers, cloud computing platforms).    Institutional Support: Support from the department for interdisciplinary learning and collaboration with other departments (e.g., computer science).  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Individual Assignments (40%):    Weekly problem sets on AI concepts and their application in mechanical engineering.    Individual coding assignments to implement basic machine learning models.    Group Project (40%):    A group-based design project where students apply AI to solve a real-world mechanical engineering problem.    Project report detailing the problem, the AI approach, results, and discussion.    Midterm and Final Exams (20%):    Exams to assess the students' understanding of key AI concepts and their application in mechanical engineering design.    Participation:    Active engagement in class discussions and activities. </t>
   </si>
   <si>
@@ -1147,18 +1081,12 @@
     <t xml:space="preserve">   Ethical Implications: Potential for bias in algorithms, data privacy concerns related to smart meters, and the impact of AI-driven automation on employment in the energy sector.    Legal Implications: Compliance with data privacy regulations, liability issues related to AI-driven decisions, and ensuring transparency in AI algorithms.    Social Implications: Potential for job displacement due to automation, changes in energy access and affordability, and the need for public education about AI in energy.    Examples:    Positive: Increased efficiency, reduced carbon emissions, improved grid reliability, and lower energy costs.    Negative: Job displacement in traditional energy sectors, potential for biased algorithms to impact access to energy, and security risks from AI-controlled energy infrastructure.    Domain-Specific Concerns: The need for robust cybersecurity measures for AI-controlled energy systems, ensuring that AI is used to promote equitable access to energy, and the importance of public trust in AI-driven energy solutions. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on energy systems, machine learning, and optimization.    Stanford Engineering Everywhere: Courses on renewable energy and AI.    Textbooks:    "Artificial Intelligence for Smart Energy Systems" by Faiçal Benhaddou and Mohamed Elhoseny.    "Renewable and Efficient Electric Power Systems" by Gilbert M. Masters.    Online Courses:    Coursera: "AI for Energy" Specialization.    edX: "Sustainable Energy" courses.    Udacity: Nanodegree programs in AI and Machine Learning.    Articles and Reports:    International Energy Agency (IEA) reports on AI in energy.    National Renewable Energy Laboratory (NREL) publications on AI for renewable energy.    IEEE Xplore and ScienceDirect journals on AI applications in the energy domain.    Webinars and Conferences:    AI in Energy webinars hosted by industry organizations.    Conferences such as the IEEE Power &amp; Energy Society General Meeting.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Students pursuing degrees in Environmental Engineering, Energy Engineering, or related fields.    Background in basic mathematics, physics, and engineering principles.    Limited prior experience with AI, but may have some exposure to programming concepts.    Expected Role After Completion:    Apply AI knowledge to analyze energy systems, develop sustainable solutions, and make data-driven decisions related to energy management.    Function as informed users and potential developers of AI-based tools for energy applications, and contribute to the development of AI-driven solutions in their field.    Become decision-makers who understand the capabilities and limitations of AI in the energy sector. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Energy Engineering, Environmental Engineering, or a related field, with a specialization in AI for sustainable systems.    Minimum 10 years of experience in academic teaching and research related to energy and sustainability.    Experience in AI and machine learning, specifically applied to energy systems.    Skills:    Strong expertise in AI and machine learning techniques (regression, classification, clustering, time-series analysis, reinforcement learning).    In-depth knowledge of energy systems, renewable energy technologies, and grid operations.    Ability to bridge technical AI concepts with practical energy applications.    Excellent teaching and communication skills, experience in facilitating group discussions, and a track record of student engagement. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Allocated budget for software licenses, cloud computing resources, and data acquisition.    Personnel: Teaching assistants with backgrounds in AI, machine learning, or energy engineering.    Course Duration: One semester (15 weeks).    Domain-Specific Data: Access to public datasets on energy consumption, weather patterns, and renewable energy output.    Software &amp; Hardware: Access to Python programming environments (Jupyter Notebooks), machine learning libraries (TensorFlow, PyTorch, scikit-learn), data analysis tools (Pandas, NumPy), and cloud computing resources (AWS, Google Cloud).    Institutional Support: Interdisciplinary teaching support from the university, collaborations with research centers focused on AI and energy, and resources for student projects.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Problem sets on applying machine learning algorithms to energy-related datasets (e.g., predicting energy consumption using time-series data).    Case studies on AI applications in energy, with a focus on analysis and interpretation of results. 2.  Group Project:    Design and implement an AI solution for a specific energy problem (e.g., optimizing solar panel placement, predicting grid faults).    Present project findings in a report and oral presentation. 3.  Quizzes:    Regular quizzes on key AI concepts, data analysis techniques, and energy domain knowledge. 4.  Midterm Exam:    Assess understanding of fundamental AI concepts and their application to energy systems. 5.  Final Exam:    Comprehensive assessment of learning outcomes, including problem-solving and application of knowledge to novel scenarios. 6.  Class Participation:    Active engagement in class discussions, Q&amp;A sessions, and peer learning activities. </t>
   </si>
   <si>
@@ -1174,18 +1102,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in AI algorithms leading to inequitable environmental policies.    Concerns about data privacy and security, especially when using sensitive environmental data.    Responsibility for AI-driven decisions that impact ecosystems and human populations.    Legal Implications:    Compliance with data protection laws and environmental regulations.    Liability for AI errors that lead to environmental damage or misallocation of resources.    Need for transparency in AI-driven environmental decision-making.    Social Implications:    Potential for job displacement in traditional environmental monitoring and management roles.    Increased access to environmental information and decision-making for diverse communities.    Improved public awareness and engagement in environmental conservation efforts.    Examples:    Positive: AI-powered early warning systems for natural disasters saving lives and resources, more effective conservation efforts through predictive modeling, enhanced monitoring of pollution sources.    Negative: Misuse of AI for exploitation of natural resources, biased algorithms leading to unequal environmental burdens, lack of transparency in AI-driven environmental policies.    Domain-Specific Concerns:    Need for interdisciplinary collaboration between AI experts and environmental scientists.    Ensuring that AI solutions are appropriate for diverse environmental contexts.    Addressing the limitations of AI in complex and dynamic natural systems. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    Open Climate Data: Data repositories for climate change research.    Global Forest Watch: Data and tools for forest monitoring.    IUCN Red List: Biodiversity data and conservation status assessments.    NASA Earthdata: Earth science data and resources.    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Environmental Data Analysis with MATLAB" by Dr. William Menke.    Online Courses:    Coursera: "AI for Earth" program.    edX: "Data Science for Environmental Applications."    Udacity: "Intro to Machine Learning."    Articles:    Nature Climate Change, Environmental Science &amp; Technology, Global Change Biology.    Research articles on AI applications in specific environmental domains.  Software and Tools:   Python libraries: Scikit-learn, TensorFlow, PyTorch, GDAL, Rasterio.   GIS software: QGIS, ArcGIS.    Cloud computing platforms: Google Earth Engine, AWS.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Graduate students and advanced undergraduates in Environmental Science, Ecology, Conservation Biology, and related fields.    Environmental professionals seeking to incorporate AI into their work.    Current Level of AI Knowledge and Related Skills:    Basic understanding of statistics and data analysis.    Limited to no prior experience with AI or machine learning.    Some familiarity with programming languages like Python is desirable but not required.    Background in the Domain:    Strong foundation in environmental science principles and concepts.    Experience with environmental data collection and analysis.    Expected Role After Completing the Course:    Be able to understand and interpret AI-driven insights in environmental science.    Be able to use AI tools for environmental data analysis and modeling.    Be able to contribute to the development and implementation of AI-based solutions for environmental problems.    Be able to critically evaluate the benefits and limitations of AI in their field. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Ph.D. in Environmental Science or a related field with a focus on AI-driven sustainability.    10+ years of experience in environmental research and teaching.    Strong publication record in AI applications for environmental science.    AI-Related Skills and Competencies:    Expertise in machine learning, deep learning, and data mining techniques.    Experience with AI programming languages and tools (e.g., Python, TensorFlow, scikit-learn).    Ability to design and implement AI-based solutions for environmental problems.    Domain Expertise:    In-depth knowledge of environmental science principles and concepts.    Experience with environmental data collection and analysis.    Understanding of the challenges and opportunities for AI in environmental science.    Teaching Experience and Pedagogical Skills:    Extensive experience teaching university-level courses.    Ability to explain complex technical concepts to diverse audiences.    Proficient in using a mix of teaching methods to enhance learning. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses and online learning resources.    Personnel: Teaching assistant support for lab sessions and assignment grading.    Course Duration: One semester (14 weeks) with 3 hours of class time per week.    Availability of Domain-Specific Data: Access to publicly available environmental datasets, with potential for student-driven data collection activities.    Access to Software and Hardware:    Access to university computer labs with necessary software installed (Python, GIS software, etc.).    Optional access to cloud computing resources for larger-scale data analysis.    Institutional Support for Interdisciplinary Teaching:    Support from the university's environmental science and computer science departments.    Potential for guest lectures from industry experts.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Short assignments focused on specific AI concepts and techniques.    Data analysis exercises using environmental datasets.    Case studies on real-world applications of AI in environmental science. 2.  Group Project:    Design and implementation of an AI-based solution for a selected environmental problem.    Includes data collection, model development, analysis, and presentation of results. 3.  Midterm Exam:    Written exam covering the fundamental concepts and techniques taught in the first half of the course. 4.  Final Exam:    Comprehensive written exam covering all course material. 5.  Class Participation:    Active engagement in discussions, in-class activities, and group work. 6. Presentation:   Presentation of group project findings.   Individual presentation of research papers. </t>
   </si>
   <si>
@@ -1201,18 +1123,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI algorithms leading to discriminatory practices in design or marketing.    Data privacy concerns related to the collection and use of customer data.    Transparency issues in AI-driven decision-making processes.    Legal Implications:    Compliance with data protection regulations like GDPR and CCPA.    Intellectual property rights related to AI-generated designs.    Liability issues for errors in AI-driven recommendations or automated processes.    Social Implications:    Changes in employment dynamics within the fashion industry due to automation.    Potential displacement of human designers and artisans.    Impact on cultural diversity and inclusivity in fashion.    Concerns about promoting unrealistic beauty standards through AI-powered virtual try-ons.    Examples:    Positive: Reduced waste through optimized production and personalized recommendations, improved customer satisfaction with virtual try-ons, and enhanced creativity through AI-assisted design.    Negative: Job displacement, bias in AI models that perpetuate stereotypes, and increased data privacy risks.    Domain-Specific Concerns:    The rapid pace of changing trends and the need for adaptable AI solutions.    The emotional and creative aspects of fashion design that are difficult for AI to replicate.    The importance of sustainability and ethical sourcing of materials in AI-driven fashion practices. </t>
   </si>
   <si>
-    <t xml:space="preserve">   FashionTech Reports: Industry reports from organizations like McKinsey, Vogue Business, and Business of Fashion that analyze technology trends in fashion.    Online Courses:    Coursera: "Fashion as Design" by The Museum of Modern Art (MoMA).    Udemy: "AI for Fashion" courses focusing on different applications.    edX: "Introduction to AI" courses from various universities.    Design Software Tutorials: Tutorials for Adobe Illustrator, CLO3D, and other design software that incorporate AI features.    Blogs and Articles: Articles from publications like "TechCrunch," "Wired," "The Verge," and "Fashionista" that cover AI innovations in the fashion industry.    Research Papers: Academic papers on AI applications in fashion from journals in computer science, engineering, and design.    Open Educational Resources (OER): Openly available materials such as lectures, tutorials, and datasets related to AI and fashion.    Industry Events: FashionTech conferences and webinars.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Fashion design students, fashion merchandising students, retail managers, entrepreneurs, and fashion tech enthusiasts.    Varied levels of technical expertise, from those with limited programming experience to those with some basic coding skills.    Background in fashion design, merchandising, retail management, or related areas.    Current Level of AI Knowledge:    Limited or no prior knowledge of AI concepts and terminology.    Basic understanding of computer technology and digital tools.    Some might have encountered AI applications in other contexts.    Expected Role After Completing the Course:    Ability to understand the potential of AI in fashion and its various use cases.    Ability to critically evaluate AI-driven solutions in the fashion industry.    Ability to collaborate with AI specialists to develop and implement AI solutions.    Ability to make informed decisions about the adoption of AI technologies in their work.    Ability to integrate AI tools into their creative and business processes. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Ph.D. in Fashion Technology, Computer Science, or a related field.    Minimum of 10 years of experience in fashion design, retail, or technology.    Extensive knowledge of AI concepts and techniques, including machine learning, computer vision, and natural language processing.    Experience working with AI tools and platforms for fashion applications.    AI-Related Skills and Competencies:    Proficiency in Python and other relevant programming languages.    Expertise in machine learning algorithms and deep learning frameworks.    Understanding of computer vision techniques for image analysis.    Knowledge of natural language processing (NLP) for text analysis.    Ability to explain complex AI concepts in a clear and understandable manner.    Domain Expertise:    Deep understanding of the fashion industry, including design, manufacturing, retail, and marketing.    Experience with fashion design processes and techniques.    Knowledge of fashion trends and consumer behavior.    Familiarity with fashion business operations and challenges.    Teaching Experience and Pedagogical Skills:    Proven experience in teaching university-level courses.    Ability to engage learners through a variety of teaching methods.    Experience in developing and delivering practical and hands-on learning activities.    Ability to assess learner progress and provide constructive feedback. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Adequate funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with AI and fashion expertise.    Course Duration: One semester (12-14 weeks).    Availability of Domain-Specific Data: Access to relevant datasets, such as fashion images, customer behavior data, and sales records.    Access to Software and Hardware:    Cloud-based platforms for AI model development.    Software for image processing, 3D modeling, and design.    Access to necessary computing resources (e.g., GPUs).    Institutional Support for Interdisciplinary Teaching:    Support from both the fashion and computer science departments.    Encouragement for collaborative projects between learners from different disciplines.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies analyzing the impact of AI on specific fashion brands or processes.    Reports evaluating the ethical implications of an AI-driven fashion solution.    Individual coding assignments using AI tools for fashion-related tasks. 2.  Group Project:    Develop a proposal for an AI-driven fashion innovation.    Design and implement a prototype of an AI-powered fashion application.    Present project findings to the class and instructors. 3.  Quizzes:    Regular quizzes on key AI concepts and applications in fashion. 4.  Final Presentation:    Present a comprehensive overview of the group project, including findings, insights, and challenges. 5.  Class Participation:    Active engagement in discussions and in-class activities.    Considerations:    Assessments will be designed to test both theoretical knowledge and practical application of AI concepts.    Real-world case studies and projects will be incorporated to ensure learners are prepared for the industry.    Assessments will be fair and take into account the diverse backgrounds and experiences of learners. </t>
   </si>
   <si>
@@ -1228,18 +1144,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential biases in AI algorithms used for food safety and nutrition recommendations.    Data privacy concerns related to consumer data and personal dietary information.    Impact on employment due to automation in food processing and agriculture.    Legal Implications:    Compliance with food safety regulations and labeling requirements.    Liability issues related to errors in AI-driven food safety systems.    Intellectual property concerns related to AI-generated recipes and food products.    Social Implications:    Improved food accessibility and affordability through optimized supply chains.    Potential for increased food waste due to AI-driven automation.    Impact on traditional food production practices and local economies.    Examples:    Positive: Enhanced food safety, improved nutritional quality, reduced waste, increased efficiency.    Negative: Potential for job displacement, algorithmic bias, and data privacy violations.    Domain-Specific Concerns: Need for transparency in AI decision-making processes, ensuring that AI systems are robust and reliable in the face of unexpected events, and the potential impact on traditional food cultures. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware on Food Science and Technology.    FAO (Food and Agriculture Organization) resources on food safety and agriculture.    Online Courses:    Coursera: "Food Science and Technology" series.    edX: "Nutrition Science" courses.    Udemy: Courses on AI and machine learning applied to food and agriculture.    Webinars and Conferences:    Institute of Food Technologists (IFT) webinars and conferences.    Food AI webinars and workshops.    Datasets:    USDA National Nutrient Database.    Kaggle datasets related to food and agriculture.    Open Food Facts dataset.    Articles and Journals:    Journal of Food Science.    Trends in Food Science &amp; Technology.    Comprehensive Reviews in Food Science and Food Safety.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Food science and nutrition students (undergraduate and graduate levels).    Professionals working in the food industry, including food scientists, nutritionists, and quality control specialists.    Individuals interested in the intersection of AI and food science.    Current Level of AI Knowledge and Related Skills:    Varying levels of AI knowledge, ranging from basic awareness to some familiarity with machine learning concepts.    Background in basic mathematics, statistics, and data analysis.    Some may have experience with programming (e.g., Python, R), but it’s not a strict prerequisite.    Background in the Domain:    Solid understanding of food science principles, including food chemistry, microbiology, and processing.    Familiarity with food safety regulations and nutritional guidelines.    Expected Role After Completing the Course:    Be able to identify and evaluate appropriate AI applications for specific food science problems.    Be able to interpret and utilize data generated by AI systems in food science.    Be able to contribute to the development and implementation of AI solutions in food science.    Gain the knowledge to be users, evaluators, and decision-makers in AI-driven food science contexts. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Food Science or related field, with a focus on AI applications.    10+ years of academic experience, including teaching and research.    Industry experience in food production, quality control, or food safety is highly desirable.    AI-Related Skills and Competencies:    Proficiency in machine learning, data analysis, and computer vision techniques.    Experience with relevant AI software and programming languages (e.g., Python, TensorFlow, PyTorch).    Knowledge of AI ethics and data privacy issues.    Domain Expertise:    Deep understanding of food science principles, food processing, and food safety practices.    Familiarity with current trends and challenges in the food industry.    Teaching Experience and Pedagogical Skills:    Proven track record in teaching university-level courses.    Ability to effectively explain complex concepts to diverse audiences.    Experience with active learning methodologies and online teaching platforms. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget:  Adequate budget for software licenses, data storage, and computing resources.    Personnel: Teaching assistants with AI and food science backgrounds.    Course Duration: One semester (15 weeks) or two semesters (30 weeks).    Availability of Domain-Specific Data: Access to food science datasets and databases.    Access to Software and Hardware: Access to AI software tools (e.g., Python, TensorFlow), computing resources (e.g., cloud services), sensor equipment, and laboratory facilities.    Institutional Support for Interdisciplinary Teaching: Support for collaborations between food science and computer science departments.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies on AI applications in food science (e.g., analysis of AI-driven food safety systems).    Data analysis exercises using AI tools and techniques.    Short essays on ethical and social implications of AI in food science. 2.  Group Project:    Design and implementation of an AI-based solution for a food science problem (e.g., developing a predictive model for shelf-life or a computer vision system for defect detection).    Project proposal, progress reports, and final presentation. 3.  Quizzes:    Regular quizzes on key AI concepts and their applications in food science. 4.  Final Exam:    Comprehensive exam covering all course topics. 5.  Class Participation:    Active engagement in discussions and in-class activities.    Contribution to group work.    Participation in peer review activities. </t>
   </si>
   <si>
@@ -1255,9 +1165,6 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in recommendation algorithms leading to unfair treatment of specific guest groups.    Concerns about data privacy and security related to the collection and use of guest data.    Transparency issues with AI decision-making processes and the need for explainable AI.    Legal Implications:    Compliance with data privacy regulations (e.g., GDPR, CCPA) and ensuring responsible use of guest data.    Liability issues in the event of AI-related errors or failures in service delivery.    Social Implications:    Potential job displacement for front-line staff due to automation, requiring workforce retraining and adaptation.    The need for human oversight and intervention to maintain the personal touch and quality of service.    Examples:    Positive: Enhanced guest satisfaction through personalized services, increased operational efficiency, and reduced costs.    Negative: Potential for decreased human interaction, over-reliance on technology, and potential for discriminatory outcomes.    Domain-Specific Concerns: Maintaining the human element of hospitality while leveraging AI capabilities, balancing personalization with privacy concerns, and ensuring equitable access to technology for both guests and staff. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Artificial Intelligence and Machine Learning.    Stanford Online: Courses on Machine Learning and Natural Language Processing.    Textbooks:    “Artificial Intelligence: A Modern Approach” by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "AI for Business: A Practical Guide" by Nicola J. Millard.    Online Courses:    Coursera: "AI for Business" specialization, various courses on machine learning and deep learning.    Udemy: Courses on "AI in Hospitality," "Machine Learning for Business," and "Data Science for Hospitality."    edX: Various courses on AI, data science, and business analytics.    Case Studies:    Harvard Business School case studies on AI applications in hotels and restaurants.    Industry reports and white papers on AI in hospitality from companies like Deloitte, McKinsey, and Accenture.    Articles:    Articles from hospitality publications (e.g., Hospitality Technology, Hotel Management) on AI trends in the industry.    Research papers from journals focusing on AI in service industries.    Websites and Blogs:    AI in Hospitality blogs and industry websites.    Towards Data Science and Medium for data science and AI articles.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students majoring in Hospitality Management, Tourism, and related fields.    Students with varying levels of technical background, typically with basic understanding of business analytics and statistics.    Students with limited or no prior formal training in AI or programming.    Background:    Strong understanding of hospitality operations, customer service, and business management principles.    Familiarity with industry-specific software and technologies.    Expected Role After Completion:    Be able to critically evaluate and propose AI solutions for specific hospitality challenges.    Become informed decision-makers on AI adoption and implementation in the hospitality industry.    Serve as AI champions within their organizations, promoting responsible and effective use of AI technologies.    Be able to collaborate with AI specialists and developers to implement AI solutions. </t>
   </si>
   <si>
@@ -1282,18 +1189,12 @@
     <t xml:space="preserve">   Ethical Implications:    Bias in algorithms leading to biased reporting.    Transparency issues with AI-generated content, including source attribution.    Potential for job displacement of journalists due to automation.    Concerns about using AI to manipulate public opinion or spread misinformation.    Legal Implications:    Copyright issues with AI-generated content.    Data privacy regulations when using user data for personalized news.    Accountability issues when AI makes errors or spreads false information.    Social Implications:    Changes in the role of journalists, shifting from content creation to curation and analysis.    Need for journalists to develop new skills to work with AI technologies.    Potential for increased media consolidation as larger organizations adopt AI faster.    Need for public awareness and education on the use of AI in journalism.    Examples:    Positive: Faster reporting of breaking news, better identification of fake news, personalized user experience.    Negative: Potential for algorithmic bias, job losses, and spread of misinformation.    Domain-Specific Concerns: Maintaining journalistic integrity, verifying information, and ensuring public trust are crucial considerations when implementing AI in journalism. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    "AI and Journalism" course by the Knight Center for Journalism in the Americas.    "Data Journalism Handbook" by the European Journalism Centre.    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Natural Language Processing with Python" by Steven Bird, Ewan Klein, and Edward Loper.    Online Courses:    Coursera: "AI for Journalists" by Google.    Udacity: "AI for Business Leaders." (Relevant for understanding AI strategy).    edX: "Introduction to Data Science for Journalists."    Articles and Reports:    Reports by the Columbia Journalism Review on AI in newsrooms.    Publications by the Reuters Institute for the Study of Journalism.    Research papers on NLP and AI applications in journalism.    Journalism AI Projects:    The Associated Press’s AI-powered automation.    BBC’s experiments with automated content generation.    ProPublica’s data journalism projects.    Media Industry Whitepapers:    Reports by industry organizations like the World Association of News Publishers (WAN-IFRA).    White papers by technology companies on AI and media.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate journalism students.    Working journalists looking to upskill or reskill.    Media professionals in related fields (e.g., editors, content managers, public relations).    Current Level of AI Knowledge and Related Skills:    Limited or no prior formal AI knowledge, may have basic understanding of technology.    Varying levels of data literacy and analytical skills.    Some familiarity with digital tools and platforms.    Background in the Domain:    Strong understanding of journalism principles, ethics, and practices.    Experience in news gathering, writing, and editing.    Expected Role After Completing the Course Regarding AI Interaction:    Users: Leverage AI tools to enhance news gathering, writing, and content distribution.    Decision-makers: Understand the strategic and ethical implications of AI in newsrooms.    Collaborators: Work with AI developers and data scientists to build and implement AI solutions. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD or Master’s degree in journalism, communications, or a related field.    Minimum of 5 years of experience in journalism, with a focus on digital media.    Experience with AI applications in journalism or related fields.    AI-Related Skills and Competencies:    Understanding of machine learning, NLP, and data analysis.    Ability to explain complex AI concepts in an accessible way.    Familiarity with AI tools and platforms relevant to journalism.    Domain Expertise:    Deep understanding of journalism ethics, practices, and industry trends.    Strong understanding of the challenges and opportunities in the media landscape.    Teaching Experience and Pedagogical Skills:    Experience in designing and delivering university-level courses.    Ability to engage students and facilitate effective learning.    Strong communication and presentation skills. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, access to AI platforms, and guest speakers.    Personnel: Teaching assistants with technical skills in AI and data analysis.    Course Duration: One semester (12–14 weeks).    Availability of Domain-Specific Data: Access to news archives, social media data, and public datasets relevant to journalism.    Access to Software and Hardware: Access to AI tools (e.g., Google Cloud AI Platform, Python libraries for NLP), cloud computing resources, and data visualization software.    Institutional Support for Interdisciplinary Teaching: Support for collaboration with computer science and data science departments.    Constraints:    Limited budget for specialized AI software and hardware.    Potential challenges in accessing proprietary data.    Need to adapt to rapidly evolving AI technologies.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Individual Assignments:    Case studies analyzing the use of AI in specific journalistic projects.    Essays discussing the ethical implications of AI in journalism.    Short reports on the use of specific AI tools for news gathering.    Group Projects:    Developing a proposal for an AI-driven journalistic project.    Designing and implementing a basic AI tool for a specific journalistic task.    Creating a presentation on the impact of AI on journalism.    Quizzes:    Regular quizzes on key AI concepts and applications.    Final Presentation:    Presenting a research project on AI in journalism.    Class Participation:    Active engagement in discussions, debates, and in-class activities.    Peer Evaluation:    Feedback on group projects and presentations. </t>
   </si>
   <si>
@@ -1309,18 +1210,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in AI algorithms based on historical data, leading to unfair outcomes.    Concerns about transparency and explainability of AI-driven legal decisions.    Impact on the role of lawyers and the legal profession.    Legal Implications:    Data privacy and security concerns related to using personal legal information.    Liability for errors made by AI systems.    Need for regulatory frameworks to govern the use of AI in law.    Social Implications:    Increased access to justice through AI-powered tools.    Potential job displacement for some legal professionals due to automation.    Changes in the way legal services are delivered and consumed.    Examples:    Positive: AI enhances access to legal information for underserved communities.    Negative: Algorithmic bias leads to unfair sentencing or denial of legal services.    Domain-Specific Concerns:    Maintaining the integrity and fairness of the justice system.    Ensuring that AI complements rather than replaces human judgment and ethical considerations. </t>
   </si>
   <si>
-    <t xml:space="preserve">   LegalTech Whitepapers: Reports and studies from organizations focused on AI in law, such as the ABA Center for Innovation and Legal Geek.    Seminars and Conferences: Events on LegalTech and AI in law from organizations like the International Legal Technology Association (ILTA) and the European Legal Technology Association (ELTA).    Online Courses:    Coursera: "AI for Law" by the University of Toronto.    edX: "Artificial Intelligence for Legal Professionals" by Microsoft.    Academic Journals:    Artificial Intelligence and Law Journal.    International Journal of Law and Information Technology.    Blogs and Articles:    Legaltech News.    Law.com.    The American Bar Association Journal.    Textbooks:    "The AI-Powered Lawyer: How Artificial Intelligence Is Transforming the Practice of Law" by Andrew Arruda.    "Legal Informatics: A Practical Guide" by Daniel Martin Katz.    Open Educational Resources (OER): MIT OpenCourseware for AI and NLP fundamentals.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Law students (undergraduate and graduate levels) interested in technology.    Practicing lawyers seeking to understand and adopt AI in their practice.    Legal professionals (paralegals, legal assistants) looking to enhance their skills.    Current Level of AI Knowledge:    Generally, little to no prior experience with AI programming or advanced mathematical concepts.    Basic computer literacy and familiarity with legal databases.    Background in the Domain:    Strong understanding of legal concepts, processes, and ethical considerations.    Expected Role After Completion:    Informed users of AI tools in legal practice.    Professionals who can critically evaluate and apply AI solutions in their work.    Potential leaders in the adoption and integration of AI in their legal organizations.    Decision-makers who understand the opportunities and challenges of AI in law. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Lawyer with a Juris Doctor (JD) degree and a strong interest in LegalTech.    At least 2 years of experience in AI adoption and implementation in the legal field.    Experience working with legal AI tools and technologies.    Knowledge of legal ethics, regulations, and compliance issues.    AI-Related Skills and Competencies:    Understanding of the fundamental principles of AI, machine learning, and natural language processing.    Ability to explain complex technical concepts in an accessible way to a non-technical audience.    Domain Expertise:    Deep understanding of the legal process and the challenges faced by legal professionals.    Familiarity with legal document management, research, and litigation procedures.    Teaching Experience and Pedagogical Skills:    Proven ability to engage students in active learning.    Experience in developing and delivering effective course content.    Ability to facilitate discussions and provide constructive feedback. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses and guest speakers.    Personnel: Teaching assistant with a background in computer science or data science.    Course Duration: One semester (14-16 weeks), 3 hours of class time per week.    Availability of Domain-Specific Data: Access to public legal databases and datasets for demonstration and practice.    Access to Software and Hardware:    Cloud-based AI platforms for demonstration purposes (e.g., Google Colab).    Access to legal research databases (LexisNexis, Westlaw, etc.).    Basic laptops or desktops for students.    Institutional Support:    Interdisciplinary teaching support from the Computer Science department.    Access to university’s online learning management system (LMS).  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case study analysis of AI applications in specific legal areas.    Critical review of a legal AI technology or tool.    Short essays on ethical or legal issues related to AI in law. 2.  Group Project:    Develop a proposal for an AI-based solution to a legal problem.    Present the proposal to the class.    Build a basic prototype of the proposed solution (if feasible). 3.  Quizzes:    Regular short quizzes on key concepts and readings. 4.  Midterm Exam:    Comprehensive exam covering the fundamental AI concepts and its application in the legal field. 5.  Final Exam:    Comprehensive exam assessing the learners overall learning and capability to apply the concepts in the legal domain. 6.  Class Participation:    Active engagement in class discussions and activities. </t>
   </si>
   <si>
@@ -1336,18 +1231,12 @@
     <t xml:space="preserve">   Ethical Implications:    Risk of bias in AI models trained on imbalanced datasets, leading to skewed linguistic analysis.    Concerns about data privacy when working with sensitive language data (e.g., personal conversations).    Potential for misuse of AI-generated language to create misinformation or deceptive content.    Legal Implications:    Issues related to intellectual property rights and data ownership, particularly when using copyrighted linguistic materials.    Compliance with data protection regulations (e.g., GDPR) when handling personal language data.    Social Implications:    Potential for job displacement in areas such as translation and language teaching due to increased automation.    Improved accessibility for individuals with disabilities through AI-powered speech and language technologies.    Enhanced understanding of language diversity and variation, leading to better cross-cultural communication.    Examples:    Positive: AI can identify endangered languages, allowing linguists to preserve them through documentation and revitalization efforts.    Negative: Misuse of AI-generated text to create propaganda or deepfakes, which can have political and social consequences. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Natural Language Processing.    Stanford NLP courses on Coursera and edX.    NLTK book (Natural Language Toolkit)    Textbooks:    "Speech and Language Processing" by Daniel Jurafsky and James H. Martin.    "Foundations of Statistical Natural Language Processing" by Christopher D. Manning and Hinrich Schütze.    Online Courses:    Coursera: "Natural Language Processing Specialization" by DeepLearning.AI.    edX: "Introduction to Natural Language Processing" by Microsoft.    Udacity: "Natural Language Processing Nanodegree."    Journals:    Computational Linguistics (MIT Press).    Journal of Natural Language Engineering (Cambridge University Press).    Language Resources and Evaluation (Springer).    Blogs and Articles:    Towards Data Science: Articles on NLP and AI applications in language.    AI blogs from research institutions like Google AI, OpenAI, and Facebook AI Research (FAIR).    Linguistic Society of America (LSA) Publications  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Graduate students in Linguistics, Computational Linguistics, and related fields.    Linguists and language researchers seeking to incorporate AI tools into their work.    Students with a background in linguistics or language research, and a basic understanding of statistics and programming.    Current Level of AI Knowledge and Related Skills:    Some familiarity with basic programming concepts (e.g., Python) is helpful, but not required.    Basic understanding of mathematical concepts like statistics and probability.    Varying levels of exposure to AI and machine learning techniques.    Background in the Domain:    Solid foundation in linguistic theory, including phonetics, phonology, morphology, syntax, and semantics.    Familiarity with different areas of linguistic research (e.g., sociolinguistics, historical linguistics).    Expected Role After Completing the Course:    Be able to apply AI and NLP techniques to analyze linguistic data.    Evaluate and choose appropriate AI tools for specific linguistic research questions.    Collaborate with AI specialists on interdisciplinary projects.    Understand the ethical and social implications of using AI in linguistics. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Ph.D. in Linguistics or Computational Linguistics with a focus on AI applications.    10+ years of academic experience teaching at the university level.    Extensive research experience in computational linguistics and natural language processing.    AI-Related Skills and Competencies:    Strong grasp of machine learning algorithms, deep learning architectures, and NLP techniques.    Proficiency in programming languages such as Python and relevant NLP libraries (e.g., NLTK, spaCy, Transformers).    Experience in developing and evaluating AI models for language processing tasks.    Domain Expertise:    In-depth understanding of linguistic theory and methodology.    Familiarity with different areas of linguistic research and their specific needs.    Teaching Experience and Pedagogical Skills:    Proven ability to explain complex concepts clearly and concisely.    Experience in designing and delivering effective learning experiences.    Ability to foster active learning and critical thinking among students. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Sufficient budget to acquire necessary software licenses and computational resources.    Personnel: Teaching assistants with expertise in AI and linguistics.    Course Duration: One semester (15 weeks), with 3 hours of class time per week.    Availability of Domain-Specific Data: Access to existing linguistic corpora and datasets.    Access to Software and Hardware:    Access to cloud-based computing resources (e.g., Google Colab, AWS SageMaker) for training AI models.    Software licenses for NLP libraries and tools.    Availability of high-performance computing clusters for large-scale data processing.    Institutional Support:    Support from the university's IT department for software and hardware maintenance.    Collaborative opportunities with other departments (e.g., computer science, data science).    Funding for interdisciplinary research projects.    Access to research labs and facilities.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Written assignments on analyzing real-world linguistic data using AI tools.    Critical analysis of research articles on AI applications in linguistics.    Short programming assignments on implementing basic NLP tasks. 2.  Group Project:    Design and implement a research project using AI to address a linguistic problem (e.g., developing a sentiment analysis model for social media text, creating a dialect identification system).    Project deliverables include a project proposal, a project report, and a final presentation. 3.  Midterm Exam:    Evaluate learners’ understanding of the basic concepts and techniques covered in the first half of the course. 4.  Final Exam:    Assess learners’ overall understanding of AI concepts and their application in linguistics. 5.  Class Participation:    Active participation in class discussions and group activities.    Regular engagement with online forums and resources. 6. Project Presentation:  Final presentation of the group project to the class.    Assessments will include both theoretical knowledge and practical application of AI tools to linguistic data. </t>
   </si>
   <si>
@@ -1363,18 +1252,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in algorithms leading to unfair treatment of certain regions or carriers.    Data privacy concerns regarding the collection and use of customer data and location information.    Transparency issues related to how AI algorithms make decisions.    Legal Implications:    Compliance with data protection regulations like GDPR and CCPA.    Liability issues in case of accidents involving autonomous vehicles or robots.    Contractual agreements and intellectual property considerations related to AI tools and software.    Social Implications:    Potential job displacement due to automation of manual tasks.    Need for workforce retraining and upskilling to adapt to AI-driven roles.    Improved efficiency and sustainability of logistics operations.    Potential to improve access to goods and services in remote areas.    Examples:    Positive: Optimized routes reducing fuel consumption and emissions.    Negative: Algorithmic bias leading to longer delivery times in certain communities.    Domain-Specific Concerns: Ensuring cybersecurity in logistics systems, managing the integration of legacy systems with AI tools, and addressing the complexities of global supply chains. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseWare: Courses related to supply chain management and logistics.    Stanford Online: Courses on AI and machine learning.    Textbooks:    "Supply Chain Management: Strategy, Planning, and Operation" by Sunil Chopra and Peter Meindl   "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    Online Courses:    Coursera: "Supply Chain Management Specialization" and "AI for Everyone"    edX: "MicroMasters in Supply Chain Management" and "Professional Certificate in Artificial Intelligence"   Udacity: "AI for Business Leaders" and "Intro to Machine Learning"    Articles and Blogs:    McKinsey &amp; Company: Articles on digital supply chain and logistics.    Gartner: Research reports on AI applications in supply chain.    Supply Chain Dive: News and analysis of supply chain technology.    Towards Data Science: Articles on AI and machine learning.   Case Studies:  Harvard Business School Case Studies on AI implementations in logistics.  Supply Chain Management Review: Case studies on supply chain best practices. ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Supply chain and logistics professionals with a range of experience levels (from entry-level to managers).    Professionals from various roles, including logistics planners, warehouse managers, transportation specialists, and supply chain analysts.    Individuals with a foundational understanding of logistics principles, but may not have prior experience with AI.    Some may have basic math and statistics knowledge but programming experience is not expected.    Expected Role After Completion:    Understand how AI can be applied to enhance and optimize logistics and supply chain processes.    Be able to identify opportunities for AI adoption within their organizations.    Effectively interact with AI-powered tools and systems.    Participate in decision-making processes involving AI implementation.    Be able to communicate the benefits and challenges of using AI in logistics to stakeholders. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Logistics manager or consultant with at least 5 years of experience in the field.    Proven track record of implementing AI or optimization tools in logistics operations.    Strong grasp of AI concepts, particularly machine learning and optimization algorithms.    Experience in data analysis and interpretation.    Master's degree or higher in logistics, supply chain management, or a related field.    Teaching experience in a university or professional setting is desirable.    Skills:    Ability to bridge the gap between technical AI concepts and practical logistics applications.    Strong communication and presentation skills.    Ability to engage learners with diverse backgrounds and experiences.    Familiarity with case study methodology and project-based learning.    Competence in using data analytics tools and visualization software. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (14-16 weeks).    Budget: Adequate for acquiring necessary software tools and datasets.    Personnel: Teaching assistant (TA) support for lab sessions and grading.    Availability of domain-specific datasets (e.g., open-source logistics datasets, simulated data).    Access to software and hardware:    Cloud-based AI platforms (e.g., Google Cloud AI Platform, AWS SageMaker)    Data visualization tools (e.g., Tableau, Power BI).    Simulation software for logistics operations.    Computing resources for data analysis and model training.    Institutional support for interdisciplinary teaching: Collaboration between business, engineering, and computer science departments.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments (30%):    Case study analysis of AI applications in real-world logistics scenarios.    Short assignments on data analysis and basic model implementation.    Research paper on a specific AI use case in logistics. 2.  Group Project (30%):    Students will work in groups to propose an AI solution for a chosen logistics problem.    Project deliverables include a report, a presentation, and a basic model or prototype. 3.  Quizzes (20%):    Regular quizzes on key concepts and AI algorithms. 4.  Final Exam (20%):    Comprehensive exam covering the concepts, applications, and implications of AI in logistics. </t>
   </si>
   <si>
@@ -1390,9 +1273,6 @@
     <t xml:space="preserve">   Ethical Implications:    Bias in AI algorithms leading to unfair outcomes in process optimization or job allocation.    Privacy concerns related to data collection and usage of worker activity.    Transparency issues with complex AI models, making it difficult to understand decision processes.    Legal Implications:    Compliance with data privacy regulations like GDPR and industry-specific regulations.    Liability concerns regarding AI-driven decisions that lead to accidents or defective products.    Intellectual property issues related to AI-generated designs and manufacturing processes.    Social Implications:    Job displacement due to automation, requiring workforce retraining and upskilling.    Potential changes in the nature of work, shifting from manual labor to AI-related roles.    Improved work conditions with reduced exposure to hazardous tasks through automation.    Examples:    Positive: Increased efficiency, reduced waste, improved product quality, safer working environments.    Negative: Job loss, deskilling, potential misuse of AI for worker surveillance, ethical concerns with autonomous systems.  Domain-Specific Considerations:    High cost of implementation and maintenance of AI systems.    Need for robust and secure data infrastructure.    Integration challenges with legacy systems.    Resistance to change from the existing workforce. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Industry 4.0 Workshops: Practical workshops on implementing Industry 4.0 technologies, including AI.    Manufacturing AI Case Studies: Real-world case studies demonstrating successful AI applications in manufacturing (e.g., Bosch, Siemens).    Online Courses:    Coursera: "AI for Manufacturing" by DeepLearning.AI    edX: "Smart Manufacturing and Industry 4.0" by various universities.    Udacity: "AI for Industrial Applications"    Textbooks:    "Artificial Intelligence in Manufacturing" by Prof. David Dornfeld.    "Industry 4.0: The Industrial Internet of Things" by Alasdair Gilchrist.    Research Articles: Publications in journals like IEEE Transactions on Automation Science and Engineering, Journal of Manufacturing Systems, and Applied Artificial Intelligence.    Open Source Tools and Libraries: TensorFlow, PyTorch, Scikit-learn, OpenCV    Industry Reports: Publications by consulting firms (e.g., McKinsey, Deloitte) on AI in manufacturing.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Industrial engineers, manufacturing managers, and supervisors with some background in manufacturing processes.    Current AI knowledge and skills: Limited or no formal AI training. Basic understanding of data analysis and statistical methods is beneficial.    Background in the domain: Strong understanding of manufacturing principles, processes, and operations.    Expected Role After Completing the Course:    Users: Able to understand and interpret AI-driven insights to optimize manufacturing processes.    Decision-makers: Capable of evaluating and implementing AI solutions within their manufacturing facilities.    Project managers: Competent in overseeing AI implementation projects, working collaboratively with AI specialists.    Potential champions: Individuals who can advocate for the adoption of AI in their organization. </t>
   </si>
   <si>
@@ -1417,18 +1297,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI algorithms leading to unfair or inaccurate predictions that could impact conservation efforts.    Data privacy concerns related to marine species location data.    Responsible use of AI in resource management and conservation.    Legal Implications:    Compliance with international laws and regulations concerning marine data sharing and access.    Legal frameworks governing the use of AI in protected areas.    Intellectual property rights related to AI-generated data and models.    Social Implications:    Impact on livelihoods of fishermen and coastal communities due to AI-driven fisheries management.    Potential for increased public awareness and engagement in ocean conservation efforts.    The need for education and training to ensure equitable access to AI tools and resources for oceanographic research.    Examples:    Positive: Faster and more accurate detection of marine pollution events, leading to quicker cleanup efforts.    Negative: AI-driven fisheries management leading to job losses in fishing communities if not implemented fairly.    Domain-Specific Concerns:    Ensuring the robustness and reliability of AI models in the face of noisy and incomplete oceanographic data.    Addressing the challenge of data scarcity in remote ocean regions.    The importance of human oversight in AI-driven decision-making. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    NOAA (National Oceanic and Atmospheric Administration) datasets and resources.    NASA Earthdata: Datasets and tools for Earth science research.    Ocean Observatories Initiative (OOI): Data from ocean observing systems.    Textbooks:    "Introduction to Oceanography" by Paul R. Pinet    "Descriptive Physical Oceanography" by George L. Pickard and William J. Emery.    "Deep Learning for Vision Systems" by Mohamed Elgendy    Online Courses:    Coursera: "AI for Everyone" by Andrew Ng    edX: "Introduction to Machine Learning"    Udacity: "Deep Learning Nanodegree"    Articles:    Peer-reviewed articles in journals like Nature, Science, Oceanography, and ICES Journal of Marine Science.    Articles from oceanographic research institutions and organizations.    Conferences:    Ocean Sciences Meeting    AGU Fall Meeting    AI in Marine Research conferences and workshops  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Graduate students and researchers in oceanography, marine biology, and related fields.    Some undergraduate students with a strong background in oceanography and quantitative sciences.    Current Level of AI Knowledge and Related Skills:    Varying levels of AI knowledge, ranging from minimal to some exposure to machine learning concepts.    Solid background in mathematics, statistics, and basic programming (e.g., Python, MATLAB) is expected.    Familiarity with scientific data analysis and visualization tools.    Background in the Domain:    Strong understanding of oceanographic principles, marine ecosystems, and data collection methods.    Experience in conducting field research and data analysis.    Expected Role After Completing the Course:    Be able to apply AI techniques to their own research projects in oceanography.    Be able to critically evaluate AI-based tools and models in their field.    Be able to collaborate with data scientists and AI experts on interdisciplinary research.    Be able to advocate for responsible and ethical use of AI in oceanography. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Oceanography or a related field.    Minimum of 10 years of research experience in oceanography.    Extensive experience in applying AI techniques to oceanographic problems.    Strong publication record in peer-reviewed journals.    AI-related skills and competencies:    Expertise in machine learning, deep learning, and computer vision.    Proficiency in programming languages (e.g., Python) and relevant AI libraries.    Knowledge of data management and processing techniques.    Domain Expertise:    Deep understanding of oceanographic processes, marine ecosystems, and data collection methods.    Experience in conducting field research and data analysis.    Teaching Experience and Pedagogical Skills:    Experience teaching university-level courses in oceanography or related fields.    Ability to explain complex AI concepts in a clear and accessible manner.    Experience in facilitating active learning and collaborative projects. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, computational resources, and guest lecturers, if applicable.    Personnel: Teaching assistants to support student learning and grading.    Course Duration: One semester (14-16 weeks) with 3 hours of lectures and 2 hours of lab/discussion per week.    Availability of Domain-Specific Data: Access to real-world oceanographic datasets from publicly available sources (e.g., NOAA, NASA) and research collaborations.    Access to Software and Hardware:    Access to computing resources (e.g., high-performance computing clusters, cloud platforms) for training AI models.    Software licenses for AI and data analysis tools (e.g., Python, TensorFlow, PyTorch, ArcGIS).    Institutional Support:    Interdisciplinary teaching support, enabling collaboration with computer science or data science departments.    Support for developing and maintaining course materials.    Support for sharing research data and code.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Weekly quizzes on key AI concepts and their application in oceanography.    Problem sets involving the application of AI techniques to oceanographic data.    Short reports analyzing case studies of AI applications in oceanography. 2.  Group Project:    Students will work in small groups to develop and implement an AI-based solution to a specific oceanographic problem, using real-world data.    Project will include a written report, code submission, and a final presentation. 3.  Midterm Exam:    Assess students' understanding of fundamental AI concepts and their application in oceanography. 4.  Final Presentation:    Each group will present their project findings and discuss the implications of their work. 5.  Class Participation:    Active participation in discussions and in-class activities. </t>
   </si>
   <si>
@@ -1444,18 +1318,12 @@
     <t xml:space="preserve">   Ethical Implications:    Bias in AI models due to skewed training data, potentially leading to disparities in diagnosis and treatment.    Data privacy and security concerns due to the sensitive nature of patient information.    Transparency and explainability of AI models to ensure trust and accountability.    Potential for over-reliance on AI, which may reduce the importance of clinical expertise.    Legal Implications:    Liability for errors made by AI models in diagnostic and treatment decisions.    Compliance with regulations like HIPAA, GDPR, and other data protection laws.    Intellectual property rights for algorithms and AI-driven discoveries.    Social Implications:    Potential displacement of some healthcare professionals due to automation of tasks.    Increased access to specialized care in underserved areas.    Improved patient outcomes, quality of life, and reduced healthcare costs.    Domain-Specific Concerns:    The need for robust validation and clinical trials to ensure the safety and efficacy of AI tools.    The challenge of integrating AI solutions seamlessly into existing clinical workflows.    Ensuring that AI tools are tailored to specific populations and cancer types. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Online Seminars:    American Society of Clinical Oncology (ASCO) webinars on AI in oncology.    National Cancer Institute (NCI) webinars on cancer research and AI applications.    PubMed Articles:    Peer-reviewed research articles on AI applications in cancer detection, treatment, and prognosis.    Search keywords: "Artificial Intelligence", "Machine Learning", "Oncology", "Cancer Diagnosis", "Cancer Treatment."    Cancer-Focused Datasets:    The Cancer Genome Atlas (TCGA) for genomic and clinical data.    The Cancer Imaging Archive (TCIA) for medical image data.    Open-source datasets for cancer classification, segmentation, and prediction.    Textbooks:    "Artificial Intelligence in Medicine" by Riccardo Bellazzi and Andrea Cavallini.    "Deep Learning for Medical Image Analysis" by S. Kevin Zhou, Hayit Greenspan, and Dinggang Shen.    Online Courses:    Coursera: "AI for Medicine" by Andrew Ng.    EdX: "Machine Learning for Healthcare" by MIT.    Udacity: "AI for Healthcare" Nanodegree.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Graduate students pursuing degrees in medicine (MD, MBBS) and biology (MSc, PhD) with an interest in oncology.    Students with basic knowledge of biology and medicine.    Some basic mathematical knowledge, although not required.    No prior AI or programming experience is expected, but some basic familiarity will be helpful.    Expected Role After Completion:    Users: Able to understand and critically evaluate AI-driven diagnostic and treatment strategies.    Decision-makers: Capable of making informed decisions on the use of AI in their clinical or research practice.    Collaborators: Able to collaborate with AI experts in developing and implementing new solutions.    Researchers: Able to apply AI tools and techniques to advance their research in oncology. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Oncology expert with a PhD/MD with 8 years of experience in oncology research.    2 years of experience in applying AI techniques to oncology-related problems.    Publications in peer-reviewed journals related to oncology and AI.    Skills:    Deep understanding of oncology principles, clinical practice, and research methodologies.    Practical knowledge of AI techniques, including machine learning, deep learning, and natural language processing.    Ability to explain complex technical concepts in a clear and accessible manner for a non-AI audience.    Experience in teaching and mentoring graduate students. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses, cloud computing resources, and AI tools.    Personnel: Teaching assistant support for technical guidance and grading.    Course Duration: One semester (15 weeks).    Availability of Domain-Specific Data: Access to de-identified cancer datasets through university partnerships or public repositories.    Access to Software and Hardware:    Cloud computing resources for training AI models (e.g., Google Cloud, AWS, Azure).    Software licenses for AI tools such as Python, TensorFlow, PyTorch, and scikit-learn.    Access to computational resources.    Institutional Support: Support from the university for interdisciplinary collaboration between medical and computer science departments.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Short written assignments on specific AI use cases in oncology.    Analysis of case studies involving AI-driven diagnostic or treatment decisions.    Critical evaluation of research articles related to AI in oncology. 2.  Group Project:    Design and implementation of a small AI project on a specific oncology problem (e.g., tumor segmentation, treatment response prediction).    Presentation of the project to the class, including methodology, results, and limitations. 3.  Quizzes:    Regular quizzes on key AI concepts and their applications in oncology. 4.  Midterm Exam:    Comprehensive exam covering fundamental concepts and applications of AI in oncology. 5.  Final Project:    A comprehensive project involving a proposal, development, and evaluation of an AI solution for an oncology-related problem. 6.  Class Participation:    Active engagement in discussions, presentations, and in-class activities. </t>
   </si>
   <si>
@@ -1471,18 +1339,12 @@
     <t xml:space="preserve">   Ethical Implications:    Bias in datasets leading to unfair or inaccurate predictions.    Privacy concerns regarding patient data.    Transparency and explainability of AI models ("black box" problem).    Responsibility for AI-driven decisions in healthcare.    Legal Implications:    Compliance with data protection regulations (e.g., HIPAA, GDPR).    Liability for errors or adverse events caused by AI systems.    Intellectual property rights for AI-generated drug candidates.    Social Implications:    Changes in the pharmaceutical workforce due to automation.    Potential for increased healthcare accessibility and affordability.    Public trust and acceptance of AI in healthcare.    Examples:    Positive: AI-driven drug discovery can lead to faster development of life-saving treatments.    Negative: AI bias might lead to unequal access to new therapies.    Domain-Specific Concerns:    Need for rigorous validation of AI models in a highly regulated environment.    Ensuring that AI tools are accessible and usable by pharmacologists. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on computational biology and machine learning.    Coursera: "AI for Medicine" specialization.    Online Courses:    Udacity: "AI for Drug Discovery" nanodegree.    edX: "Genomics Data Science" courses.    Textbooks:    "Deep Learning for the Life Sciences" by Bharath Ramsundar and Steven Kearnes.    "Bioinformatics: Sequence and Genome Analysis" by David W. Mount.    Journals:    Nature Biotechnology, Nature Medicine, Journal of Chemical Information and Modeling, Bioinformatics.    Datasets:    DrugBank, PubChem, ChEMBL, Protein Data Bank (PDB).    Kaggle: Datasets related to drug discovery and biomedical research.    Software and Tools:    R and Python (for data analysis and machine learning).    TensorFlow and PyTorch (deep learning libraries).    Molecular visualization tools (e.g., PyMOL, VMD).  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students in pharmacology, pharmaceutical sciences, and related fields.    Researchers in academia and industry working in drug discovery and development.    Professionals in the pharmaceutical industry looking to upskill in AI.    Current Level of AI Knowledge:    Basic understanding of statistical concepts.    Limited or no prior experience with machine learning and programming.    Strong background in pharmacology and biology.    Background in the Domain:    Solid foundation in pharmacology, biochemistry, and molecular biology.    Expected Role After Completion:    Users: Interpret AI-generated insights in drug discovery and research.    Decision-makers: Evaluate the application of AI in clinical trials.    Researchers: Apply AI techniques to novel drug design and development.    Potential AI developers: Contribute to the development of AI-driven tools for pharmacology. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Pharmacology, Computational Biology, or a related field.    Minimum 10 years of experience in pharmaceutical research, with expertise in AI-driven drug discovery.    Strong publication record in peer-reviewed journals.    AI-Related Skills and Competencies:    Proficiency in machine learning, deep learning, and data analysis.    Experience with AI software and tools (e.g., Python, TensorFlow, R).    Ability to explain complex AI concepts to non-AI specialists.    Domain Expertise:    Deep knowledge of drug discovery, pharmacology, and clinical trials.    Familiarity with relevant databases and resources.    Teaching Experience and Pedagogical Skills:    Experience in teaching university-level courses.    Ability to design effective learning activities and assessments.    Commitment to fostering a supportive and inclusive learning environment. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with expertise in AI and pharmacology.    Course Duration: One semester (12-14 weeks)    Availability of Domain-Specific Data: Access to public datasets (e.g., DrugBank, ChEMBL) and the possibility of using anonymized in-house data for practical exercises.    Access to Software and Hardware:    Computing resources with sufficient processing power for AI model training.    Licenses for necessary software (e.g., Python, R, TensorFlow, PyTorch).    Access to cloud-based computing platforms.    Institutional Support:    Support from the university to foster interdisciplinary collaboration.    Access to relevant research labs and facilities.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Data analysis and interpretation tasks using pharmacological datasets.    Case studies on the application of AI in specific drug development scenarios. 2.  Group Project:    Design and implement an AI-driven solution for a real-world pharmacological problem (e.g., drug repurposing, efficacy prediction).    Develop a comprehensive project report that includes methodology, results, and discussion. 3.  Quizzes:    Weekly quizzes to assess understanding of key AI concepts and their applications in pharmacology. 4.  Midterm Exam:    Comprehensive assessment of foundational concepts and their practical applications. 5.  Final Presentation:    Present group project findings to the class, including methods, findings, and implications. 6.  Class Participation:    Active engagement in class discussions and group activities. </t>
   </si>
   <si>
@@ -1498,18 +1360,12 @@
     <t xml:space="preserve">   Ethical Implications:    Data privacy and security concerns related to sensitive health information.    Potential for bias in AI algorithms, leading to unequal health outcomes for certain populations.    Transparency and explainability of AI models used in public health decision-making.    Informed consent and data ownership.    Legal Implications:    Compliance with data protection regulations (e.g., HIPAA, GDPR).    Liability issues related to AI-driven public health interventions.    Intellectual property rights for AI algorithms and public health tools.    Social Implications:    Potential for job displacement for public health professionals due to automation.    Impact of AI-driven interventions on health equity.    Public acceptance and trust in AI systems used in public health.    Potential for increased health disparities if AI is not equitably deployed.    Examples:    Positive: AI-driven early warning systems for pandemics, improved resource allocation, and personalized health interventions.    Negative: Algorithmic bias leading to the neglect of specific populations, data breaches, and lack of public trust in AI.    Domain-Specific Concerns:    The need for careful validation of AI models in diverse public health contexts.    The importance of involving public health professionals in the design and implementation of AI systems.    The challenge of integrating AI solutions into existing public health infrastructure. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    WHO Data and Statistics: [https://www.who.int/data](https://www.who.int/data)    CDC Data and Statistics: [https://www.cdc.gov/DataStatistics/](https://www.cdc.gov/DataStatistics/)    Open Health Data Repositories: (e.g., HealthData.gov, Kaggle Datasets).    Textbooks:    "Public Health Informatics and Information Systems" by Kevin Patrick and Robert E. Hoyt.    "Artificial Intelligence in Medicine" by Peter Szolovits and Isaac Kohane.    Online Courses:    Coursera: "AI for Medicine" by Andrew Ng.    edX: "Data Science in Public Health" from Johns Hopkins University.    Google AI for Social Good: [https://ai.google/social-good/](https://ai.google/social-good/)    Articles:    The Lancet: Public Health Journals.    JAMA: Public Health Journals.    IEEE Transactions on Biomedical Engineering.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Public health professionals (e.g., epidemiologists, health officers, program managers) with varying levels of experience.    Background knowledge in public health principles, epidemiology, and data analysis.    May have limited prior exposure to AI concepts and programming skills.    Expected Role After Completion:    Able to understand and evaluate AI-based public health interventions.    Able to critically assess the potential benefits and risks of using AI in their work.    Able to collaborate with AI experts to design and implement AI solutions for public health problems.    May be involved in data collection, data quality assurance, and interpretation of AI-driven insights.    Some may take roles in the development and implementation of these solutions. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Public Health or related field (e.g., Epidemiology, Biostatistics, Health Informatics).    4+ years of experience in conducting public health research using AI and machine learning.    Domain expertise in public health data, disease surveillance, and health systems.    Strong understanding of ethical and social implications of AI in public health.    Skills:    Proficiency in AI/ML techniques, including data analysis, predictive modeling, and natural language processing.    Ability to translate complex AI concepts into public health contexts.    Experience in teaching interdisciplinary courses and engaging diverse learners.    Excellent communication and presentation skills. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with technical skills in AI and data analysis, as well as domain expertise in public health.    Course Duration: One semester (14-16 weeks).    Availability of Domain-Specific Data: Access to public health datasets from WHO, CDC, and other sources, as well as potentially anonymized institutional datasets.    Access to Software and Hardware: Access to AI tools (e.g., Python, R, TensorFlow, Scikit-learn), cloud computing resources (e.g., Google Cloud Platform, AWS), and necessary hardware for data analysis.    Institutional Support: Support for interdisciplinary teaching and collaboration, as well as access to relevant research resources.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies on AI applications in public health.    Data analysis exercises using public health datasets.    Critical evaluation of AI-based public health interventions. 2.  Group Project:    Design and implement an AI solution to address a specific public health problem.    Develop a comprehensive project report that includes data analysis, methodology, results, and recommendations.    Present project findings to the class. 3.  Quizzes:    Regular quizzes on key AI concepts and public health applications. 4.  Class Participation:    Active engagement in discussions, Q&amp;A sessions, and group activities. 5.  Final Exam:    Comprehensive exam that assesses students’ understanding of AI principles, public health applications, and ethical considerations. </t>
   </si>
   <si>
@@ -1525,18 +1381,12 @@
     <t xml:space="preserve">   Ethical Implications: Risk of bias in AI algorithms due to biased training data, concerns about patient data privacy, and the potential for over-reliance on AI, leading to deskilling of radiologists.    Legal Implications: Liability concerns in cases of misdiagnosis by AI, compliance with data protection regulations (e.g., HIPAA), and the need for regulatory frameworks for AI-based medical devices.    Social Implications: Changes in the role of radiologists, the potential for job displacement, and the need for retraining and upskilling. Accessibility of advanced diagnostics in remote and underserved areas.    Examples:    Positive: Faster and more accurate diagnoses, improved patient outcomes, reduced radiologist burnout, increased accessibility to specialized care.    Negative: Algorithmic bias leading to health disparities, potential for job displacement among radiologists, over-reliance on AI leading to loss of clinical skills.    Domain-Specific Concerns:    The need for explainable AI (XAI) to understand how AI algorithms arrive at their conclusions, the importance of high-quality training data, and the need for continuous monitoring and validation of AI systems. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "Deep Learning for Medical Image Analysis" by S. Kevin Zhou, Hayit Greenspan, and Dinggang Shen.    "Artificial Intelligence in Medical Imaging" by Thomas M. Deserno.    Scientific Journals:    Radiology: Artificial Intelligence    Medical Image Analysis    IEEE Transactions on Medical Imaging    Online Courses:    Coursera: "AI for Medicine" specialization.    edX: Various courses on deep learning and medical image analysis.    Stanford's Machine Learning course (available on Coursera and YouTube).    Open Educational Resources (OER):    MIT OpenCourseWare: Lectures and materials on AI.    GitHub repositories containing code for medical image analysis.    Websites and Blogs:    Towards Data Science: Articles on AI in healthcare.    The AI in Medicine Blog: Updates on current AI research in medicine.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Bachelor students in medicine (typically in their 3rd or 4th year).    Limited to no prior experience with AI or machine learning beyond basic concepts.    Basic knowledge of mathematics (statistics and calculus) and computer literacy.    Solid foundational knowledge of human anatomy, physiology, and pathology.    Expected Role After Completion:    Become informed users of AI tools in radiology.    Understand the capabilities and limitations of AI in their field.    Critically evaluate AI-generated insights and recommendations.    Develop a mindset to explore innovative solutions using AI in their future clinical practice.    Collaborate effectively with AI specialists. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Radiology or a related field with a strong research background.    10+ years of academic experience in teaching medical students.    2 years of industry experience working on AI applications in medical imaging.    Experience in interdisciplinary teaching and curriculum development.    AI-related Skills:    Strong understanding of fundamental AI concepts (machine learning, deep learning, and computer vision).    Experience with AI tools and software (Python, TensorFlow/PyTorch, and relevant libraries).    Ability to explain technical concepts to non-technical audiences.    Domain Expertise:    In-depth knowledge of radiological imaging techniques, anatomical structures, and pathological conditions.    Practical experience in interpreting medical images and making clinical diagnoses.    Teaching Experience:    Demonstrated ability to engage students and facilitate effective learning.    Skilled in using various teaching methods, including lectures, discussions, and hands-on activities. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Adequate funding for software licenses, computing resources, and guest lecturers.    Personnel: Teaching assistants with relevant AI or medical imaging experience.    Course Duration: One semester (14-16 weeks).    Domain-Specific Data: Access to anonymized medical image datasets (e.g., from public repositories or internal databases).    Software and Hardware: Access to workstations with GPUs for AI model training, software licenses for AI tools, and image viewing software.    Institutional Support: Collaboration between the radiology and computer science departments for interdisciplinary teaching. Access to a learning management system (LMS) for distributing course materials.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Problem-Centered:    Case studies on real-world applications of AI in radiology (e.g., diagnosis of lung nodules, detection of breast cancer, and dose optimization).    Discussions on the current challenges and limitations of AI in clinical practice.    Activation:    Brainstorming sessions to identify potential AI solutions for specific radiological problems.    Reflecting on personal experiences with radiology and considering how AI could have improved the process.    Demonstration:    Interactive sessions with AI-based medical image analysis tools.    Live demonstrations of AI algorithms applied to medical images.    Guest lectures by AI experts and radiologists using AI in their practice.    Application:    Hands-on labs using public datasets and AI software tools to perform basic image analysis tasks.    Group activities to design and implement AI-based solutions for simulated clinical scenarios.    Integration:    Discussions on how AI can complement the work of radiologists and improve patient care.    Encouraging students to think critically about the future of radiology in the age of AI.    Debates on the ethical and social implications of AI in healthcare.    Teaching Methods:    Lectures: Provide theoretical background and conceptual knowledge.    Labs: Hands-on sessions with AI software and medical image datasets.    Discussions: Interactive sessions to engage students and encourage critical thinking.    Group work: Collaborative projects to apply knowledge to real-world problems.    Case studies: Analyze real-world scenarios of AI applications in radiology.    Guest lectures: Invite AI and radiology experts to share their insights and experiences.  This detailed course outline should provide a solid foundation for a university-level course on AI in Radiology, tailored to the specific needs and background of the learners.</t>
   </si>
   <si>
@@ -1549,18 +1399,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in AI algorithms leading to discriminatory practices in property valuation and lending.    Concerns about data privacy and security when handling sensitive personal and financial information.    Transparency issues related to how AI models make decisions, making it difficult for stakeholders to understand the reasoning behind valuations and recommendations.    Legal Implications:    Compliance with data protection regulations (e.g., GDPR, CCPA).    Ensuring fair housing practices and avoiding algorithmic discrimination.    Clarifying legal responsibilities for errors made by AI systems in real estate transactions.    Social Implications:    Potential displacement of real estate agents and appraisers due to automation.    Changes in consumer behavior and expectations in the real estate market.    Improving accessibility to real estate markets through personalized recommendations and virtual tours.    Examples:    Positive: Faster, more accurate property valuations; personalized property recommendations; reduced transaction times; enhanced accessibility to real estate.    Negative: Potential for algorithmic bias; job displacement; data security breaches; over-reliance on AI tools.    Domain-Specific Concerns:    The need for explainable AI (XAI) to ensure that AI models' decisions are transparent and understandable.    The importance of maintaining human oversight in critical decision-making processes.    The role of AI in promoting equitable access to housing opportunities. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on machine learning and data science.    Stanford Online: Courses on artificial intelligence and deep learning.    Textbooks:    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Online Courses:    Coursera: "AI for Everyone" by Andrew Ng.    Udemy: "The Complete Machine Learning Course with Python".     edX: "Artificial Intelligence" by Columbia University.    Real Estate AI Tools &amp; Platforms:    Zillow AI tools for property valuation.    Redfin AI-powered search features.    Matterport for 3D property tours.    Articles and Blogs:    "Forbes Real Estate" section for industry insights.    "PropTech" blogs and publications covering AI in real estate.    "Towards Data Science" on Medium for machine learning applications.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Real estate professionals (agents, brokers, appraisers).    Real estate analysts and consultants.    Real estate investors and developers.    Graduate students with an interest in real estate and technology.    Current Level of AI Knowledge and Related Skills:    Varying levels of technical knowledge, with most having limited experience in AI and machine learning.    Background in real estate principles, market analysis, and financial concepts.    Some familiarity with spreadsheets and data analysis tools.    Expected Role After Completing the Course:    Use AI tools and insights to enhance decision-making in real estate transactions and investments.    Understand the capabilities and limitations of AI in real estate.    Communicate effectively about AI applications to clients and stakeholders.    Evaluate and integrate AI-powered solutions into their daily work. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD or Master's degree in a relevant field (e.g., Computer Science, Data Science, Real Estate).    Minimum of 5 years of experience in applying AI or data analytics to the real estate industry.    Strong understanding of real estate principles and market dynamics.    Experience in developing and teaching AI-related courses.    AI-Related Skills and Competencies:    Proficiency in machine learning techniques (regression, classification, clustering).    Experience with data analysis and visualization using tools like Python, R, or Tableau.    Knowledge of AI algorithms and their application in real estate.    Familiarity with common AI frameworks (e.g., TensorFlow, PyTorch).    Domain Expertise:    In-depth understanding of real estate valuation, market analysis, and transaction processes.    Familiarity with the challenges and opportunities in the real estate industry.    Experience in real estate investment, development, or management.    Teaching Experience and Pedagogical Skills:    Proven ability to deliver engaging and effective lectures and workshops.    Strong communication and presentation skills.    Experience in designing and assessing student projects.    Ability to adapt teaching methods to diverse learning styles. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Adequate funding for software licenses, cloud computing resources, and course materials.    Personnel: Teaching assistants to provide support to students.    Course Duration: One semester (12-14 weeks) with a combination of lectures, labs, and project work.    Availability of Domain-Specific Data: Access to real estate datasets from public sources (e.g., government databases, real estate platforms) and possibly industry partnerships.    Access to Software and Hardware:    Access to Python, R, or other programming tools for data analysis and machine learning.    Cloud computing resources for running AI models.    Access to real estate AI tools and APIs.    Institutional Support for Interdisciplinary Teaching: The university should support collaborative teaching and learning between departments.    Ethical Considerations: A dedicated framework for discussion on the ethical aspects of AI in real estate.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Data analysis reports based on real estate datasets.    Case studies on AI applications in real estate.    Critical evaluations of AI-powered real estate tools. 2.  Group Project:    Design and implementation of a small-scale AI-powered solution for a real estate problem.    Project report and presentation to showcase the solution. 3.  Quizzes:    Regular quizzes to assess learners’ understanding of key concepts and techniques. 4.  Midterm Exam:    A comprehensive exam covering the first half of the course. 5.  Final Presentation:   Presentations to demonstrate the project results. 6.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -1576,18 +1420,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in AI algorithms leading to discriminatory practices (e.g., targeted marketing based on sensitive attributes).    Privacy concerns associated with collecting and using large amounts of customer data, particularly if not anonymized.    Transparency concerns about how AI algorithms make decisions, which can impact trust.    Legal Implications:    Compliance with data protection regulations (e.g., GDPR, CCPA) regarding the collection, storage, and use of customer data.    Ensuring fair and non-discriminatory use of AI algorithms, avoiding practices that could lead to legal issues.    Social Implications:    Potential displacement of jobs in customer service and operations due to automation.    Changes in shopping habits and consumer behavior due to personalized experiences and AI-driven recommendations.    Increased accessibility to shopping for customers with disabilities through AI-powered tools.    Examples:    Positive: Enhanced customer experiences through personalization, efficient inventory management leading to reduced costs, and improved security through fraud detection.    Negative: Potential job losses, privacy violations due to data misuse, and manipulation of consumer behavior through biased AI recommendations.    Domain-Specific Concerns:    The need for robust data security measures to protect customer data from breaches.    Ensuring that AI implementations are aligned with brand values and do not compromise customer trust.    The importance of managing the transition to AI and supporting employees through reskilling and upskilling initiatives. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Artificial Intelligence and Machine Learning.    Stanford Online: Courses on AI and Data Science.    Textbooks:    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    Online Courses:    Coursera: "AI for Retail" Specialization.    Udacity: "AI Product Manager" Nanodegree.    edX: "Artificial Intelligence Fundamentals"   Articles and Case Studies:    Harvard Business Review: Articles on AI adoption in retail.    McKinsey &amp; Company: Reports on digital transformation and AI in retail.    Case studies on Amazon, Walmart, and other major retailers adopting AI.    Industry Blogs:    Retail Dive: News and insights on the retail industry.    VentureBeat: Coverage of AI innovations and applications.    Medium: Articles on AI and Machine Learning   Platforms:    Kaggle: Datasets and AI competitions related to retail.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students majoring in business, marketing, and related fields.    E-commerce enthusiasts and professionals looking to enhance their understanding of AI in retail.    Students with varying levels of technical background, but a foundational understanding of business concepts is expected.    Current Level of AI Knowledge and Related Skills:    Minimal prior knowledge of AI or machine learning techniques is assumed.    Basic knowledge of statistics and data analysis is beneficial but not required.    No prior programming experience is necessary, although some introductory coding may be introduced for practical exercises.    Background in the Domain:    Students should have a basic understanding of retail operations and marketing principles.    Expected Role After Completing the Course:    Understand AI applications in retail and their impact on business operations.    Effectively interact with AI-powered tools and technologies in a retail environment.    Make informed decisions based on AI-driven insights.    Contribute to the development of AI-based solutions in the retail sector.    Become advocates for the ethical and responsible use of AI in retail. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Business Administration, Marketing, or a related field with a focus on AI applications.    10+ years of industry experience in retail management, with a focus on AI-driven sales optimization, e-commerce, or supply chain management.    AI-Related Skills and Competencies:    Strong understanding of machine learning, deep learning, and natural language processing concepts.    Familiarity with AI tools and platforms (e.g., Python, TensorFlow, Scikit-learn).    Ability to communicate complex AI concepts in a clear and concise manner.    Domain Expertise:    In-depth knowledge of retail operations, marketing, and customer behavior.    Experience with data analytics and business intelligence in retail settings.    Teaching Experience and Pedagogical Skills:    Proven track record of effective teaching at the university level.    Ability to engage students through a variety of teaching methods, including lectures, case studies, and hands-on activities.    Experience in developing and assessing student learning outcomes. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Available Resources:    Course duration: One semester (14-16 weeks) with 3 contact hours per week.    Access to university computer labs with necessary software (Python, Jupyter Notebooks, etc.).    Access to a cloud computing platform for running AI models (e.g., Google Colab, AWS).    Access to relevant datasets for retail applications (e.g., public datasets, simulated retail data).    Support from IT staff for software and hardware related issues.    Library resources for research and access to relevant publications.    Constraints:    Budget limitations for specialized software or external resources.    Limited availability of personnel for providing individualized support to students.    Potential challenges in integrating interdisciplinary content and perspectives.    Institutional Support:    Support for interdisciplinary teaching and collaboration between business and computer science departments.    Funding opportunities for teaching innovation and curriculum development.    Access to university resources for developing online learning materials and assessments.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments (30%):    Short analytical reports based on case studies of AI implementations in retail.    Practical exercises involving data analysis and model building using AI tools.    Critical reviews of academic articles on AI in retail. 2.  Group Project (40%):    Design and implement an AI-driven solution for a specific retail problem.    Project involves a written proposal, implementation, and final presentation.    Emphasis on collaborative work and problem-solving. 3.  Midterm Exam (15%):  A written exam to assess the understanding of AI concepts and applications covered in the first half of the course. 4.  Final Presentation (10%):    Students will present their group project and findings to the class.    Focus on the clarity of presentation, understanding of AI concepts, and relevance of the solution. 5.  Class Participation (5%):    Active engagement in class discussions, Q&amp;A sessions, and group activities.    Demonstrated ability to contribute constructively to the learning environment. </t>
   </si>
   <si>
@@ -1603,18 +1441,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential job displacement due to automation.    Concerns about robot autonomy and accountability.    Bias in AI algorithms leading to unfair or dangerous robot behavior.    Privacy issues related to data collection by robots.    Legal Implications:    Liability for robot-caused accidents or damages.    Regulations concerning robot deployment in public spaces.    Data protection and privacy laws related to robot-collected information.    Social Implications:    Changes in human-robot interactions and social norms.    Potential for increased efficiency and productivity.    Accessibility of robotic technologies and their impact on different social groups.    Examples:    Positive: Increased safety in hazardous environments, improved efficiency in manufacturing, enhanced accessibility for individuals with disabilities.    Negative: Job losses in certain sectors, misuse of robots for harmful purposes, social isolation due to over-reliance on robots.    Domain-Specific Concerns:    Safety critical applications (e.g., surgical robots, autonomous vehicles).    Robustness of AI algorithms in unpredictable real-world environments. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Online Courses:    Coursera: "Robotics: Foundations and Applications" by University of Pennsylvania.    edX: "Artificial Intelligence for Robotics" by Georgia Tech.    Udacity: "Self-Driving Car Engineer Nanodegree".    Open Educational Resources (OER):    MIT OpenCourseware: Courses on robotics, AI, and machine learning.    ROS Tutorials: Official documentation for the Robot Operating System (ROS).    Textbooks:    "Robotics: Modelling, Planning and Control" by Bruno Siciliano, Lorenzo Sciavicco, Luigi Villani, and Giuseppe Oriolo.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Articles and Journals:    IEEE Transactions on Robotics    The International Journal of Robotics Research    Robotics and Autonomous Systems    Software and Tools:    Robot Operating System (ROS)    Gazebo (robot simulator)    TensorFlow, PyTorch (deep learning frameworks)    OpenCV (computer vision library)  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Robotics engineering students (undergraduate and graduate level)    Professionals in robotics and related fields seeking to integrate AI into their work.    Current Level of AI Knowledge:    Basic understanding of programming (Python preferred).    Familiarity with basic mathematical concepts (linear algebra, calculus, probability).    Some may have basic exposure to machine learning concepts.    Background in the Domain:    Solid understanding of robotics principles, including kinematics, dynamics, and control.    Experience with robot programming and operation is beneficial.    Expected Role After Completion:    Design and implement AI-powered solutions for robotic systems.    Evaluate and integrate AI technologies into existing robotic applications.    Contribute to the development of new AI-driven robotic systems.    Interact with AI systems as developers, integrators, or advanced users. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Robotics, Computer Science, or a related field.    Minimum of 5 years of experience in AI-powered robotics development.    Strong publication record in robotics and AI.    AI-Related Skills and Competencies:    Expertise in machine learning, deep learning, computer vision, and reinforcement learning.    Proficiency in AI programming languages and frameworks (Python, TensorFlow, PyTorch).    Experience in applying AI to real-world robotic systems.    Domain Expertise:    In-depth knowledge of robotics principles, including kinematics, dynamics, and control.    Hands-on experience with various types of robots and robotic systems.    Understanding of current challenges and trends in the field of robotics.    Teaching Experience and Pedagogical Skills:    Proven experience in teaching university-level courses.    Ability to explain complex concepts in a clear and engaging manner.    Experience in developing and implementing effective learning activities. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources and Constraints:    Budget: Sufficient budget to acquire necessary software, hardware, and lab equipment.    Personnel: Teaching assistants to support lab sessions and grading.    Course Duration: One semester (14-16 weeks)    Availability of Domain-Specific Data: Access to datasets from robot simulations and real-world experiments.    Access to Software and Hardware:    High-performance computing resources for training AI models.    Robotics development platforms (e.g., ROS, Gazebo) and physical robots for experimentation.    AI libraries and frameworks (TensorFlow, PyTorch).    Institutional Support:    Support for interdisciplinary teaching and collaboration.    Access to research labs and facilities.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Programming assignments involving the implementation of AI algorithms for robotic tasks (e.g., object recognition, path planning, control).    Problem-solving exercises to analyze and apply AI concepts.    Written reports on AI-related topics in robotics. 2.  Group Project:    Design and implementation of an AI-powered robotic system for a specific application.    Presentations of project results, including demonstrations of the developed system.    Written report documenting the project and its findings. 3.  Quizzes:    Short quizzes to assess understanding of key concepts and techniques. 4.  Midterm and Final Exams:    Comprehensive exams to evaluate overall comprehension of course material. 5.  Class Participation:    Active engagement in discussions, Q&amp;A sessions, and in-class activities. </t>
   </si>
   <si>
@@ -1630,9 +1462,6 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for AI bias in performance evaluation and talent identification.    Concerns about privacy of athlete data collected through wearables.    Fairness and equity in the use of AI-driven officiating.    Legal Implications:    Data protection and privacy laws regarding athlete data.    Intellectual property issues related to AI-driven analysis and insights.    Liability for errors made by AI systems in officiating or medical decisions.    Social Implications:    Potential for job displacement in traditional coaching and scouting roles.    Increased focus on data-driven performance, potentially at the expense of creativity and spontaneity.    Impact on the fan experience, with personalized content potentially leading to filter bubbles.    Examples:    Positive: AI-driven analysis leading to better player performance and reduced injury rates.    Negative: AI bias leading to unfair talent selection or biased officiating. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Sports Analytics Blogs and Websites:    "StatsBomb" (focus on soccer analytics)    "FiveThirtyEight" (sports analytics with a broader scope)    "The Athletic" (sports journalism with data-driven insights)    Online Courses:    Coursera: "Sports Analytics" (University of Michigan)    edX: "Data Science for Sports" (University of California, Berkeley)    Udemy: "Sports Analytics with Python"    Textbooks:    "Analyzing Baseball Data with R" by Max Marchi and Jim Albert    "The Book: Playing the Percentages in Baseball" by Tango Tiger    Software Guides:    Documentation for video analysis software (e.g., Hudl, Dartfish)    Tutorials for data analysis libraries in Python (e.g., Pandas, Scikit-learn, TensorFlow)    Open Educational Resources (OER):    MIT OpenCourseWare: Courses on AI and Machine Learning.    Online repositories of datasets for sports analytics (e.g., Kaggle).  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students in sports science, sports management, and data analytics.    Sports analysts, coaches, scouts, and other sports professionals seeking to integrate AI into their workflows.    Current Level of AI Knowledge and Related Skills:    Varying levels of familiarity with AI; some may have basic programming skills or statistical knowledge.    Most will have strong domain knowledge in sports.    Some may lack strong coding skills but have foundational understanding of statistics.    Expected Role After Completion:    Be able to interpret AI-driven insights in their respective fields.    Apply AI tools and techniques to improve player performance, optimize strategies, and enhance fan engagement.    Become informed decision-makers regarding the implementation of AI systems in sports.    Potentially contribute to the development of new AI applications in sports. </t>
   </si>
   <si>
@@ -1657,9 +1486,6 @@
     <t xml:space="preserve">   Ethical Implications:    Algorithmic bias in autonomous vehicle decision-making (e.g., trolley problem).    Data privacy concerns related to the collection and use of personal transportation data.    Job displacement of professional drivers due to automation.    Legal Implications:    Liability issues in accidents involving autonomous vehicles.    Regulatory frameworks for the testing and deployment of AI-powered transportation systems.    Compliance with data privacy laws and regulations.    Social Implications:    Accessibility and affordability of AI-driven transportation for various segments of the population.    Impact of autonomous vehicles on urban planning and infrastructure development.    Public acceptance and trust in AI-powered transportation systems.    Examples:    Positive: Reduced traffic fatalities, improved fuel efficiency, and enhanced mobility for the elderly and disabled.    Negative: Algorithmic bias leading to inequitable outcomes, job losses for drivers, and potential security vulnerabilities.    Domain-Specific Concerns:    Safety certification and validation of AI systems in safety-critical applications.    Ensuring robustness and reliability of AI algorithms under diverse and unexpected conditions. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Research Papers:    IEEE Transactions on Intelligent Transportation Systems    Transportation Research Part C: Emerging Technologies    Journal of Intelligent and Robotic Systems    Open Educational Resources (OER):    MIT OpenCourseware: 6.S094: Deep Learning for Self-Driving Cars    Stanford CS230: Deep Learning course materials (relevant for perception tasks)    Open Data Portals (e.g., DOT, City data portals) for Transportation datasets    Textbooks:    "Autonomous Driving: Technologies, Trends, and Future Development" by Markus Maurer et al.    "Traffic Flow Theory" by Carlos Daganzo    Online Courses:    Coursera: Self-Driving Car Specialization by the University of Toronto    Udacity: Self-Driving Car Engineer Nanodegree    edX: Artificial Intelligence in Transportation, various courses.    Automotive AI Platforms:    NVIDIA DRIVE    Intel GO    TensorFlow and PyTorch for AI development  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Engineering students (e.g., mechanical, electrical, computer, civil) with a foundational understanding of engineering principles and mathematics.    Urban planning students with an interest in transportation systems and infrastructure.    Some students may have basic programming experience (Python, MATLAB) and a minimal understanding of AI concepts.    Expected Role After Completion:    Engineers: Design, develop, and validate AI-powered transportation systems.    Urban planners: Integrate AI into transportation planning and policy.    All learners: Understand and evaluate the implications of AI in transportation, make informed decisions, and potentially contribute to innovation in the domain. </t>
   </si>
   <si>
@@ -1684,18 +1510,12 @@
     <t xml:space="preserve">   Ethical Implications:    Bias in algorithms due to biased datasets, potentially leading to inequitable urban planning.    Privacy concerns related to the collection and analysis of citizen data.    Transparency and explainability of AI decision-making processes.    Legal Implications:    Compliance with data privacy regulations, such as GDPR.    Accountability for AI-driven decisions, especially in public safety and resource allocation.    Potential liability issues in the case of AI failures or errors.    Social Implications:    Job displacement in traditional planning roles due to automation.    Digital divide in access to AI-powered urban services.    Changes in community engagement and participatory planning processes.    Examples:    Positive: Enhanced urban efficiency, reduced resource consumption, improved public safety, and personalized services.    Negative: Increased surveillance, potential for discriminatory urban development, and decreased human oversight.    Domain-Specific Concerns: Ensuring that AI is used to promote equity, sustainability, and citizen well-being, not just efficiency. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseWare: Courses on urban planning and AI.    edX and Coursera: Courses on smart cities, GIS, and data analytics.    Open Data Portals of various cities.    Textbooks:    "The Smart Enough City" by Ben Green.    "Urban Informatics" by Wenzhong Shi.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig (for AI fundamentals).    Online Courses:    "Smart Cities" specialization on Coursera.    "Geospatial Analysis" courses on various platforms.    Articles &amp; Journals:    Journal of Urban Technology    Computers, Environment and Urban Systems    Publications from research institutions focused on urban AI (e.g., MIT Media Lab, Stanford Urban Studies Program).    Urban Planning Case Studies:    Case studies of cities using AI for traffic management, energy efficiency, and public safety.    City Development Whitepapers:    Reports and whitepapers from urban planning organizations and think tanks (e.g., Urban Land Institute, World Bank).  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Target Learners:    Undergraduate and graduate students in urban planning, civil engineering, and related fields.    Practicing urban planners and urban designers seeking to integrate AI into their work.    Current AI Knowledge:    Limited prior formal knowledge of AI concepts and techniques.    Basic familiarity with data analysis and GIS tools.    Background in the Domain:    Strong understanding of urban planning principles and practices.    Familiarity with urban data sources and planning tools.    Expected Role After Completion:    Users of AI-powered planning tools.    Decision-makers informed by AI insights.    Collaborators with AI specialists in urban planning projects.    Ability to critically evaluate AI applications in urban planning. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    PhD in Urban Planning or a related field with substantial experience in AI applications.    At least 10 years of experience in urban planning practice and/or academic research.    Proven track record of interdisciplinary research and teaching.    AI-Related Skills:    Strong knowledge of machine learning, data mining, and statistical analysis techniques.    Proficiency in programming languages for AI applications (e.g., Python).    Familiarity with AI tools and platforms relevant to urban planning (e.g., GIS software with AI capabilities).    Domain Expertise:    In-depth knowledge of urban planning theory, methods, and best practices.    Experience working with urban data and planning tools.    Understanding of urban planning challenges and opportunities.    Teaching Experience:    Proven record of effective teaching at the university level.    Ability to explain complex technical concepts in an understandable manner.    Experience in designing and facilitating engaging learning activities. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Allocated for software licenses, data access, and guest speakers.    Personnel: Teaching assistants with AI and urban planning expertise.    Course Duration: One semester (14-16 weeks).    Domain-Specific Data: Availability of city-level datasets (e.g., from city data portals) and access to relevant databases.    Software &amp; Hardware:    Access to GIS software (e.g., ArcGIS, QGIS) with AI extensions.    Computational resources for running AI algorithms (e.g., cloud computing platforms).    Programming environment with Python and relevant libraries (e.g., TensorFlow, scikit-learn).    Institutional Support:    Support for interdisciplinary teaching and collaboration.    Access to research facilities and urban planning labs.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies analyzing real-world AI applications in urban planning.    Data analysis exercises using urban datasets and AI tools.    Short essays on the ethical and social implications of AI in urban planning. 2.  Group Project:    Develop an AI-based solution for a specific urban planning problem (e.g., traffic optimization, land use planning, public safety).    Design and implement a prototype of the solution using relevant data and tools.    Present the project to the class and provide a project report. 3.  Quizzes:    Regular quizzes on key AI concepts and urban planning applications. 4.  Final Exam:    Comprehensive exam covering all course topics, including theoretical concepts and practical applications. 5.  Class Participation:    Active engagement in class discussions, group work, and peer feedback. </t>
   </si>
   <si>
@@ -1711,9 +1531,6 @@
     <t xml:space="preserve">   Ethical Implications: Ensuring fairness and avoiding bias in AI models used for decision-making, especially in process control and material selection.    Legal Implications: Protecting intellectual property related to AI-designed materials and processes, and complying with data privacy regulations.    Social Implications: Potential impact on the workforce due to automation of certain tasks, requiring retraining and upskilling of employees.    Examples:    Positive: Enhanced efficiency and reduced waste in semiconductor manufacturing, leading to lower costs and improved sustainability.    Negative: Over-reliance on AI models without proper validation, leading to errors in process control or material selection.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Research Papers: IEEE Xplore, ScienceDirect, and arXiv for publications on AI in nanotechnology and semiconductor manufacturing.    Semiconductor Manufacturing Reports: Reports from organizations like SEMI and Gartner on industry trends and technological advancements.    Online Courses: Coursera, edX, and Udacity offer courses on AI for materials science and semiconductor technology.    Industry Whitepapers: Whitepapers from companies like Applied Materials, ASML, and Lam Research on AI solutions for semiconductor manufacturing.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Graduate students in semiconductor physics and nanotechnology.    Some exposure to AI and machine learning tools, but varying levels of expertise.    Expected Role After Completion:    Apply AI techniques to optimize semiconductor processes, discover new materials, and enhance device performance.    Effectively collaborate with AI tools and experts to solve complex problems in semiconductor research and manufacturing.</t>
   </si>
   <si>
@@ -1747,9 +1564,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Biomechanics with a background in AI applications in human movement analysis.    8 years of experience in teaching and research.    Skills:    Expertise in biomechanics, AI, and data analysis.    Ability to integrate theoretical concepts with practical applications.    Experience in interdisciplinary teaching and student mentorship.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12 14 weeks).    Access to biomechanics lab with motion capture systems, force plates, and EMG equipment.    Availability of AI software tools like MATLAB, Python, and TensorFlow.    Institutional support for interdisciplinary collaboration and research. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t>1.  Individual Assignments:    Analyze gait data using machine learning algorithms.    Design a personalized prosthetic socket using CAD software and AI optimization techniques. 2.  Group Project:    Develop an AI-powered rehabilitation system for stroke patients.    Create a predictive model for ACL injury risk in athletes. 3.  Quizzes:    Weekly quizzes on key AI concepts and biomechanical principles. 4.  Final Presentation:    Present the group project and discuss the results, limitations, and future directions. 5.  Class Participation:    Active engagement in discussions, case studies, and lab activities.</t>
   </si>
   <si>
@@ -1774,9 +1588,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of biomedical engineering with expertise in AI-driven healthcare solutions.    Strong background in machine learning, medical imaging, and signal processing.    Skills:    Ability to explain complex AI concepts in the context of biomedical engineering.    Experience in developing and deploying AI solutions for healthcare applications.    Familiarity with ethical and regulatory considerations for AI in medicine.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, and medical image analysis software (e.g., ITK, 3D Slicer).    Availability of medical imaging datasets and patient records for AI model training.    High-performance computing resources for running AI algorithms.    Institutional support for interdisciplinary collaboration with medical schools and hospitals. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamental principles of AI and machine learning. 2.  Identify and evaluate AI applications in biomedical engineering. 3.  Apply AI algorithms to analyze medical images and patient data. 4.  Design and implement AI-driven diagnostic and treatment solutions. 5.  Assess the ethical and regulatory implications of AI in healthcare.</t>
   </si>
   <si>
@@ -1804,9 +1615,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of biosystems engineering with expertise in AI-driven sustainability solutions.    Strong background in agricultural practices, data analysis, and machine learning.    Skills:    Ability to bridge the gap between engineering principles and AI technologies.    Experience in interdisciplinary teaching and mentoring students in research projects. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, and agricultural simulation software.    Availability of domain-specific datasets, including satellite imagery and sensor data.    Institutional support for interdisciplinary collaborations and access to high-performance computing resources. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:     Case studies on AI applications in agriculture.    Data analysis and model development using Python and TensorFlow. 2.  Group Project:     Design and implement an AI-driven solution for a specific agricultural problem.    Develop a comprehensive report and presentation on the project. 3.  Quizzes:     Regular quizzes on key concepts and applications. 4.  Final Exam:     Comprehensive exam covering all course topics. 5.  Class Participation:     Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -1831,9 +1639,6 @@
     <t xml:space="preserve">   Qualifications:    PhD in Economics with a specialization in AI-driven decision-making.    10 years of experience in business analytics.    Strong background in econometrics, statistical modeling, and machine learning.    Skills:    Expertise in AI algorithms and techniques.    Proficiency in programming languages such as Python and R.    Ability to bridge the gap between economic theory and AI applications.    Experience in teaching quantitative methods and business analytics. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Adequate funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with expertise in data analysis and programming.    Course Duration: One semester (15 weeks).    Availability of Domain-Specific Data: Access to financial databases, economic datasets, and market research reports.    Access to Software and Hardware: Cloud computing platforms, statistical software (e.g., Stata, EViews), and AI tools (e.g., TensorFlow, PyTorch).    Institutional Support: Collaboration with the business and economics departments, support from the IT department, and access to interdisciplinary teaching resources.    Constraints: Limited access to proprietary datasets, potential challenges in integrating different software tools, and the need for continuous updates to the course content due to the rapid evolution of AI technologies. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Problem sets on applying AI techniques to economic data.    Case studies on AI applications in business economics. 2.  Group Project:    Develop an AI-driven solution to a real-world business economic problem.    Present the project findings to the class. 3.  Quizzes:    Regular quizzes on key concepts and techniques. 4.  Midterm Exam:    Comprehensive exam covering the first half of the course. 5.  Final Exam:    Comprehensive exam covering the entire course. 6.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -1879,9 +1684,6 @@
     <t xml:space="preserve">   Ethical Implications: Potential for bias in algorithms, data privacy concerns, and transparency issues.    Legal Implications: Compliance with data protection laws, regulations related to AI use, and liability for AI-driven errors.    Social Implications: Impact on workforce dynamics, job displacement, and the need for reskilling and upskilling.    Examples:    Positive: Enhanced decision-making through data-driven insights, increased efficiency, and improved customer experiences.    Negative: Potential for job losses due to automation, algorithmic bias leading to unfair outcomes, and privacy breaches.</t>
   </si>
   <si>
-    <t xml:space="preserve">   AI in Business Strategy Textbooks:    "Competing in the Age of AI" by Marco Iansiti and Karim R. Lakhani.    "AI for Business: A Manager s Guide to Understanding and Implementing Artificial Intelligence" by Nicolaus Henke, Jacques Bughin, and Michael Chui.    Case Studies on AI in Corporate Decision-Making:    Harvard Business Review: Articles and case studies on AI applications in business.    MIT Sloan Management Review: Research and insights on AI strategy and implementation.    Online Courses:    Coursera: "AI for Business" by various universities and organizations.    Udacity: "AI Product Manager Nanodegree."  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Business administration students with an interest in AI applications.    Varying levels of prior AI knowledge, ranging from novice to intermediate.    Basic understanding of business principles and data analysis.    Expected Role After Completion:    Apply AI tools and techniques to improve business efficiency.    Participate in strategic planning and decision-making processes using AI insights.    Manage and oversee AI projects within their organizations.</t>
   </si>
   <si>
@@ -1918,9 +1720,6 @@
     <t xml:space="preserve">   Qualifications:     Professor of Process Engineering.    7 years of experience in AI-driven industrial automation.    Skills:     Expertise in chemical process modeling, optimization, and control.    Proficiency in machine learning, data analytics, and AI algorithms.    Experience in teaching and mentoring engineering students.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to software tools such as Python (with libraries like TensorFlow, PyTorch, scikit-learn), MATLAB, and process simulation software (e.g., Aspen Plus).    Availability of domain-specific datasets from chemical plants and energy systems.    Institutional support for interdisciplinary teaching and research.    Budget for software licenses and computational resources (e.g., cloud computing). ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t>1.  Individual Assignments:     Coding assignments to implement AI algorithms for process optimization.    Case studies on AI applications in chemical and energy industries. 2.  Group Project:     Develop an AI-driven solution for a real-world problem in chemical or energy engineering.    Project report and presentation. 3.  Quizzes:     Regular quizzes on key AI concepts and applications. 4.  Midterm Exam:     Comprehensive exam covering the fundamentals of AI and its applications in the domain. 5.  Final Exam:     Focus on advanced topics and problem-solving skills.</t>
   </si>
   <si>
@@ -1945,9 +1744,6 @@
     <t xml:space="preserve">   Qualifications:    Ph.D. in Computational Chemistry with expertise in AI applications in material science.    Experience in teaching advanced chemical engineering courses.    Strong publication record in AI-driven molecular design.    Skills:    Proficiency in AI algorithms, molecular modeling software, and programming languages (e.g., Python).    Ability to explain complex AI concepts in a clear and accessible manner.    Experience in mentoring students in research projects.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Adequate budget for software licenses, computing resources, and teaching assistants.    Access to high-performance computing clusters for running AI simulations.    Availability of domain-specific data, such as molecular databases and chemical reaction data.    Constraints:    Limited time for hands-on training due to the complexity of AI tools.    Potential challenges in integrating AI concepts into the existing chemical engineering curriculum.    Institutional Support:    Support for interdisciplinary teaching and collaboration with AI experts.    Funding for research projects that combine AI and chemical engineering.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamental principles of AI and machine learning. 2.  Apply AI algorithms to predict molecular properties and design new molecules. 3.  Utilize AI tools for drug discovery and material property prediction. 4.  Critically evaluate the results of AI-driven simulations and experiments. 5.  Design and implement AI solutions for specific chemical engineering problems. 6.  Understand the ethical, legal, and social implications of using AI in chemical engineering.</t>
   </si>
   <si>
@@ -1975,9 +1771,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Computational Visualistics.    Expertise in AI-powered imaging techniques and computer graphics.    Ph.D. in Computer Science or related field.    Skills:    Deep understanding of AI algorithms and their applications in visual computing.    Experience in teaching computer graphics, image processing, and machine learning.    Ability to communicate complex technical concepts effectively.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., TensorFlow, PyTorch).    Access to computing resources (e.g., GPU servers, cloud computing).    Availability of domain-specific datasets.    Constraints:    Limited access to high-end hardware.    Course duration: One semester (12-14 weeks).    Institutional support for interdisciplinary teaching:    Collaboration with other departments (e.g., mathematics, statistics).  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Describe the fundamental concepts of AI and machine learning relevant to visual computing. 2.  Apply AI algorithms to solve problems in image processing, computer vision, and 3D modeling. 3.  Implement deep learning models for visual recognition tasks. 4.  Evaluate the performance of AI models and optimize their parameters. 5.  Analyze the ethical and social implications of AI in visual computing.</t>
   </si>
   <si>
@@ -1996,9 +1789,6 @@
     <t xml:space="preserve">   Ethical Implications: Risk of bias in algorithms, transparency concerns, and data privacy issues.    Legal Implications: Compliance with data protection regulations and intellectual property rights.    Social Implications: Changes in research methodologies, potential job displacement, and improved access to mathematical solutions.    Examples:    Positive: Enhanced problem-solving through AI-driven insights.    Negative: Misuse of AI leading to incorrect or biased results. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Research papers on AI in mathematical modeling.    AI-driven numerical methods.    Online courses on AI for mathematics.    Books on computational mathematics with AI applications.    Journals focusing on AI in science and engineering.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Mathematics and computer science students.    Varying levels of AI knowledge, with a foundation in mathematical concepts.    Expected Role After Completion:    Apply AI tools to solve mathematical and computational problems efficiently.    Develop AI-driven solutions for research and practical applications. </t>
   </si>
   <si>
@@ -2035,9 +1825,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Mechanical Engineering with expertise in AI-powered simulations.    Strong background in computational mechanics, numerical methods, and machine learning.    Experience in teaching and mentoring engineering students.    Skills:    Proficiency in AI programming languages (e.g., Python) and AI libraries (e.g., TensorFlow, PyTorch).    Ability to bridge the gap between theoretical AI concepts and practical engineering applications.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to high-performance computing resources for running AI-driven simulations.    Availability of engineering simulation software (e.g., ANSYS, Abaqus) with AI integration.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning techniques. 2.  Apply AI algorithms to enhance engineering simulations and optimization processes. 3.  Analyze simulation results and sensor data using AI-driven methods. 4.  Evaluate the ethical, legal, and social implications of using AI in engineering. 5.  Design and implement AI-powered solutions for real-world engineering problems.</t>
   </si>
   <si>
@@ -2056,9 +1843,6 @@
     <t xml:space="preserve">   Ethical Implications: Bias in algorithms, data privacy concerns, and transparency issues.    Legal Implications: Compliance with data protection laws, intellectual property rights, and liability for AI-driven errors.    Social Implications: Job displacement due to automation, the impact of AI on human interaction, and accessibility of AI technologies.    Examples:    Positive: Enhanced productivity through automated tasks.    Negative: Unfair or discriminatory outcomes resulting from biased AI systems. </t>
   </si>
   <si>
-    <t xml:space="preserve">   AI Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Online Machine Learning Courses:    Coursera: "Machine Learning" by Andrew Ng.    Udacity: "Intro to Machine Learning."    Open-Source AI Frameworks:    TensorFlow.    PyTorch.    Keras.    Research Papers:    arXiv (for the latest AI research).    Journal of Machine Learning Research (JMLR).  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Computer science students, many familiar with AI concepts.    Varying levels of programming and mathematical skills.    Expected Role After Completion:    Develop and deploy AI models for various applications.    Contribute to AI research and development.    Understand the ethical and societal implications of AI. </t>
   </si>
   <si>
@@ -2086,9 +1870,6 @@
     <t xml:space="preserve">   Ethical Implications: Concerns about bias in AI algorithms, data privacy, and transparency.    Legal Implications: Compliance with data protection regulations, liability for AI-driven errors, and intellectual property rights.    Social Implications: Impact on workforce skills, potential job displacement, and ensuring equitable access to AI-driven technologies.    Examples:    Positive: Improved system reliability, enhanced security, and increased efficiency.    Negative: Potential for misuse of AI in surveillance systems, algorithmic bias leading to unfair outcomes. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "AI and Machine Learning for Embedded Systems" by [Author Name].    "Cybersecurity with Machine Learning" by [Author Name].    Online Courses:    Coursera: "AI for Embedded Systems" by [University Name].    Udemy: "AI-Driven Control Systems" by [Instructor Name].    Articles and Journals:    IEEE Transactions on Industrial Informatics.    Journal of Network and Systems Management.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Engineering students focusing on computer systems.    Varying levels of AI knowledge, with some familiarity through introductory courses.    Solid foundation in computer architecture, operating systems, and networking.    Expected Role After Completion:    Develop AI-driven computing solutions for industrial and embedded systems.    Integrate AI into existing computer systems to improve performance and security.    Contribute to research and development in AI for computer systems engineering. </t>
   </si>
   <si>
@@ -2125,9 +1906,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of embedded systems with AI expertise.    Strong background in computer engineering and machine learning.    Experience in teaching interdisciplinary courses.    Skills:    Proficiency in programming languages such as Python and C++.    Knowledge of AI frameworks such as TensorFlow and PyTorch.    Ability to explain complex AI concepts in an accessible manner. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, hardware components, and guest lecturers.    Personnel: Teaching assistants with expertise in AI and embedded systems.    Course Duration: One semester (15 weeks).    Availability of domain-specific data: Access to datasets from industrial partners and public repositories.    Access to software and hardware: AI tools, computing resources, and IoT development kits.    Institutional support for interdisciplinary teaching: Collaboration with the computer science department.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Coding assignments to implement AI algorithms for embedded systems.    Case studies on AI applications in engineering. 2.  Group Project:    Design and implement an AI-driven solution for a real-world engineering problem. 3.  Quizzes:    Regular quizzes to assess understanding of key concepts. 4.  Midterm and Final Exams:    Comprehensive exams to evaluate knowledge of AI principles and applications. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2152,9 +1930,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Data Science with a background in Knowledge Engineering.    Ph.D. in Computer Science or related field.    Extensive research experience in AI and data management.    Skills:    Expertise in knowledge representation, machine learning, and semantic web technologies.    Strong programming skills in languages such as Python and Java.    Excellent communication and teaching skills. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, PyTorch, and Protégé.    Availability of datasets for knowledge engineering projects.    High-performance computing resources for training AI models.    Institutional support for interdisciplinary collaboration.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Implement knowledge representation schemes (e.g., ontologies, semantic networks).    Develop machine learning models for classification, regression, and clustering.    Design and implement semantic web applications. 2.  Group Project:    Design and develop an AI-driven knowledge management system for a specific domain.    Evaluate the performance of the system using appropriate metrics.    Present the system to the class. 3.  Midterm and Final Exams:    Assess understanding of key concepts and principles.    Evaluate problem-solving skills. 4.  Class Participation:    Engage in discussions and contribute to the learning environment. </t>
   </si>
   <si>
@@ -2179,9 +1954,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of digital engineering with expertise in AI-powered design automation.    Ph.D. in Engineering with a focus on AI applications.    Strong background in machine learning, data analytics, and digital engineering tools.    Experience in teaching interdisciplinary courses and mentoring students.    Skills:    Proficiency in AI programming languages (e.g., Python) and machine learning frameworks (e.g., TensorFlow, PyTorch).    Deep understanding of engineering design principles and digital engineering workflows.    Ability to communicate complex technical concepts in a clear and engaging manner. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Budget for software licenses (e.g., AI development tools, simulation software).    Access to high-performance computing resources for running AI models and simulations.    Availability of domain-specific datasets (e.g., CAD models, simulation data, IoT sensor data).    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Limited availability of domain-specific data.    Potential challenges in integrating AI tools with existing engineering software.    Need for ongoing training and support for instructors and students in AI technologies. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Implement AI algorithms for design optimization and simulation.    Analyze engineering datasets using machine learning techniques.    Write reports on the ethical and societal implications of AI in engineering. 2.  Group Project:    Develop an AI-powered digital twin for a specific engineering system.    Present the project to the class, demonstrating the functionality and benefits of the digital twin. 3.  Quizzes:    Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Exam:    Comprehensive exam covering all course material. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2206,9 +1978,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Automotive Engineering with expertise in AI-powered mobility solutions.    Ph.D. in a relevant field (e.g., electrical engineering, computer science, mechanical engineering).    Experience in teaching and mentoring engineering students.    Skills:    Strong understanding of AI algorithms and techniques.    Deep knowledge of electric vehicle technology and transportation systems.    Ability to bridge the gap between AI theory and practical applications in E-Mobility. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools for AI development (e.g., Python, TensorFlow, PyTorch).    Availability of datasets related to electric vehicle performance and transportation systems.    Computing resources for training AI models (e.g., GPUs, cloud computing).    Potential for collaboration with industry partners on real-world projects.    Constraints:    Limited budget for purchasing specialized software or hardware.    Potential lack of readily available domain-specific data.    Time constraints for covering all relevant topics in sufficient depth.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Problem sets on AI algorithms and techniques.    Case studies on AI applications in E-Mobility. 2.  Group Project:    Design and implementation of an AI-powered solution for a specific E-Mobility challenge (e.g., autonomous navigation, battery management). 3.  Quizzes:    Regular quizzes to assess understanding of key concepts. 4.  Midterm Exam:    Comprehensive exam covering the first half of the course material. 5.  Final Exam:    Comprehensive exam covering the entire course material. 6.  Project Presentation:    Presentation of the group project, including a demonstration of the implemented solution. </t>
   </si>
   <si>
@@ -2233,9 +2002,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Economic Policy with expertise in AI-driven forecasting models.    Experience in applying AI to economic policy analysis.    Skills:    Strong understanding of economic theory and policy.    Proficiency in AI and machine learning techniques.    Ability to bridge the gap between economic theory and AI applications.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., Python, R, TensorFlow).    Access to high-performance computing resources for running complex simulations.    Availability of domain-specific datasets (e.g., World Bank, IMF data).    Institutional support for interdisciplinary teaching.    Constraints:    Limited time for hands-on labs due to course duration.    Potential challenges in integrating AI tools with existing economic models. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the basics of AI and its applications in economic policy analysis. 2.  Apply machine learning techniques to forecast economic indicators. 3.  Use AI to assess the impact of government policies on the economy. 4.  Develop and use AI-driven simulations for economic planning. 5.  Evaluate the ethical, legal, and social implications of using AI in economic policy.</t>
   </si>
   <si>
@@ -2263,9 +2029,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of education technology with a Ph.D. in a related field.    Experience in AI applications in education, including personalized learning, automated assessment, and learning analytics.    Skills:    Strong understanding of educational theory and practice.    Proficiency in AI concepts and techniques, including machine learning, natural language processing, and data mining.    Ability to bridge the gap between technical AI concepts and practical educational applications.    Effective communication and teaching skills to engage learners from diverse backgrounds. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget for software licenses, cloud computing resources, and guest speakers.    Access to domain-specific data, such as student performance records and adaptive learning system logs.    Availability of AI tools and platforms, such as TensorFlow, Keras, and scikit-learn.    Institutional support for interdisciplinary teaching and collaboration with other departments, such as computer science and statistics.    Constraints:    Limited availability of domain-specific data.    Potential lack of technical expertise among some learners.    Ethical and legal considerations related to the use of student data.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies analyzing the use of AI in specific educational contexts.    Critiques of research papers on AI in education. 2.  Group Project:    Design and development of an AI-powered educational tool or intervention.    Presentation of project findings to the class. 3.  Quizzes:    Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Exam:    Comprehensive exam covering all course material. 5.  Class Participation:    Active engagement in discussions and activities. </t>
   </si>
   <si>
@@ -2290,9 +2053,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Electrical Engineering with experience in AI applications.    Expertise in machine learning, signal processing, and control systems.    Skills:    Ability to explain complex AI concepts in a clear and accessible manner.    Experience in designing and implementing AI solutions for electrical engineering problems.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Access to computing resources, including high-performance workstations and cloud computing platforms.    Availability of software tools for AI development, such as Python, TensorFlow, and MATLAB.    Datasets for training and testing AI models in electrical engineering applications.    Support from IT staff for setting up and maintaining the learning environment.    Collaboration with industry partners for real-world projects and case studies.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in electrical and information technology. 3.  Apply AI techniques to solve problems in circuit design, smart grid management, and telecommunications. 4.  Design and implement AI-driven solutions for electrical engineering applications. 5.  Analyze and interpret data from electrical systems using AI tools. 6.  Evaluate the ethical, legal, and social implications of AI in electrical engineering.</t>
   </si>
   <si>
@@ -2320,9 +2080,6 @@
     <t xml:space="preserve">   Qualifications:     Professor of energy engineering with a Ph.D. in a relevant field.    Expertise in AI-powered energy management, including machine learning, optimization algorithms, and smart grid technologies.    Experience in conducting research and publishing papers on AI applications in energy systems.    Skills:     Strong understanding of energy systems and AI concepts.    Ability to bridge the gap between theoretical AI models and practical energy engineering problems.    Effective communication and teaching skills to convey complex topics to students with diverse backgrounds.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:     Course duration: One semester (15 weeks).    Access to software tools: Python, MATLAB, and specialized AI libraries (TensorFlow, PyTorch).    Availability of datasets: Publicly available energy consumption data, grid performance reports, and renewable energy generation data.    Computing resources: Access to high-performance computing clusters for training AI models.    Constraints:     Budget limitations for acquiring specialized AI software licenses.    Limited availability of domain-specific data for certain energy systems.    Institutional support for interdisciplinary teaching and collaboration with AI experts.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to:  1.  Understand the fundamental concepts of AI and machine learning in the context of energy systems. 2.  Identify and evaluate potential AI applications for optimizing energy processes and renewable energy systems. 3.  Apply AI tools and techniques to analyze energy data and develop predictive models. 4.  Design and implement AI-driven solutions for smart grid management, energy efficiency optimization, and renewable energy integration. 5.  Evaluate the performance and impact of AI applications in energy systems. 6.  Recognize the ethical, legal, and social implications of using AI in the energy sector.</t>
   </si>
   <si>
@@ -2350,9 +2107,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Engineering Informatics with a Ph.D. in a related field.    Expertise in AI algorithms, machine learning, and data analysis.    Skills:    Strong background in engineering principles and software development.    Ability to bridge the gap between AI theory and practical engineering applications.    Experience in teaching interdisciplinary courses and engaging students with diverse backgrounds. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow, PyTorch, Scikit-learn), and simulation software.    Availability of domain-specific datasets (e.g., system performance logs, software testing reports).    High-performance computing resources for running AI models.    Institutional support for interdisciplinary teaching and collaboration.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Implement AI algorithms for data analysis and prediction tasks.    Analyze case studies on AI applications in engineering. 2.  Group Project:    Develop an AI-driven software solution for a specific engineering problem.    Design and implement AI-based simulations for engineering systems. 3.  Quizzes:    Assess understanding of key AI concepts and algorithms. 4.  Final Exam:    Comprehensive assessment of all course material. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2377,9 +2131,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Engineering Science with expertise in AI-powered simulations and data analysis.    Experience in applying AI to solve engineering problems.    Skills:    Strong understanding of engineering principles and AI algorithms.    Ability to bridge the gap between theoretical AI concepts and practical engineering applications.    Experience in teaching and mentoring students in interdisciplinary fields.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and FEA/CFD software.    Availability of datasets for engineering applications (e.g., material databases, structural integrity reports).    High-performance computing resources for running AI simulations.    Institutional support for interdisciplinary teaching and research collaborations.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t>1.  Assignments:    Implement AI algorithms for material property prediction.    Analyze structural integrity using AI-driven simulations.    Optimize engineering designs using AI techniques. 2.  Projects:    Develop an AI-driven predictive maintenance system for engineering equipment.    Design a new material using AI-based discovery methods. 3.  Quizzes:    Assess understanding of key AI concepts and algorithms. 4.  Final Exam:    Comprehensive evaluation of learning outcomes. 5.  Presentation:    Present project findings and discuss the impact of AI on engineering.</t>
   </si>
   <si>
@@ -2395,9 +2146,6 @@
     <t xml:space="preserve">   Ethical Implications:    Potential bias in AI algorithms leading to unfair or discriminatory outcomes.    Privacy concerns related to the collection and use of personal data.    Lack of transparency in AI decision-making processes.    Legal Implications:    Compliance with GDPR and other data protection regulations.    Liability for errors or biases in AI-driven decisions.    Intellectual property rights related to AI algorithms and data.    Social Implications:    Impact on employment due to automation of tasks.    Potential for manipulation of public opinion through AI-driven disinformation campaigns.    Changes in the nature of political discourse and engagement.    Examples:    Positive: More efficient policy analysis and decision-making.    Negative: Use of AI to spread propaganda or manipulate elections. </t>
   </si>
   <si>
-    <t xml:space="preserve">   AI in Political Science Research:    Books: "Artificial Intelligence and Politics" by Richard Nadler.    Journals: "Journal of Artificial Intelligence Research," "Political Analysis."    Online AI Tools for Social Analysis:    Platforms: Google AI, Microsoft Azure AI, IBM Watson.    Online Courses:    Coursera: "AI for Social Good" by University of Michigan.    edX: "AI and the Future of Work" by MIT.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Political science and European studies students.    Varying levels of AI knowledge, ranging from novice to intermediate.    Solid background in political science theories, European history, and EU policies.    Expected Role After Completion:    Apply AI tools and techniques to analyze political data, assess policy impacts, and understand public opinion in a European context.    Critically evaluate the ethical and social implications of AI in European politics and governance. </t>
   </si>
   <si>
@@ -2434,9 +2182,6 @@
     <t xml:space="preserve"> Qualifications:  Professor of financial economics with a Ph.D. in Finance or Economics.  Expertise in AI-based market analysis, machine learning, and statistical modeling.  Skills:  Strong knowledge of financial markets, investment strategies, and economic indicators.  Proficient in programming languages such as Python and statistical software like R.  Ability to bridge theoretical concepts with practical applications and real-world case studies.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Resources:  Course duration: One semester (12-14 weeks).  Access to financial databases (e.g., Bloomberg, Thomson Reuters).  Software and hardware: Python, R, TensorFlow, cloud computing resources.  Institutional support for interdisciplinary teaching and research collaborations. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> By the end of the course, students will: 1. Understand the fundamental concepts of AI and machine learning in the context of financial economics. 2. Apply AI algorithms for financial forecasting, investment analysis, and risk management. 3. Evaluate the performance of AI-driven financial models using appropriate metrics. 4. Analyze the ethical, legal, and social implications of AI in finance. 5. Develop and implement AI-powered investment strategies using real-world financial data.</t>
   </si>
   <si>
@@ -2461,9 +2206,6 @@
     <t>Qualifications:    Professor of Medicine with expertise in AI applications for diagnostics and treatment planning.    Strong background in medical informatics, data science, and machine learning.    Experience in clinical practice and medical research. Skills:    Ability to explain complex AI concepts in a clear and accessible manner.    Experience in teaching interdisciplinary courses to medical students and healthcare professionals.    Ability to bridge the gap between AI technology and clinical practice.</t>
   </si>
   <si>
-    <t>Resources:    Budget for software licenses, computing resources, and guest speakers.    Availability of domain-specific data (e.g., medical imaging datasets, EHR data).    Access to AI tools and platforms (e.g., TensorFlow, PyTorch, cloud-based AI services).    Institutional support for interdisciplinary teaching and research collaborations. Constraints:    Limited time for hands-on AI training due to the demanding medical curriculum.    Potential challenges in accessing and sharing sensitive patient data.    Need for ongoing faculty development to keep up with the rapidly evolving field of AI in medicine.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Describe the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in various areas of medicine, such as diagnostics, treatment planning, and drug discovery. 3.  Analyze and interpret medical data using AI tools and techniques. 4.  Assess the ethical, legal, and social implications of AI in healthcare. 5.  Critically evaluate the performance of AI-powered medical technologies. 6.  Collaborate with AI developers to design and implement AI solutions for healthcare problems.</t>
   </si>
   <si>
@@ -2476,9 +2218,6 @@
     <t xml:space="preserve">Types of Data: Medical Imaging Data: Microscopic images of immune cells, radiological scans (CT, MRI) showing immune-related pathologies. Clinical Trial Results: Data from clinical trials evaluating the efficacy and safety of immunotherapies and vaccines. Genomic Datasets: Sequencing data of immune cells, pathogens, and host genomes. Flow Cytometry Data: High-dimensional data characterizing immune cell populations. Electronic Health Records (EHR): Patient history, lab results, and treatment outcomes. Significance for AI Applications:    Imaging data enables AI-driven image analysis for disease diagnosis and monitoring.    Clinical trial data allows for AI-based prediction of treatment outcomes and optimization of trial designs.    Genomic data facilitates AI-driven discovery of disease biomarkers and vaccine targets. Data Understanding:    Understanding data types allows targeted AI techniques such as convolutional neural networks for image analysis and recurrent neural networks for time-series data. </t>
   </si>
   <si>
-    <t xml:space="preserve">AI in Immunology Research Papers:    PubMed: Search for "artificial intelligence immunology" to find relevant publications.    Google Scholar: Similar search terms to find research articles and reviews. Online Courses:    Coursera: "AI for Medicine" specialization.    edX: "Data Science in Biomedicine" programs.    MIT OpenCourseWare: Courses on machine learning and bioinformatics. Books:    "Deep Learning in Healthcare" by Arvind Rao and Murad Mahmud.    "Artificial Intelligence in Medicine" edited by Riccardo Bellazzi and Jasmina Bratko.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Learners:    Medical and biology students specializing in immunology.    Some familiarity with basic immunology concepts.    Varying levels of prior exposure to AI and programming. Expected Role After Completion:    Understand the potential of AI in immunology research and diagnostics.    Critically evaluate AI-driven studies and tools.    Collaborate effectively with AI specialists in research projects.    Apply AI tools and techniques to solve immunological problems. </t>
   </si>
   <si>
@@ -2506,9 +2245,6 @@
     <t xml:space="preserve">   Ethical Implications: Data privacy concerns, algorithmic bias in decision-making, and job displacement due to automation.    Legal Implications: Compliance with data protection regulations and ensuring transparency in AI algorithms.    Social Implications: Changes in workforce skills requirements, potential job losses, and the need for retraining programs.    Examples:    Positive: Improved efficiency, reduced costs, and enhanced product quality.    Negative: Job displacement, increased dependence on technology, and potential for algorithmic bias.    Domain-specific concerns include the need for robust cybersecurity measures to protect sensitive production data and the importance of human oversight in AI-driven decision-making. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "Artificial Intelligence in Manufacturing" by [Author Name]    "AI-Powered Supply Chain Management" by [Author Name]    Research Papers:    IEEE Transactions on Automation Science and Engineering    Journal of Intelligent Manufacturing    Online Courses:    Coursera: "Supply Chain Analytics" by [University Name]    edX: "Smart Manufacturing" by [Organization Name]    Industry Reports:    Reports from McKinsey, Deloitte, and PwC on AI in manufacturing and logistics.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Students studying industrial production and logistics.    Varying levels of AI knowledge, with some familiarity with basic concepts.    Strong background in industrial engineering principles and practices.    Expected Role After Completion:    Apply AI techniques to solve real-world problems in manufacturing and logistics.    Lead or participate in AI implementation projects in their organizations.    Contribute to the development of AI-driven solutions for industrial engineering applications. </t>
   </si>
   <si>
@@ -2536,9 +2272,6 @@
     <t xml:space="preserve">Ethical Implications: Potential bias in algorithms, data privacy concerns related to tracking and monitoring. Legal Implications: Compliance with data protection regulations (e.g., GDPR), liability for autonomous systems. Social Implications: Job displacement due to automation, need for workforce retraining and upskilling. Examples:    Positive: Improved efficiency, reduced costs, enhanced customer service.    Negative: Job losses, increased reliance on technology, potential for system failures. Domain-Specific Concerns:    Ensuring the security of AI systems against cyberattacks.    Addressing the potential for algorithmic bias in decision-making.    Managing the environmental impact of AI-driven logistics solutions. </t>
   </si>
   <si>
-    <t xml:space="preserve">AI in Logistics Case Studies:    Reports and articles on successful AI implementations in logistics companies. Online Courses:    Coursera: "Supply Chain Analytics"    edX: "AI for Supply Chain Management"    Udemy: "AI in Logistics: Practical Applications" Industry Publications:    Supply Chain Management Review    Journal of Business Logistics  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Resources:    Budget: Funding for software licenses, hardware, and guest speakers.    Personnel: Teaching assistants, lab technicians.    Course Duration: One semester (15 weeks). Availability of Domain-Specific Data: Access to real-world logistics datasets for hands-on projects. Access to Software and Hardware: AI tools (e.g., Python, TensorFlow, PyTorch), computing resources (e.g., cloud-based platforms). Institutional Support: Collaboration with the computer science department, interdisciplinary teaching initiatives.  Section 3: Course Implementation </t>
   </si>
   <si>
@@ -2569,9 +2302,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of mechanical engineering with expertise in AI-driven industrial automation.    Ph.D. in Mechanical Engineering or related field.    Experience in teaching AI and machine learning concepts to engineering students.    Skills:    Strong understanding of mechanical engineering principles and AI techniques.    Ability to bridge the gap between theoretical AI concepts and practical engineering applications.    Experience in developing and implementing AI-driven solutions in industrial settings. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software.    Availability of datasets from industrial partners or public repositories.    Access to high-performance computing resources for training AI models.    Constraints:    Limited budget for purchasing specialized AI software or hardware.    Potential challenges in accessing real-world industrial data due to confidentiality concerns.    Need for interdisciplinary collaboration with computer science and data science departments. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Homework Assignments:    Solve engineering problems using AI techniques.    Analyze case studies of AI applications in industry. 2.  Midterm Exam:    Assess understanding of fundamental AI concepts and algorithms. 3.  Group Project:    Develop and implement an AI-driven solution for a real-world engineering problem.    Present project findings and demonstrate the effectiveness of the solution. 4.  Final Exam:    Comprehensive assessment of course material, including AI concepts, applications, and ethical considerations. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2596,9 +2326,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Design Engineering with a Ph.D. in a relevant field.    Expertise in AI-driven optimization, machine learning, and data analysis.    Experience in teaching design engineering courses and mentoring students.    Skills:    Strong understanding of engineering design principles and practices.    Proficiency in AI programming languages (e.g., Python) and machine learning frameworks (e.g., TensorFlow, PyTorch).    Ability to communicate complex technical concepts to students with varying backgrounds. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (15 weeks).    Access to CAD software (e.g., SolidWorks, AutoCAD) with AI-integrated features.    Availability of high-performance computing resources for running AI models and simulations.    Domain-specific data sets (e.g., material properties, design specifications) for training AI algorithms.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Budget limitations for purchasing AI software licenses or hiring external consultants.    Limited availability of domain-specific data.    Potential challenges in integrating AI tools into existing design engineering curriculum.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Implement AI algorithms for design optimization or material selection.    Analyze case studies on AI-powered product development. 2.  Group Project:    Design a product using generative design techniques and AI-powered simulation.    Present the design process, results, and potential applications of the product. 3.  Quizzes:    Assess understanding of key AI concepts and design engineering principles. 4.  Midterm Exam:    Comprehensive assessment of knowledge gained in the first half of the course. 5.  Final Exam:    Comprehensive assessment of all learning outcomes. 6.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2623,9 +2350,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Design Engineering with a PhD in a relevant field.    Experience in AI-powered design optimization and generative design.    Skills:    Strong understanding of design principles and engineering simulations.    Proficiency in AI and machine learning algorithms.    Ability to bridge the gap between design theory and AI applications. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to CAD software (e.g., SolidWorks, AutoCAD) with AI plugins.    Availability of simulation tools (e.g., ANSYS, COMSOL).    Access to computing resources for training AI models.    Institutional support for interdisciplinary collaboration. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Analyze case studies on AI-driven design projects.    Develop AI models for design optimization tasks. 2.  Group Project:    Design a product or system using AI-powered generative design tools.    Evaluate the performance of AI-generated designs through simulations. 3.  Quizzes:    Assess understanding of key AI concepts and design principles. 4.  Final Presentation:    Present the design process, AI techniques used, and results achieved in the group project. 5.  Class Participation:    Engage in discussions and contribute to problem-solving activities. </t>
   </si>
   <si>
@@ -2650,9 +2374,6 @@
     <t xml:space="preserve">   Qualifications:     Professor of neuroscience with expertise in AI applications.    Strong background in computational neuroscience, machine learning, and data analysis.    Skills:     Ability to bridge neuroscience concepts with AI methodologies.    Experience in teaching interdisciplinary courses and mentoring students in research projects.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to computing resources, including high-performance workstations and cloud computing platforms.    Availability of neuroscience datasets (e.g., OpenNeuro, Brainomics).    Software tools: Python, TensorFlow, PyTorch, MATLAB.    Institutional support for interdisciplinary teaching and research collaborations.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will:     Understand the fundamental concepts of AI and machine learning in the context of neuroscience.    Apply AI techniques to analyze brain imaging data (MRI, EEG).    Develop and evaluate computational models of neural circuits and cognitive processes.    Utilize neuroinformatics tools to manage and analyze large-scale neuroscience datasets.    Critically assess the ethical and social implications of AI in neuroscience.</t>
   </si>
   <si>
@@ -2680,9 +2401,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Business Management with expertise in AI applications.    Experience in teaching international business and marketing courses.    Strong understanding of AI technologies and their practical applications.    Skills:    Ability to bridge technical AI concepts with business strategies.    Experience in interdisciplinary teaching and student engagement.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to AI software tools and platforms (e.g., Python, TensorFlow, R).    Availability of datasets for international market analysis and customer behavior prediction (e.g., World Bank, IMF).    Institutional support for interdisciplinary collaboration.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its relevance to international business, marketing, and entrepreneurship. 2.  Identify and evaluate AI applications for market analysis, customer behavior prediction, and business strategy optimization. 3.  Apply AI tools and techniques to solve real-world business problems in international contexts. 4.  Assess the ethical, legal, and social implications of using AI in global business operations. 5.  Develop AI-powered solutions for enhancing international marketing strategies and entrepreneurial ventures.</t>
   </si>
   <si>
@@ -2710,9 +2428,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of taxation and public finance with expertise in AI applications.    Strong background in econometrics, statistical modeling, and data analysis.    Skills:    Ability to bridge theoretical concepts with practical AI applications.    Experience in using AI tools for research and teaching.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Access to statistical software (e.g., R, Python) and AI platforms (e.g., TensorFlow, PyTorch).    Availability of relevant datasets (e.g., World Bank data, IMF data, tax statistics).    Computational resources for running AI models.    Constraints:    Budget limitations may restrict access to certain AI tools or datasets.    Limited personnel for providing technical support.    Course duration: One semester (12-14 weeks). ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and its potential applications in international taxation and public finance. 2.  Identify and evaluate AI tools for economic analysis, revenue forecasting, and fraud detection. 3.  Apply AI techniques to analyze tax data, economic indicators, and government financial reports. 4.  Assess the ethical, legal, and social implications of using AI in taxation and public finance. 5.  Develop AI-driven solutions for addressing challenges in public financial management.</t>
   </si>
   <si>
@@ -2761,9 +2476,6 @@
     <t xml:space="preserve">   Ethical Implications: Ensuring fairness and transparency in AI-driven energy management systems, addressing data privacy concerns.    Legal Implications: Compliance with energy regulations and data protection laws.    Social Implications: Impact on employment in the energy sector due to automation, ensuring equitable access to energy resources.    Examples:    Positive: Reduced energy consumption and carbon emissions through optimized energy management.    Negative: Potential for bias in AI algorithms leading to unfair energy distribution or pricing.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Textbooks:    "AI Applications in Power Engineering" by [Hypothetical Author].    "Smart Grid Technologies" by [Hypothetical Author].    Online Courses:    Coursera: "AI for Energy" by [Hypothetical Institution].    Udemy: "AI in Process Control" by [Hypothetical Instructor].    Journals &amp; Conferences:    IEEE Transactions on Smart Grid    Applied Energy  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Students specializing in energy and process engineering.    Some familiarity with basic programming and data analysis.    Limited prior knowledge of AI concepts and techniques.    Expected Role After Completion:    Apply AI techniques to optimize energy systems and industrial processes.    Design and implement AI-driven solutions for smart grids and energy management.    Contribute to research and development in the field of AI for energy.</t>
   </si>
   <si>
@@ -2806,9 +2518,6 @@
     <t xml:space="preserve">   Ethical Implications: Validation of AI-generated proofs, ensuring reliability in critical applications.    Legal Implications: Intellectual property rights for AI-discovered theorems, liability for errors in AI-driven models.    Social Implications: Changes in mathematical research methodologies, accessibility of advanced mathematical tools.    Examples:    Positive: Accelerating mathematical discoveries, improving accuracy in numerical simulations.    Negative: Over-reliance on AI leading to a decline in fundamental mathematical skills. </t>
   </si>
   <si>
-    <t xml:space="preserve">   AI in Computational Mathematics Research: Publications in journals like "Journal of Symbolic Computation" and "Advances in Computational Mathematics."    Case Studies: Examples of AI-driven mathematical proofs and applications in fields like cryptography and optimization.    Online Resources:    arXiv: Preprints in mathematics and computer science.    MathWorld: Comprehensive mathematics resource.    Wolfram Alpha: Computational knowledge engine.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Mathematics students at the undergraduate and graduate levels.    Background in calculus, linear algebra, and basic programming.    Expected Role After Completion:    Apply AI tools to enhance mathematical research, numerical analysis, and problem-solving.    Collaborate with AI systems to explore and validate mathematical ideas. </t>
   </si>
   <si>
@@ -2845,9 +2554,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of mechanical engineering with expertise in AI-driven automation.    Skills:    Strong understanding of mechanical engineering principles and AI algorithms.    Ability to bridge the gap between theoretical AI concepts and practical engineering applications.    Experience in interdisciplinary teaching and project-based learning.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software.    Availability of domain-specific datasets for hands-on projects.    Institutional support for interdisciplinary collaboration with computer science departments.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning. 2.  Identify and evaluate AI applications in mechanical engineering domains such as design, manufacturing, and maintenance. 3.  Apply AI algorithms to solve practical mechanical engineering problems. 4.  Interpret and analyze data from mechanical systems using AI techniques. 5.  Design and implement AI-driven solutions for specific mechanical engineering challenges. 6.  Recognize the ethical and societal implications of AI in mechanical engineering.</t>
   </si>
   <si>
@@ -2905,9 +2611,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of medical engineering with expertise in AI-powered healthcare solutions.    Strong background in medical imaging, signal processing, and machine learning.    Skills:    Ability to bridge the gap between medical engineering and AI technologies.    Experience in interdisciplinary teaching and mentoring.    Knowledge of relevant healthcare regulations and ethical considerations. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to medical imaging datasets (e.g., NIH Chest X-ray Dataset).    Availability of software tools such as Python, TensorFlow, PyTorch, and medical image processing libraries.    Access to high-performance computing resources for AI model training.    Institutional support for collaboration with medical facilities and AI research labs. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Analyze case studies on AI applications in medical diagnostics and treatment.    Develop and evaluate machine learning models for medical image classification. 2.  Group Project:    Design an AI-driven medical device or system to address a specific healthcare challenge.    Present a detailed project proposal, implementation plan, and performance evaluation. 3.  Quizzes:    Regular quizzes on key AI concepts, algorithms, and healthcare applications. 4.  Final Exam:    Comprehensive exam covering all course topics, including AI fundamentals, medical applications, and ethical considerations. 5.  Class Participation:    Active engagement in discussions, presentations, and group activities. </t>
   </si>
   <si>
@@ -2932,9 +2635,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of business analytics with expertise in AI applications.    Ph.D. in Operations Research or related field.    Experience in teaching and research in AI and analytics.    Skills:    Strong understanding of optimization techniques and AI algorithms.    Ability to bridge technical AI concepts with practical business applications.    Experience in interdisciplinary teaching and student engagement. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (1214 weeks).    Access to software tools like Python, R, and optimization solvers (e.g., Gurobi, CPLEX).    Availability of datasets for business applications and supply chain optimization.    Institutional support for interdisciplinary learning and access to computing resources.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Analyze case studies on AI in operations research (e.g., optimizing a supply chain using AI). 2.  Group Project:    Design an AI-driven solution for a business problem (e.g., developing a demand forecasting model). 3.  Quizzes:    Weekly quizzes on key AI concepts and applications. 4.  Final Presentation:    Present a business problem, propose an AI solution, and discuss implications. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -2959,9 +2659,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Process Safety with a Ph.D. in Chemical Engineering or related field.    Expertise in AI applications for environmental protection and risk management.    Experience in teaching undergraduate and graduate courses in process safety and environmental engineering.    Skills:    Strong understanding of AI algorithms, machine learning techniques, and data science principles.    Ability to integrate AI concepts into process safety and environmental engineering curricula.    Excellent communication and pedagogical skills to effectively engage students with diverse backgrounds. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., Python, TensorFlow, specialized environmental modeling tools).    Access to high-performance computing resources for AI model training and simulations.    Availability of domain-specific datasets from industrial partners and environmental agencies.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Limited availability of pre-trained AI models specific to process safety and environmental engineering.    Challenges in securing industry partnerships for real-world case studies and data access.    Potential need for faculty training in advanced AI techniques and software tools.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Case studies on AI-driven risk assessment in industrial facilities.    Analysis of environmental monitoring data using machine learning algorithms. 2.  Group Project:    Development of an AI-based system for predictive maintenance in a chemical plant.    Design of an AI-driven solution for optimizing energy consumption in a manufacturing process. 3.  Quizzes:    Regular quizzes on key AI concepts and applications. 4.  Final Exam:    Comprehensive assessment of students' understanding of AI principles and their application in process safety and environmental engineering. 5.  Presentations:    Student presentations on their group projects and case study analyses. </t>
   </si>
   <si>
@@ -2986,9 +2683,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of process engineering with a Ph.D. in a related field.    Expertise in AI-powered industrial optimization and process control.    Experience in teaching process engineering courses and mentoring students.    Skills:    Strong understanding of process engineering principles and practices.    Proficiency in AI and machine learning algorithms and tools.    Ability to communicate complex concepts clearly and effectively.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (15 weeks).    Access to software tools such as Python, MATLAB, and process simulation software (e.g., Aspen Plus).    Availability of industrial sensor data and process optimization reports for case studies and projects.    High-performance computing resources for running AI models and simulations.    Institutional support for interdisciplinary collaboration and industry partnerships.    Constraints:    Limited budget for purchasing specialized AI software or hardware.    Potential challenges in accessing real-world industrial data due to confidentiality concerns.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamentals of AI and machine learning and their relevance to process engineering. 2.  Identify and evaluate potential AI applications in various process engineering domains. 3.  Apply AI tools and techniques to solve process optimization, predictive maintenance, and process control problems. 4.  Interpret and analyze industrial sensor data and process simulation results. 5.  Design and implement AI-driven solutions for process automation and optimization. 6.  Evaluate the ethical, legal, and social implications of using AI in process engineering.</t>
   </si>
   <si>
@@ -3016,9 +2710,6 @@
     <t xml:space="preserve">   Qualifications:    Ph.D. in Psychology with a specialization in AI-driven cognitive modeling.    Experience in developing and applying computational models to psychological phenomena.    Familiarity with relevant AI tools and techniques (e.g., machine learning, natural language processing).    Skills:    Strong understanding of psychological theory and research methods.    Ability to bridge the gap between psychological concepts and AI algorithms.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Access to computing resources for running AI models.    Availability of psychological datasets for analysis and experimentation.    Support from IT staff for software installation and troubleshooting.    Collaboration with the computer science department for interdisciplinary projects.    Constraints:    Limited budget for purchasing specialized AI software or datasets.    Time constraints due to the breadth of topics to be covered in a single course.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Describe the fundamental principles of AI and machine learning. 2.  Identify and evaluate AI applications in various areas of psychology, such as mental health, cognitive science, and behavioral analysis. 3.  Apply AI techniques to analyze psychological data and develop predictive models. 4.  Critically assess the ethical, legal, and social implications of using AI in psychology. 5.  Design and implement a small-scale AI project to address a psychological research question or practical problem.</t>
   </si>
   <si>
@@ -3037,18 +2728,12 @@
     <t xml:space="preserve">   Ethical Implications:    Potential for bias in AI models leading to unfair or discriminatory outcomes.    Concerns about data privacy and security when handling sensitive information.    Transparency and interpretability of AI models to ensure accountability.    Legal Implications:    Compliance with data protection regulations (e.g., GDPR) and industry-specific standards.    Liability for errors or damages caused by AI-driven decisions.    Social Implications:    Changes in the role of statisticians and data analysts as AI automates routine tasks.    Potential for misuse of AI to manipulate or distort statistical findings.    Examples:    Positive: Improved accuracy and efficiency in statistical analysis, leading to better insights and decisions.    Negative: Misinterpretation of AI-driven results, leading to flawed conclusions and unintended consequences. </t>
   </si>
   <si>
-    <t xml:space="preserve">   AI in Statistics Research Papers:    Journals such as the Journal of the American Statistical Association, and the Journal of Machine Learning Research.    Online Courses:    Coursera: "Machine Learning" by Andrew Ng, "AI for Data Science" specialization.    Udemy: "Data Science and Machine Learning Bootcamp," "AI for Statistics."    Textbooks:    "The Elements of Statistical Learning" by Hastie, Tibshirani, and Friedman.    "Pattern Recognition and Machine Learning" by Christopher Bishop.  ________________________________________ Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    Students in statistics and data science programs.    Varying levels of experience with AI and machine learning.    Solid foundation in statistical principles and methods.    Expected Role After Completion:    Apply AI techniques to enhance statistical modeling and predictive analysis.    Develop AI-driven solutions for data analysis problems.    Critically evaluate the ethical and practical implications of using AI in statistics. </t>
   </si>
   <si>
     <t xml:space="preserve">   Qualifications:    Professor of statistics with expertise in AI-powered analytics.    Strong background in machine learning, data mining, and statistical modeling.    Skills:    Ability to bridge the gap between statistical theory and AI applications.    Experience in teaching and mentoring students in data science.    Familiarity with relevant software tools and programming languages (e.g., R, Python). </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Availability of domain-specific datasets for hands-on exercises.    Access to software and hardware resources, including cloud computing platforms and AI development tools.    Institutional support for interdisciplinary teaching and research collaborations.    Constraints:    Budget limitations for purchasing software licenses or hiring additional personnel.    Potential lack of access to specialized hardware resources (e.g., GPUs) for computationally intensive tasks.  ________________________________________ Section 3: Course Implementation </t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will be able to: 1.  Understand the fundamental concepts of AI and machine learning in the context of statistics. 2.  Apply AI techniques to enhance statistical modeling and predictive analysis. 3.  Evaluate the performance of AI-driven statistical models using appropriate metrics. 4.  Identify and address ethical and practical challenges in using AI for statistical analysis. 5.  Communicate the results of AI-driven analyses effectively to both technical and non-technical audiences. </t>
   </si>
   <si>
@@ -3076,9 +2761,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Sustainable Energy with a focus on AI-driven optimization.    Expertise in renewable energy systems, grid management, and energy efficiency.    Strong background in AI, machine learning, and data analytics.    Skills:    Ability to bridge the gap between engineering principles and AI technologies.    Experience in designing and implementing AI-based solutions for sustainable energy problems.    Effective communication and teaching skills to convey complex concepts. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools like Python, MATLAB, and specialized AI libraries (e.g., TensorFlow, PyTorch).    Availability of datasets related to renewable energy systems, grid operations, and energy consumption.    High-performance computing resources for running AI models.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Budget for guest lecturers and field trips to renewable energy facilities. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Problem sets on AI fundamentals and applications in sustainable energy.    Case study analysis of AI-driven renewable energy projects. 2.  Group Project:    Design and implementation of an AI-based solution for a sustainable energy problem (e.g., optimizing the operation of a microgrid, predicting solar panel performance, or reducing energy consumption in a building). 3.  Quizzes:    Regular quizzes to assess understanding of key concepts and techniques. 4.  Final Presentation:    Presentation of the group project, including problem definition, methodology, results, and conclusions. 5.  Class Participation:    Active engagement in discussions and in-class activities. </t>
   </si>
   <si>
@@ -3103,9 +2785,6 @@
     <t xml:space="preserve">   Qualifications:     Professor of environmental engineering with a PhD in a related field.    Experience in AI-driven climate analysis, environmental modeling, and sustainable process design.    Skills:     Strong understanding of environmental science, engineering principles, and AI technologies.    Ability to bridge technical AI concepts with practical environmental applications.    Experience in interdisciplinary teaching and student engagement.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to software tools such as Python, R, TensorFlow, and ArcGIS for AI demonstrations and data analysis.    Availability of environmental datasets from government agencies, research institutions, and industry partners.    Institutional support for interdisciplinary learning and collaboration with environmental organizations.  ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">   By the end of the course, students will:  1.  Understand the fundamentals of AI and its relevance to sustainable process and environmental engineering. 2.  Identify and evaluate AI applications in various environmental domains, such as waste management, climate modeling, and water resource management. 3.  Interpret environmental data for AI-driven decision-making and problem-solving. 4.  Apply AI techniques to develop models and solutions for environmental challenges. 5.  Recognize ethical, legal, and societal considerations of using AI in environmental applications.</t>
   </si>
   <si>
@@ -3133,9 +2812,6 @@
     <t xml:space="preserve">   Qualifications:    Professor of Systems Engineering with a PhD in a related field.    Expertise in AI-driven automation and control systems.    Skills:    Strong understanding of systems engineering principles and AI algorithms.    Ability to integrate AI concepts into practical engineering applications.    Experience in teaching interdisciplinary courses and mentoring engineering students. </t>
   </si>
   <si>
-    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools like MATLAB, Python, and Simulink for AI simulations and control system design.    Availability of datasets from industrial automation and control systems.    Institutional support for interdisciplinary teaching and research collaborations. ________________________________________ Section 3: Course Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.  Individual Assignments:    Implement AI algorithms for system optimization and control.    Analyze case studies on AI-driven automation in specific industries. 2.  Group Project:    Design an AI-driven control system for a real-world engineering application.    Develop a predictive maintenance model for an industrial system. 3.  Quizzes:    Assess understanding of key AI concepts and systems engineering principles. 4.  Final Presentation:    Present the design and results of the group project, discussing the AI techniques used and the implications of the solution. 5.  Class Participation:    Engage in discussions, share insights, and contribute to problem-solving activities. </t>
   </si>
   <si>
@@ -3178,9 +2854,6 @@
     <t xml:space="preserve">   Ethical Implications: Potential for bias in AI algorithms, privacy concerns related to student data, and the need for transparency and accountability.    Legal Implications: Compliance with data protection regulations such as GDPR and FERPA, and ensuring fairness and non-discrimination in AI-driven assessments.    Social Implications: Impact on the role of teachers, the need for retraining and upskilling, and the potential for AI to exacerbate existing inequalities.    Examples:    Positive: Improved student outcomes, increased efficiency in training programs, and better alignment with industry needs.    Negative: Job displacement for teachers, increased reliance on technology, and the potential for AI to reinforce existing biases. </t>
   </si>
   <si>
-    <t xml:space="preserve">   AI in Vocational Education Research: Academic papers and reports on the application of AI in vocational training.    Case Studies on AI-Enhanced Training Programs: Examples of successful AI implementations in vocational schools and training centers.    Online Courses: Platforms like Coursera, edX, and Udemy offer courses on AI, machine learning, and data science.    Industry Publications: Reports and articles on the latest trends in AI and vocational education.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners: Future vocational school teachers with varying levels of technical expertise.    Current Level of AI Knowledge and Related Skills: Limited knowledge of AI concepts and programming skills.    Background in the Domain: Strong understanding of vocational education principles and practices.    Expected Role After Completing the Course: To effectively integrate AI tools and techniques into their teaching practices, personalize learning experiences, and assess student skills using AI-driven methods. </t>
   </si>
   <si>
@@ -3202,9 +2875,6 @@
     <t>Types of Data: Image and Video Datasets: Large collections of labeled images and videos used for training AI models. Examples include ImageNet, COCO, and YouTube-8M. Computer Graphics Rendering Data: Datasets of 3D models, scenes, and rendering parameters used for training AI models to generate realistic images. Point Clouds and Mesh Data: 3D data representations used for modeling and analysis of objects and environments. Significance for AI Applications:    Image and video datasets enable training of deep learning models for computer vision tasks.    Rendering data allows AI models to learn realistic image synthesis and rendering techniques.    Understanding data characteristics enables targeted AI techniques such as convolutional neural networks (CNNs) for image analysis and generative adversarial networks (GANs) for image synthesis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Textbooks:    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "Computer Vision: Algorithms and Applications" by Richard Szeliski. Online Courses:    Coursera: "Convolutional Neural Networks" by Andrew Ng.    Udacity: "Computer Vision Nanodegree." Tutorials and Articles:    TensorFlow tutorials on computer vision.    PyTorch tutorials on image processing.    Paperswithcode.com for the latest research in computer vision.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Resources:    One semester (15 weeks) course duration.    Access to high-performance computing resources (GPUs) for training AI models.    Availability of software tools such as TensorFlow, PyTorch, OpenCV, and Blender.    Institutional support for interdisciplinary collaboration with other departments (e.g., mathematics, statistics). Constraints:    Limited budget for purchasing commercial software licenses.    Potential challenges in accessing large-scale datasets due to privacy concerns.  Section 3: Course Implementation </t>
   </si>
   <si>
@@ -3223,9 +2893,6 @@
     <t xml:space="preserve">   Ethical Implications: Potential for bias in AI algorithms, data privacy concerns, and transparency issues.    Legal Implications: Compliance with data protection regulations (e.g., GDPR, CCPA) and ensuring fairness in AI-driven assessments.    Social Implications: Changes in the role of trainers and educators, potential job displacement due to automation, and the need for upskilling and reskilling initiatives.    Examples:    Positive: Enhanced learning outcomes through personalized instruction.    Negative: Algorithmic bias leading to unfair assessment or training opportunities.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Research Papers: Publications on AI in education and corporate training.    Case Studies: Examples of successful AI implementations in corporate learning systems.    Industry Reports: Analyses of trends and best practices in AI-driven training.    Online Courses: Platforms like Coursera, Udemy, and LinkedIn Learning offering courses on AI in education and training.    Books: Texts on AI, machine learning, and their applications in education and training.  Section 2: Learning Environment </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Learners:    HR professionals and corporate trainers with varying levels of technical expertise.    Background in adult learning principles, instructional design, and talent development.    Limited prior experience with AI and machine learning concepts.    Expected Role After Completion:    Ability to identify and implement AI-driven solutions to improve training effectiveness.    Capacity to analyze and interpret data generated by AI-powered learning systems.    Skills to design and deliver personalized learning experiences using AI tools.    Understanding of the ethical and legal considerations of using AI in training.</t>
   </si>
   <si>
@@ -3265,18 +2932,12 @@
     <t>Natural Sciences; Medical &amp; Health Sciences</t>
   </si>
   <si>
-    <t>Engineering &amp; Technology; Computer Science &amp; Data; Applied Sciences &amp; Vocational Fields</t>
-  </si>
-  <si>
     <t>Engineering &amp; Technology; Design &amp; Creative Arts</t>
   </si>
   <si>
     <t>Engineering &amp; Technology; Computer Science &amp; Data</t>
   </si>
   <si>
-    <t>Natural Sciences; Social Sciences &amp; Humanities</t>
-  </si>
-  <si>
     <t>Business &amp; Economics</t>
   </si>
   <si>
@@ -3289,54 +2950,30 @@
     <t>Social Sciences &amp; Humanities</t>
   </si>
   <si>
-    <t>Business &amp; Economics; Engineering &amp; Technology</t>
-  </si>
-  <si>
     <t>Engineering &amp; Technology; Applied Sciences &amp; Vocational Fields</t>
   </si>
   <si>
     <t>Medical &amp; Health Sciences; Natural Sciences</t>
   </si>
   <si>
-    <t>Social Sciences &amp; Humanities; Medical &amp; Health Sciences</t>
-  </si>
-  <si>
     <t>Medical &amp; Health Sciences; Social Sciences &amp; Humanities</t>
   </si>
   <si>
     <t>Social Sciences &amp; Humanities; Design &amp; Creative Arts</t>
   </si>
   <si>
-    <t>Engineering &amp; Technology; Natural Sciences; Applied Sciences &amp; Vocational Fields</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Technology; Medical &amp; Health Sciences; Natural Sciences</t>
-  </si>
-  <si>
     <t>Computer Science &amp; Data; Business &amp; Economics</t>
   </si>
   <si>
-    <t>Engineering &amp; Technology; Computer Science &amp; Data; Design &amp; Creative Arts</t>
-  </si>
-  <si>
     <t>Natural Sciences; Computer Science &amp; Data</t>
   </si>
   <si>
-    <t>Engineering &amp; Technology; Computer Science &amp; Data; Natural Sciences</t>
-  </si>
-  <si>
     <t>Computer Science &amp; Data; Engineering &amp; Technology</t>
   </si>
   <si>
     <t>Business &amp; Economics; Social Sciences &amp; Humanities</t>
   </si>
   <si>
-    <t>Social Sciences &amp; Humanities; Educational Science</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Technology; Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
-  </si>
-  <si>
     <t>Engineering &amp; Technology; Business &amp; Economics</t>
   </si>
   <si>
@@ -3346,16 +2983,361 @@
     <t>Engineering &amp; Technology; Medical &amp; Health Sciences</t>
   </si>
   <si>
-    <t>Engineering &amp; Technology; Computer Science &amp; Data; Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
-  </si>
-  <si>
-    <t>Statistics &amp; Data Analysis; Computer Science &amp; Data; Natural Sciences; Business &amp; Economics; Social Sciences &amp; Humanities</t>
-  </si>
-  <si>
     <t>Business &amp; Economics; Applied Sciences &amp; Vocational Fields</t>
   </si>
   <si>
     <t>Computer Science &amp; Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, cloud computing resources, and potential guest speakers.    Personnel: Teaching assistants to support hands-on labs and student projects.    Course Duration: One semester (14 weeks), with 3 hours of lectures and 2 hours of lab work per week.    Availability of Domain-Specific Data: Access to public aerospace datasets, as well as the potential to leverage in-house data through research collaborations.    Access to Software and Hardware:    High-performance computing resources for training complex AI models.    AI development tools and libraries (TensorFlow, PyTorch, scikit-learn).    Simulation software such as MATLAB and ANSYS.    Institutional Support:    Support for interdisciplinary teaching and collaboration with other departments (e.g., computer science).    Access to university-wide computing infrastructure.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses (e.g., Adobe Creative Suite, AI tools) and hardware resources.    Personnel: Teaching assistants with expertise in AI and art and design.    Course Duration: One semester (12-14 weeks).    Availability of Domain-Specific Data:    Access to large datasets of images, videos, and 3D models for AI training.    Potential collaborations with museums or art institutions for data access.    Access to Software and Hardware:    Access to computers with GPUs for AI model training.    Software licenses for AI tools and creative applications.    Potential access to VR/AR equipment for interactive art projects.    Institutional Support:    Support for interdisciplinary teaching initiatives.    Collaborative opportunities with other departments (e.g., computer science, engineering). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (14-16 weeks).    Access to high-performance computing resources for training AI models.    Availability of astronomical datasets from various telescopes and surveys.    Software licenses for AI tools and data analysis packages.    Teaching assistants with experience in Python and machine learning.    Institutional support for interdisciplinary collaboration.    Constraints:    Limited budget for specialized hardware and software.    Potential challenges in accessing sensitive astronomical data.    Time constraints for in-depth coverage of all AI methods.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Funds to support software licenses, cloud computing credits, and teaching assistant support.    Personnel: Teaching assistants with relevant AI/bioinformatics experience.    Course Duration: One semester (14-16 weeks).    Availability of Domain-Specific Data: Access to public and/or university-specific datasets.    Access to Software and Hardware: Access to high-performance computing resources (cloud or local), AI/ML software libraries, and visualization tools.    Institutional Support: Collaboration with the computer science department, support for interdisciplinary research, and ethical review board for research involving patient data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses, cloud computing, and project materials.    Personnel: The primary instructor, a teaching assistant, and support from the IT department.    Course Duration: One semester (15 weeks).    Data Availability: Access to publicly available datasets for mechanical engineering applications (e.g., material property databases, simulation datasets).    Software and Hardware:    Access to necessary software (e.g., Python, TensorFlow/PyTorch, CAD software, simulation tools).    Access to high-performance computing resources (e.g., university servers, cloud computing platforms).    Institutional Support: Support from the department for interdisciplinary learning and collaboration with other departments (e.g., computer science).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources and Constraints: Budget: Moderate budget for software, cloud resources, and guest speakers. Personnel: Teaching assistant(s) to support lab sessions and grading. Course Duration: 14-week semester, with 3 hours of lectures and 2 hours of lab sessions per week. Domain-Specific Data: Access to public datasets for cybersecurity research and experimentation (e.g., Kaggle, CIC datasets). Software and Hardware: Access to cloud-based computing resources for AI model training. AI software tools and libraries (TensorFlow, PyTorch, scikit-learn). Virtual lab environment for hands-on exercises. Access to security tools for demonstration purposes. Institutional support for interdisciplinary teaching. Institutional Support: Institutional policies should support interdisciplinary teaching and collaboration.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Allocated budget for software licenses, cloud computing resources, and data acquisition.    Personnel: Teaching assistants with backgrounds in AI, machine learning, or energy engineering.    Course Duration: One semester (15 weeks).    Domain-Specific Data: Access to public datasets on energy consumption, weather patterns, and renewable energy output.    Software &amp; Hardware: Access to Python programming environments (Jupyter Notebooks), machine learning libraries (TensorFlow, PyTorch, scikit-learn), data analysis tools (Pandas, NumPy), and cloud computing resources (AWS, Google Cloud).    Institutional Support: Interdisciplinary teaching support from the university, collaborations with research centers focused on AI and energy, and resources for student projects.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses and online learning resources.    Personnel: Teaching assistant support for lab sessions and assignment grading.    Course Duration: One semester (14 weeks) with 3 hours of class time per week.    Availability of Domain-Specific Data: Access to publicly available environmental datasets, with potential for student-driven data collection activities.    Access to Software and Hardware:    Access to university computer labs with necessary software installed (Python, GIS software, etc.).    Optional access to cloud computing resources for larger-scale data analysis.    Institutional Support for Interdisciplinary Teaching:    Support from the university's environmental science and computer science departments.    Potential for guest lectures from industry experts.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Adequate funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with AI and fashion expertise.    Course Duration: One semester (12-14 weeks).    Availability of Domain-Specific Data: Access to relevant datasets, such as fashion images, customer behavior data, and sales records.    Access to Software and Hardware:    Cloud-based platforms for AI model development.    Software for image processing, 3D modeling, and design.    Access to necessary computing resources (e.g., GPUs).    Institutional Support for Interdisciplinary Teaching:    Support from both the fashion and computer science departments.    Encouragement for collaborative projects between learners from different disciplines.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources: Budget: Sufficient budget to acquire licenses for necessary software, financial data, and cloud-based computational resources. Personnel: Teaching assistants (TAs) with AI or data science background to support students in labs and assignments. Course Duration: One semester (14-16 weeks), with 3 hours of lecture and 2 hours of lab/workshop per week. Domain-Specific Data: Access to financial data through university subscriptions or partnerships with data providers. Software and Hardware: Access to Python programming environment, relevant libraries (e.g., pandas, NumPy, scikit-learn, TensorFlow/PyTorch), and cloud-based computing resources (e.g., Google Colab, AWS). Institutional Support: Institutional support for interdisciplinary teaching, including the option of guest lectures by industry experts.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget:  Adequate budget for software licenses, data storage, and computing resources.    Personnel: Teaching assistants with AI and food science backgrounds.    Course Duration: One semester (15 weeks) or two semesters (30 weeks).    Availability of Domain-Specific Data: Access to food science datasets and databases.    Access to Software and Hardware: Access to AI software tools (e.g., Python, TensorFlow), computing resources (e.g., cloud services), sensor equipment, and laboratory facilities.    Institutional Support for Interdisciplinary Teaching: Support for collaborations between food science and computer science departments.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, access to AI platforms, and guest speakers.    Personnel: Teaching assistants with technical skills in AI and data analysis.    Course Duration: One semester (12–14 weeks).    Availability of Domain-Specific Data: Access to news archives, social media data, and public datasets relevant to journalism.    Access to Software and Hardware: Access to AI tools (e.g., Google Cloud AI Platform, Python libraries for NLP), cloud computing resources, and data visualization software.    Institutional Support for Interdisciplinary Teaching: Support for collaboration with computer science and data science departments.    Constraints:    Limited budget for specialized AI software and hardware.    Potential challenges in accessing proprietary data.    Need to adapt to rapidly evolving AI technologies.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses and guest speakers.    Personnel: Teaching assistant with a background in computer science or data science.    Course Duration: One semester (14-16 weeks), 3 hours of class time per week.    Availability of Domain-Specific Data: Access to public legal databases and datasets for demonstration and practice.    Access to Software and Hardware:    Cloud-based AI platforms for demonstration purposes (e.g., Google Colab).    Access to legal research databases (LexisNexis, Westlaw, etc.).    Basic laptops or desktops for students.    Institutional Support:    Interdisciplinary teaching support from the Computer Science department.    Access to university’s online learning management system (LMS).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Sufficient budget to acquire necessary software licenses and computational resources.    Personnel: Teaching assistants with expertise in AI and linguistics.    Course Duration: One semester (15 weeks), with 3 hours of class time per week.    Availability of Domain-Specific Data: Access to existing linguistic corpora and datasets.    Access to Software and Hardware:    Access to cloud-based computing resources (e.g., Google Colab, AWS SageMaker) for training AI models.    Software licenses for NLP libraries and tools.    Availability of high-performance computing clusters for large-scale data processing.    Institutional Support:    Support from the university's IT department for software and hardware maintenance.    Collaborative opportunities with other departments (e.g., computer science, data science).    Funding for interdisciplinary research projects.    Access to research labs and facilities.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (14-16 weeks).    Budget: Adequate for acquiring necessary software tools and datasets.    Personnel: Teaching assistant (TA) support for lab sessions and grading.    Availability of domain-specific datasets (e.g., open-source logistics datasets, simulated data).    Access to software and hardware:    Cloud-based AI platforms (e.g., Google Cloud AI Platform, AWS SageMaker)    Data visualization tools (e.g., Tableau, Power BI).    Simulation software for logistics operations.    Computing resources for data analysis and model training.    Institutional support for interdisciplinary teaching: Collaboration between business, engineering, and computer science departments.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, computational resources, and guest lecturers, if applicable.    Personnel: Teaching assistants to support student learning and grading.    Course Duration: One semester (14-16 weeks) with 3 hours of lectures and 2 hours of lab/discussion per week.    Availability of Domain-Specific Data: Access to real-world oceanographic datasets from publicly available sources (e.g., NOAA, NASA) and research collaborations.    Access to Software and Hardware:    Access to computing resources (e.g., high-performance computing clusters, cloud platforms) for training AI models.    Software licenses for AI and data analysis tools (e.g., Python, TensorFlow, PyTorch, ArcGIS).    Institutional Support:    Interdisciplinary teaching support, enabling collaboration with computer science or data science departments.    Support for developing and maintaining course materials.    Support for sharing research data and code.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Moderate budget for software licenses, cloud computing resources, and AI tools.    Personnel: Teaching assistant support for technical guidance and grading.    Course Duration: One semester (15 weeks).    Availability of Domain-Specific Data: Access to de-identified cancer datasets through university partnerships or public repositories.    Access to Software and Hardware:    Cloud computing resources for training AI models (e.g., Google Cloud, AWS, Azure).    Software licenses for AI tools such as Python, TensorFlow, PyTorch, and scikit-learn.    Access to computational resources.    Institutional Support: Support from the university for interdisciplinary collaboration between medical and computer science departments.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with expertise in AI and pharmacology.    Course Duration: One semester (12-14 weeks)    Availability of Domain-Specific Data: Access to public datasets (e.g., DrugBank, ChEMBL) and the possibility of using anonymized in-house data for practical exercises.    Access to Software and Hardware:    Computing resources with sufficient processing power for AI model training.    Licenses for necessary software (e.g., Python, R, TensorFlow, PyTorch).    Access to cloud-based computing platforms.    Institutional Support:    Support from the university to foster interdisciplinary collaboration.    Access to relevant research labs and facilities.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources and Constraints: Budget: Allocate resources for software licenses, computing resources, and guest speakers. Personnel: Teaching assistants (TAs) with AI or programming experience to assist students during labs. Course Duration: One semester (14-16 weeks) or two quarters. Availability of Domain-Specific Data: Access to publicly available datasets (e.g., from research studies, online repositories). Access to Software and Hardware: Access to cloud-based AI platforms (e.g., Google Colab, Amazon SageMaker). Access to software for data analysis and visualization (e.g., Python, R). High-performance computing resources for computationally intensive tasks. Institutional Support for Interdisciplinary Teaching: Support from the university for collaborative teaching across departments (e.g., psychology and computer science). Ethical Review Board: Access to ethical review for any research involving human participants and AI tools. IT Support: Support from IT department for software installation and troubleshooting.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with technical skills in AI and data analysis, as well as domain expertise in public health.    Course Duration: One semester (14-16 weeks).    Availability of Domain-Specific Data: Access to public health datasets from WHO, CDC, and other sources, as well as potentially anonymized institutional datasets.    Access to Software and Hardware: Access to AI tools (e.g., Python, R, TensorFlow, Scikit-learn), cloud computing resources (e.g., Google Cloud Platform, AWS), and necessary hardware for data analysis.    Institutional Support: Support for interdisciplinary teaching and collaboration, as well as access to relevant research resources.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Adequate funding for software licenses, computing resources, and guest lecturers.    Personnel: Teaching assistants with relevant AI or medical imaging experience.    Course Duration: One semester (14-16 weeks).    Domain-Specific Data: Access to anonymized medical image datasets (e.g., from public repositories or internal databases).    Software and Hardware: Access to workstations with GPUs for AI model training, software licenses for AI tools, and image viewing software.    Institutional Support: Collaboration between the radiology and computer science departments for interdisciplinary teaching. Access to a learning management system (LMS) for distributing course materials.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Adequate funding for software licenses, cloud computing resources, and course materials.    Personnel: Teaching assistants to provide support to students.    Course Duration: One semester (12-14 weeks) with a combination of lectures, labs, and project work.    Availability of Domain-Specific Data: Access to real estate datasets from public sources (e.g., government databases, real estate platforms) and possibly industry partnerships.    Access to Software and Hardware:    Access to Python, R, or other programming tools for data analysis and machine learning.    Cloud computing resources for running AI models.    Access to real estate AI tools and APIs.    Institutional Support for Interdisciplinary Teaching: The university should support collaborative teaching and learning between departments.    Ethical Considerations: A dedicated framework for discussion on the ethical aspects of AI in real estate.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Available Resources:    Course duration: One semester (14-16 weeks) with 3 contact hours per week.    Access to university computer labs with necessary software (Python, Jupyter Notebooks, etc.).    Access to a cloud computing platform for running AI models (e.g., Google Colab, AWS).    Access to relevant datasets for retail applications (e.g., public datasets, simulated retail data).    Support from IT staff for software and hardware related issues.    Library resources for research and access to relevant publications.    Constraints:    Budget limitations for specialized software or external resources.    Limited availability of personnel for providing individualized support to students.    Potential challenges in integrating interdisciplinary content and perspectives.    Institutional Support:    Support for interdisciplinary teaching and collaboration between business and computer science departments.    Funding opportunities for teaching innovation and curriculum development.    Access to university resources for developing online learning materials and assessments.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources and Constraints:    Budget: Sufficient budget to acquire necessary software, hardware, and lab equipment.    Personnel: Teaching assistants to support lab sessions and grading.    Course Duration: One semester (14-16 weeks)    Availability of Domain-Specific Data: Access to datasets from robot simulations and real-world experiments.    Access to Software and Hardware:    High-performance computing resources for training AI models.    Robotics development platforms (e.g., ROS, Gazebo) and physical robots for experimentation.    AI libraries and frameworks (TensorFlow, PyTorch).    Institutional Support:    Support for interdisciplinary teaching and collaboration.    Access to research labs and facilities.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Allocated for software licenses, data access, and guest speakers.    Personnel: Teaching assistants with AI and urban planning expertise.    Course Duration: One semester (14-16 weeks).    Domain-Specific Data: Availability of city-level datasets (e.g., from city data portals) and access to relevant databases.    Software &amp; Hardware:    Access to GIS software (e.g., ArcGIS, QGIS) with AI extensions.    Computational resources for running AI algorithms (e.g., cloud computing platforms).    Programming environment with Python and relevant libraries (e.g., TensorFlow, scikit-learn).    Institutional Support:    Support for interdisciplinary teaching and collaboration.    Access to research facilities and urban planning labs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12 14 weeks).    Access to biomechanics lab with motion capture systems, force plates, and EMG equipment.    Availability of AI software tools like MATLAB, Python, and TensorFlow.    Institutional support for interdisciplinary collaboration and research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, and medical image analysis software (e.g., ITK, 3D Slicer).    Availability of medical imaging datasets and patient records for AI model training.    High-performance computing resources for running AI algorithms.    Institutional support for interdisciplinary collaboration with medical schools and hospitals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, and agricultural simulation software.    Availability of domain-specific datasets, including satellite imagery and sensor data.    Institutional support for interdisciplinary collaborations and access to high-performance computing resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Adequate funding for software licenses, cloud computing resources, and guest speakers.    Personnel: Teaching assistants with expertise in data analysis and programming.    Course Duration: One semester (15 weeks).    Availability of Domain-Specific Data: Access to financial databases, economic datasets, and market research reports.    Access to Software and Hardware: Cloud computing platforms, statistical software (e.g., Stata, EViews), and AI tools (e.g., TensorFlow, PyTorch).    Institutional Support: Collaboration with the business and economics departments, support from the IT department, and access to interdisciplinary teaching resources.    Constraints: Limited access to proprietary datasets, potential challenges in integrating different software tools, and the need for continuous updates to the course content due to the rapid evolution of AI technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to software tools such as Python (with libraries like TensorFlow, PyTorch, scikit-learn), MATLAB, and process simulation software (e.g., Aspen Plus).    Availability of domain-specific datasets from chemical plants and energy systems.    Institutional support for interdisciplinary teaching and research.    Budget for software licenses and computational resources (e.g., cloud computing).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Adequate budget for software licenses, computing resources, and teaching assistants.    Access to high-performance computing clusters for running AI simulations.    Availability of domain-specific data, such as molecular databases and chemical reaction data.    Constraints:    Limited time for hands-on training due to the complexity of AI tools.    Potential challenges in integrating AI concepts into the existing chemical engineering curriculum.    Institutional Support:    Support for interdisciplinary teaching and collaboration with AI experts.    Funding for research projects that combine AI and chemical engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., TensorFlow, PyTorch).    Access to computing resources (e.g., GPU servers, cloud computing).    Availability of domain-specific datasets.    Constraints:    Limited access to high-end hardware.    Course duration: One semester (12-14 weeks).    Institutional support for interdisciplinary teaching:    Collaboration with other departments (e.g., mathematics, statistics). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to high-performance computing resources for running AI-driven simulations.    Availability of engineering simulation software (e.g., ANSYS, Abaqus) with AI integration.    Institutional support for interdisciplinary collaboration between engineering and computer science departments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget: Funding for software licenses, hardware components, and guest lecturers.    Personnel: Teaching assistants with expertise in AI and embedded systems.    Course Duration: One semester (15 weeks).    Availability of domain-specific data: Access to datasets from industrial partners and public repositories.    Access to software and hardware: AI tools, computing resources, and IoT development kits.    Institutional support for interdisciplinary teaching: Collaboration with the computer science department. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as Python, TensorFlow, PyTorch, and Protégé.    Availability of datasets for knowledge engineering projects.    High-performance computing resources for training AI models.    Institutional support for interdisciplinary collaboration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Budget for software licenses (e.g., AI development tools, simulation software).    Access to high-performance computing resources for running AI models and simulations.    Availability of domain-specific datasets (e.g., CAD models, simulation data, IoT sensor data).    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Limited availability of domain-specific data.    Potential challenges in integrating AI tools with existing engineering software.    Need for ongoing training and support for instructors and students in AI technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools for AI development (e.g., Python, TensorFlow, PyTorch).    Availability of datasets related to electric vehicle performance and transportation systems.    Computing resources for training AI models (e.g., GPUs, cloud computing).    Potential for collaboration with industry partners on real-world projects.    Constraints:    Limited budget for purchasing specialized software or hardware.    Potential lack of readily available domain-specific data.    Time constraints for covering all relevant topics in sufficient depth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., Python, R, TensorFlow).    Access to high-performance computing resources for running complex simulations.    Availability of domain-specific datasets (e.g., World Bank, IMF data).    Institutional support for interdisciplinary teaching.    Constraints:    Limited time for hands-on labs due to course duration.    Potential challenges in integrating AI tools with existing economic models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget for software licenses, cloud computing resources, and guest speakers.    Access to domain-specific data, such as student performance records and adaptive learning system logs.    Availability of AI tools and platforms, such as TensorFlow, Keras, and scikit-learn.    Institutional support for interdisciplinary teaching and collaboration with other departments, such as computer science and statistics.    Constraints:    Limited availability of domain-specific data.    Potential lack of technical expertise among some learners.    Ethical and legal considerations related to the use of student data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Access to computing resources, including high-performance workstations and cloud computing platforms.    Availability of software tools for AI development, such as Python, TensorFlow, and MATLAB.    Datasets for training and testing AI models in electrical engineering applications.    Support from IT staff for setting up and maintaining the learning environment.    Collaboration with industry partners for real-world projects and case studies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:     Course duration: One semester (15 weeks).    Access to software tools: Python, MATLAB, and specialized AI libraries (TensorFlow, PyTorch).    Availability of datasets: Publicly available energy consumption data, grid performance reports, and renewable energy generation data.    Computing resources: Access to high-performance computing clusters for training AI models.    Constraints:     Budget limitations for acquiring specialized AI software licenses.    Limited availability of domain-specific data for certain energy systems.    Institutional support for interdisciplinary teaching and collaboration with AI experts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow, PyTorch, Scikit-learn), and simulation software.    Availability of domain-specific datasets (e.g., system performance logs, software testing reports).    High-performance computing resources for running AI models.    Institutional support for interdisciplinary teaching and collaboration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and FEA/CFD software.    Availability of datasets for engineering applications (e.g., material databases, structural integrity reports).    High-performance computing resources for running AI simulations.    Institutional support for interdisciplinary teaching and research collaborations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resources:  Course duration: One semester (12-14 weeks).  Access to financial databases (e.g., Bloomberg, Thomson Reuters).  Software and hardware: Python, R, TensorFlow, cloud computing resources.  Institutional support for interdisciplinary teaching and research collaborations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources:    Budget for software licenses, computing resources, and guest speakers.    Availability of domain-specific data (e.g., medical imaging datasets, EHR data).    Access to AI tools and platforms (e.g., TensorFlow, PyTorch, cloud-based AI services).    Institutional support for interdisciplinary teaching and research collaborations. Constraints:    Limited time for hands-on AI training due to the demanding medical curriculum.    Potential challenges in accessing and sharing sensitive patient data.    Need for ongoing faculty development to keep up with the rapidly evolving field of AI in medicine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software.    Availability of datasets from industrial partners or public repositories.    Access to high-performance computing resources for training AI models.    Constraints:    Limited budget for purchasing specialized AI software or hardware.    Potential challenges in accessing real-world industrial data due to confidentiality concerns.    Need for interdisciplinary collaboration with computer science and data science departments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (15 weeks).    Access to CAD software (e.g., SolidWorks, AutoCAD) with AI-integrated features.    Availability of high-performance computing resources for running AI models and simulations.    Domain-specific data sets (e.g., material properties, design specifications) for training AI algorithms.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Budget limitations for purchasing AI software licenses or hiring external consultants.    Limited availability of domain-specific data.    Potential challenges in integrating AI tools into existing design engineering curriculum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to CAD software (e.g., SolidWorks, AutoCAD) with AI plugins.    Availability of simulation tools (e.g., ANSYS, COMSOL).    Access to computing resources for training AI models.    Institutional support for interdisciplinary collaboration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to computing resources, including high-performance workstations and cloud computing platforms.    Availability of neuroscience datasets (e.g., OpenNeuro, Brainomics).    Software tools: Python, TensorFlow, PyTorch, MATLAB.    Institutional support for interdisciplinary teaching and research collaborations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to AI software tools and platforms (e.g., Python, TensorFlow, R).    Availability of datasets for international market analysis and customer behavior prediction (e.g., World Bank, IMF).    Institutional support for interdisciplinary collaboration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Access to statistical software (e.g., R, Python) and AI platforms (e.g., TensorFlow, PyTorch).    Availability of relevant datasets (e.g., World Bank data, IMF data, tax statistics).    Computational resources for running AI models.    Constraints:    Budget limitations may restrict access to certain AI tools or datasets.    Limited personnel for providing technical support.    Course duration: One semester (12-14 weeks).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools such as MATLAB, Python (with libraries like TensorFlow and PyTorch), and CAD software.    Availability of domain-specific datasets for hands-on projects.    Institutional support for interdisciplinary collaboration with computer science departments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to medical imaging datasets (e.g., NIH Chest X-ray Dataset).    Availability of software tools such as Python, TensorFlow, PyTorch, and medical image processing libraries.    Access to high-performance computing resources for AI model training.    Institutional support for collaboration with medical facilities and AI research labs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (1214 weeks).    Access to software tools like Python, R, and optimization solvers (e.g., Gurobi, CPLEX).    Availability of datasets for business applications and supply chain optimization.    Institutional support for interdisciplinary learning and access to computing resources. </t>
+  </si>
+  <si>
+    <t> Resources: o Course duration: One semester (1214 weeks). o Access to datasets for behavioral science and neurocognitive studies. o Software tools for AI simulation and data analysis (e.g., Python, R). o Institutional support for interdisciplinary collaboration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Budget for software licenses (e.g., Python, TensorFlow, specialized environmental modeling tools).    Access to high-performance computing resources for AI model training and simulations.    Availability of domain-specific datasets from industrial partners and environmental agencies.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Constraints:    Limited availability of pre-trained AI models specific to process safety and environmental engineering.    Challenges in securing industry partnerships for real-world case studies and data access.    Potential need for faculty training in advanced AI techniques and software tools. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (15 weeks).    Access to software tools such as Python, MATLAB, and process simulation software (e.g., Aspen Plus).    Availability of industrial sensor data and process optimization reports for case studies and projects.    High-performance computing resources for running AI models and simulations.    Institutional support for interdisciplinary collaboration and industry partnerships.    Constraints:    Limited budget for purchasing specialized AI software or hardware.    Potential challenges in accessing real-world industrial data due to confidentiality concerns. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Access to computing resources for running AI models.    Availability of psychological datasets for analysis and experimentation.    Support from IT staff for software installation and troubleshooting.    Collaboration with the computer science department for interdisciplinary projects.    Constraints:    Limited budget for purchasing specialized AI software or datasets.    Time constraints due to the breadth of topics to be covered in a single course. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Availability of domain-specific datasets for hands-on exercises.    Access to software and hardware resources, including cloud computing platforms and AI development tools.    Institutional support for interdisciplinary teaching and research collaborations.    Constraints:    Budget limitations for purchasing software licenses or hiring additional personnel.    Potential lack of access to specialized hardware resources (e.g., GPUs) for computationally intensive tasks.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools like Python, MATLAB, and specialized AI libraries (e.g., TensorFlow, PyTorch).    Availability of datasets related to renewable energy systems, grid operations, and energy consumption.    High-performance computing resources for running AI models.    Institutional support for interdisciplinary collaboration between engineering and computer science departments.    Budget for guest lecturers and field trips to renewable energy facilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:     Course duration: One semester (12-14 weeks).    Access to software tools such as Python, R, TensorFlow, and ArcGIS for AI demonstrations and data analysis.    Availability of environmental datasets from government agencies, research institutions, and industry partners.    Institutional support for interdisciplinary learning and collaboration with environmental organizations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course duration: One semester (12-14 weeks).    Access to software tools like MATLAB, Python, and Simulink for AI simulations and control system design.    Availability of datasets from industrial automation and control systems.    Institutional support for interdisciplinary teaching and research collaborations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Textbooks:    "Deep Learning for Medical Image Analysis" by Sebastien Ourselin and Maria Drangova    "Artificial Intelligence in Medical Imaging" by Thomas W. Schultz    Scientific Journals:    Radiology    Medical Image Analysis    IEEE Transactions on Medical Imaging    Journal of Medical Imaging and Radiation Oncology    Online Courses:    Coursera: "AI for Medical Diagnosis"    edX: "Deep Learning for Medical Imaging"    Udacity: "AI for Healthcare"    Open Educational Resources (OER):    MIT OpenCourseware: Courses on artificial intelligence and machine learning.    Open Access articles in journals like PLOS ONE.    AI Tools and Platforms:    TensorFlow, PyTorch for developing AI models.    Cloud-based platforms (e.g., Google Cloud Healthcare API, AWS SageMaker) for accessing AI tools and infrastructure.    Datasets:    National Institutes of Health (NIH) Chest X-ray dataset.    The Cancer Imaging Archive (TCIA).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   NASA Technical Reports Server (NTRS): Access to research papers and publications on AI applications in aerospace.    ESA Publications: Research papers and reports from the European Space Agency.    AIAA (American Institute of Aeronautics and Astronautics) Journals and Conferences: Technical papers and conference proceedings on aerospace engineering topics.    MIT OpenCourseware: Courses on AI and related topics with application in engineering.    Aerospace Engineering Forums: Online discussion platforms for professionals and researchers to share insights and knowledge.    Online Courses:    Coursera: "AI for Robotics" by University of Pennsylvania.    edX: "Artificial Intelligence" by Columbia University.    Udacity: "Self-Driving Car Engineer Nanodegree" (relevant for autonomous systems).    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.     "Aerospace Engineering: An Introduction" by S. Ahmed.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    FAO E-learning Center: Various courses and resources on sustainable agriculture and technology.    MIT OpenCourseWare: Courses on AI and machine learning.    Stanford Online: Courses on precision agriculture and data science.    Textbooks:    "Precision Agriculture: Technology and Management Strategies" by Ian Yule and Graeme Edwards.    "Artificial Intelligence in Agriculture" by Pradeep Kumar and Anju Sharma.    Online Courses:    Coursera: Courses on AI in agriculture and related fields.    edX: Courses on data science and machine learning.    Udemy: Courses on specific AI tools and techniques.    Articles and Journals:    Computers and Electronics in Agriculture.    Precision Agriculture Journal.    Nature Food.    Workshops &amp; Conferences:    AI in Agriculture workshops by agricultural and technology organizations.    Precision Agriculture conferences.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    Creative Commons licensed art datasets.    Online tutorials and documentation on AI art tools.    Online Courses:    Coursera: "AI for Creative Practice"    Udemy: "Generative Art with AI"    Kadenze: "Creative Machine Learning"    Textbooks:    "Deep Learning for Vision Systems" by Mohamed Elgendy    "Generative Deep Learning" by David Foster    AI Art Exhibitions:    Ars Electronica Festival    SIGGRAPH Art Gallery    AI Art Galleries online (e.g., AI Art Online)    Creative Coding Platforms:    Processing    p5.js    TouchDesigner    Research Papers and Articles:    ACM Digital Library (related to AI and art)    IEEE Xplore (related to AI and design)    Communities and Forums:    Reddit's r/MachineLearning and r/creativecoding    Discord servers focused on AI art and design. ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Online Courses:    Coursera: "AI for Astronomy" (Hypothetical, but similar courses may exist).    edX: "Introduction to Data Science in Python."    Webinars:    Astronomy AI Webinar Series by various institutions (e.g., Space Telescope Science Institute).    Webinars by NASA, ESA, and other space agencies focused on using AI in astronomy.    Open Educational Resources (OER):    The Astropy Project Documentation (Python library for astronomy).    NASA Open Data Portal and Archives.    Data repositories like the Sloan Digital Sky Survey (SDSS).    Textbooks:    "Data-Driven Science and Engineering: Machine Learning, Dynamical Systems, and Control" by Steven L. Brunton and J. Nathan Kutz.    "Astronomy Methods" by Hale Bradt (for astronomical background).    Research Articles:    Papers published in journals like The Astrophysical Journal, Astronomy &amp; Astrophysics, and Monthly Notices of the Royal Astronomical Society.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Online Courses:    Coursera: "Bioinformatics Specialization" by Johns Hopkins University    edX: "AI for Medicine" by DeepLearning.AI    Udacity: "Intro to Machine Learning for Healthcare"    Textbooks:    "Bioinformatics: Sequence and Genome Analysis" by David W. Mount    "Deep Learning for the Life Sciences" by Bharath Ramsundar and Peter Eastman    "Artificial Intelligence in Drug Discovery" by Brian D. Kelley    Journals:    Bioinformatics    Nature Biotechnology    Cell    PLoS Computational Biology    Open Educational Resources (OER):    GitHub repositories with AI and bioinformatics code examples    National Institutes of Health (NIH) databases and resources    PubMed Central for research articles ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "Electrical Machine Drives: Modeling, Analysis and Control" by S.K. Pillai.    "Electric Machinery and Power System Fundamentals" by Stephen J. Chapman.    "Predictive Maintenance of Industrial Equipment" by D.J. Myszka.    Online Courses:    Coursera: "Machine Learning" by Andrew Ng.    EdX: "Artificial Intelligence" by Columbia University.    Udemy: "Deep Learning A-Z™: Hands-On Artificial Neural Networks" by Kirill Eremenko and Hadelin de Ponteves.    Open Educational Resources (OER):    MIT OpenCourseware: Electrical Engineering Courses.    IEEE Xplore: Research articles on AI in electrical engineering.    Articles:    Research papers on AI-based predictive maintenance in journals like IEEE Transactions on Industrial Electronics, Sensors, and Applied Sciences.    Test Reports &amp; Manuals:    Motor manufacturer test reports.    Motor maintenance manuals.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "Machine Learning for Engineers" by Patrick P. C. L.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig    "Engineering Design" by Dieter &amp; Schmidt    Open Educational Resources (OER):    MIT OpenCourseware: Courses on machine learning, AI, and mechanical engineering.    Coursera, edX, and Udacity: Online courses on AI and machine learning.    Online Courses:    "Machine Learning" by Andrew Ng (Coursera).    "Deep Learning Specialization" by deeplearning.ai (Coursera).    Various courses on AI and machine learning from Udemy and Udacity.    Scientific Papers:    Journals such as "Journal of Mechanical Design," "Applied Mathematical Modelling," and "Engineering Applications of Artificial Intelligence."    Software Documentation:    Documentation for machine learning libraries like TensorFlow, PyTorch, and scikit-learn.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Educational Resources (OER): MIT OpenCourseWare: Courses on cybersecurity and AI. Cybrary: Free online cybersecurity training. SANS Institute: White papers and articles on cybersecurity topics. Textbooks: "Artificial Intelligence in Cybersecurity" by Dr. Igor Kotenko "Applied Artificial Intelligence: A Handbook for Business Leaders" by Mariya Yao, Adelyn Zhou, and Marlene Jia "Deep Learning for Security" by Brendan Dolan-Gavitt Online Courses: Coursera: "AI for Cybersecurity" Specialization Udacity: "AI for Security" Nanodegree edX: "Cybersecurity Fundamentals" Cybersecurity Conferences: RSA Conference Black Hat DEF CON USENIX Security Online Ethical Hacking Courses: Offensive Security (OSCP) Pentester Academy HackerOne Research Papers: Papers published in IEEE Security &amp; Privacy, ACM CCS, and USENIX Security symposia Articles from journals such as the Journal of Information Security and Applications  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on energy systems, machine learning, and optimization.    Stanford Engineering Everywhere: Courses on renewable energy and AI.    Textbooks:    "Artificial Intelligence for Smart Energy Systems" by Faiçal Benhaddou and Mohamed Elhoseny.    "Renewable and Efficient Electric Power Systems" by Gilbert M. Masters.    Online Courses:    Coursera: "AI for Energy" Specialization.    edX: "Sustainable Energy" courses.    Udacity: Nanodegree programs in AI and Machine Learning.    Articles and Reports:    International Energy Agency (IEA) reports on AI in energy.    National Renewable Energy Laboratory (NREL) publications on AI for renewable energy.    IEEE Xplore and ScienceDirect journals on AI applications in the energy domain.    Webinars and Conferences:    AI in Energy webinars hosted by industry organizations.    Conferences such as the IEEE Power &amp; Energy Society General Meeting.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    Open Climate Data: Data repositories for climate change research.    Global Forest Watch: Data and tools for forest monitoring.    IUCN Red List: Biodiversity data and conservation status assessments.    NASA Earthdata: Earth science data and resources.    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Environmental Data Analysis with MATLAB" by Dr. William Menke.    Online Courses:    Coursera: "AI for Earth" program.    edX: "Data Science for Environmental Applications."    Udacity: "Intro to Machine Learning."    Articles:    Nature Climate Change, Environmental Science &amp; Technology, Global Change Biology.    Research articles on AI applications in specific environmental domains.  Software and Tools:   Python libraries: Scikit-learn, TensorFlow, PyTorch, GDAL, Rasterio.   GIS software: QGIS, ArcGIS.    Cloud computing platforms: Google Earth Engine, AWS.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FashionTech Reports: Industry reports from organizations like McKinsey, Vogue Business, and Business of Fashion that analyze technology trends in fashion.    Online Courses:    Coursera: "Fashion as Design" by The Museum of Modern Art (MoMA).    Udemy: "AI for Fashion" courses focusing on different applications.    edX: "Introduction to AI" courses from various universities.    Design Software Tutorials: Tutorials for Adobe Illustrator, CLO3D, and other design software that incorporate AI features.    Blogs and Articles: Articles from publications like "TechCrunch," "Wired," "The Verge," and "Fashionista" that cover AI innovations in the fashion industry.    Research Papers: Academic papers on AI applications in fashion from journals in computer science, engineering, and design.    Open Educational Resources (OER): Openly available materials such as lectures, tutorials, and datasets related to AI and fashion.    Industry Events: FashionTech conferences and webinars.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Data Providers: Bloomberg Terminal Refinitiv Eikon Quandl Yahoo Finance API Online Courses: Coursera: "AI for Trading" Specialization by Imperial College London Udacity: "AI for Trading" Nanodegree edX: "Financial Engineering and Risk Management" programs DataCamp: Courses on Python for Finance, time series analysis, and quantitative finance. Industry Publications: The Financial Times The Wall Street Journal Risk Magazine Journal of Financial Data Science Harvard Business Review (HBR) Open Educational Resources (OER): MIT OpenCourseware: Courses on finance, probability, and statistics. Textbooks and articles on quantitative finance and machine learning.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware on Food Science and Technology.    FAO (Food and Agriculture Organization) resources on food safety and agriculture.    Online Courses:    Coursera: "Food Science and Technology" series.    edX: "Nutrition Science" courses.    Udemy: Courses on AI and machine learning applied to food and agriculture.    Webinars and Conferences:    Institute of Food Technologists (IFT) webinars and conferences.    Food AI webinars and workshops.    Datasets:    USDA National Nutrient Database.    Kaggle datasets related to food and agriculture.    Open Food Facts dataset.    Articles and Journals:    Journal of Food Science.    Trends in Food Science &amp; Technology.    Comprehensive Reviews in Food Science and Food Safety.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Artificial Intelligence and Machine Learning.    Stanford Online: Courses on Machine Learning and Natural Language Processing.    Textbooks:    “Artificial Intelligence: A Modern Approach” by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "AI for Business: A Practical Guide" by Nicola J. Millard.    Online Courses:    Coursera: "AI for Business" specialization, various courses on machine learning and deep learning.    Udemy: Courses on "AI in Hospitality," "Machine Learning for Business," and "Data Science for Hospitality."    edX: Various courses on AI, data science, and business analytics.    Case Studies:    Harvard Business School case studies on AI applications in hotels and restaurants.    Industry reports and white papers on AI in hospitality from companies like Deloitte, McKinsey, and Accenture.    Articles:    Articles from hospitality publications (e.g., Hospitality Technology, Hotel Management) on AI trends in the industry.    Research papers from journals focusing on AI in service industries.    Websites and Blogs:    AI in Hospitality blogs and industry websites.    Towards Data Science and Medium for data science and AI articles.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    "AI and Journalism" course by the Knight Center for Journalism in the Americas.    "Data Journalism Handbook" by the European Journalism Centre.    Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Natural Language Processing with Python" by Steven Bird, Ewan Klein, and Edward Loper.    Online Courses:    Coursera: "AI for Journalists" by Google.    Udacity: "AI for Business Leaders." (Relevant for understanding AI strategy).    edX: "Introduction to Data Science for Journalists."    Articles and Reports:    Reports by the Columbia Journalism Review on AI in newsrooms.    Publications by the Reuters Institute for the Study of Journalism.    Research papers on NLP and AI applications in journalism.    Journalism AI Projects:    The Associated Press’s AI-powered automation.    BBC’s experiments with automated content generation.    ProPublica’s data journalism projects.    Media Industry Whitepapers:    Reports by industry organizations like the World Association of News Publishers (WAN-IFRA).    White papers by technology companies on AI and media.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LegalTech Whitepapers: Reports and studies from organizations focused on AI in law, such as the ABA Center for Innovation and Legal Geek.    Seminars and Conferences: Events on LegalTech and AI in law from organizations like the International Legal Technology Association (ILTA) and the European Legal Technology Association (ELTA).    Online Courses:    Coursera: "AI for Law" by the University of Toronto.    edX: "Artificial Intelligence for Legal Professionals" by Microsoft.    Academic Journals:    Artificial Intelligence and Law Journal.    International Journal of Law and Information Technology.    Blogs and Articles:    Legaltech News.    Law.com.    The American Bar Association Journal.    Textbooks:    "The AI-Powered Lawyer: How Artificial Intelligence Is Transforming the Practice of Law" by Andrew Arruda.    "Legal Informatics: A Practical Guide" by Daniel Martin Katz.    Open Educational Resources (OER): MIT OpenCourseware for AI and NLP fundamentals.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Natural Language Processing.    Stanford NLP courses on Coursera and edX.    NLTK book (Natural Language Toolkit)    Textbooks:    "Speech and Language Processing" by Daniel Jurafsky and James H. Martin.    "Foundations of Statistical Natural Language Processing" by Christopher D. Manning and Hinrich Schütze.    Online Courses:    Coursera: "Natural Language Processing Specialization" by DeepLearning.AI.    edX: "Introduction to Natural Language Processing" by Microsoft.    Udacity: "Natural Language Processing Nanodegree."    Journals:    Computational Linguistics (MIT Press).    Journal of Natural Language Engineering (Cambridge University Press).    Language Resources and Evaluation (Springer).    Blogs and Articles:    Towards Data Science: Articles on NLP and AI applications in language.    AI blogs from research institutions like Google AI, OpenAI, and Facebook AI Research (FAIR).    Linguistic Society of America (LSA) Publications  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseWare: Courses related to supply chain management and logistics.    Stanford Online: Courses on AI and machine learning.    Textbooks:    "Supply Chain Management: Strategy, Planning, and Operation" by Sunil Chopra and Peter Meindl   "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    Online Courses:    Coursera: "Supply Chain Management Specialization" and "AI for Everyone"    edX: "MicroMasters in Supply Chain Management" and "Professional Certificate in Artificial Intelligence"   Udacity: "AI for Business Leaders" and "Intro to Machine Learning"    Articles and Blogs:    McKinsey &amp; Company: Articles on digital supply chain and logistics.    Gartner: Research reports on AI applications in supply chain.    Supply Chain Dive: News and analysis of supply chain technology.    Towards Data Science: Articles on AI and machine learning.   Case Studies:  Harvard Business School Case Studies on AI implementations in logistics.  Supply Chain Management Review: Case studies on supply chain best practices. ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Industry 4.0 Workshops: Practical workshops on implementing Industry 4.0 technologies, including AI.    Manufacturing AI Case Studies: Real-world case studies demonstrating successful AI applications in manufacturing (e.g., Bosch, Siemens).    Online Courses:    Coursera: "AI for Manufacturing" by DeepLearning.AI    edX: "Smart Manufacturing and Industry 4.0" by various universities.    Udacity: "AI for Industrial Applications"    Textbooks:    "Artificial Intelligence in Manufacturing" by Prof. David Dornfeld.    "Industry 4.0: The Industrial Internet of Things" by Alasdair Gilchrist.    Research Articles: Publications in journals like IEEE Transactions on Automation Science and Engineering, Journal of Manufacturing Systems, and Applied Artificial Intelligence.    Open Source Tools and Libraries: TensorFlow, PyTorch, Scikit-learn, OpenCV    Industry Reports: Publications by consulting firms (e.g., McKinsey, Deloitte) on AI in manufacturing.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    NOAA (National Oceanic and Atmospheric Administration) datasets and resources.    NASA Earthdata: Datasets and tools for Earth science research.    Ocean Observatories Initiative (OOI): Data from ocean observing systems.    Textbooks:    "Introduction to Oceanography" by Paul R. Pinet    "Descriptive Physical Oceanography" by George L. Pickard and William J. Emery.    "Deep Learning for Vision Systems" by Mohamed Elgendy    Online Courses:    Coursera: "AI for Everyone" by Andrew Ng    edX: "Introduction to Machine Learning"    Udacity: "Deep Learning Nanodegree"    Articles:    Peer-reviewed articles in journals like Nature, Science, Oceanography, and ICES Journal of Marine Science.    Articles from oceanographic research institutions and organizations.    Conferences:    Ocean Sciences Meeting    AGU Fall Meeting    AI in Marine Research conferences and workshops  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Online Seminars:    American Society of Clinical Oncology (ASCO) webinars on AI in oncology.    National Cancer Institute (NCI) webinars on cancer research and AI applications.    PubMed Articles:    Peer-reviewed research articles on AI applications in cancer detection, treatment, and prognosis.    Search keywords: "Artificial Intelligence", "Machine Learning", "Oncology", "Cancer Diagnosis", "Cancer Treatment."    Cancer-Focused Datasets:    The Cancer Genome Atlas (TCGA) for genomic and clinical data.    The Cancer Imaging Archive (TCIA) for medical image data.    Open-source datasets for cancer classification, segmentation, and prediction.    Textbooks:    "Artificial Intelligence in Medicine" by Riccardo Bellazzi and Andrea Cavallini.    "Deep Learning for Medical Image Analysis" by S. Kevin Zhou, Hayit Greenspan, and Dinggang Shen.    Online Courses:    Coursera: "AI for Medicine" by Andrew Ng.    EdX: "Machine Learning for Healthcare" by MIT.    Udacity: "AI for Healthcare" Nanodegree.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on computational biology and machine learning.    Coursera: "AI for Medicine" specialization.    Online Courses:    Udacity: "AI for Drug Discovery" nanodegree.    edX: "Genomics Data Science" courses.    Textbooks:    "Deep Learning for the Life Sciences" by Bharath Ramsundar and Steven Kearnes.    "Bioinformatics: Sequence and Genome Analysis" by David W. Mount.    Journals:    Nature Biotechnology, Nature Medicine, Journal of Chemical Information and Modeling, Bioinformatics.    Datasets:    DrugBank, PubChem, ChEMBL, Protein Data Bank (PDB).    Kaggle: Datasets related to drug discovery and biomedical research.    Software and Tools:    R and Python (for data analysis and machine learning).    TensorFlow and PyTorch (deep learning libraries).    Molecular visualization tools (e.g., PyMOL, VMD).  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology AI Conferences: The Association for Psychological Science (APS) Annual Convention. The International Conference on Affective Computing and Intelligent Interaction (ACII). The Annual Meeting of the Society for Research in Psychopathology (SRP). The International Society for Artificial Intelligence in Healthcare (ISAICH). Clinical AI Workshops: Workshops organized by research institutions and professional organizations. Training programs on using AI tools in clinical practice. Online Courses: Coursera: "AI for Medicine Specialization." edX: "Artificial Intelligence for Health." Udacity: "AI for Healthcare Nanodegree." MIT OpenCourseware: "Introduction to Machine Learning." Textbooks: "Artificial Intelligence in Behavioral and Mental Health Care" by David C. Mohr. "Handbook of Artificial Intelligence in Healthcare" by Springer. "Deep Learning for Vision Systems" by Mohamed Elgendy. Journals: Journal of Medical Internet Research (JMIR) Frontiers in Artificial Intelligence IEEE Transactions on Affective Computing Behavior Research Methods Open Educational Resources (OER): Open AI datasets relevant to psychology (e.g., emotion recognition datasets). AI toolkits and libraries (e.g., TensorFlow, PyTorch).  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    WHO Data and Statistics: [https://www.who.int/data](https://www.who.int/data)    CDC Data and Statistics: [https://www.cdc.gov/DataStatistics/](https://www.cdc.gov/DataStatistics/)    Open Health Data Repositories: (e.g., HealthData.gov, Kaggle Datasets).    Textbooks:    "Public Health Informatics and Information Systems" by Kevin Patrick and Robert E. Hoyt.    "Artificial Intelligence in Medicine" by Peter Szolovits and Isaac Kohane.    Online Courses:    Coursera: "AI for Medicine" by Andrew Ng.    edX: "Data Science in Public Health" from Johns Hopkins University.    Google AI for Social Good: [https://ai.google/social-good/](https://ai.google/social-good/)    Articles:    The Lancet: Public Health Journals.    JAMA: Public Health Journals.    IEEE Transactions on Biomedical Engineering.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "Deep Learning for Medical Image Analysis" by S. Kevin Zhou, Hayit Greenspan, and Dinggang Shen.    "Artificial Intelligence in Medical Imaging" by Thomas M. Deserno.    Scientific Journals:    Radiology: Artificial Intelligence    Medical Image Analysis    IEEE Transactions on Medical Imaging    Online Courses:    Coursera: "AI for Medicine" specialization.    edX: Various courses on deep learning and medical image analysis.    Stanford's Machine Learning course (available on Coursera and YouTube).    Open Educational Resources (OER):    MIT OpenCourseWare: Lectures and materials on AI.    GitHub repositories containing code for medical image analysis.    Websites and Blogs:    Towards Data Science: Articles on AI in healthcare.    The AI in Medicine Blog: Updates on current AI research in medicine.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on machine learning and data science.    Stanford Online: Courses on artificial intelligence and deep learning.    Textbooks:    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Online Courses:    Coursera: "AI for Everyone" by Andrew Ng.    Udemy: "The Complete Machine Learning Course with Python".     edX: "Artificial Intelligence" by Columbia University.    Real Estate AI Tools &amp; Platforms:    Zillow AI tools for property valuation.    Redfin AI-powered search features.    Matterport for 3D property tours.    Articles and Blogs:    "Forbes Real Estate" section for industry insights.    "PropTech" blogs and publications covering AI in real estate.    "Towards Data Science" on Medium for machine learning applications.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseware: Courses on Artificial Intelligence and Machine Learning.    Stanford Online: Courses on AI and Data Science.    Textbooks:    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "Hands-On Machine Learning with Scikit-Learn, Keras &amp; TensorFlow" by Aurélien Géron.    Online Courses:    Coursera: "AI for Retail" Specialization.    Udacity: "AI Product Manager" Nanodegree.    edX: "Artificial Intelligence Fundamentals"   Articles and Case Studies:    Harvard Business Review: Articles on AI adoption in retail.    McKinsey &amp; Company: Reports on digital transformation and AI in retail.    Case studies on Amazon, Walmart, and other major retailers adopting AI.    Industry Blogs:    Retail Dive: News and insights on the retail industry.    VentureBeat: Coverage of AI innovations and applications.    Medium: Articles on AI and Machine Learning   Platforms:    Kaggle: Datasets and AI competitions related to retail.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Online Courses:    Coursera: "Robotics: Foundations and Applications" by University of Pennsylvania.    edX: "Artificial Intelligence for Robotics" by Georgia Tech.    Udacity: "Self-Driving Car Engineer Nanodegree".    Open Educational Resources (OER):    MIT OpenCourseware: Courses on robotics, AI, and machine learning.    ROS Tutorials: Official documentation for the Robot Operating System (ROS).    Textbooks:    "Robotics: Modelling, Planning and Control" by Bruno Siciliano, Lorenzo Sciavicco, Luigi Villani, and Giuseppe Oriolo.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Articles and Journals:    IEEE Transactions on Robotics    The International Journal of Robotics Research    Robotics and Autonomous Systems    Software and Tools:    Robot Operating System (ROS)    Gazebo (robot simulator)    TensorFlow, PyTorch (deep learning frameworks)    OpenCV (computer vision library)  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sports Analytics Blogs and Websites:    "StatsBomb" (focus on soccer analytics)    "FiveThirtyEight" (sports analytics with a broader scope)    "The Athletic" (sports journalism with data-driven insights)    Online Courses:    Coursera: "Sports Analytics" (University of Michigan)    edX: "Data Science for Sports" (University of California, Berkeley)    Udemy: "Sports Analytics with Python"    Textbooks:    "Analyzing Baseball Data with R" by Max Marchi and Jim Albert    "The Book: Playing the Percentages in Baseball" by Tango Tiger    Software Guides:    Documentation for video analysis software (e.g., Hudl, Dartfish)    Tutorials for data analysis libraries in Python (e.g., Pandas, Scikit-learn, TensorFlow)    Open Educational Resources (OER):    MIT OpenCourseWare: Courses on AI and Machine Learning.    Online repositories of datasets for sports analytics (e.g., Kaggle).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Research Papers:    IEEE Transactions on Intelligent Transportation Systems    Transportation Research Part C: Emerging Technologies    Journal of Intelligent and Robotic Systems    Open Educational Resources (OER):    MIT OpenCourseware: 6.S094: Deep Learning for Self-Driving Cars    Stanford CS230: Deep Learning course materials (relevant for perception tasks)    Open Data Portals (e.g., DOT, City data portals) for Transportation datasets    Textbooks:    "Autonomous Driving: Technologies, Trends, and Future Development" by Markus Maurer et al.    "Traffic Flow Theory" by Carlos Daganzo    Online Courses:    Coursera: Self-Driving Car Specialization by the University of Toronto    Udacity: Self-Driving Car Engineer Nanodegree    edX: Artificial Intelligence in Transportation, various courses.    Automotive AI Platforms:    NVIDIA DRIVE    Intel GO    TensorFlow and PyTorch for AI development  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Open Educational Resources (OER):    MIT OpenCourseWare: Courses on urban planning and AI.    edX and Coursera: Courses on smart cities, GIS, and data analytics.    Open Data Portals of various cities.    Textbooks:    "The Smart Enough City" by Ben Green.    "Urban Informatics" by Wenzhong Shi.    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig (for AI fundamentals).    Online Courses:    "Smart Cities" specialization on Coursera.    "Geospatial Analysis" courses on various platforms.    Articles &amp; Journals:    Journal of Urban Technology    Computers, Environment and Urban Systems    Publications from research institutions focused on urban AI (e.g., MIT Media Lab, Stanford Urban Studies Program).    Urban Planning Case Studies:    Case studies of cities using AI for traffic management, energy efficiency, and public safety.    City Development Whitepapers:    Reports and whitepapers from urban planning organizations and think tanks (e.g., Urban Land Institute, World Bank).  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Research Papers: IEEE Xplore, ScienceDirect, and arXiv for publications on AI in nanotechnology and semiconductor manufacturing.    Semiconductor Manufacturing Reports: Reports from organizations like SEMI and Gartner on industry trends and technological advancements.    Online Courses: Coursera, edX, and Udacity offer courses on AI for materials science and semiconductor technology.    Industry Whitepapers: Whitepapers from companies like Applied Materials, ASML, and Lam Research on AI solutions for semiconductor manufacturing.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI in Business Strategy Textbooks:    "Competing in the Age of AI" by Marco Iansiti and Karim R. Lakhani.    "AI for Business: A Manager s Guide to Understanding and Implementing Artificial Intelligence" by Nicolaus Henke, Jacques Bughin, and Michael Chui.    Case Studies on AI in Corporate Decision-Making:    Harvard Business Review: Articles and case studies on AI applications in business.    MIT Sloan Management Review: Research and insights on AI strategy and implementation.    Online Courses:    Coursera: "AI for Business" by various universities and organizations.    Udacity: "AI Product Manager Nanodegree."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Research papers on AI in mathematical modeling.    AI-driven numerical methods.    Online courses on AI for mathematics.    Books on computational mathematics with AI applications.    Journals focusing on AI in science and engineering.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI Textbooks:    "Artificial Intelligence: A Modern Approach" by Stuart Russell and Peter Norvig.    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    Online Machine Learning Courses:    Coursera: "Machine Learning" by Andrew Ng.    Udacity: "Intro to Machine Learning."    Open-Source AI Frameworks:    TensorFlow.    PyTorch.    Keras.    Research Papers:    arXiv (for the latest AI research).    Journal of Machine Learning Research (JMLR).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "AI and Machine Learning for Embedded Systems" by [Author Name].    "Cybersecurity with Machine Learning" by [Author Name].    Online Courses:    Coursera: "AI for Embedded Systems" by [University Name].    Udemy: "AI-Driven Control Systems" by [Instructor Name].    Articles and Journals:    IEEE Transactions on Industrial Informatics.    Journal of Network and Systems Management.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI in Political Science Research:    Books: "Artificial Intelligence and Politics" by Richard Nadler.    Journals: "Journal of Artificial Intelligence Research," "Political Analysis."    Online AI Tools for Social Analysis:    Platforms: Google AI, Microsoft Azure AI, IBM Watson.    Online Courses:    Coursera: "AI for Social Good" by University of Michigan.    edX: "AI and the Future of Work" by MIT.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Immunology Research Papers:    PubMed: Search for "artificial intelligence immunology" to find relevant publications.    Google Scholar: Similar search terms to find research articles and reviews. Online Courses:    Coursera: "AI for Medicine" specialization.    edX: "Data Science in Biomedicine" programs.    MIT OpenCourseWare: Courses on machine learning and bioinformatics. Books:    "Deep Learning in Healthcare" by Arvind Rao and Murad Mahmud.    "Artificial Intelligence in Medicine" edited by Riccardo Bellazzi and Jasmina Bratko.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "Artificial Intelligence in Manufacturing" by [Author Name]    "AI-Powered Supply Chain Management" by [Author Name]    Research Papers:    IEEE Transactions on Automation Science and Engineering    Journal of Intelligent Manufacturing    Online Courses:    Coursera: "Supply Chain Analytics" by [University Name]    edX: "Smart Manufacturing" by [Organization Name]    Industry Reports:    Reports from McKinsey, Deloitte, and PwC on AI in manufacturing and logistics.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Logistics Case Studies:    Reports and articles on successful AI implementations in logistics companies. Online Courses:    Coursera: "Supply Chain Analytics"    edX: "AI for Supply Chain Management"    Udemy: "AI in Logistics: Practical Applications" Industry Publications:    Supply Chain Management Review    Journal of Business Logistics  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Textbooks:    "AI Applications in Power Engineering" by [Hypothetical Author].    "Smart Grid Technologies" by [Hypothetical Author].    Online Courses:    Coursera: "AI for Energy" by [Hypothetical Institution].    Udemy: "AI in Process Control" by [Hypothetical Instructor].    Journals &amp; Conferences:    IEEE Transactions on Smart Grid    Applied Energy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI in Engineering Mathematics Research: Academic papers and publications on AI applications in mathematical engineering. Case Studies on AI-Driven Computational Modeling: Real-world examples of AI being used to solve engineering problems. Online Courses: Platforms like Coursera, edX, and Udacity offer courses on AI and machine learning. Textbooks: Books on numerical methods, optimization, and machine learning.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI in Computational Mathematics Research: Publications in journals like "Journal of Symbolic Computation" and "Advances in Computational Mathematics."    Case Studies: Examples of AI-driven mathematical proofs and applications in fields like cryptography and optimization.    Online Resources:    arXiv: Preprints in mathematics and computer science.    MathWorld: Comprehensive mathematics resource.    Wolfram Alpha: Computational knowledge engine.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI in Statistics Research Papers:    Journals such as the Journal of the American Statistical Association, and the Journal of Machine Learning Research.    Online Courses:    Coursera: "Machine Learning" by Andrew Ng, "AI for Data Science" specialization.    Udemy: "Data Science and Machine Learning Bootcamp," "AI for Statistics."    Textbooks:    "The Elements of Statistical Learning" by Hastie, Tibshirani, and Friedman.    "Pattern Recognition and Machine Learning" by Christopher Bishop.  ________________________________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AI in Vocational Education Research: Academic papers and reports on the application of AI in vocational training.    Case Studies on AI-Enhanced Training Programs: Examples of successful AI implementations in vocational schools and training centers.    Online Courses: Platforms like Coursera, edX, and Udemy offer courses on AI, machine learning, and data science.    Industry Publications: Reports and articles on the latest trends in AI and vocational education.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textbooks:    "Deep Learning" by Ian Goodfellow, Yoshua Bengio, and Aaron Courville.    "Computer Vision: Algorithms and Applications" by Richard Szeliski. Online Courses:    Coursera: "Convolutional Neural Networks" by Andrew Ng.    Udacity: "Computer Vision Nanodegree." Tutorials and Articles:    TensorFlow tutorials on computer vision.    PyTorch tutorials on image processing.    Paperswithcode.com for the latest research in computer vision.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Research Papers: Publications on AI in education and corporate training.    Case Studies: Examples of successful AI implementations in corporate learning systems.    Industry Reports: Analyses of trends and best practices in AI-driven training.    Online Courses: Platforms like Coursera, Udemy, and LinkedIn Learning offering courses on AI in education and training.    Books: Texts on AI, machine learning, and their applications in education and training.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Resources:    Course Duration: One semester (15 weeks) with 3 hours of lectures and 2 hours of lab sessions per week.    Budget: Standard university budget for course delivery.    Personnel: Teaching assistant with basic programming skills and experience in medical imaging.    Availability of domain-specific data: Access to anonymized medical images from the universityâ€™s radiology department.    Access to software and hardware:    Cloud-based access to AI platforms (e.g., Google Colab, AWS SageMaker).    Basic computing resources for running AI models (provided by the university).    Access to medical image viewing software (e.g., Osirix, Horos).    Institutional support for interdisciplinary teaching: Collaboration with the Computer Science department for guest lectures and technical support.  </t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology; Social Sciences &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Computer Science &amp; Data; Design &amp; Creative Arts</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities; Applied Sciences &amp; Vocational Fields</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics; Computer Science &amp; Data</t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities; Natural Sciences</t>
+  </si>
+  <si>
+    <t>Computer Science &amp; Data; Statistics &amp; Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -3742,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3751,8 +3733,11 @@
     <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.88671875" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -3772,10 +3757,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1073</v>
+        <v>962</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1074</v>
+        <v>963</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3825,47 +3810,47 @@
         <v>45715</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(H2,FIND("Definition",H2,1)-1)</f>
         <v xml:space="preserve">Radiology     </v>
       </c>
       <c r="G2" t="s">
-        <v>1075</v>
+        <v>964</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>1050</v>
       </c>
       <c r="M2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O2" t="s">
-        <v>305</v>
+        <v>1098</v>
       </c>
       <c r="P2" t="s">
         <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="R2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -3882,47 +3867,47 @@
         <v>45716</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F3" t="str">
         <f>LEFT(H3,FIND("Definition",H3,1)-1)</f>
         <v xml:space="preserve">Aerospace Engineering    </v>
       </c>
       <c r="G3" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>311</v>
+        <v>1051</v>
       </c>
       <c r="M3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
-        <v>314</v>
+        <v>988</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="R3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3939,47 +3924,47 @@
         <v>45717</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">LEFT(H4,FIND("Definition",H4,1)-1)</f>
         <v xml:space="preserve">Agriculture    </v>
       </c>
       <c r="G4" t="s">
-        <v>1086</v>
+        <v>972</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L4" t="s">
-        <v>320</v>
+        <v>1052</v>
       </c>
       <c r="M4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="O4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="P4" t="s">
         <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="R4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -3996,47 +3981,47 @@
         <v>45718</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Art and Design    </v>
       </c>
       <c r="G5" t="s">
-        <v>1077</v>
+        <v>966</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L5" t="s">
-        <v>329</v>
+        <v>1053</v>
       </c>
       <c r="M5" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="N5" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="O5" t="s">
-        <v>332</v>
+        <v>989</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="R5" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -4053,47 +4038,47 @@
         <v>45719</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Astronomy    </v>
       </c>
       <c r="G6" t="s">
-        <v>1078</v>
+        <v>967</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="K6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="L6" t="s">
-        <v>338</v>
+        <v>1054</v>
       </c>
       <c r="M6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="N6" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="O6" t="s">
-        <v>341</v>
+        <v>990</v>
       </c>
       <c r="P6" t="s">
         <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="R6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4110,47 +4095,47 @@
         <v>45720</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Biotechnology    </v>
       </c>
       <c r="G7" t="s">
-        <v>1079</v>
+        <v>968</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="K7" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="L7" t="s">
-        <v>347</v>
+        <v>1055</v>
       </c>
       <c r="M7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="N7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="O7" t="s">
-        <v>350</v>
+        <v>991</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="R7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -4167,47 +4152,47 @@
         <v>45721</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Electrical Engineering - Predictive Maintenance of Electrical Motors     </v>
       </c>
       <c r="G8" t="s">
-        <v>1080</v>
+        <v>970</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I8" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="K8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="L8" t="s">
-        <v>356</v>
+        <v>1056</v>
       </c>
       <c r="M8" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="N8" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="O8" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="R8" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4224,47 +4209,47 @@
         <v>45722</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Mechanical Engineering Design    </v>
       </c>
       <c r="G9" t="s">
-        <v>1081</v>
+        <v>969</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="J9" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="L9" t="s">
-        <v>365</v>
+        <v>1057</v>
       </c>
       <c r="M9" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="N9" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="O9" t="s">
-        <v>368</v>
+        <v>992</v>
       </c>
       <c r="P9" t="s">
         <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R9" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4272,7 +4257,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -4281,14 +4266,14 @@
         <v>45723</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Cybersecurity </v>
       </c>
       <c r="G10" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -4303,25 +4288,25 @@
         <v>36</v>
       </c>
       <c r="L10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>993</v>
+      </c>
+      <c r="P10" t="s">
         <v>39</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -4329,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -4338,47 +4323,47 @@
         <v>45724</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Energy    </v>
       </c>
       <c r="G11" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H11" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="J11" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>1059</v>
       </c>
       <c r="M11" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="N11" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="O11" t="s">
-        <v>377</v>
+        <v>994</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="R11" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4386,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -4395,47 +4380,47 @@
         <v>45725</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Environmental Science    </v>
       </c>
       <c r="G12" t="s">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="K12" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>1060</v>
       </c>
       <c r="M12" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="N12" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="O12" t="s">
-        <v>386</v>
+        <v>995</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="R12" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -4443,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -4452,47 +4437,47 @@
         <v>45726</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Fashion    </v>
       </c>
       <c r="G13" t="s">
-        <v>1077</v>
+        <v>966</v>
       </c>
       <c r="H13" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I13" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="K13" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="L13" t="s">
-        <v>392</v>
+        <v>1061</v>
       </c>
       <c r="M13" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="N13" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="O13" t="s">
-        <v>395</v>
+        <v>996</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="R13" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -4500,7 +4485,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4509,47 +4494,47 @@
         <v>45727</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Finance </v>
       </c>
       <c r="G14" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
+        <v>997</v>
+      </c>
+      <c r="P14" t="s">
         <v>54</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>55</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R14" t="s">
         <v>56</v>
-      </c>
-      <c r="O14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4557,7 +4542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -4566,47 +4551,47 @@
         <v>45728</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Food Science    </v>
       </c>
       <c r="G15" t="s">
-        <v>1085</v>
+        <v>972</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I15" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J15" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="K15" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="L15" t="s">
-        <v>401</v>
+        <v>1063</v>
       </c>
       <c r="M15" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="N15" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="O15" t="s">
-        <v>404</v>
+        <v>998</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="R15" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4614,7 +4599,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -4623,47 +4608,47 @@
         <v>45729</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Hospitality    </v>
       </c>
       <c r="G16" t="s">
-        <v>1086</v>
+        <v>986</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="J16" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K16" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="L16" t="s">
-        <v>410</v>
+        <v>1064</v>
       </c>
       <c r="M16" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="N16" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="O16" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q16" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="R16" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -4671,7 +4656,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4680,47 +4665,47 @@
         <v>45730</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Journalism    </v>
       </c>
       <c r="G17" t="s">
-        <v>1087</v>
+        <v>974</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I17" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="J17" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="K17" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="L17" t="s">
-        <v>419</v>
+        <v>1065</v>
       </c>
       <c r="M17" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="N17" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="O17" t="s">
-        <v>422</v>
+        <v>999</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="R17" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -4728,7 +4713,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -4737,47 +4722,47 @@
         <v>45731</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Law    </v>
       </c>
       <c r="G18" t="s">
-        <v>1087</v>
+        <v>974</v>
       </c>
       <c r="H18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I18" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="J18" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="L18" t="s">
-        <v>428</v>
+        <v>1066</v>
       </c>
       <c r="M18" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="N18" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="O18" t="s">
-        <v>431</v>
+        <v>1000</v>
       </c>
       <c r="P18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="R18" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -4785,7 +4770,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -4794,47 +4779,47 @@
         <v>45732</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Linguistics    </v>
       </c>
       <c r="G19" t="s">
-        <v>1087</v>
+        <v>974</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I19" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="J19" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="L19" t="s">
-        <v>437</v>
+        <v>1067</v>
       </c>
       <c r="M19" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="N19" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="O19" t="s">
-        <v>440</v>
+        <v>1001</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q19" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="R19" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -4842,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -4851,47 +4836,47 @@
         <v>45733</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Logistics and Supply Chain Management     </v>
       </c>
       <c r="G20" t="s">
-        <v>1088</v>
+        <v>986</v>
       </c>
       <c r="H20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="J20" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="K20" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="L20" t="s">
-        <v>446</v>
+        <v>1068</v>
       </c>
       <c r="M20" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="N20" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="O20" t="s">
-        <v>449</v>
+        <v>1002</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q20" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="R20" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -4899,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -4908,47 +4893,47 @@
         <v>45734</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Manufacturing     </v>
       </c>
       <c r="G21" t="s">
-        <v>1089</v>
+        <v>975</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="J21" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="K21" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="L21" t="s">
-        <v>455</v>
+        <v>1069</v>
       </c>
       <c r="M21" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="N21" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="O21" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q21" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="R21" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -4956,7 +4941,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -4965,47 +4950,47 @@
         <v>45735</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Oceanography     </v>
       </c>
       <c r="G22" t="s">
-        <v>1078</v>
+        <v>967</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="J22" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="K22" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="L22" t="s">
-        <v>464</v>
+        <v>1070</v>
       </c>
       <c r="M22" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="N22" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="O22" t="s">
-        <v>467</v>
+        <v>1003</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q22" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="R22" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -5013,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -5022,47 +5007,47 @@
         <v>45736</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Oncology    </v>
       </c>
       <c r="G23" t="s">
-        <v>1075</v>
+        <v>964</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I23" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="J23" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="K23" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="L23" t="s">
-        <v>473</v>
+        <v>1071</v>
       </c>
       <c r="M23" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="N23" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="O23" t="s">
-        <v>476</v>
+        <v>1004</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="R23" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -5070,7 +5055,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -5079,47 +5064,47 @@
         <v>45737</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Pharmacology     </v>
       </c>
       <c r="G24" t="s">
-        <v>1090</v>
+        <v>976</v>
       </c>
       <c r="H24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="J24" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="K24" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="L24" t="s">
-        <v>482</v>
+        <v>1072</v>
       </c>
       <c r="M24" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="N24" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="O24" t="s">
-        <v>485</v>
+        <v>1005</v>
       </c>
       <c r="P24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="R24" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -5127,7 +5112,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -5136,47 +5121,47 @@
         <v>45738</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Psychology </v>
       </c>
       <c r="G25" t="s">
-        <v>1091</v>
+        <v>974</v>
       </c>
       <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" t="s">
+      <c r="N25" t="s">
         <v>82</v>
       </c>
-      <c r="J25" t="s">
+      <c r="O25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P25" t="s">
         <v>83</v>
       </c>
-      <c r="K25" t="s">
+      <c r="Q25" t="s">
         <v>84</v>
       </c>
-      <c r="L25" t="s">
+      <c r="R25" t="s">
         <v>85</v>
-      </c>
-      <c r="M25" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -5184,7 +5169,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -5193,47 +5178,47 @@
         <v>45739</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Public Health     </v>
       </c>
       <c r="G26" t="s">
-        <v>1092</v>
+        <v>977</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I26" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="J26" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
       <c r="K26" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="L26" t="s">
-        <v>491</v>
+        <v>1074</v>
       </c>
       <c r="M26" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="N26" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="O26" t="s">
-        <v>494</v>
+        <v>1007</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Q26" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="R26" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -5250,47 +5235,47 @@
         <v>45740</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Radiology     </v>
       </c>
       <c r="G27" t="s">
+        <v>964</v>
+      </c>
+      <c r="H27" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" t="s">
+        <v>449</v>
+      </c>
+      <c r="J27" t="s">
+        <v>450</v>
+      </c>
+      <c r="K27" t="s">
+        <v>451</v>
+      </c>
+      <c r="L27" t="s">
         <v>1075</v>
       </c>
-      <c r="H27" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" t="s">
-        <v>497</v>
-      </c>
-      <c r="J27" t="s">
-        <v>498</v>
-      </c>
-      <c r="K27" t="s">
-        <v>499</v>
-      </c>
-      <c r="L27" t="s">
-        <v>500</v>
-      </c>
       <c r="M27" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="N27" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="O27" t="s">
-        <v>503</v>
+        <v>1008</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R27" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -5298,7 +5283,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -5307,47 +5292,47 @@
         <v>45741</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Real Estate     </v>
       </c>
       <c r="G28" t="s">
-        <v>1084</v>
+        <v>986</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I28" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="J28" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="K28" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="L28" t="s">
-        <v>508</v>
+        <v>1076</v>
       </c>
       <c r="M28" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="N28" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="O28" t="s">
-        <v>511</v>
+        <v>1009</v>
       </c>
       <c r="P28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q28" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="R28" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -5355,7 +5340,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -5364,47 +5349,47 @@
         <v>45742</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Retail    </v>
       </c>
       <c r="G29" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I29" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="J29" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="K29" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="L29" t="s">
-        <v>517</v>
+        <v>1077</v>
       </c>
       <c r="M29" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="N29" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="O29" t="s">
-        <v>520</v>
+        <v>1010</v>
       </c>
       <c r="P29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q29" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="R29" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -5412,7 +5397,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -5421,47 +5406,47 @@
         <v>45743</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Robotics     </v>
       </c>
       <c r="G30" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H30" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I30" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="J30" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="K30" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="L30" t="s">
-        <v>526</v>
+        <v>1078</v>
       </c>
       <c r="M30" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="N30" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="O30" t="s">
-        <v>529</v>
+        <v>1011</v>
       </c>
       <c r="P30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q30" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="R30" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -5469,7 +5454,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -5478,47 +5463,47 @@
         <v>45744</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Sports    </v>
       </c>
       <c r="G31" t="s">
-        <v>1087</v>
+        <v>973</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I31" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="J31" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="K31" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="L31" t="s">
-        <v>535</v>
+        <v>1079</v>
       </c>
       <c r="M31" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="N31" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="O31" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="P31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q31" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="R31" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -5526,7 +5511,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -5535,47 +5520,47 @@
         <v>45745</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Transportation     </v>
       </c>
       <c r="G32" t="s">
-        <v>1089</v>
+        <v>975</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I32" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="J32" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="K32" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="L32" t="s">
-        <v>544</v>
+        <v>1080</v>
       </c>
       <c r="M32" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="N32" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="O32" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
       <c r="P32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q32" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="R32" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -5583,7 +5568,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -5592,47 +5577,47 @@
         <v>45746</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Urban Planning     </v>
       </c>
       <c r="G33" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="J33" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="K33" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="L33" t="s">
-        <v>553</v>
+        <v>1081</v>
       </c>
       <c r="M33" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="N33" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="O33" t="s">
-        <v>556</v>
+        <v>1012</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q33" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="R33" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -5640,56 +5625,56 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Advanced Semiconductor Nanotechnologies    </v>
       </c>
       <c r="G34" t="s">
-        <v>1094</v>
+        <v>965</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="J34" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K34" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="L34" t="s">
-        <v>562</v>
+        <v>1082</v>
       </c>
       <c r="M34" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="N34" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="O34" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
       <c r="P34" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q34" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="R34" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -5697,56 +5682,56 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Biomechanical Engineering    </v>
       </c>
       <c r="G35" t="s">
-        <v>1095</v>
+        <v>985</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I35" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="J35" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="K35" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="L35" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="M35" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="N35" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="O35" t="s">
-        <v>574</v>
+        <v>1013</v>
       </c>
       <c r="P35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Q35" t="s">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="R35" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -5754,56 +5739,56 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Biomedical Engineering    </v>
       </c>
       <c r="G36" t="s">
-        <v>1095</v>
+        <v>985</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I36" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="J36" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="K36" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="L36" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="M36" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="N36" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="O36" t="s">
-        <v>583</v>
+        <v>1014</v>
       </c>
       <c r="P36" t="s">
-        <v>584</v>
+        <v>521</v>
       </c>
       <c r="Q36" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="R36" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -5811,56 +5796,56 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Biosystems Engineering    </v>
       </c>
       <c r="G37" t="s">
-        <v>1094</v>
+        <v>965</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I37" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
       <c r="J37" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="K37" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="L37" t="s">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="M37" t="s">
-        <v>591</v>
+        <v>528</v>
       </c>
       <c r="N37" t="s">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="O37" t="s">
-        <v>593</v>
+        <v>1015</v>
       </c>
       <c r="P37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q37" t="s">
-        <v>594</v>
+        <v>530</v>
       </c>
       <c r="R37" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -5868,56 +5853,56 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Business Economics    </v>
       </c>
       <c r="G38" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>596</v>
+        <v>532</v>
       </c>
       <c r="J38" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="K38" t="s">
-        <v>598</v>
+        <v>534</v>
       </c>
       <c r="L38" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="M38" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="N38" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="O38" t="s">
-        <v>602</v>
+        <v>1016</v>
       </c>
       <c r="P38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q38" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
       <c r="R38" t="s">
-        <v>604</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -5925,56 +5910,56 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Business Informatics    </v>
       </c>
       <c r="G39" t="s">
-        <v>1096</v>
+        <v>979</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="J39" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="K39" t="s">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="L39" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="M39" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="N39" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="O39" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="P39" t="s">
-        <v>612</v>
+        <v>547</v>
       </c>
       <c r="Q39" t="s">
-        <v>613</v>
+        <v>548</v>
       </c>
       <c r="R39" t="s">
-        <v>614</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -5982,56 +5967,56 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Business Management    </v>
       </c>
       <c r="G40" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="J40" t="s">
-        <v>616</v>
+        <v>551</v>
       </c>
       <c r="K40" t="s">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="L40" t="s">
-        <v>618</v>
+        <v>1083</v>
       </c>
       <c r="M40" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="N40" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="O40" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="P40" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="Q40" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="R40" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -6039,56 +6024,56 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Chemical and Energy Engineering     </v>
       </c>
       <c r="G41" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="J41" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
       <c r="K41" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
       <c r="L41" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="M41" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="N41" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
       <c r="O41" t="s">
-        <v>631</v>
+        <v>1017</v>
       </c>
       <c r="P41" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q41" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="R41" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -6096,56 +6081,56 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Chemical Engineering - Molecular and Structural Product Design    </v>
       </c>
       <c r="G42" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="J42" t="s">
-        <v>635</v>
+        <v>568</v>
       </c>
       <c r="K42" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
       <c r="L42" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="M42" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="N42" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="O42" t="s">
-        <v>640</v>
+        <v>1018</v>
       </c>
       <c r="P42" t="s">
-        <v>641</v>
+        <v>573</v>
       </c>
       <c r="Q42" t="s">
-        <v>642</v>
+        <v>574</v>
       </c>
       <c r="R42" t="s">
-        <v>643</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -6153,56 +6138,56 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computational Visualistics     </v>
       </c>
       <c r="G43" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="H43" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I43" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="J43" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="K43" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
       <c r="L43" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="M43" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
       <c r="N43" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="O43" t="s">
-        <v>650</v>
+        <v>1019</v>
       </c>
       <c r="P43" t="s">
-        <v>651</v>
+        <v>582</v>
       </c>
       <c r="Q43" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
       <c r="R43" t="s">
-        <v>653</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -6210,56 +6195,56 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computational Mathematics    </v>
       </c>
       <c r="G44" t="s">
-        <v>1098</v>
+        <v>980</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
-        <v>654</v>
+        <v>585</v>
       </c>
       <c r="J44" t="s">
-        <v>655</v>
+        <v>586</v>
       </c>
       <c r="K44" t="s">
-        <v>656</v>
+        <v>587</v>
       </c>
       <c r="L44" t="s">
-        <v>657</v>
+        <v>1084</v>
       </c>
       <c r="M44" t="s">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="N44" t="s">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="O44" t="s">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="P44" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="Q44" t="s">
-        <v>662</v>
+        <v>592</v>
       </c>
       <c r="R44" t="s">
-        <v>663</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -6267,56 +6252,56 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computational Methods in Engineering     </v>
       </c>
       <c r="G45" t="s">
-        <v>1099</v>
+        <v>970</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I45" t="s">
-        <v>664</v>
+        <v>594</v>
       </c>
       <c r="J45" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="K45" t="s">
-        <v>666</v>
+        <v>596</v>
       </c>
       <c r="L45" t="s">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="M45" t="s">
-        <v>668</v>
+        <v>598</v>
       </c>
       <c r="N45" t="s">
-        <v>669</v>
+        <v>599</v>
       </c>
       <c r="O45" t="s">
-        <v>670</v>
+        <v>1020</v>
       </c>
       <c r="P45" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="Q45" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="R45" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -6324,56 +6309,56 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computer Science    </v>
       </c>
       <c r="G46" t="s">
-        <v>1110</v>
+        <v>987</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>674</v>
+        <v>603</v>
       </c>
       <c r="J46" t="s">
-        <v>675</v>
+        <v>604</v>
       </c>
       <c r="K46" t="s">
-        <v>676</v>
+        <v>605</v>
       </c>
       <c r="L46" t="s">
-        <v>677</v>
+        <v>1085</v>
       </c>
       <c r="M46" t="s">
-        <v>678</v>
+        <v>606</v>
       </c>
       <c r="N46" t="s">
-        <v>679</v>
+        <v>607</v>
       </c>
       <c r="O46" t="s">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="P46" t="s">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="Q46" t="s">
-        <v>682</v>
+        <v>610</v>
       </c>
       <c r="R46" t="s">
-        <v>683</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -6381,56 +6366,56 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computer Systems Engineering    </v>
       </c>
       <c r="G47" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H47" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>684</v>
+        <v>612</v>
       </c>
       <c r="J47" t="s">
-        <v>685</v>
+        <v>613</v>
       </c>
       <c r="K47" t="s">
-        <v>686</v>
+        <v>614</v>
       </c>
       <c r="L47" t="s">
-        <v>687</v>
+        <v>1086</v>
       </c>
       <c r="M47" t="s">
-        <v>688</v>
+        <v>615</v>
       </c>
       <c r="N47" t="s">
-        <v>689</v>
+        <v>616</v>
       </c>
       <c r="O47" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
       <c r="P47" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
       <c r="Q47" t="s">
-        <v>692</v>
+        <v>619</v>
       </c>
       <c r="R47" t="s">
-        <v>693</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -6438,56 +6423,56 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Computer Systems in Engineering    </v>
       </c>
       <c r="G48" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I48" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
       <c r="J48" t="s">
-        <v>695</v>
+        <v>622</v>
       </c>
       <c r="K48" t="s">
-        <v>696</v>
+        <v>623</v>
       </c>
       <c r="L48" t="s">
-        <v>697</v>
+        <v>624</v>
       </c>
       <c r="M48" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="N48" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="O48" t="s">
-        <v>700</v>
+        <v>1021</v>
       </c>
       <c r="P48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q48" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
       <c r="R48" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -6495,56 +6480,56 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Data and Knowledge Engineering    </v>
       </c>
       <c r="G49" t="s">
-        <v>1100</v>
+        <v>981</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="J49" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="K49" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="L49" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="M49" t="s">
-        <v>707</v>
+        <v>633</v>
       </c>
       <c r="N49" t="s">
-        <v>708</v>
+        <v>634</v>
       </c>
       <c r="O49" t="s">
-        <v>709</v>
+        <v>1022</v>
       </c>
       <c r="P49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q49" t="s">
-        <v>710</v>
+        <v>635</v>
       </c>
       <c r="R49" t="s">
-        <v>711</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -6552,56 +6537,56 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Digital Engineering    </v>
       </c>
       <c r="G50" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>712</v>
+        <v>637</v>
       </c>
       <c r="J50" t="s">
-        <v>713</v>
+        <v>638</v>
       </c>
       <c r="K50" t="s">
-        <v>714</v>
+        <v>639</v>
       </c>
       <c r="L50" t="s">
-        <v>715</v>
+        <v>640</v>
       </c>
       <c r="M50" t="s">
-        <v>716</v>
+        <v>641</v>
       </c>
       <c r="N50" t="s">
-        <v>717</v>
+        <v>642</v>
       </c>
       <c r="O50" t="s">
-        <v>718</v>
+        <v>1023</v>
       </c>
       <c r="P50" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q50" t="s">
-        <v>719</v>
+        <v>643</v>
       </c>
       <c r="R50" t="s">
-        <v>720</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -6609,56 +6594,56 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">E-Mobility    </v>
       </c>
       <c r="G51" t="s">
-        <v>1089</v>
+        <v>975</v>
       </c>
       <c r="H51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I51" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
       <c r="J51" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
       <c r="K51" t="s">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="L51" t="s">
-        <v>724</v>
+        <v>648</v>
       </c>
       <c r="M51" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
       <c r="N51" t="s">
-        <v>726</v>
+        <v>650</v>
       </c>
       <c r="O51" t="s">
-        <v>727</v>
+        <v>1024</v>
       </c>
       <c r="P51" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q51" t="s">
-        <v>728</v>
+        <v>651</v>
       </c>
       <c r="R51" t="s">
-        <v>729</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -6666,56 +6651,56 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Economic Policy Analysis    </v>
       </c>
       <c r="G52" t="s">
-        <v>1101</v>
+        <v>982</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I52" t="s">
-        <v>730</v>
+        <v>653</v>
       </c>
       <c r="J52" t="s">
-        <v>731</v>
+        <v>654</v>
       </c>
       <c r="K52" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="L52" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="M52" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="N52" t="s">
-        <v>735</v>
+        <v>658</v>
       </c>
       <c r="O52" t="s">
-        <v>736</v>
+        <v>1025</v>
       </c>
       <c r="P52" t="s">
-        <v>737</v>
+        <v>659</v>
       </c>
       <c r="Q52" t="s">
-        <v>738</v>
+        <v>660</v>
       </c>
       <c r="R52" t="s">
-        <v>739</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -6723,56 +6708,56 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Educational Science    </v>
       </c>
       <c r="G53" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I53" t="s">
-        <v>740</v>
+        <v>662</v>
       </c>
       <c r="J53" t="s">
-        <v>741</v>
+        <v>663</v>
       </c>
       <c r="K53" t="s">
-        <v>742</v>
+        <v>664</v>
       </c>
       <c r="L53" t="s">
-        <v>743</v>
+        <v>665</v>
       </c>
       <c r="M53" t="s">
-        <v>744</v>
+        <v>666</v>
       </c>
       <c r="N53" t="s">
-        <v>745</v>
+        <v>667</v>
       </c>
       <c r="O53" t="s">
-        <v>746</v>
+        <v>1026</v>
       </c>
       <c r="P53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q53" t="s">
-        <v>747</v>
+        <v>668</v>
       </c>
       <c r="R53" t="s">
-        <v>748</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -6780,56 +6765,56 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Electrical and Information Technology    </v>
       </c>
       <c r="G54" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H54" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>749</v>
+        <v>670</v>
       </c>
       <c r="J54" t="s">
-        <v>750</v>
+        <v>671</v>
       </c>
       <c r="K54" t="s">
-        <v>751</v>
+        <v>672</v>
       </c>
       <c r="L54" t="s">
-        <v>752</v>
+        <v>673</v>
       </c>
       <c r="M54" t="s">
-        <v>753</v>
+        <v>674</v>
       </c>
       <c r="N54" t="s">
-        <v>754</v>
+        <v>675</v>
       </c>
       <c r="O54" t="s">
-        <v>755</v>
+        <v>1027</v>
       </c>
       <c r="P54" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
       <c r="Q54" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
       <c r="R54" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -6837,56 +6822,56 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Energy Process Engineering     </v>
       </c>
       <c r="G55" t="s">
-        <v>1089</v>
+        <v>984</v>
       </c>
       <c r="H55" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I55" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
       <c r="J55" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="K55" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
       <c r="L55" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
       <c r="M55" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
       <c r="N55" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
       <c r="O55" t="s">
-        <v>765</v>
+        <v>1028</v>
       </c>
       <c r="P55" t="s">
-        <v>766</v>
+        <v>685</v>
       </c>
       <c r="Q55" t="s">
-        <v>767</v>
+        <v>686</v>
       </c>
       <c r="R55" t="s">
-        <v>768</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -6894,56 +6879,56 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Engineering Informatics    </v>
       </c>
       <c r="G56" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I56" t="s">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="J56" t="s">
-        <v>770</v>
+        <v>689</v>
       </c>
       <c r="K56" t="s">
-        <v>771</v>
+        <v>690</v>
       </c>
       <c r="L56" t="s">
-        <v>772</v>
+        <v>691</v>
       </c>
       <c r="M56" t="s">
-        <v>773</v>
+        <v>692</v>
       </c>
       <c r="N56" t="s">
-        <v>774</v>
+        <v>693</v>
       </c>
       <c r="O56" t="s">
-        <v>775</v>
+        <v>1029</v>
       </c>
       <c r="P56" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q56" t="s">
-        <v>776</v>
+        <v>694</v>
       </c>
       <c r="R56" t="s">
-        <v>777</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -6951,56 +6936,56 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Engineering Science    </v>
       </c>
       <c r="G57" t="s">
-        <v>1094</v>
+        <v>965</v>
       </c>
       <c r="H57" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I57" t="s">
-        <v>778</v>
+        <v>696</v>
       </c>
       <c r="J57" t="s">
-        <v>779</v>
+        <v>697</v>
       </c>
       <c r="K57" t="s">
-        <v>780</v>
+        <v>698</v>
       </c>
       <c r="L57" t="s">
-        <v>781</v>
+        <v>699</v>
       </c>
       <c r="M57" t="s">
-        <v>782</v>
+        <v>700</v>
       </c>
       <c r="N57" t="s">
-        <v>783</v>
+        <v>701</v>
       </c>
       <c r="O57" t="s">
-        <v>784</v>
+        <v>1030</v>
       </c>
       <c r="P57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q57" t="s">
-        <v>785</v>
+        <v>702</v>
       </c>
       <c r="R57" t="s">
-        <v>786</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
@@ -7008,56 +6993,56 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">European Studies    </v>
       </c>
       <c r="G58" t="s">
+        <v>974</v>
+      </c>
+      <c r="H58" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" t="s">
+        <v>704</v>
+      </c>
+      <c r="J58" t="s">
+        <v>705</v>
+      </c>
+      <c r="K58" t="s">
+        <v>706</v>
+      </c>
+      <c r="L58" t="s">
         <v>1087</v>
       </c>
-      <c r="H58" t="s">
-        <v>272</v>
-      </c>
-      <c r="I58" t="s">
-        <v>787</v>
-      </c>
-      <c r="J58" t="s">
-        <v>788</v>
-      </c>
-      <c r="K58" t="s">
-        <v>789</v>
-      </c>
-      <c r="L58" t="s">
-        <v>790</v>
-      </c>
       <c r="M58" t="s">
-        <v>791</v>
+        <v>707</v>
       </c>
       <c r="N58" t="s">
-        <v>792</v>
+        <v>708</v>
       </c>
       <c r="O58" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="P58" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="Q58" t="s">
-        <v>795</v>
+        <v>711</v>
       </c>
       <c r="R58" t="s">
-        <v>796</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -7065,56 +7050,56 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Financial Economics  </v>
       </c>
       <c r="G59" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H59" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>797</v>
+        <v>713</v>
       </c>
       <c r="J59" t="s">
-        <v>798</v>
+        <v>714</v>
       </c>
       <c r="K59" t="s">
-        <v>799</v>
+        <v>715</v>
       </c>
       <c r="L59" t="s">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="M59" t="s">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="N59" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="O59" t="s">
-        <v>803</v>
+        <v>1031</v>
       </c>
       <c r="P59" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
       <c r="Q59" t="s">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="R59" t="s">
-        <v>806</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
@@ -7122,56 +7107,56 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Human Medicine </v>
       </c>
       <c r="G60" t="s">
-        <v>1075</v>
+        <v>964</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I60" t="s">
-        <v>807</v>
+        <v>722</v>
       </c>
       <c r="J60" t="s">
-        <v>808</v>
+        <v>723</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s">
-        <v>809</v>
+        <v>724</v>
       </c>
       <c r="M60" t="s">
-        <v>810</v>
+        <v>725</v>
       </c>
       <c r="N60" t="s">
-        <v>811</v>
+        <v>726</v>
       </c>
       <c r="O60" t="s">
-        <v>812</v>
+        <v>1032</v>
       </c>
       <c r="P60" t="s">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="Q60" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="R60" t="s">
-        <v>814</v>
+        <v>728</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -7179,56 +7164,56 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Immunology </v>
       </c>
       <c r="G61" t="s">
-        <v>1079</v>
+        <v>976</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I61" t="s">
-        <v>815</v>
+        <v>729</v>
       </c>
       <c r="J61" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
       <c r="K61" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L61" t="s">
-        <v>817</v>
+        <v>1088</v>
       </c>
       <c r="M61" t="s">
-        <v>818</v>
+        <v>731</v>
       </c>
       <c r="N61" t="s">
-        <v>819</v>
+        <v>732</v>
       </c>
       <c r="O61" t="s">
-        <v>820</v>
+        <v>733</v>
       </c>
       <c r="P61" t="s">
-        <v>821</v>
+        <v>734</v>
       </c>
       <c r="Q61" t="s">
-        <v>822</v>
+        <v>735</v>
       </c>
       <c r="R61" t="s">
-        <v>823</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -7236,56 +7221,56 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Industrial Engineering - Production, Logistics, and Products    </v>
       </c>
       <c r="G62" t="s">
-        <v>1103</v>
+        <v>983</v>
       </c>
       <c r="H62" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I62" t="s">
-        <v>824</v>
+        <v>737</v>
       </c>
       <c r="J62" t="s">
-        <v>825</v>
+        <v>738</v>
       </c>
       <c r="K62" t="s">
-        <v>826</v>
+        <v>739</v>
       </c>
       <c r="L62" t="s">
-        <v>827</v>
+        <v>1089</v>
       </c>
       <c r="M62" t="s">
-        <v>828</v>
+        <v>740</v>
       </c>
       <c r="N62" t="s">
-        <v>829</v>
+        <v>741</v>
       </c>
       <c r="O62" t="s">
-        <v>830</v>
+        <v>742</v>
       </c>
       <c r="P62" t="s">
-        <v>831</v>
+        <v>743</v>
       </c>
       <c r="Q62" t="s">
-        <v>832</v>
+        <v>744</v>
       </c>
       <c r="R62" t="s">
-        <v>833</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -7293,56 +7278,56 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Industrial Engineering / Logistics    </v>
       </c>
       <c r="G63" t="s">
-        <v>1104</v>
+        <v>983</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I63" t="s">
-        <v>834</v>
+        <v>746</v>
       </c>
       <c r="J63" t="s">
-        <v>835</v>
+        <v>747</v>
       </c>
       <c r="K63" t="s">
-        <v>836</v>
+        <v>748</v>
       </c>
       <c r="L63" t="s">
-        <v>837</v>
+        <v>1090</v>
       </c>
       <c r="M63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N63" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O63" t="s">
-        <v>838</v>
+        <v>749</v>
       </c>
       <c r="P63" t="s">
-        <v>839</v>
+        <v>750</v>
       </c>
       <c r="Q63" t="s">
-        <v>840</v>
+        <v>751</v>
       </c>
       <c r="R63" t="s">
-        <v>841</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
@@ -7350,56 +7335,56 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Industrial and Mechanical Engineering    </v>
       </c>
       <c r="G64" t="s">
-        <v>1105</v>
+        <v>984</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I64" t="s">
-        <v>842</v>
+        <v>753</v>
       </c>
       <c r="J64" t="s">
-        <v>843</v>
+        <v>754</v>
       </c>
       <c r="K64" t="s">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="L64" t="s">
-        <v>845</v>
+        <v>756</v>
       </c>
       <c r="M64" t="s">
-        <v>846</v>
+        <v>757</v>
       </c>
       <c r="N64" t="s">
-        <v>847</v>
+        <v>758</v>
       </c>
       <c r="O64" t="s">
-        <v>848</v>
+        <v>1033</v>
       </c>
       <c r="P64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q64" t="s">
-        <v>849</v>
+        <v>759</v>
       </c>
       <c r="R64" t="s">
-        <v>850</v>
+        <v>760</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -7407,56 +7392,56 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Integrated Design Engineering    </v>
       </c>
       <c r="G65" t="s">
-        <v>1081</v>
+        <v>969</v>
       </c>
       <c r="H65" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I65" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
       <c r="J65" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="K65" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="L65" t="s">
-        <v>854</v>
+        <v>764</v>
       </c>
       <c r="M65" t="s">
-        <v>855</v>
+        <v>765</v>
       </c>
       <c r="N65" t="s">
-        <v>856</v>
+        <v>766</v>
       </c>
       <c r="O65" t="s">
-        <v>857</v>
+        <v>1034</v>
       </c>
       <c r="P65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q65" t="s">
-        <v>858</v>
+        <v>767</v>
       </c>
       <c r="R65" t="s">
-        <v>859</v>
+        <v>768</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -7464,56 +7449,56 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Integrated Design Engineering    </v>
       </c>
       <c r="G66" t="s">
-        <v>1081</v>
+        <v>969</v>
       </c>
       <c r="H66" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I66" t="s">
-        <v>860</v>
+        <v>769</v>
       </c>
       <c r="J66" t="s">
-        <v>861</v>
+        <v>770</v>
       </c>
       <c r="K66" t="s">
-        <v>862</v>
+        <v>771</v>
       </c>
       <c r="L66" t="s">
-        <v>863</v>
+        <v>772</v>
       </c>
       <c r="M66" t="s">
-        <v>864</v>
+        <v>773</v>
       </c>
       <c r="N66" t="s">
-        <v>865</v>
+        <v>774</v>
       </c>
       <c r="O66" t="s">
-        <v>866</v>
+        <v>1035</v>
       </c>
       <c r="P66" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q66" t="s">
-        <v>867</v>
+        <v>775</v>
       </c>
       <c r="R66" t="s">
-        <v>868</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -7521,56 +7506,56 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Integrative Neurosciences     </v>
       </c>
       <c r="G67" t="s">
-        <v>1079</v>
+        <v>968</v>
       </c>
       <c r="H67" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I67" t="s">
-        <v>869</v>
+        <v>777</v>
       </c>
       <c r="J67" t="s">
-        <v>870</v>
+        <v>778</v>
       </c>
       <c r="K67" t="s">
-        <v>871</v>
+        <v>779</v>
       </c>
       <c r="L67" t="s">
-        <v>872</v>
+        <v>780</v>
       </c>
       <c r="M67" t="s">
-        <v>873</v>
+        <v>781</v>
       </c>
       <c r="N67" t="s">
-        <v>874</v>
+        <v>782</v>
       </c>
       <c r="O67" t="s">
-        <v>875</v>
+        <v>1036</v>
       </c>
       <c r="P67" t="s">
-        <v>876</v>
+        <v>783</v>
       </c>
       <c r="Q67" t="s">
-        <v>877</v>
+        <v>784</v>
       </c>
       <c r="R67" t="s">
-        <v>878</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -7578,56 +7563,56 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F89" si="1">LEFT(H68,FIND("Definition",H68,1)-1)</f>
         <v xml:space="preserve">International Management, Marketing, Entrepreneurship    </v>
       </c>
       <c r="G68" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I68" t="s">
-        <v>879</v>
+        <v>786</v>
       </c>
       <c r="J68" t="s">
-        <v>880</v>
+        <v>787</v>
       </c>
       <c r="K68" t="s">
-        <v>881</v>
+        <v>788</v>
       </c>
       <c r="L68" t="s">
-        <v>882</v>
+        <v>789</v>
       </c>
       <c r="M68" t="s">
-        <v>883</v>
+        <v>790</v>
       </c>
       <c r="N68" t="s">
-        <v>884</v>
+        <v>791</v>
       </c>
       <c r="O68" t="s">
-        <v>885</v>
+        <v>1037</v>
       </c>
       <c r="P68" t="s">
-        <v>886</v>
+        <v>792</v>
       </c>
       <c r="Q68" t="s">
-        <v>887</v>
+        <v>793</v>
       </c>
       <c r="R68" t="s">
-        <v>888</v>
+        <v>794</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -7635,56 +7620,56 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">International Taxation and Public Finance    </v>
       </c>
       <c r="G69" t="s">
-        <v>1101</v>
+        <v>982</v>
       </c>
       <c r="H69" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I69" t="s">
-        <v>889</v>
+        <v>795</v>
       </c>
       <c r="J69" t="s">
-        <v>890</v>
+        <v>796</v>
       </c>
       <c r="K69" t="s">
-        <v>891</v>
+        <v>797</v>
       </c>
       <c r="L69" t="s">
-        <v>892</v>
+        <v>798</v>
       </c>
       <c r="M69" t="s">
-        <v>893</v>
+        <v>799</v>
       </c>
       <c r="N69" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="O69" t="s">
-        <v>895</v>
+        <v>1038</v>
       </c>
       <c r="P69" t="s">
-        <v>896</v>
+        <v>801</v>
       </c>
       <c r="Q69" t="s">
-        <v>897</v>
+        <v>802</v>
       </c>
       <c r="R69" t="s">
-        <v>898</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -7692,56 +7677,56 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">International Business and Economics    </v>
       </c>
       <c r="G70" t="s">
-        <v>1101</v>
+        <v>982</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I70" t="s">
-        <v>899</v>
+        <v>804</v>
       </c>
       <c r="J70" t="s">
-        <v>900</v>
+        <v>805</v>
       </c>
       <c r="K70" t="s">
-        <v>901</v>
+        <v>806</v>
       </c>
       <c r="L70" t="s">
-        <v>902</v>
+        <v>807</v>
       </c>
       <c r="M70" t="s">
-        <v>903</v>
+        <v>808</v>
       </c>
       <c r="N70" t="s">
-        <v>904</v>
+        <v>809</v>
       </c>
       <c r="O70" t="s">
-        <v>905</v>
+        <v>810</v>
       </c>
       <c r="P70" t="s">
-        <v>906</v>
+        <v>811</v>
       </c>
       <c r="Q70" t="s">
-        <v>907</v>
+        <v>812</v>
       </c>
       <c r="R70" t="s">
-        <v>908</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -7749,56 +7734,56 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Industrial Engineering / Process and Power Engineering    </v>
       </c>
       <c r="G71" t="s">
-        <v>1089</v>
+        <v>984</v>
       </c>
       <c r="H71" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>909</v>
+        <v>814</v>
       </c>
       <c r="J71" t="s">
-        <v>910</v>
+        <v>815</v>
       </c>
       <c r="K71" t="s">
-        <v>911</v>
+        <v>816</v>
       </c>
       <c r="L71" t="s">
-        <v>912</v>
+        <v>1091</v>
       </c>
       <c r="M71" t="s">
-        <v>913</v>
+        <v>817</v>
       </c>
       <c r="N71" t="s">
-        <v>914</v>
+        <v>818</v>
       </c>
       <c r="O71" t="s">
-        <v>915</v>
+        <v>819</v>
       </c>
       <c r="P71" t="s">
-        <v>916</v>
+        <v>820</v>
       </c>
       <c r="Q71" t="s">
-        <v>917</v>
+        <v>821</v>
       </c>
       <c r="R71" t="s">
-        <v>918</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
@@ -7806,56 +7791,56 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Mathematical Engineering </v>
       </c>
       <c r="G72" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J72" t="s">
-        <v>919</v>
+        <v>823</v>
       </c>
       <c r="K72" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L72" t="s">
-        <v>134</v>
+        <v>1092</v>
       </c>
       <c r="M72" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N72" t="s">
-        <v>920</v>
+        <v>824</v>
       </c>
       <c r="O72" t="s">
-        <v>921</v>
+        <v>825</v>
       </c>
       <c r="P72" t="s">
-        <v>922</v>
+        <v>826</v>
       </c>
       <c r="Q72" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R72" t="s">
-        <v>923</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
@@ -7863,56 +7848,56 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Mathematics    </v>
       </c>
       <c r="G73" t="s">
-        <v>1078</v>
+        <v>967</v>
       </c>
       <c r="H73" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I73" t="s">
-        <v>924</v>
+        <v>828</v>
       </c>
       <c r="J73" t="s">
-        <v>925</v>
+        <v>829</v>
       </c>
       <c r="K73" t="s">
-        <v>926</v>
+        <v>830</v>
       </c>
       <c r="L73" t="s">
-        <v>927</v>
+        <v>1093</v>
       </c>
       <c r="M73" t="s">
-        <v>928</v>
+        <v>831</v>
       </c>
       <c r="N73" t="s">
-        <v>929</v>
+        <v>832</v>
       </c>
       <c r="O73" t="s">
-        <v>930</v>
+        <v>833</v>
       </c>
       <c r="P73" t="s">
-        <v>931</v>
+        <v>834</v>
       </c>
       <c r="Q73" t="s">
-        <v>932</v>
+        <v>835</v>
       </c>
       <c r="R73" t="s">
-        <v>933</v>
+        <v>836</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -7920,56 +7905,56 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Mechanical Engineering     </v>
       </c>
       <c r="G74" t="s">
-        <v>1105</v>
+        <v>984</v>
       </c>
       <c r="H74" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I74" t="s">
-        <v>934</v>
+        <v>837</v>
       </c>
       <c r="J74" t="s">
-        <v>935</v>
+        <v>838</v>
       </c>
       <c r="K74" t="s">
-        <v>936</v>
+        <v>839</v>
       </c>
       <c r="L74" t="s">
-        <v>937</v>
+        <v>840</v>
       </c>
       <c r="M74" t="s">
-        <v>938</v>
+        <v>841</v>
       </c>
       <c r="N74" t="s">
-        <v>939</v>
+        <v>842</v>
       </c>
       <c r="O74" t="s">
-        <v>940</v>
+        <v>1039</v>
       </c>
       <c r="P74" t="s">
-        <v>941</v>
+        <v>843</v>
       </c>
       <c r="Q74" t="s">
-        <v>942</v>
+        <v>844</v>
       </c>
       <c r="R74" t="s">
-        <v>943</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
@@ -7977,56 +7962,56 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Media Literacy: Audiovisual Culture and Communication    </v>
       </c>
       <c r="G75" t="s">
-        <v>1087</v>
+        <v>978</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I75" t="s">
-        <v>944</v>
+        <v>846</v>
       </c>
       <c r="J75" t="s">
-        <v>945</v>
+        <v>847</v>
       </c>
       <c r="K75" t="s">
-        <v>946</v>
+        <v>848</v>
       </c>
       <c r="L75" t="s">
-        <v>947</v>
+        <v>849</v>
       </c>
       <c r="M75" t="s">
-        <v>948</v>
+        <v>850</v>
       </c>
       <c r="N75" t="s">
-        <v>949</v>
+        <v>851</v>
       </c>
       <c r="O75" t="s">
-        <v>950</v>
+        <v>852</v>
       </c>
       <c r="P75" t="s">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="Q75" t="s">
-        <v>952</v>
+        <v>854</v>
       </c>
       <c r="R75" t="s">
-        <v>953</v>
+        <v>855</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
@@ -8034,56 +8019,56 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Medical Systems Engineering    </v>
       </c>
       <c r="G76" t="s">
-        <v>1106</v>
+        <v>985</v>
       </c>
       <c r="H76" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I76" t="s">
-        <v>954</v>
+        <v>856</v>
       </c>
       <c r="J76" t="s">
-        <v>955</v>
+        <v>857</v>
       </c>
       <c r="K76" t="s">
-        <v>956</v>
+        <v>858</v>
       </c>
       <c r="L76" t="s">
-        <v>957</v>
+        <v>859</v>
       </c>
       <c r="M76" t="s">
-        <v>958</v>
+        <v>860</v>
       </c>
       <c r="N76" t="s">
-        <v>959</v>
+        <v>861</v>
       </c>
       <c r="O76" t="s">
-        <v>960</v>
+        <v>1040</v>
       </c>
       <c r="P76" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Q76" t="s">
-        <v>961</v>
+        <v>862</v>
       </c>
       <c r="R76" t="s">
-        <v>962</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
@@ -8091,56 +8076,56 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Operations Research and Business Analytics    </v>
       </c>
       <c r="G77" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H77" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I77" t="s">
-        <v>963</v>
+        <v>864</v>
       </c>
       <c r="J77" t="s">
-        <v>964</v>
+        <v>865</v>
       </c>
       <c r="K77" t="s">
-        <v>965</v>
+        <v>866</v>
       </c>
       <c r="L77" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="M77" t="s">
-        <v>967</v>
+        <v>868</v>
       </c>
       <c r="N77" t="s">
-        <v>968</v>
+        <v>869</v>
       </c>
       <c r="O77" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="P77" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q77" t="s">
-        <v>970</v>
+        <v>870</v>
       </c>
       <c r="R77" t="s">
-        <v>971</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
@@ -8148,56 +8133,56 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Philosophy - Neurosciences - Cognition  </v>
       </c>
       <c r="G78" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" t="s">
+        <v>133</v>
+      </c>
+      <c r="J78" t="s">
+        <v>134</v>
+      </c>
+      <c r="K78" t="s">
+        <v>135</v>
+      </c>
+      <c r="L78" t="s">
+        <v>136</v>
+      </c>
+      <c r="M78" t="s">
+        <v>137</v>
+      </c>
+      <c r="N78" t="s">
+        <v>138</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P78" t="s">
         <v>139</v>
       </c>
-      <c r="I78" t="s">
+      <c r="Q78" t="s">
         <v>140</v>
       </c>
-      <c r="J78" t="s">
+      <c r="R78" t="s">
         <v>141</v>
-      </c>
-      <c r="K78" t="s">
-        <v>142</v>
-      </c>
-      <c r="L78" t="s">
-        <v>143</v>
-      </c>
-      <c r="M78" t="s">
-        <v>144</v>
-      </c>
-      <c r="N78" t="s">
-        <v>145</v>
-      </c>
-      <c r="O78" t="s">
-        <v>146</v>
-      </c>
-      <c r="P78" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>148</v>
-      </c>
-      <c r="R78" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
@@ -8205,56 +8190,56 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Process Safety and Environmental Engineering    </v>
       </c>
       <c r="G79" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H79" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I79" t="s">
-        <v>972</v>
+        <v>872</v>
       </c>
       <c r="J79" t="s">
-        <v>973</v>
+        <v>873</v>
       </c>
       <c r="K79" t="s">
-        <v>974</v>
+        <v>874</v>
       </c>
       <c r="L79" t="s">
-        <v>975</v>
+        <v>875</v>
       </c>
       <c r="M79" t="s">
-        <v>976</v>
+        <v>876</v>
       </c>
       <c r="N79" t="s">
-        <v>977</v>
+        <v>877</v>
       </c>
       <c r="O79" t="s">
-        <v>978</v>
+        <v>1043</v>
       </c>
       <c r="P79" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q79" t="s">
-        <v>979</v>
+        <v>878</v>
       </c>
       <c r="R79" t="s">
-        <v>980</v>
+        <v>879</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
@@ -8262,56 +8247,56 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Process Engineering    </v>
       </c>
       <c r="G80" t="s">
-        <v>1105</v>
+        <v>975</v>
       </c>
       <c r="H80" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I80" t="s">
-        <v>981</v>
+        <v>880</v>
       </c>
       <c r="J80" t="s">
-        <v>982</v>
+        <v>881</v>
       </c>
       <c r="K80" t="s">
-        <v>983</v>
+        <v>882</v>
       </c>
       <c r="L80" t="s">
-        <v>984</v>
+        <v>883</v>
       </c>
       <c r="M80" t="s">
-        <v>985</v>
+        <v>884</v>
       </c>
       <c r="N80" t="s">
-        <v>986</v>
+        <v>885</v>
       </c>
       <c r="O80" t="s">
-        <v>987</v>
+        <v>1044</v>
       </c>
       <c r="P80" t="s">
-        <v>988</v>
+        <v>886</v>
       </c>
       <c r="Q80" t="s">
-        <v>989</v>
+        <v>887</v>
       </c>
       <c r="R80" t="s">
-        <v>990</v>
+        <v>888</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
@@ -8319,56 +8304,56 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Psychology    </v>
       </c>
       <c r="G81" t="s">
-        <v>1087</v>
+        <v>974</v>
       </c>
       <c r="H81" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I81" t="s">
-        <v>991</v>
+        <v>889</v>
       </c>
       <c r="J81" t="s">
-        <v>992</v>
+        <v>890</v>
       </c>
       <c r="K81" t="s">
-        <v>993</v>
+        <v>891</v>
       </c>
       <c r="L81" t="s">
-        <v>994</v>
+        <v>892</v>
       </c>
       <c r="M81" t="s">
-        <v>995</v>
+        <v>893</v>
       </c>
       <c r="N81" t="s">
-        <v>996</v>
+        <v>894</v>
       </c>
       <c r="O81" t="s">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="P81" t="s">
-        <v>998</v>
+        <v>895</v>
       </c>
       <c r="Q81" t="s">
-        <v>999</v>
+        <v>896</v>
       </c>
       <c r="R81" t="s">
-        <v>1000</v>
+        <v>897</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -8376,56 +8361,56 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Statistics &amp; Data Analysis    </v>
       </c>
       <c r="G82" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="H82" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I82" t="s">
-        <v>1001</v>
+        <v>898</v>
       </c>
       <c r="J82" t="s">
-        <v>1002</v>
+        <v>899</v>
       </c>
       <c r="K82" t="s">
-        <v>1003</v>
+        <v>900</v>
       </c>
       <c r="L82" t="s">
-        <v>1004</v>
+        <v>1094</v>
       </c>
       <c r="M82" t="s">
-        <v>1005</v>
+        <v>901</v>
       </c>
       <c r="N82" t="s">
-        <v>1006</v>
+        <v>902</v>
       </c>
       <c r="O82" t="s">
-        <v>1007</v>
+        <v>1046</v>
       </c>
       <c r="P82" t="s">
-        <v>1008</v>
+        <v>903</v>
       </c>
       <c r="Q82" t="s">
-        <v>1009</v>
+        <v>904</v>
       </c>
       <c r="R82" t="s">
-        <v>1010</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -8433,56 +8418,56 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sustainable Energy Systems    </v>
       </c>
       <c r="G83" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H83" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I83" t="s">
-        <v>1011</v>
+        <v>906</v>
       </c>
       <c r="J83" t="s">
-        <v>1012</v>
+        <v>907</v>
       </c>
       <c r="K83" t="s">
-        <v>1013</v>
+        <v>908</v>
       </c>
       <c r="L83" t="s">
-        <v>1014</v>
+        <v>909</v>
       </c>
       <c r="M83" t="s">
-        <v>1015</v>
+        <v>910</v>
       </c>
       <c r="N83" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="O83" t="s">
-        <v>1017</v>
+        <v>1047</v>
       </c>
       <c r="P83" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q83" t="s">
-        <v>1018</v>
+        <v>912</v>
       </c>
       <c r="R83" t="s">
-        <v>1019</v>
+        <v>913</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -8490,56 +8475,56 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Sustainable Process and Environmental Engineering     </v>
       </c>
       <c r="G84" t="s">
-        <v>1076</v>
+        <v>965</v>
       </c>
       <c r="H84" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I84" t="s">
-        <v>1020</v>
+        <v>914</v>
       </c>
       <c r="J84" t="s">
-        <v>1021</v>
+        <v>915</v>
       </c>
       <c r="K84" t="s">
-        <v>1022</v>
+        <v>916</v>
       </c>
       <c r="L84" t="s">
-        <v>1023</v>
+        <v>917</v>
       </c>
       <c r="M84" t="s">
-        <v>1024</v>
+        <v>918</v>
       </c>
       <c r="N84" t="s">
-        <v>1025</v>
+        <v>919</v>
       </c>
       <c r="O84" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="P84" t="s">
-        <v>1027</v>
+        <v>920</v>
       </c>
       <c r="Q84" t="s">
-        <v>1028</v>
+        <v>921</v>
       </c>
       <c r="R84" t="s">
-        <v>1029</v>
+        <v>922</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
@@ -8547,56 +8532,56 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Systems Engineering and Engineering Cybernetics    </v>
       </c>
       <c r="G85" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="H85" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I85" t="s">
-        <v>1030</v>
+        <v>923</v>
       </c>
       <c r="J85" t="s">
-        <v>1031</v>
+        <v>924</v>
       </c>
       <c r="K85" t="s">
-        <v>1032</v>
+        <v>925</v>
       </c>
       <c r="L85" t="s">
-        <v>1033</v>
+        <v>926</v>
       </c>
       <c r="M85" t="s">
-        <v>1034</v>
+        <v>927</v>
       </c>
       <c r="N85" t="s">
-        <v>1035</v>
+        <v>928</v>
       </c>
       <c r="O85" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="P85" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q85" t="s">
-        <v>1037</v>
+        <v>929</v>
       </c>
       <c r="R85" t="s">
-        <v>1038</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
@@ -8604,56 +8589,56 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Systems Engineering for Manufacturing    </v>
       </c>
       <c r="G86" t="s">
-        <v>1089</v>
+        <v>975</v>
       </c>
       <c r="H86" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I86" t="s">
-        <v>1039</v>
+        <v>931</v>
       </c>
       <c r="J86" t="s">
-        <v>1040</v>
+        <v>932</v>
       </c>
       <c r="K86" t="s">
-        <v>1041</v>
+        <v>933</v>
       </c>
       <c r="L86" t="s">
-        <v>1042</v>
+        <v>934</v>
       </c>
       <c r="M86" t="s">
-        <v>1043</v>
+        <v>935</v>
       </c>
       <c r="N86" t="s">
-        <v>1044</v>
+        <v>936</v>
       </c>
       <c r="O86" t="s">
-        <v>1045</v>
+        <v>937</v>
       </c>
       <c r="P86" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q86" t="s">
-        <v>1046</v>
+        <v>938</v>
       </c>
       <c r="R86" t="s">
-        <v>1047</v>
+        <v>939</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
@@ -8661,56 +8646,56 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Vocational Education    </v>
       </c>
       <c r="G87" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="H87" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I87" t="s">
-        <v>1048</v>
+        <v>940</v>
       </c>
       <c r="J87" t="s">
-        <v>1049</v>
+        <v>941</v>
       </c>
       <c r="K87" t="s">
-        <v>1050</v>
+        <v>942</v>
       </c>
       <c r="L87" t="s">
-        <v>1051</v>
+        <v>1095</v>
       </c>
       <c r="M87" t="s">
-        <v>1052</v>
+        <v>943</v>
       </c>
       <c r="N87" t="s">
-        <v>1053</v>
+        <v>944</v>
       </c>
       <c r="O87" t="s">
-        <v>1054</v>
+        <v>945</v>
       </c>
       <c r="P87" t="s">
-        <v>1055</v>
+        <v>946</v>
       </c>
       <c r="Q87" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R87" t="s">
-        <v>1056</v>
+        <v>947</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
@@ -8718,56 +8703,56 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Visual Computing  </v>
       </c>
       <c r="G88" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="H88" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I88" t="s">
-        <v>1057</v>
+        <v>948</v>
       </c>
       <c r="J88" t="s">
-        <v>1058</v>
+        <v>949</v>
       </c>
       <c r="K88" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L88" t="s">
-        <v>1059</v>
+        <v>1096</v>
       </c>
       <c r="M88" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N88" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O88" t="s">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="P88" t="s">
-        <v>1061</v>
+        <v>951</v>
       </c>
       <c r="Q88" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="R88" t="s">
-        <v>1062</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
@@ -8775,56 +8760,56 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Company Training and Vocational Education Management Development    </v>
       </c>
       <c r="G89" t="s">
-        <v>1109</v>
+        <v>986</v>
       </c>
       <c r="H89" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I89" t="s">
-        <v>1063</v>
+        <v>953</v>
       </c>
       <c r="J89" t="s">
-        <v>1064</v>
+        <v>954</v>
       </c>
       <c r="K89" t="s">
-        <v>1065</v>
+        <v>955</v>
       </c>
       <c r="L89" t="s">
-        <v>1066</v>
+        <v>1097</v>
       </c>
       <c r="M89" t="s">
-        <v>1067</v>
+        <v>956</v>
       </c>
       <c r="N89" t="s">
-        <v>1068</v>
+        <v>957</v>
       </c>
       <c r="O89" t="s">
-        <v>1069</v>
+        <v>958</v>
       </c>
       <c r="P89" t="s">
-        <v>1070</v>
+        <v>959</v>
       </c>
       <c r="Q89" t="s">
-        <v>1071</v>
+        <v>960</v>
       </c>
       <c r="R89" t="s">
-        <v>1072</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -8841,5 +8826,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Course_output_data.xlsx
+++ b/data/Course_output_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OVGU\DE\4th_sem\Software_Project_AI_Lab\AI_Thematic_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FF6EA-FD0F-4C52-AC3B-78E5533AC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F00720D-0B64-46F8-9F6B-9A4F58A6E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1107">
   <si>
     <t>Serial number</t>
   </si>
@@ -3337,7 +3337,13 @@
     <t>Social Sciences &amp; Humanities; Natural Sciences</t>
   </si>
   <si>
-    <t>Computer Science &amp; Data; Statistics &amp; Data Analysis</t>
+    <t>keywords_processed</t>
+  </si>
+  <si>
+    <t>embeddings_processed</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -3722,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="M74" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S89" sqref="S2:T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3735,12 +3741,12 @@
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
     <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.88671875" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+    <col min="9" max="10" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3795,8 +3801,14 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1105</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3852,8 +3864,14 @@
       <c r="R2" t="s">
         <v>297</v>
       </c>
+      <c r="S2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3909,8 +3927,14 @@
       <c r="R3" t="s">
         <v>304</v>
       </c>
+      <c r="S3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3966,8 +3990,14 @@
       <c r="R4" t="s">
         <v>312</v>
       </c>
+      <c r="S4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4023,8 +4053,14 @@
       <c r="R5" t="s">
         <v>319</v>
       </c>
+      <c r="S5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4080,8 +4116,14 @@
       <c r="R6" t="s">
         <v>326</v>
       </c>
+      <c r="S6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4137,8 +4179,14 @@
       <c r="R7" t="s">
         <v>333</v>
       </c>
+      <c r="S7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4194,8 +4242,14 @@
       <c r="R8" t="s">
         <v>341</v>
       </c>
+      <c r="S8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4251,8 +4305,14 @@
       <c r="R9" t="s">
         <v>348</v>
       </c>
+      <c r="S9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4308,8 +4368,14 @@
       <c r="R10" t="s">
         <v>41</v>
       </c>
+      <c r="S10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4365,8 +4431,14 @@
       <c r="R11" t="s">
         <v>355</v>
       </c>
+      <c r="S11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4422,8 +4494,14 @@
       <c r="R12" t="s">
         <v>362</v>
       </c>
+      <c r="S12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4479,8 +4557,14 @@
       <c r="R13" t="s">
         <v>369</v>
       </c>
+      <c r="S13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4536,8 +4620,14 @@
       <c r="R14" t="s">
         <v>56</v>
       </c>
+      <c r="S14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4593,8 +4683,14 @@
       <c r="R15" t="s">
         <v>376</v>
       </c>
+      <c r="S15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4650,8 +4746,14 @@
       <c r="R16" t="s">
         <v>384</v>
       </c>
+      <c r="S16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4707,8 +4809,14 @@
       <c r="R17" t="s">
         <v>391</v>
       </c>
+      <c r="S17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4764,8 +4872,14 @@
       <c r="R18" t="s">
         <v>398</v>
       </c>
+      <c r="S18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4821,8 +4935,14 @@
       <c r="R19" t="s">
         <v>405</v>
       </c>
+      <c r="S19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4878,8 +4998,14 @@
       <c r="R20" t="s">
         <v>412</v>
       </c>
+      <c r="S20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4935,8 +5061,14 @@
       <c r="R21" t="s">
         <v>420</v>
       </c>
+      <c r="S21" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4992,8 +5124,14 @@
       <c r="R22" t="s">
         <v>427</v>
       </c>
+      <c r="S22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5049,8 +5187,14 @@
       <c r="R23" t="s">
         <v>434</v>
       </c>
+      <c r="S23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5106,8 +5250,14 @@
       <c r="R24" t="s">
         <v>441</v>
       </c>
+      <c r="S24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5163,8 +5313,14 @@
       <c r="R25" t="s">
         <v>85</v>
       </c>
+      <c r="S25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5220,8 +5376,14 @@
       <c r="R26" t="s">
         <v>448</v>
       </c>
+      <c r="S26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5277,8 +5439,14 @@
       <c r="R27" t="s">
         <v>454</v>
       </c>
+      <c r="S27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5334,8 +5502,14 @@
       <c r="R28" t="s">
         <v>461</v>
       </c>
+      <c r="S28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5391,8 +5565,14 @@
       <c r="R29" t="s">
         <v>468</v>
       </c>
+      <c r="S29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5448,8 +5628,14 @@
       <c r="R30" t="s">
         <v>475</v>
       </c>
+      <c r="S30" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5505,8 +5691,14 @@
       <c r="R31" t="s">
         <v>483</v>
       </c>
+      <c r="S31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5562,8 +5754,14 @@
       <c r="R32" t="s">
         <v>491</v>
       </c>
+      <c r="S32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5619,8 +5817,14 @@
       <c r="R33" t="s">
         <v>498</v>
       </c>
+      <c r="S33" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5676,8 +5880,14 @@
       <c r="R34" t="s">
         <v>506</v>
       </c>
+      <c r="S34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5733,8 +5943,14 @@
       <c r="R35" t="s">
         <v>514</v>
       </c>
+      <c r="S35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5790,8 +6006,14 @@
       <c r="R36" t="s">
         <v>523</v>
       </c>
+      <c r="S36" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5847,8 +6069,14 @@
       <c r="R37" t="s">
         <v>531</v>
       </c>
+      <c r="S37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5904,8 +6132,14 @@
       <c r="R38" t="s">
         <v>539</v>
       </c>
+      <c r="S38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5961,8 +6195,14 @@
       <c r="R39" t="s">
         <v>549</v>
       </c>
+      <c r="S39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6018,8 +6258,14 @@
       <c r="R40" t="s">
         <v>558</v>
       </c>
+      <c r="S40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6075,8 +6321,14 @@
       <c r="R41" t="s">
         <v>566</v>
       </c>
+      <c r="S41" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6132,8 +6384,14 @@
       <c r="R42" t="s">
         <v>575</v>
       </c>
+      <c r="S42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T42" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6189,8 +6447,14 @@
       <c r="R43" t="s">
         <v>584</v>
       </c>
+      <c r="S43" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6246,8 +6510,14 @@
       <c r="R44" t="s">
         <v>593</v>
       </c>
+      <c r="S44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6303,8 +6573,14 @@
       <c r="R45" t="s">
         <v>602</v>
       </c>
+      <c r="S45" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6360,8 +6636,14 @@
       <c r="R46" t="s">
         <v>611</v>
       </c>
+      <c r="S46" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T46" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6417,8 +6699,14 @@
       <c r="R47" t="s">
         <v>620</v>
       </c>
+      <c r="S47" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6474,8 +6762,14 @@
       <c r="R48" t="s">
         <v>628</v>
       </c>
+      <c r="S48" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T48" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6531,8 +6825,14 @@
       <c r="R49" t="s">
         <v>636</v>
       </c>
+      <c r="S49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6588,8 +6888,14 @@
       <c r="R50" t="s">
         <v>644</v>
       </c>
+      <c r="S50" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T50" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6645,8 +6951,14 @@
       <c r="R51" t="s">
         <v>652</v>
       </c>
+      <c r="S51" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6702,8 +7014,14 @@
       <c r="R52" t="s">
         <v>661</v>
       </c>
+      <c r="S52" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T52" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6759,8 +7077,14 @@
       <c r="R53" t="s">
         <v>669</v>
       </c>
+      <c r="S53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T53" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6816,8 +7140,14 @@
       <c r="R54" t="s">
         <v>678</v>
       </c>
+      <c r="S54" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T54" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6873,8 +7203,14 @@
       <c r="R55" t="s">
         <v>687</v>
       </c>
+      <c r="S55" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6930,8 +7266,14 @@
       <c r="R56" t="s">
         <v>695</v>
       </c>
+      <c r="S56" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T56" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6987,8 +7329,14 @@
       <c r="R57" t="s">
         <v>703</v>
       </c>
+      <c r="S57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T57" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7044,8 +7392,14 @@
       <c r="R58" t="s">
         <v>712</v>
       </c>
+      <c r="S58" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T58" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7101,8 +7455,14 @@
       <c r="R59" t="s">
         <v>721</v>
       </c>
+      <c r="S59" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T59" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7158,8 +7518,14 @@
       <c r="R60" t="s">
         <v>728</v>
       </c>
+      <c r="S60" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T60" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7215,8 +7581,14 @@
       <c r="R61" t="s">
         <v>736</v>
       </c>
+      <c r="S61" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7272,8 +7644,14 @@
       <c r="R62" t="s">
         <v>745</v>
       </c>
+      <c r="S62" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T62" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7329,8 +7707,14 @@
       <c r="R63" t="s">
         <v>752</v>
       </c>
+      <c r="S63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T63" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7386,8 +7770,14 @@
       <c r="R64" t="s">
         <v>760</v>
       </c>
+      <c r="S64" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7443,8 +7833,14 @@
       <c r="R65" t="s">
         <v>768</v>
       </c>
+      <c r="S65" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T65" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7500,8 +7896,14 @@
       <c r="R66" t="s">
         <v>776</v>
       </c>
+      <c r="S66" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T66" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7557,8 +7959,14 @@
       <c r="R67" t="s">
         <v>785</v>
       </c>
+      <c r="S67" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T67" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7614,8 +8022,14 @@
       <c r="R68" t="s">
         <v>794</v>
       </c>
+      <c r="S68" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T68" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7671,8 +8085,14 @@
       <c r="R69" t="s">
         <v>803</v>
       </c>
+      <c r="S69" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T69" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7728,8 +8148,14 @@
       <c r="R70" t="s">
         <v>813</v>
       </c>
+      <c r="S70" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T70" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7785,8 +8211,14 @@
       <c r="R71" t="s">
         <v>822</v>
       </c>
+      <c r="S71" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T71" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7842,8 +8274,14 @@
       <c r="R72" t="s">
         <v>827</v>
       </c>
+      <c r="S72" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7899,8 +8337,14 @@
       <c r="R73" t="s">
         <v>836</v>
       </c>
+      <c r="S73" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7956,8 +8400,14 @@
       <c r="R74" t="s">
         <v>845</v>
       </c>
+      <c r="S74" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8013,8 +8463,14 @@
       <c r="R75" t="s">
         <v>855</v>
       </c>
+      <c r="S75" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T75" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8070,8 +8526,14 @@
       <c r="R76" t="s">
         <v>863</v>
       </c>
+      <c r="S76" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T76" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8127,8 +8589,14 @@
       <c r="R77" t="s">
         <v>871</v>
       </c>
+      <c r="S77" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8184,8 +8652,14 @@
       <c r="R78" t="s">
         <v>141</v>
       </c>
+      <c r="S78" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T78" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8241,8 +8715,14 @@
       <c r="R79" t="s">
         <v>879</v>
       </c>
+      <c r="S79" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T79" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8298,8 +8778,14 @@
       <c r="R80" t="s">
         <v>888</v>
       </c>
+      <c r="S80" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8355,8 +8841,14 @@
       <c r="R81" t="s">
         <v>897</v>
       </c>
+      <c r="S81" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8377,7 +8869,7 @@
         <v xml:space="preserve">Statistics &amp; Data Analysis    </v>
       </c>
       <c r="G82" t="s">
-        <v>1104</v>
+        <v>987</v>
       </c>
       <c r="H82" t="s">
         <v>284</v>
@@ -8412,8 +8904,14 @@
       <c r="R82" t="s">
         <v>905</v>
       </c>
+      <c r="S82" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T82" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8469,8 +8967,14 @@
       <c r="R83" t="s">
         <v>913</v>
       </c>
+      <c r="S83" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8526,8 +9030,14 @@
       <c r="R84" t="s">
         <v>922</v>
       </c>
+      <c r="S84" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8583,8 +9093,14 @@
       <c r="R85" t="s">
         <v>930</v>
       </c>
+      <c r="S85" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8640,8 +9156,14 @@
       <c r="R86" t="s">
         <v>939</v>
       </c>
+      <c r="S86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8697,8 +9219,14 @@
       <c r="R87" t="s">
         <v>947</v>
       </c>
+      <c r="S87" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8754,8 +9282,14 @@
       <c r="R88" t="s">
         <v>952</v>
       </c>
+      <c r="S88" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8810,6 +9344,12 @@
       </c>
       <c r="R89" t="s">
         <v>961</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
